--- a/data/02_intermediate/cleaned_Def_Bond_songs.xlsx
+++ b/data/02_intermediate/cleaned_Def_Bond_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>- Oh K-Reen ! - Ouais, ouais - Oh K-Reen, ça va ? - Ouais, ça va, et toi ? - Ouais, ça va. Dis-moi, tu viens faire un petit tour en voiture ? - Eh non, non j'ai des trucs à faire - T'as des trucs à faire ? - J'ai des trucs à faire - Allez, viens. Arrête de marcher à pieds. Viens tester mes nouveaux sièges en cuir - Olala ! - Allez, je connais du monde ici. Tu veux nous faire remarquer, ou quoi ? - Paraît qu'tu roules en Merco Tu me plais Je sais Mais t'exagères Allez, monte dans ma caisse, bébé, après on voit J'aurais jamais cru que t'étais comme ça Qui, moi ? Paraît qu'tu roules en Merco Tu me plais Ah ouais ? Mais t'exagères Vas-y, monte, pas de chichis, dis-moi où on va J'aurais jamais cru que t'étais comme ça Paraît qu'tu roules en Merco You might also like Grimpe dans mon taxi, système booming Caisse clean, check ma routine Rouler en rimes mais ça, ici-là Elle assise là, mets-moi donc le mia Def Bond et K-Reen, quoi ? Qu'est-ce qu'y a ? Je pourrais tourner en ville des heures pour elle Au volant de ma Benz Merco flamber, mais elle Se fout de tout ça Qui que ce soit, elle aime pas ça Vas-y, ouvre la porte, monte, dis-moi où on va Nulle part, si tu continues à flamber ainsi Minute, ai-je dit un truc que tu as peut-être mal saisi Tu es pas d'ici ? Non Tu sais, chez toi, je sais pas comment c'est Mais ici, on est plein de manies, de tics Comment je fais ? Tu veux que je lève mes lunettes, que je mette plus le coude dehors Que j'arrête de râler, pousse le son moins fort Si je fais l'effort, j'ai pas de garanties pour autant Au volant, à fond de cinquième, je suis dans mon cinquième élément Tu me plais Je sais Mais t'exagères Allez, monte dans ma caisse, bébé, après on voit J'aurais jamais cru que t'étais comme ça Qui, moi ? Paraît qu'tu roules en Merco Tu me plais Ah ouais ? Mais t'exagères Vas-y, monte, pas de chichis, dis-moi où on va J'aurais jamais cru que t'étais comme ça Paraît qu'tu roules en Merco C'est vrai que l'aventure est si belle C'est vrai Se balader dans la rue dans ta voiture Baby, me donne des ailes Mais tu sais, Je sais ton délire Te causera tôt ou tard des torts Et il me faudra partir T'oublies que quand tu roules Tes mécaniques, ton moteur me saoulent Si je dois supporter tes manières Te payer est trop cher Pour l'amour d'une Benz, jamais je ne voudrais d'un mytho Tu fais quoi là ? Tu as un peu de temps? Grimpe, allez-à! Si tu te la pètes trop, je préfère le métro Tu me plais Je sais Mais t'exagères Allez, monte dans ma caisse, bébé, après on voit J'aurais jamais cru que t'étais comme ça Qui, moi ? Paraît qu'tu roules en Merco Tu me plais Ah ouais ? Mais t'exagères Vas-y, monte, pas de chichis, dis-moi où on va J'aurais jamais cru que t'étais comme ça Paraît qu'tu roules en Merco1</t>
+          <t>- Oh K-Reen ! - Ouais, ouais - Oh K-Reen, ça va ? - Ouais, ça va, et toi ? - Ouais, ça va. Dis-moi, tu viens faire un petit tour en voiture ? - Eh non, non j'ai des trucs à faire - T'as des trucs à faire ? - J'ai des trucs à faire - Allez, viens. Arrête de marcher à pieds. Viens tester mes nouveaux sièges en cuir - Olala ! - Allez, je connais du monde ici. Tu veux nous faire remarquer, ou quoi ? - Paraît qu'tu roules en Merco Tu me plais Je sais Mais t'exagères Allez, monte dans ma caisse, bébé, après on voit J'aurais jamais cru que t'étais comme ça Qui, moi ? Paraît qu'tu roules en Merco Tu me plais Ah ouais ? Mais t'exagères Vas-y, monte, pas de chichis, dis-moi où on va J'aurais jamais cru que t'étais comme ça Paraît qu'tu roules en Merco Grimpe dans mon taxi, système booming Caisse clean, check ma routine Rouler en rimes mais ça, ici-là Elle assise là, mets-moi donc le mia Def Bond et K-Reen, quoi ? Qu'est-ce qu'y a ? Je pourrais tourner en ville des heures pour elle Au volant de ma Benz Merco flamber, mais elle Se fout de tout ça Qui que ce soit, elle aime pas ça Vas-y, ouvre la porte, monte, dis-moi où on va Nulle part, si tu continues à flamber ainsi Minute, ai-je dit un truc que tu as peut-être mal saisi Tu es pas d'ici ? Non Tu sais, chez toi, je sais pas comment c'est Mais ici, on est plein de manies, de tics Comment je fais ? Tu veux que je lève mes lunettes, que je mette plus le coude dehors Que j'arrête de râler, pousse le son moins fort Si je fais l'effort, j'ai pas de garanties pour autant Au volant, à fond de cinquième, je suis dans mon cinquième élément Tu me plais Je sais Mais t'exagères Allez, monte dans ma caisse, bébé, après on voit J'aurais jamais cru que t'étais comme ça Qui, moi ? Paraît qu'tu roules en Merco Tu me plais Ah ouais ? Mais t'exagères Vas-y, monte, pas de chichis, dis-moi où on va J'aurais jamais cru que t'étais comme ça Paraît qu'tu roules en Merco C'est vrai que l'aventure est si belle C'est vrai Se balader dans la rue dans ta voiture Baby, me donne des ailes Mais tu sais, Je sais ton délire Te causera tôt ou tard des torts Et il me faudra partir T'oublies que quand tu roules Tes mécaniques, ton moteur me saoulent Si je dois supporter tes manières Te payer est trop cher Pour l'amour d'une Benz, jamais je ne voudrais d'un mytho Tu fais quoi là ? Tu as un peu de temps? Grimpe, allez-à! Si tu te la pètes trop, je préfère le métro Tu me plais Je sais Mais t'exagères Allez, monte dans ma caisse, bébé, après on voit J'aurais jamais cru que t'étais comme ça Qui, moi ? Paraît qu'tu roules en Merco Tu me plais Ah ouais ? Mais t'exagères Vas-y, monte, pas de chichis, dis-moi où on va J'aurais jamais cru que t'étais comme ça Paraît qu'tu roules en Merco1</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>- Oh K-Reen ! - Ouais, ouais - Oh K-Reen, ça va ? - Ouais, ça va, et toi ? - Ouais, ça va. Dis-moi, tu viens faire un petit tour en voiture ? - Eh non, non j'ai des trucs à faire - T'as des trucs à faire ? - J'ai des trucs à faire - Allez, viens. Arrête de marcher à pieds. Viens tester mes nouveaux sièges en cuir - Olala ! - Allez, je connais du monde ici. Tu veux nous faire remarquer, ou quoi ? - Paraît qu'tu roules en Merco Tu me plais Je sais Mais t'exagères Allez, monte dans ma caisse, bébé, après on voit J'aurais jamais cru que t'étais comme ça Qui, moi ? Paraît qu'tu roules en Merco Tu me plais Ah ouais ? Mais t'exagères Vas-y, monte, pas de chichis, dis-moi où on va J'aurais jamais cru que t'étais comme ça Paraît qu'tu roules en Merco You might also like Grimpe dans mon taxi, système booming Caisse clean, check ma routine Rouler en rimes mais ça, ici-là Elle assise là, mets-moi donc le mia Def Bond et K-Reen, quoi ? Qu'est-ce qu'y a ? Je pourrais tourner en ville des heures pour elle Au volant de ma Benz Merco flamber, mais elle Se fout de tout ça Qui que ce soit, elle aime pas ça Vas-y, ouvre la porte, monte, dis-moi où on va Nulle part, si tu continues à flamber ainsi Minute, ai-je dit un truc que tu as peut-être mal saisi Tu es pas d'ici ? Non Tu sais, chez toi, je sais pas comment c'est Mais ici, on est plein de manies, de tics Comment je fais ? Tu veux que je lève mes lunettes, que je mette plus le coude dehors Que j'arrête de râler, pousse le son moins fort Si je fais l'effort, j'ai pas de garanties pour autant Au volant, à fond de cinquième, je suis dans mon cinquième élément Tu me plais Je sais Mais t'exagères Allez, monte dans ma caisse, bébé, après on voit J'aurais jamais cru que t'étais comme ça Qui, moi ? Paraît qu'tu roules en Merco Tu me plais Ah ouais ? Mais t'exagères Vas-y, monte, pas de chichis, dis-moi où on va J'aurais jamais cru que t'étais comme ça Paraît qu'tu roules en Merco C'est vrai que l'aventure est si belle C'est vrai Se balader dans la rue dans ta voiture Baby, me donne des ailes Mais tu sais, Je sais ton délire Te causera tôt ou tard des torts Et il me faudra partir T'oublies que quand tu roules Tes mécaniques, ton moteur me saoulent Si je dois supporter tes manières Te payer est trop cher Pour l'amour d'une Benz, jamais je ne voudrais d'un mytho Tu fais quoi là ? Tu as un peu de temps? Grimpe, allez-à! Si tu te la pètes trop, je préfère le métro Tu me plais Je sais Mais t'exagères Allez, monte dans ma caisse, bébé, après on voit J'aurais jamais cru que t'étais comme ça Qui, moi ? Paraît qu'tu roules en Merco Tu me plais Ah ouais ? Mais t'exagères Vas-y, monte, pas de chichis, dis-moi où on va J'aurais jamais cru que t'étais comme ça Paraît qu'tu roules en Merco1</t>
+          <t>- Oh K-Reen ! - Ouais, ouais - Oh K-Reen, ça va ? - Ouais, ça va, et toi ? - Ouais, ça va. Dis-moi, tu viens faire un petit tour en voiture ? - Eh non, non j'ai des trucs à faire - T'as des trucs à faire ? - J'ai des trucs à faire - Allez, viens. Arrête de marcher à pieds. Viens tester mes nouveaux sièges en cuir - Olala ! - Allez, je connais du monde ici. Tu veux nous faire remarquer, ou quoi ? - Paraît qu'tu roules en Merco Tu me plais Je sais Mais t'exagères Allez, monte dans ma caisse, bébé, après on voit J'aurais jamais cru que t'étais comme ça Qui, moi ? Paraît qu'tu roules en Merco Tu me plais Ah ouais ? Mais t'exagères Vas-y, monte, pas de chichis, dis-moi où on va J'aurais jamais cru que t'étais comme ça Paraît qu'tu roules en Merco Grimpe dans mon taxi, système booming Caisse clean, check ma routine Rouler en rimes mais ça, ici-là Elle assise là, mets-moi donc le mia Def Bond et K-Reen, quoi ? Qu'est-ce qu'y a ? Je pourrais tourner en ville des heures pour elle Au volant de ma Benz Merco flamber, mais elle Se fout de tout ça Qui que ce soit, elle aime pas ça Vas-y, ouvre la porte, monte, dis-moi où on va Nulle part, si tu continues à flamber ainsi Minute, ai-je dit un truc que tu as peut-être mal saisi Tu es pas d'ici ? Non Tu sais, chez toi, je sais pas comment c'est Mais ici, on est plein de manies, de tics Comment je fais ? Tu veux que je lève mes lunettes, que je mette plus le coude dehors Que j'arrête de râler, pousse le son moins fort Si je fais l'effort, j'ai pas de garanties pour autant Au volant, à fond de cinquième, je suis dans mon cinquième élément Tu me plais Je sais Mais t'exagères Allez, monte dans ma caisse, bébé, après on voit J'aurais jamais cru que t'étais comme ça Qui, moi ? Paraît qu'tu roules en Merco Tu me plais Ah ouais ? Mais t'exagères Vas-y, monte, pas de chichis, dis-moi où on va J'aurais jamais cru que t'étais comme ça Paraît qu'tu roules en Merco C'est vrai que l'aventure est si belle C'est vrai Se balader dans la rue dans ta voiture Baby, me donne des ailes Mais tu sais, Je sais ton délire Te causera tôt ou tard des torts Et il me faudra partir T'oublies que quand tu roules Tes mécaniques, ton moteur me saoulent Si je dois supporter tes manières Te payer est trop cher Pour l'amour d'une Benz, jamais je ne voudrais d'un mytho Tu fais quoi là ? Tu as un peu de temps? Grimpe, allez-à! Si tu te la pètes trop, je préfère le métro Tu me plais Je sais Mais t'exagères Allez, monte dans ma caisse, bébé, après on voit J'aurais jamais cru que t'étais comme ça Qui, moi ? Paraît qu'tu roules en Merco Tu me plais Ah ouais ? Mais t'exagères Vas-y, monte, pas de chichis, dis-moi où on va J'aurais jamais cru que t'étais comme ça Paraît qu'tu roules en Merco1</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-Êtes-vous seul ? Ben dites-moi quel est votre nom ? et votre prénom ? Je vous assure que mes intentions sont tout à fait honorables Mais à propos, je m'appelle Bond et vous ? -J'ai pas de temps à perdre Def Bond MC secret 0.0.13 en mission Sans piston, premier de la session Volontaire pour les tropiques ou le Sud-Est asiatique Que des lyrics dans la valise diplomatique Respecte double 0.7 pour le parcours La vidéothèque, le sex-appeal, le champagne avant l'amour L'ex-URSS ne menace plus Les services secrets de la marine britannique n'embauchent plus Reprendre le flambeau pour rire en 97 c'est marrant Quand je me la joue je me surprends Libère mon imagination comme IAM Je rencarde une bombe du gouvernement phillippin Mot de passe, Def Bond je vous aime S'il faut se la péter pour le concept compte sur moi Arracher une par les fesses, fils je sais faire ça Je suis là pour rire et sur la scène marseillaise Quand je me la joue je suis 0.0.13 x2 Sur les traces de double 0 7 j'ai bougé dans le monde Tu comprends pourquoi D.E.F. Bond Je vis à Marseille au bord de la mer, MC à l'aise Quand je me la joue je suis 0.0.13 Quand je m'endors l'esprit saint descend Vie simple mon corps, je suis moi Souvent ça ne dure pas Déjà dans le mi-sommeil je rêve des trucs comme hier Genre signer un contrat d'artiste avec Nouvelles Frontières Il faut que je parte pour me rassurer Vérifier que je suis toujours pas Club Med OK ukulélé L'espion à mon service, client friand du vol 7 Un sac léger pour un retour plein de vécu dans la tête Opération touriste, de nombreux indices Souvent écrits plein de chichis autant de caprices J'en ai assez vus, revus de mon Golden Eye Et pour que mes Goldfinger ne fassent pas leur travail Non, jamais plus jamais, ici on ne vit que deux fois Je dois vivre et laisser mourir dans leur conscience cette fois Roger Moore aurait fait péter leurs bustes Sean Connery verserait du poison dans leur cocktail de bienvenue Que se passe-t-il James ? Où est l'espion qui m'aimait ? Non moi c'est Def, j'suis pas là rien que pour vos yeux mais pour m'amuser Je porte survet' fin large comme un deux-pièces blanc à l'anglaise Quand je me la joue je suis 0.0.13 x2 Sur les traces de double 0 7 j'ai bougé dans le monde Tu comprends pourquoi D.E.F. Bond Je vis à Marseille au bord de la mer, MC à l'aise Quand je me la joue je suis 0.0.13 Dans l'action jamais je ne me salis Des MC veulent ma peau, de scènes en studios toujours en vie De textes en textes comme de films en films Je tords les bouffons sapés comme l'homme au pistolet d'or Argent moins précieux mais sur le micro de mon école Reflète mieux mon art, frappe mieux sonne mieux dans les têtes molles Esquiver les sales coups, les sales cons, les salopes A mes trousses comme mon actualité pousse en cinémascope Je veux me voir oscar du meilleur hip hop d'espionnage Curieux observateur partout sans qu'on sans aperçoive Moi Def Bond autorisé à tuer Micro en main je représente la silhouette bras croisés B-Boy Stance focus en fond je me la joue Je suis là pour rire pour les potos Je me fous que les autres s'en foutent Spectre t'es naze, les femmes en sont folles 0.0.13 jusqu'au bout de mon rôle x2 Sur les traces de double 0 7 j'ai bougé dans le monde Tu comprends pourquoi D.E.F. Bond Je vis à Marseille au bord de la mer, MC à l'aise Quand je me la joue je suis 0.0.13 Ah ah, matricule double 0, je vis à Marseille tu sais ça Félix mon ami, mon frère Monsieur Q, service, équipement, gadget Ma secrétaire Moneypenny, one love baby Pour Roger Shun what's up kid Respecte double 0.7 Sad Hill 9.7You might also like</t>
+          <t>-Êtes-vous seul ? Ben dites-moi quel est votre nom ? et votre prénom ? Je vous assure que mes intentions sont tout à fait honorables Mais à propos, je m'appelle Bond et vous ? -J'ai pas de temps à perdre Def Bond MC secret 0.0.13 en mission Sans piston, premier de la session Volontaire pour les tropiques ou le Sud-Est asiatique Que des lyrics dans la valise diplomatique Respecte double 0.7 pour le parcours La vidéothèque, le sex-appeal, le champagne avant l'amour L'ex-URSS ne menace plus Les services secrets de la marine britannique n'embauchent plus Reprendre le flambeau pour rire en 97 c'est marrant Quand je me la joue je me surprends Libère mon imagination comme IAM Je rencarde une bombe du gouvernement phillippin Mot de passe, Def Bond je vous aime S'il faut se la péter pour le concept compte sur moi Arracher une par les fesses, fils je sais faire ça Je suis là pour rire et sur la scène marseillaise Quand je me la joue je suis 0.0.13 x2 Sur les traces de double 0 7 j'ai bougé dans le monde Tu comprends pourquoi D.E.F. Bond Je vis à Marseille au bord de la mer, MC à l'aise Quand je me la joue je suis 0.0.13 Quand je m'endors l'esprit saint descend Vie simple mon corps, je suis moi Souvent ça ne dure pas Déjà dans le mi-sommeil je rêve des trucs comme hier Genre signer un contrat d'artiste avec Nouvelles Frontières Il faut que je parte pour me rassurer Vérifier que je suis toujours pas Club Med OK ukulélé L'espion à mon service, client friand du vol 7 Un sac léger pour un retour plein de vécu dans la tête Opération touriste, de nombreux indices Souvent écrits plein de chichis autant de caprices J'en ai assez vus, revus de mon Golden Eye Et pour que mes Goldfinger ne fassent pas leur travail Non, jamais plus jamais, ici on ne vit que deux fois Je dois vivre et laisser mourir dans leur conscience cette fois Roger Moore aurait fait péter leurs bustes Sean Connery verserait du poison dans leur cocktail de bienvenue Que se passe-t-il James ? Où est l'espion qui m'aimait ? Non moi c'est Def, j'suis pas là rien que pour vos yeux mais pour m'amuser Je porte survet' fin large comme un deux-pièces blanc à l'anglaise Quand je me la joue je suis 0.0.13 x2 Sur les traces de double 0 7 j'ai bougé dans le monde Tu comprends pourquoi D.E.F. Bond Je vis à Marseille au bord de la mer, MC à l'aise Quand je me la joue je suis 0.0.13 Dans l'action jamais je ne me salis Des MC veulent ma peau, de scènes en studios toujours en vie De textes en textes comme de films en films Je tords les bouffons sapés comme l'homme au pistolet d'or Argent moins précieux mais sur le micro de mon école Reflète mieux mon art, frappe mieux sonne mieux dans les têtes molles Esquiver les sales coups, les sales cons, les salopes A mes trousses comme mon actualité pousse en cinémascope Je veux me voir oscar du meilleur hip hop d'espionnage Curieux observateur partout sans qu'on sans aperçoive Moi Def Bond autorisé à tuer Micro en main je représente la silhouette bras croisés B-Boy Stance focus en fond je me la joue Je suis là pour rire pour les potos Je me fous que les autres s'en foutent Spectre t'es naze, les femmes en sont folles 0.0.13 jusqu'au bout de mon rôle x2 Sur les traces de double 0 7 j'ai bougé dans le monde Tu comprends pourquoi D.E.F. Bond Je vis à Marseille au bord de la mer, MC à l'aise Quand je me la joue je suis 0.0.13 Ah ah, matricule double 0, je vis à Marseille tu sais ça Félix mon ami, mon frère Monsieur Q, service, équipement, gadget Ma secrétaire Moneypenny, one love baby Pour Roger Shun what's up kid Respecte double 0.7 Sad Hill 9.7</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>En place cousin, cette nuit fais ça bien Trinque avec ta femme, tchin Avec tes potes, mec, demain oublie VIP fils, prends le pli Vas-y, allez on s'en bat les couilles de la vie Comment il n'y a rien là? Il n'y a pas de spotlight, pas de boule, là? Il n'y a pas de mélodie, pas de swing? Il n'y a pas de Houston là? Quand il y a tout ce qu'il me faut pour que je reste ici Bouge gazière façon vice de Mars à Paris Oh girl, viens, dis-moi, qui te fera mieux groover ce soir Que Def Bond et moi, alors monte sur le dancefloor Laisse-toi aller et n'oublie pas Que toute la nuit les papis tourneront autour de toi Lève ton verre et bouge ton boule Darling laisse-nous faire On est là pour toi baby Lève ton verre et bouge ton boule Darling laisse-nous faire On est là pour toi baby Lève ton verre et bouge ton boule You might also like Reste down, lady, girl viens sans stress Il n'y a rien qui nous presse Surtout lâche-toi et laisse Les vibes monter en toi Alors viens et bouge tes fesses Oublie la timidité cette nuit Je veux que tu sois sexe Lève ton verre et bouge ton boule Darling laisse-nous faire On est là pour toi baby Lève ton verre et bouge ton boule Darling laisse-nous faire On est là pour toi baby Si je me place pour la connexion Def Bond et Matt Mate ça si on veut que tout le monde Moove sur le dancefloor, ça c'est mon top Hip-Hop et Rn'B non stop Alors je vais à nouveau voir ce qu'on vaut sur la version et peut-être À nouveau croire qu'on vaut bien la mention honnête Pousse tout, pousse-toi, mousse le champ' là Un Paris-Mars pour l'ambiance Tu sais que ça se peut, ça se veut ça Quand ça se fait ça On vient pour quoi faire déjà, déjà Nous deux on te remet une fusion et c'est pas la première fois Si je te l'ai fait une fois, c'est pas pour le faire qu'une fois Ce que je vois, ces featurings sur les pures FM stations Je dois les voir sur les bigs de la FM en rotation Numéro un, Air play sur ma playlist Matt Houston, Def Bond sur la bonne piste Lève ton verre et bouge ton boule Darling laisse-nous faire On est là pour toi baby Lève ton verre et bouge ton boule Darling laisse-nous faire On est là pour toi baby</t>
+          <t>En place cousin, cette nuit fais ça bien Trinque avec ta femme, tchin Avec tes potes, mec, demain oublie VIP fils, prends le pli Vas-y, allez on s'en bat les couilles de la vie Comment il n'y a rien là? Il n'y a pas de spotlight, pas de boule, là? Il n'y a pas de mélodie, pas de swing? Il n'y a pas de Houston là? Quand il y a tout ce qu'il me faut pour que je reste ici Bouge gazière façon vice de Mars à Paris Oh girl, viens, dis-moi, qui te fera mieux groover ce soir Que Def Bond et moi, alors monte sur le dancefloor Laisse-toi aller et n'oublie pas Que toute la nuit les papis tourneront autour de toi Lève ton verre et bouge ton boule Darling laisse-nous faire On est là pour toi baby Lève ton verre et bouge ton boule Darling laisse-nous faire On est là pour toi baby Lève ton verre et bouge ton boule Reste down, lady, girl viens sans stress Il n'y a rien qui nous presse Surtout lâche-toi et laisse Les vibes monter en toi Alors viens et bouge tes fesses Oublie la timidité cette nuit Je veux que tu sois sexe Lève ton verre et bouge ton boule Darling laisse-nous faire On est là pour toi baby Lève ton verre et bouge ton boule Darling laisse-nous faire On est là pour toi baby Si je me place pour la connexion Def Bond et Matt Mate ça si on veut que tout le monde Moove sur le dancefloor, ça c'est mon top Hip-Hop et Rn'B non stop Alors je vais à nouveau voir ce qu'on vaut sur la version et peut-être À nouveau croire qu'on vaut bien la mention honnête Pousse tout, pousse-toi, mousse le champ' là Un Paris-Mars pour l'ambiance Tu sais que ça se peut, ça se veut ça Quand ça se fait ça On vient pour quoi faire déjà, déjà Nous deux on te remet une fusion et c'est pas la première fois Si je te l'ai fait une fois, c'est pas pour le faire qu'une fois Ce que je vois, ces featurings sur les pures FM stations Je dois les voir sur les bigs de la FM en rotation Numéro un, Air play sur ma playlist Matt Houston, Def Bond sur la bonne piste Lève ton verre et bouge ton boule Darling laisse-nous faire On est là pour toi baby Lève ton verre et bouge ton boule Darling laisse-nous faire On est là pour toi baby</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les Oui, et une fois terminé Jetez-les, coup de pieds, deux taqués et balayez-les Le saviez-vous, quoi ? Avant qu'on les éclate Ils étaient in, maintenant ils sont out C'est pas possible, j'y crois pas, oh non Ils ont récidivé leurs soirées d'usine à 10000 cons C'est l'an 2000 hun ! Paraît-il l'alibi, j'ai l'ouïe trop fragile, l'heure précoce attise Mon envie d'agripper une tunique à planter, une psyché à clouer Un travelo à poncer, j'avoue avoir été choqué Ils croient se métamorphoser, travelos, rébus ils puent Achevez-les Ils sont si chétifs, taillés dans un Twix Où ont-ils été acheter leurs costumes à Super Fenix? Ils ont 2 de tension, l'autre face de la médaille Il y a plus de laser dans les rave party que dans Le Retour Du Jedi Qui sait peut-être sous l'effet des strobos J'ai voulu voir des humains, je n'ai vu que des robots Leurs femmes sont des mutants, des mochetés gonflées Avec leurs pantalons de iz tacheté Un coup TU leur dissocies le psycho du soma en clair Et ils défrisent le coma You might also like So check it, check it out, D-E-F L'autre bout de l'observation mets le holà Chtebeuh ! Sur les méga transes Haroun Tazieff Du cosmos et de l'extrême, tu en veux, tu en as Je te mets le feu que tu sois kitch, rap ou grunge À coups de pied quand tu danses et te brises comme du Crunch Hé les céphalopodes un air teubé ? On ne me la fait pas ! Oh mais non mais non allez c'est bon see ya Alors quoi on fait bande à part Moi ça m'éclate quand j'entends ces bozos appeler ça de l'art Je sais pas, essaye autre chose Fais du jazz, fais un buf sur les bords de la seine avec ton pote Jack Mais s'il te plaît laisse tomber le rap Tu veux faire une autre musique mais tu t'en fous T'as ton sax', allez soit gentil, ramasse tes cheveux Et va jouer, et puis cesse de pleurnicher ou je vais t'achever Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les Les producteurs cherchent de nouveaux artistes talentueux Et trouvent leur bonheur au beau milieu des merdeux Les recrutent le nez farci de morvelle Sur les bancs de la maternelle Le show bizz tape dans la crèche, fort Ils vont sûrement décerner le Blédina d'or Quinze, onze, quatre ans, de plus en plus de minots Très bientôt un ftus au micro Micro, comme la taille du cerveau de certaines Qui pour un sourire te dédaignent et se prennent pour des reines Alors que leurs mecs les traitent comme des merdes, des chèvres Et à ce jeu elles perdent À tous les coups parce que je ne danse pas le zouk Pour les flatter je suis un plouc nartezemouk De nos jours les blacks c'est le trip Mais seulement pour faire les danses ou les churs dans les clips Ou les plateaux, une touche exotique dans le show C'est plus dance, plus ché-bran ! Oui, mais gros plan sur le blond et la blonde au micro, Ok Ce producteur est à secouer Et tous ceux qu'on a cités Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les Ceci dit, écoutez moi bien On dira que le Soul Swing ne fout rien I-A-M leur donne encore un sacré coup de main Mais je suis large pour tout ça Et si je reste enfoui, qu'est c'que tu veux On ne fait pas toujours ce qu'on veut Achevez-le, achevez-le Qui ??? Le bozzo qui croit que je me la coule, me tourne les pouces Et que ça marche pour moi, il se trompe J'ai fait mes comptes et rien ne va Et on m'arnaque et que celui qui m'a roulé Surveille son cul, je rejoue Tout ce que j'ai en 93 my man goddamn cest le retour de Shurik'n On note une recrudescence de pillage de greniers Planquez les fringues du papinou Toutos Foungios a débarqué À coup de lèche vitrine au Secours Populaire Gavroche est de retour c'est pas la faute à Voltaire Moins de matières que de vice, système économique J'ouvre les placards et je lâche la mite Pas de ronds à claquer dans le savon et le dentifrice Achevez-les avant que la Croix Rouge ne roule en Limousine Elle est partie S'il y a un fait qui me saoule et m'époustoufle C'est bien la mode des chanteurs et chanteuses qui s'essoufflent À l'agonie, je parie qu'ils en chient en studio Augmente les effets, monte les niveaux sur le micro Ils se la jouent avec une putain qu'étouffe Des mots qui ne pèsent pas et ne déformeraient pas un pouf Quand on n'a pas de voix, on se tait On s'abstient de nous les briser avec des chansons de laid Moi, tu vois, c'est des textes et de l'émotion Danielle Gilbert, Guy Lux, ah c'qu'ils puent Leurs faces collent à mon cul comme la colle Uhu Avaient-ils prévu que j'allais les descendre Nostradamus lui avait prédit que je Mettrais ces vilains à l'amende Après un bon sommeil, je me réveille Qui j'entends, Madame Soleil J'vais t'toucher la vieille ! Méfie-toi de ceux qui voient le tiercé dans les astres Achève-les, balance-les par le ballast Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les</t>
+          <t>Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les Oui, et une fois terminé Jetez-les, coup de pieds, deux taqués et balayez-les Le saviez-vous, quoi ? Avant qu'on les éclate Ils étaient in, maintenant ils sont out C'est pas possible, j'y crois pas, oh non Ils ont récidivé leurs soirées d'usine à 10000 cons C'est l'an 2000 hun ! Paraît-il l'alibi, j'ai l'ouïe trop fragile, l'heure précoce attise Mon envie d'agripper une tunique à planter, une psyché à clouer Un travelo à poncer, j'avoue avoir été choqué Ils croient se métamorphoser, travelos, rébus ils puent Achevez-les Ils sont si chétifs, taillés dans un Twix Où ont-ils été acheter leurs costumes à Super Fenix? Ils ont 2 de tension, l'autre face de la médaille Il y a plus de laser dans les rave party que dans Le Retour Du Jedi Qui sait peut-être sous l'effet des strobos J'ai voulu voir des humains, je n'ai vu que des robots Leurs femmes sont des mutants, des mochetés gonflées Avec leurs pantalons de iz tacheté Un coup TU leur dissocies le psycho du soma en clair Et ils défrisent le coma So check it, check it out, D-E-F L'autre bout de l'observation mets le holà Chtebeuh ! Sur les méga transes Haroun Tazieff Du cosmos et de l'extrême, tu en veux, tu en as Je te mets le feu que tu sois kitch, rap ou grunge À coups de pied quand tu danses et te brises comme du Crunch Hé les céphalopodes un air teubé ? On ne me la fait pas ! Oh mais non mais non allez c'est bon see ya Alors quoi on fait bande à part Moi ça m'éclate quand j'entends ces bozos appeler ça de l'art Je sais pas, essaye autre chose Fais du jazz, fais un buf sur les bords de la seine avec ton pote Jack Mais s'il te plaît laisse tomber le rap Tu veux faire une autre musique mais tu t'en fous T'as ton sax', allez soit gentil, ramasse tes cheveux Et va jouer, et puis cesse de pleurnicher ou je vais t'achever Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les Les producteurs cherchent de nouveaux artistes talentueux Et trouvent leur bonheur au beau milieu des merdeux Les recrutent le nez farci de morvelle Sur les bancs de la maternelle Le show bizz tape dans la crèche, fort Ils vont sûrement décerner le Blédina d'or Quinze, onze, quatre ans, de plus en plus de minots Très bientôt un ftus au micro Micro, comme la taille du cerveau de certaines Qui pour un sourire te dédaignent et se prennent pour des reines Alors que leurs mecs les traitent comme des merdes, des chèvres Et à ce jeu elles perdent À tous les coups parce que je ne danse pas le zouk Pour les flatter je suis un plouc nartezemouk De nos jours les blacks c'est le trip Mais seulement pour faire les danses ou les churs dans les clips Ou les plateaux, une touche exotique dans le show C'est plus dance, plus ché-bran ! Oui, mais gros plan sur le blond et la blonde au micro, Ok Ce producteur est à secouer Et tous ceux qu'on a cités Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les Ceci dit, écoutez moi bien On dira que le Soul Swing ne fout rien I-A-M leur donne encore un sacré coup de main Mais je suis large pour tout ça Et si je reste enfoui, qu'est c'que tu veux On ne fait pas toujours ce qu'on veut Achevez-le, achevez-le Qui ??? Le bozzo qui croit que je me la coule, me tourne les pouces Et que ça marche pour moi, il se trompe J'ai fait mes comptes et rien ne va Et on m'arnaque et que celui qui m'a roulé Surveille son cul, je rejoue Tout ce que j'ai en 93 my man goddamn cest le retour de Shurik'n On note une recrudescence de pillage de greniers Planquez les fringues du papinou Toutos Foungios a débarqué À coup de lèche vitrine au Secours Populaire Gavroche est de retour c'est pas la faute à Voltaire Moins de matières que de vice, système économique J'ouvre les placards et je lâche la mite Pas de ronds à claquer dans le savon et le dentifrice Achevez-les avant que la Croix Rouge ne roule en Limousine Elle est partie S'il y a un fait qui me saoule et m'époustoufle C'est bien la mode des chanteurs et chanteuses qui s'essoufflent À l'agonie, je parie qu'ils en chient en studio Augmente les effets, monte les niveaux sur le micro Ils se la jouent avec une putain qu'étouffe Des mots qui ne pèsent pas et ne déformeraient pas un pouf Quand on n'a pas de voix, on se tait On s'abstient de nous les briser avec des chansons de laid Moi, tu vois, c'est des textes et de l'émotion Danielle Gilbert, Guy Lux, ah c'qu'ils puent Leurs faces collent à mon cul comme la colle Uhu Avaient-ils prévu que j'allais les descendre Nostradamus lui avait prédit que je Mettrais ces vilains à l'amende Après un bon sommeil, je me réveille Qui j'entends, Madame Soleil J'vais t'toucher la vieille ! Méfie-toi de ceux qui voient le tiercé dans les astres Achève-les, balance-les par le ballast Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Just call my name and I'll be there in a hurry What I'm after, what I'm after, what I'm after Niggas ain't ready for this shit here, word up DoItAll, DoItAll, ah, ah My verbal images test niggas like a scrimmage So back that ass up and let this brown brother finish Quick to leave 'em pop-eyed without the fuckin' spinach My edition ain't new, and the name ain't Michael Bivins Brings your boys and your two men, and watch them all get ruined By K-Def, and can't forget the L.O.D. crew and What I'm after? Disaster, 'cause nothin' brings it faster Or quicker, especially when I'm high off this liquor So niggas watch out, come up off the trigger But this here bullets hittin' Billboards in its liver So step, don't stare, here's the case for the place I'll leave it all blown without a thing to trace So Keith, where you at, nigga? Right here Jazz, hit me quicker And Funke, break it down 'til they particles glitter I swear to God, my crew is sick like the mob With mad rhyme niggas who can make that head bob Here I bring, DoItAll, Keith Murray, and the Funke So what I'm after, bitches, is the props, plaques, and monies Where you at, nigga? I want my cash and my grip Or y'all punk bitches is bound to get hit I swear to God, my heart on chicks like a bomb Kaboom, kaboom, now y'all niggas is gone So check it out y'all 'cause I'm dope on the plastic Hahaha, now suffocate with the bastard You might also like I know you, you know me Ayo It's the Lords of the Underground with the L.O.D It's Keith Murray with the Lords in this piece With the knick knack patty wack, break a nigga's back Word is bond, Def Squad, all that shit And if it come to that, we got the gat in the knapsack Niggas poppin' that bullshit I know you, you know me Word is bond, call me out It's the Lords of the Underground with the L.O.D I don't give a fiduck With the knick knack patty wack, break a nigga's back What, take it to the streets And if it come to that, we got the gat in the knapsack Ayo, let's battle with the style that crowd choose Defeatin' me is not findin' a word in the dictionary that I use First of all, I stress niggas like AIDS tests I'll wax half you rappers, let the Lords take the rest Fuck fame, keep it real, street, call my name I'll run up on ya, put drama all in your blood vein Yo, Keith, what you mean? I'll run up on you with a dirty needle filled with dope fiend Put it in your bloodstream I'll pop your top like a Guinness Stout Chop your ass up and bury ya somewhere down south Don't get it twisted, I never knew your punk ass L.O.D. crew existed Y'all niggas is unlisted Keep my waves glarin', got niggas starin' But I ain't carin' 'cause my Squad is Def and they ain't hearin' Shit comin' from the inadequate side Y'all niggas fuck around and catch a ambulance ride You got beef with Keith, be discreet I'll push all y'all motherfuckers' wigs back to the white meat Niggas jealous 'cause my style is butter Parkay But I'ma keep doin' this shit my way I'll train my junior L.O.D. platoon to murder niggas up on the moon Soon niggas will see that Keith Murray ain't havin' it All y'all niggas is pussy, I'm doin' it my way I know you, you know me It's the Lords of the Underground with the L.O.D With the knick knack patty wack, break a nigga's back And if it come to that, we got the gat in the knapsack I know you, you know me It's the Lords of the Underground with the L.O.D With the knick knack patty wack, break a nigga's back And if it come to that, we got the gat in the knapsack I, in the the name of the supreme grandmaster of the universe Have been sent to Earth Who are you? Emperor Gamma Funkula From the planet Jupiter, interplanetary superstar Why don't you tell me what you're after while you're rhymin' Earth currency, gold, platinum and your diamonds See, God decided there was too many MC's Crowdin' up the planet, causin' famine and disease So now I must divide through space and time Bring fire from hell to the skies I am the future, battle and you wush, nigga I'll be all up in you like a douche, nigga See, I don't battle, fool, I wage wars The likes of which you never saw, uncut raw You wanna play? Situation gettin' steamier Feel them gamma rays, break you down like leukemia Sometimes I sit and wonder what you tryna rhyme for Tryna get with me, I teach MC's skills like Job Corp See, I was sent to Earth because there's something outta order All you fools are corny, must be something in the water I grab the mic and get lifted like Keith Murray Make all wack MC's remove themselves in a hurry Word is bond, Lords of the Underground got it goin' on In your town, I'll be ballin' on and on, check it out I know you, you know me It's the Lords of the Underground with the L.O.D With the knick knack patty wack, break a nigga's back And if it come to that, we got the gat in the knapsack I know you, you know me It's the Lords of the Underground with the L.O.D With the knick knack patty wack, break a nigga's back And if it come to that, we got the gat in the knapsack Funk from the street Yes, I'm comin' live so unshuffle your feet, nigga Yeah, 50 Grand's on the fuckin' creep, nigga That's why I'm comin' in with the L.O.D With the knick knack</t>
+          <t>Just call my name and I'll be there in a hurry What I'm after, what I'm after, what I'm after Niggas ain't ready for this shit here, word up DoItAll, DoItAll, ah, ah My verbal images test niggas like a scrimmage So back that ass up and let this brown brother finish Quick to leave 'em pop-eyed without the fuckin' spinach My edition ain't new, and the name ain't Michael Bivins Brings your boys and your two men, and watch them all get ruined By K-Def, and can't forget the L.O.D. crew and What I'm after? Disaster, 'cause nothin' brings it faster Or quicker, especially when I'm high off this liquor So niggas watch out, come up off the trigger But this here bullets hittin' Billboards in its liver So step, don't stare, here's the case for the place I'll leave it all blown without a thing to trace So Keith, where you at, nigga? Right here Jazz, hit me quicker And Funke, break it down 'til they particles glitter I swear to God, my crew is sick like the mob With mad rhyme niggas who can make that head bob Here I bring, DoItAll, Keith Murray, and the Funke So what I'm after, bitches, is the props, plaques, and monies Where you at, nigga? I want my cash and my grip Or y'all punk bitches is bound to get hit I swear to God, my heart on chicks like a bomb Kaboom, kaboom, now y'all niggas is gone So check it out y'all 'cause I'm dope on the plastic Hahaha, now suffocate with the bastard I know you, you know me Ayo It's the Lords of the Underground with the L.O.D It's Keith Murray with the Lords in this piece With the knick knack patty wack, break a nigga's back Word is bond, Def Squad, all that shit And if it come to that, we got the gat in the knapsack Niggas poppin' that bullshit I know you, you know me Word is bond, call me out It's the Lords of the Underground with the L.O.D I don't give a fiduck With the knick knack patty wack, break a nigga's back What, take it to the streets And if it come to that, we got the gat in the knapsack Ayo, let's battle with the style that crowd choose Defeatin' me is not findin' a word in the dictionary that I use First of all, I stress niggas like AIDS tests I'll wax half you rappers, let the Lords take the rest Fuck fame, keep it real, street, call my name I'll run up on ya, put drama all in your blood vein Yo, Keith, what you mean? I'll run up on you with a dirty needle filled with dope fiend Put it in your bloodstream I'll pop your top like a Guinness Stout Chop your ass up and bury ya somewhere down south Don't get it twisted, I never knew your punk ass L.O.D. crew existed Y'all niggas is unlisted Keep my waves glarin', got niggas starin' But I ain't carin' 'cause my Squad is Def and they ain't hearin' Shit comin' from the inadequate side Y'all niggas fuck around and catch a ambulance ride You got beef with Keith, be discreet I'll push all y'all motherfuckers' wigs back to the white meat Niggas jealous 'cause my style is butter Parkay But I'ma keep doin' this shit my way I'll train my junior L.O.D. platoon to murder niggas up on the moon Soon niggas will see that Keith Murray ain't havin' it All y'all niggas is pussy, I'm doin' it my way I know you, you know me It's the Lords of the Underground with the L.O.D With the knick knack patty wack, break a nigga's back And if it come to that, we got the gat in the knapsack I know you, you know me It's the Lords of the Underground with the L.O.D With the knick knack patty wack, break a nigga's back And if it come to that, we got the gat in the knapsack I, in the the name of the supreme grandmaster of the universe Have been sent to Earth Who are you? Emperor Gamma Funkula From the planet Jupiter, interplanetary superstar Why don't you tell me what you're after while you're rhymin' Earth currency, gold, platinum and your diamonds See, God decided there was too many MC's Crowdin' up the planet, causin' famine and disease So now I must divide through space and time Bring fire from hell to the skies I am the future, battle and you wush, nigga I'll be all up in you like a douche, nigga See, I don't battle, fool, I wage wars The likes of which you never saw, uncut raw You wanna play? Situation gettin' steamier Feel them gamma rays, break you down like leukemia Sometimes I sit and wonder what you tryna rhyme for Tryna get with me, I teach MC's skills like Job Corp See, I was sent to Earth because there's something outta order All you fools are corny, must be something in the water I grab the mic and get lifted like Keith Murray Make all wack MC's remove themselves in a hurry Word is bond, Lords of the Underground got it goin' on In your town, I'll be ballin' on and on, check it out I know you, you know me It's the Lords of the Underground with the L.O.D With the knick knack patty wack, break a nigga's back And if it come to that, we got the gat in the knapsack I know you, you know me It's the Lords of the Underground with the L.O.D With the knick knack patty wack, break a nigga's back And if it come to that, we got the gat in the knapsack Funk from the street Yes, I'm comin' live so unshuffle your feet, nigga Yeah, 50 Grand's on the fuckin' creep, nigga That's why I'm comin' in with the L.O.D With the knick knack</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Soit les temps changent, soit on dérange, soit les jeunes mangent Du chien enragé, mais les sales vannes ne sont plus rangées Tu crois qu'y a danger ? Pas un brin, c'est ça qu'ils pigent pas La musique ils l'écoutent pas, tes disques ils les achètent pas Je suis celui que tu suis depuis tant d'années, tu suis Le parcours de celui qui rappe pour les projects les plus appauvris Démunis, mais riches en mélodies qui d'entre vous va se lever ? Qui ? Contre ceux qui résistent, qui veut détourner nos voix ? Qui ? S'marre pour rien, qui représente que dalle ? Qui de ceux-là veulent ma place ? Bidon j'ai trop la dalle Je fous mes rimes sur la table, mes rimes pour l'asphalte Je trime pour la caille, y en a qui flippe quand je taille Vas-y lascar arrête de disjoncter, d'être bloqué, en soirée En concert viens donc jumper Sur des gaillards que tu veux croquer Mais c'est le Hip-Hop que tu vas tuer C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop You might also like J'ai connu trop de bons publics, des soirs d'folies Pour quand je prends une bouteille sur moi rester poli Tu payes ta place pour me faire un doigt, me cracher dessus Je finis, j'te trouve un All Access et je te casse le cul Je parle même plus de respect, à quoi ça sert ? Je cherche même plus à comprendre j'ai pas que ça à faire Mais il y a les autres, ouais, les autres c'est pour eux qu'on est là C'est avec eux qu'on est là, c'est grâce à eux qu'on fait ça Et tant qu'ils seront là, dans les concerts, la main en l'air Je risque pas de me poser la question de savoir de quoi j'ai l'air Def Bond, Squat, ton R en 16 lignes sur une page Respire la tec' de Faf, persiste avec Rage Tactique non réfléchie et diabolique Régler ses comptes pendant une teuf, toi et ta clique Condamner, tes faits je ne peux que les condamner Un coup est parti et toute une famille est brisée Y'a plus de meufs, en soirées y'a plus de seufs y'a que des keufs En 9.9, espérons qu'on sera tous, tous des reufs Y'a rien à faire fils tu piges pas, tu kiffes pas Tu rimes pas, mais quand on se mouille pas tu t'foules pas Ne l'ouvres pas, on reste là que tu te files ou pas, on rit pas T'as le R et Squat, Def et Larage, on change pas En soirée y'a des règlements de compte, des merdes à tout va Des larmes et des flingues, mais pourquoi tu raques pour ça ? C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Quel wack MC veut test notre énergie ? Tu ne comprends pas pourquoi on existe tel qu'on est dans l'industrie Baby baby, choisi la ture-voi dans laquelle tu vas rider cette nuit Certains coupent la gorge des brebis, d'autres les couvres de jou-bis Rude Boy love gal with money On s'auto-produit on gère nos royalties On dit ce qu'on veut dans nos sques-di comme Master P On dit qu'on ne meurt pas car nos esprits dansent pour l'unity Comme au Brésil, en Jamaïque, aux Antilles, en Colombie Paris doit se veiller-er, la province doit suivre aussi Je vais ramener une part de gâteau à tous mes chiens d'en bas Waouf Waouf, t'approches pas, Waouf Waouf on ne joue pas La rage tu l'as, ne me fais pas croire que la 'sique te fait pas Plus d'effet que ça, dans ton walkman tu te bats pas Et avec qui d'abord ?, c'est la merde Mais y'a d'autres moyens de conjurer le sort Laisse faire quand le son t'emporte C'est l'opium du peuple, on a que ça, le combat Tu vois il se trouve dans nos têtes Et quand ça frappe ça fait bien plus mal Je rappe pour l'amour des mots, pour les gars, les gos Pour tous les escrocs, pour tous ceux qui vivent dans des ghettos Le H.I.P. a perdu de sa valeur, mais qui va l'chopper ? C'est tous ces rimeurs à l'heure, l'espoir fait vivre Et celui qui peut lire ce texte ivre peut vivre C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop</t>
+          <t>Soit les temps changent, soit on dérange, soit les jeunes mangent Du chien enragé, mais les sales vannes ne sont plus rangées Tu crois qu'y a danger ? Pas un brin, c'est ça qu'ils pigent pas La musique ils l'écoutent pas, tes disques ils les achètent pas Je suis celui que tu suis depuis tant d'années, tu suis Le parcours de celui qui rappe pour les projects les plus appauvris Démunis, mais riches en mélodies qui d'entre vous va se lever ? Qui ? Contre ceux qui résistent, qui veut détourner nos voix ? Qui ? S'marre pour rien, qui représente que dalle ? Qui de ceux-là veulent ma place ? Bidon j'ai trop la dalle Je fous mes rimes sur la table, mes rimes pour l'asphalte Je trime pour la caille, y en a qui flippe quand je taille Vas-y lascar arrête de disjoncter, d'être bloqué, en soirée En concert viens donc jumper Sur des gaillards que tu veux croquer Mais c'est le Hip-Hop que tu vas tuer C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop J'ai connu trop de bons publics, des soirs d'folies Pour quand je prends une bouteille sur moi rester poli Tu payes ta place pour me faire un doigt, me cracher dessus Je finis, j'te trouve un All Access et je te casse le cul Je parle même plus de respect, à quoi ça sert ? Je cherche même plus à comprendre j'ai pas que ça à faire Mais il y a les autres, ouais, les autres c'est pour eux qu'on est là C'est avec eux qu'on est là, c'est grâce à eux qu'on fait ça Et tant qu'ils seront là, dans les concerts, la main en l'air Je risque pas de me poser la question de savoir de quoi j'ai l'air Def Bond, Squat, ton R en 16 lignes sur une page Respire la tec' de Faf, persiste avec Rage Tactique non réfléchie et diabolique Régler ses comptes pendant une teuf, toi et ta clique Condamner, tes faits je ne peux que les condamner Un coup est parti et toute une famille est brisée Y'a plus de meufs, en soirées y'a plus de seufs y'a que des keufs En 9.9, espérons qu'on sera tous, tous des reufs Y'a rien à faire fils tu piges pas, tu kiffes pas Tu rimes pas, mais quand on se mouille pas tu t'foules pas Ne l'ouvres pas, on reste là que tu te files ou pas, on rit pas T'as le R et Squat, Def et Larage, on change pas En soirée y'a des règlements de compte, des merdes à tout va Des larmes et des flingues, mais pourquoi tu raques pour ça ? C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Quel wack MC veut test notre énergie ? Tu ne comprends pas pourquoi on existe tel qu'on est dans l'industrie Baby baby, choisi la ture-voi dans laquelle tu vas rider cette nuit Certains coupent la gorge des brebis, d'autres les couvres de jou-bis Rude Boy love gal with money On s'auto-produit on gère nos royalties On dit ce qu'on veut dans nos sques-di comme Master P On dit qu'on ne meurt pas car nos esprits dansent pour l'unity Comme au Brésil, en Jamaïque, aux Antilles, en Colombie Paris doit se veiller-er, la province doit suivre aussi Je vais ramener une part de gâteau à tous mes chiens d'en bas Waouf Waouf, t'approches pas, Waouf Waouf on ne joue pas La rage tu l'as, ne me fais pas croire que la 'sique te fait pas Plus d'effet que ça, dans ton walkman tu te bats pas Et avec qui d'abord ?, c'est la merde Mais y'a d'autres moyens de conjurer le sort Laisse faire quand le son t'emporte C'est l'opium du peuple, on a que ça, le combat Tu vois il se trouve dans nos têtes Et quand ça frappe ça fait bien plus mal Je rappe pour l'amour des mots, pour les gars, les gos Pour tous les escrocs, pour tous ceux qui vivent dans des ghettos Le H.I.P. a perdu de sa valeur, mais qui va l'chopper ? C'est tous ces rimeurs à l'heure, l'espoir fait vivre Et celui qui peut lire ce texte ivre peut vivre C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Soit les temps changent, soit on dérange, soit les jeunes mangent Du chien enragé, mais les sales vannes ne sont plus rangées Tu crois qu'y a danger ? Pas un brin, c'est ça qu'ils pigent pas La musique ils l'écoutent pas, tes disques ils les achètent pas Je suis celui que tu suis depuis tant d'années, tu suis Le parcours de celui qui rappe pour les projects les plus appauvris Démunis, mais riches en mélodies qui d'entre vous va se lever ? Qui ? Contre ceux qui résistent, qui veut détourner nos voix ? Qui ? S'marre pour rien, qui représente que dalle ? Qui de ceux-là veulent ma place ? Bidon j'ai trop la dalle Je fous mes rimes sur la table, mes rimes pour l'asphalte Je trime pour la caille, y'en a qui flippe quand je taille Vas-y lascar arrête de disjoncter, d'être bloqué, en soirée En concert viens donc jumper Sur des gaillards que tu veux croquer Mais c'est le Hip Hop que tu vas tuer C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y'a des MCs avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y'a des MC avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop You might also like J'ai connu trop de bons publics, des soirs d'folies Pour quand je prends une bouteille sur moi rester poli Tu payes ta place pour me faire un doigt, me cracher dessus Je finis, j'te trouve un All Access et je te casse le cul Je parle même plus de respect, à quoi ça sert ? Je cherche même plus à comprendre j'ai pas que ça à faire Mais il y a les autres, ouais, les autres c'est pour eux qu'on est là C'est avec eux qu'on est là, c'est grâce à eux qu'on fait ça Et tant qu'ils seront là, dans les concerts, la main en l'air Je risque pas de me poser la question de savoir de quoi j'ai l'air Def Bond Squat ton air en 16 lignes sur une page Respire la tek de Faf, persiste avec Rage Tactique non réfléchie et diabolique Régler ses comptes pendant une teuf, toi et ta clique Condamner, tes faits je ne peux que les condamner Un coup est parti et toute une famille est brisée Y'a plus de meufs, en soirées y'a plus de seufs y'a que des keufs En 99 espérons qu'on sera tous, tous des reufs Y a rein à faire fils tu piges pas, tu kiffes pas Tu rimes pas, mais quand on se mouille pas tu t'foules pas Ne l'ouvres pas, on reste là que tu te files ou pas, on rit pas T'as le R et Squat, Def et Larage, on change pas En soirée y a des règlements de compte, des merdes à tout va Des larmes et des flingues, mais pourquoi tu raques pour ça ? C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y'a des MCs avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y'a des MC avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Quel wack MC veut test notre énergie ? Tu ne comprends pas pourquoi on existe tel qu'on est dans l'industrie Baby, baby choisis la ture-voi dans laquelle tu vas rider cette nuit Certains coupent la gorge des brebis, d'autres les couvrent de jou-bi Rude Boy love gal with money On s'autoproduit on gère nos royalties On dit ce qu'on veut dans nos sque-di comme Master P On dit qu'on ne meurt pas car nos esprits dansent pour l'unity Comme au Brésil, en Jamaïque, aux Antilles, en Colombie Paris doit se veille-ré, la province doit suivre aussi Je vais ramener une part de gâteau à tous mes chiens d'en bas Waouf Waouf, t'approche pas, Waouf Waouf on ne joue pas La rage tu l'as, ne me fais pas croire que la zik' te fait pas Plus d'effet que ça, dans mon walkman tu te bats pas Et avec qui d'abord ?, c'est la merde Mais y'a d'autres moyens de conjurer le sort Laisse faire quand le son t'emporte C'est l'opium du peuple, on a que ça, le combat Tu vois il se trouve dans nos fêtes Et quand ça frappe ça fait bien plus mal Je rappe pour l'amour des mots, pour les gars, les go Pour tous les escrocs, pour tous ceux qui vivent dans des ghettos Le H.I.P. a perdu de sa valeur, mais qui va l'choper ? C'est tous ces rimeurs à l'heure, l'espoir fait vivre Et celui qui peut lire ce texte ivre peut vivre C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y'a des MCs avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y'a des MC avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop</t>
+          <t>Soit les temps changent, soit on dérange, soit les jeunes mangent Du chien enragé, mais les sales vannes ne sont plus rangées Tu crois qu'y a danger ? Pas un brin, c'est ça qu'ils pigent pas La musique ils l'écoutent pas, tes disques ils les achètent pas Je suis celui que tu suis depuis tant d'années, tu suis Le parcours de celui qui rappe pour les projects les plus appauvris Démunis, mais riches en mélodies qui d'entre vous va se lever ? Qui ? Contre ceux qui résistent, qui veut détourner nos voix ? Qui ? S'marre pour rien, qui représente que dalle ? Qui de ceux-là veulent ma place ? Bidon j'ai trop la dalle Je fous mes rimes sur la table, mes rimes pour l'asphalte Je trime pour la caille, y'en a qui flippe quand je taille Vas-y lascar arrête de disjoncter, d'être bloqué, en soirée En concert viens donc jumper Sur des gaillards que tu veux croquer Mais c'est le Hip Hop que tu vas tuer C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y'a des MCs avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y'a des MC avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop J'ai connu trop de bons publics, des soirs d'folies Pour quand je prends une bouteille sur moi rester poli Tu payes ta place pour me faire un doigt, me cracher dessus Je finis, j'te trouve un All Access et je te casse le cul Je parle même plus de respect, à quoi ça sert ? Je cherche même plus à comprendre j'ai pas que ça à faire Mais il y a les autres, ouais, les autres c'est pour eux qu'on est là C'est avec eux qu'on est là, c'est grâce à eux qu'on fait ça Et tant qu'ils seront là, dans les concerts, la main en l'air Je risque pas de me poser la question de savoir de quoi j'ai l'air Def Bond Squat ton air en 16 lignes sur une page Respire la tek de Faf, persiste avec Rage Tactique non réfléchie et diabolique Régler ses comptes pendant une teuf, toi et ta clique Condamner, tes faits je ne peux que les condamner Un coup est parti et toute une famille est brisée Y'a plus de meufs, en soirées y'a plus de seufs y'a que des keufs En 99 espérons qu'on sera tous, tous des reufs Y a rein à faire fils tu piges pas, tu kiffes pas Tu rimes pas, mais quand on se mouille pas tu t'foules pas Ne l'ouvres pas, on reste là que tu te files ou pas, on rit pas T'as le R et Squat, Def et Larage, on change pas En soirée y a des règlements de compte, des merdes à tout va Des larmes et des flingues, mais pourquoi tu raques pour ça ? C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y'a des MCs avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y'a des MC avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Quel wack MC veut test notre énergie ? Tu ne comprends pas pourquoi on existe tel qu'on est dans l'industrie Baby, baby choisis la ture-voi dans laquelle tu vas rider cette nuit Certains coupent la gorge des brebis, d'autres les couvrent de jou-bi Rude Boy love gal with money On s'autoproduit on gère nos royalties On dit ce qu'on veut dans nos sque-di comme Master P On dit qu'on ne meurt pas car nos esprits dansent pour l'unity Comme au Brésil, en Jamaïque, aux Antilles, en Colombie Paris doit se veille-ré, la province doit suivre aussi Je vais ramener une part de gâteau à tous mes chiens d'en bas Waouf Waouf, t'approche pas, Waouf Waouf on ne joue pas La rage tu l'as, ne me fais pas croire que la zik' te fait pas Plus d'effet que ça, dans mon walkman tu te bats pas Et avec qui d'abord ?, c'est la merde Mais y'a d'autres moyens de conjurer le sort Laisse faire quand le son t'emporte C'est l'opium du peuple, on a que ça, le combat Tu vois il se trouve dans nos fêtes Et quand ça frappe ça fait bien plus mal Je rappe pour l'amour des mots, pour les gars, les go Pour tous les escrocs, pour tous ceux qui vivent dans des ghettos Le H.I.P. a perdu de sa valeur, mais qui va l'choper ? C'est tous ces rimeurs à l'heure, l'espoir fait vivre Et celui qui peut lire ce texte ivre peut vivre C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y'a des MCs avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y'a des MC avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Na nanana, na My baby love hey yo my baby love Na nanana, na My baby love Hey yo Mélissa, vas-y, vas-y On suit les mêmes cours, on sort aux mêmes heures, on a les mêmes amis Mais on nse parle pas Allez savoir Pour quelle raison on passe tout notre temps à jouer ainsi? Moi je nle sais pas Aller le voir Demandez-lui si quand il parle des filles, il parle de moi Jai le cur à lenvers Ooh yeah Est-ce que lamour est aussi dur à vivre pour lui sans moi Je ne sais plus quoi fair pour lui plaire une fois Où quje sois, sil st devant moi Jaimerais lavoir dans mes bras À chaque fois quje parle de lui Cest mon baby love You might also like Quand il débarque avec son groupe cest comme si jnexistais pas Jai beau lui sourire Pour quil me voie Il a du style, trop dfilles autour de lui qui nattendent que ça Cnest pas cqui mattire Le plus, tu vois Demandez-moi la Lune, jirai la décrocher Je traverserai les dunes, si seulement il savait À quel point il est la plume de mon journal secret Pour lui y en a quune Mon Dieu faites quil vienne me parler Où quje sois, sil est devant moi Jaimerais lavoir dans mes bras À chaque fois quje parle de lui Cest mon baby love Hey yo my baby love Tu nsais pas cque ces ladies love Elles veulent téloigner dmoi, te chasser comme des fauves Viennent vers moi quand jai les yeux vers toi Et quand jfais style jvois pas, elles crient baby love! Mais les filles, jsuis pas le tombeur de service Jai pas dtunes et jmélange pas le cur et le vice Pas besoin dautre chose, ni dfaire le tour du globe Jveux rester focus sur ma baby love Tinquiète pas pour ça, moi jsuis blindé Ne cède pas, jpeux tdire que moi jsuis charmé Jpourrais bien sûr venir faire mon petit manège Mais jsais mtenir, hey cest pas un piège Demain j'fuis pas, demain j'te parle Demain jtécoute et joue cartes sur table Jveux pas d'bruit, pas d'buf ni pas dfoule Appelle-moi ton baby love, cest cool Où quje sois, sil est devant moi Jaimerais lavoir dans mes bras À chaque fois quje parle de lui Cest mon baby love Baby love baby love Baby love baby love Baby love baby love Baby love baby love</t>
+          <t>Na nanana, na My baby love hey yo my baby love Na nanana, na My baby love Hey yo Mélissa, vas-y, vas-y On suit les mêmes cours, on sort aux mêmes heures, on a les mêmes amis Mais on nse parle pas Allez savoir Pour quelle raison on passe tout notre temps à jouer ainsi? Moi je nle sais pas Aller le voir Demandez-lui si quand il parle des filles, il parle de moi Jai le cur à lenvers Ooh yeah Est-ce que lamour est aussi dur à vivre pour lui sans moi Je ne sais plus quoi fair pour lui plaire une fois Où quje sois, sil st devant moi Jaimerais lavoir dans mes bras À chaque fois quje parle de lui Cest mon baby love Quand il débarque avec son groupe cest comme si jnexistais pas Jai beau lui sourire Pour quil me voie Il a du style, trop dfilles autour de lui qui nattendent que ça Cnest pas cqui mattire Le plus, tu vois Demandez-moi la Lune, jirai la décrocher Je traverserai les dunes, si seulement il savait À quel point il est la plume de mon journal secret Pour lui y en a quune Mon Dieu faites quil vienne me parler Où quje sois, sil est devant moi Jaimerais lavoir dans mes bras À chaque fois quje parle de lui Cest mon baby love Hey yo my baby love Tu nsais pas cque ces ladies love Elles veulent téloigner dmoi, te chasser comme des fauves Viennent vers moi quand jai les yeux vers toi Et quand jfais style jvois pas, elles crient baby love! Mais les filles, jsuis pas le tombeur de service Jai pas dtunes et jmélange pas le cur et le vice Pas besoin dautre chose, ni dfaire le tour du globe Jveux rester focus sur ma baby love Tinquiète pas pour ça, moi jsuis blindé Ne cède pas, jpeux tdire que moi jsuis charmé Jpourrais bien sûr venir faire mon petit manège Mais jsais mtenir, hey cest pas un piège Demain j'fuis pas, demain j'te parle Demain jtécoute et joue cartes sur table Jveux pas d'bruit, pas d'buf ni pas dfoule Appelle-moi ton baby love, cest cool Où quje sois, sil est devant moi Jaimerais lavoir dans mes bras À chaque fois quje parle de lui Cest mon baby love Baby love baby love Baby love baby love Baby love baby love Baby love baby love</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ish, ish Ouais Z.I Cayenne Bah ouais Brrah Touche pas la p'tite sur, on va s'en mêler La rue tire vers le bas face à la balle On est massifs au départ mais seuls à la barre Tu peux faire l'Mayweather, d'toute manière on va t'mêler 9.3, pas d'pédés, coupables on a plaidés Cernés d'ennuis regardes bien sous les paupières Tu parlais trop fils tu peux remballer ton vice On a scotchés les calibres sous la table de poker Regardes dans les yeux, quand tu sers l'bonjour D'un coup t'es plus sûr, tu faisais l'malin l'autre jour Ski sur une descente aux enfers pour toujours On revend la neige et perd tout sur un tout schuss Tiens pas ta parole, flingue sur la carotide et après on filochera ta daronne Passes-moi ma part, passes à la gare Te trompes pas d'mec moi c'est Z comme un dragon Wesh, So', où ils sont tous passés ? Doivent suivre l'actu et les clips sur Booska-P J'hésite entre la droite et la gauche pour l'chemin que j'vais prendre comme quand tu sors bourré d'une Zéro affaires, si t'es pas serein Revends la mort à ceux qui s'rentrent la seringue Tout c'qu'on a fait sera mis sur la ble-ta Pries sans arrêts pour pas péter un ble-câ On a fumé d'l'herbe, fait des chutes sur l'pavé Si c'est la guerre on saura s'y préparer Si tu veux pas t'taire, ou arrêter d'déclarer la vie sur un fauteuil, tu feras que d'baver C'est pour les frérots, c'est pour les Théo Qui au comico' rêverait d'inverser les rôles J'sens qu'ça va m'plaire, maintenant tu vas t'taire C'est un contrôle de victime qui met tout le monde à terre Accidentellement, j'encule ta bavure Si un frère vous ment, on appelle ça la bravoure Pas besoin d'amour, c'est pas le cur qui a mal Cherche le glamour dans une vitrine en Allemagne On n'aime pas la violence, ni l'manque de respect Donc on fait des choix, moi ça m'amuse pas Tu sais qu'on abuse pas, d'un coup comme ta femme qui t'attends quand tu reviens du Ca vient du 9.3, ça vient du 9.3 On repasse après gros si t'esquives le gauche-droite Rafale en CR et puis on raccélère Les chtars collent à la peau et toi tu crois c'est l'air Mélanges à tout va, dans toutes nos cités La France nous aime pas, elle sait qu'nous détester J'suis l'même rebeu que le saoudien sur les Champs Même re-noi qui celui qui était président des States J'ai plus de valeurs, ennemi d'la dalle À cause d'elle mon frère, on s'bouffe entre nous-mêmes Y'a pas qu'les grosses putes qui pour toi peuvent s'mouiller J'dégaine un gros fer parce qu'à pattes, j'suis trop rouillé Dans toutes les villes, j'me balade tout seul Dans toutes les villes, j'marche dans l'insouciance Avec précaution t'as voulu prendre des sous sans règlement d'comptes en silence, j'suis en sous-sol J'suis passé chez So', on va clarifier les choses Blankok', Bondy-Sud hashtag sur les réseaux Tout l'93, c'est partout la maison Remix l'épisode 10 et qu'importe les saisons M'compare à quiconque, j'rappe à aucune gow Un spleef de verte sortie d'la jungle à King Kong J'connais des anciens qui tombent dans la promenade Et j'connais des enfants qui tournent pas en Twingo Bondy, faites du bruit !! T'es sûr de vraiment vouloir passer chez So' ? Sûr de vraiment vouloir passer à Bondy ? Il parait qu'si j'vais, à Bondy Z.I Cayenne Prévenez les tous, prévenez les tous BrrahYou might also like</t>
+          <t>Ish, ish Ouais Z.I Cayenne Bah ouais Brrah Touche pas la p'tite sur, on va s'en mêler La rue tire vers le bas face à la balle On est massifs au départ mais seuls à la barre Tu peux faire l'Mayweather, d'toute manière on va t'mêler 9.3, pas d'pédés, coupables on a plaidés Cernés d'ennuis regardes bien sous les paupières Tu parlais trop fils tu peux remballer ton vice On a scotchés les calibres sous la table de poker Regardes dans les yeux, quand tu sers l'bonjour D'un coup t'es plus sûr, tu faisais l'malin l'autre jour Ski sur une descente aux enfers pour toujours On revend la neige et perd tout sur un tout schuss Tiens pas ta parole, flingue sur la carotide et après on filochera ta daronne Passes-moi ma part, passes à la gare Te trompes pas d'mec moi c'est Z comme un dragon Wesh, So', où ils sont tous passés ? Doivent suivre l'actu et les clips sur Booska-P J'hésite entre la droite et la gauche pour l'chemin que j'vais prendre comme quand tu sors bourré d'une Zéro affaires, si t'es pas serein Revends la mort à ceux qui s'rentrent la seringue Tout c'qu'on a fait sera mis sur la ble-ta Pries sans arrêts pour pas péter un ble-câ On a fumé d'l'herbe, fait des chutes sur l'pavé Si c'est la guerre on saura s'y préparer Si tu veux pas t'taire, ou arrêter d'déclarer la vie sur un fauteuil, tu feras que d'baver C'est pour les frérots, c'est pour les Théo Qui au comico' rêverait d'inverser les rôles J'sens qu'ça va m'plaire, maintenant tu vas t'taire C'est un contrôle de victime qui met tout le monde à terre Accidentellement, j'encule ta bavure Si un frère vous ment, on appelle ça la bravoure Pas besoin d'amour, c'est pas le cur qui a mal Cherche le glamour dans une vitrine en Allemagne On n'aime pas la violence, ni l'manque de respect Donc on fait des choix, moi ça m'amuse pas Tu sais qu'on abuse pas, d'un coup comme ta femme qui t'attends quand tu reviens du Ca vient du 9.3, ça vient du 9.3 On repasse après gros si t'esquives le gauche-droite Rafale en CR et puis on raccélère Les chtars collent à la peau et toi tu crois c'est l'air Mélanges à tout va, dans toutes nos cités La France nous aime pas, elle sait qu'nous détester J'suis l'même rebeu que le saoudien sur les Champs Même re-noi qui celui qui était président des States J'ai plus de valeurs, ennemi d'la dalle À cause d'elle mon frère, on s'bouffe entre nous-mêmes Y'a pas qu'les grosses putes qui pour toi peuvent s'mouiller J'dégaine un gros fer parce qu'à pattes, j'suis trop rouillé Dans toutes les villes, j'me balade tout seul Dans toutes les villes, j'marche dans l'insouciance Avec précaution t'as voulu prendre des sous sans règlement d'comptes en silence, j'suis en sous-sol J'suis passé chez So', on va clarifier les choses Blankok', Bondy-Sud hashtag sur les réseaux Tout l'93, c'est partout la maison Remix l'épisode 10 et qu'importe les saisons M'compare à quiconque, j'rappe à aucune gow Un spleef de verte sortie d'la jungle à King Kong J'connais des anciens qui tombent dans la promenade Et j'connais des enfants qui tournent pas en Twingo Bondy, faites du bruit !! T'es sûr de vraiment vouloir passer chez So' ? Sûr de vraiment vouloir passer à Bondy ? Il parait qu'si j'vais, à Bondy Z.I Cayenne Prévenez les tous, prévenez les tous Brrah</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Écoute Flippe pas, ou bouge comme quand Je dégage, quand tu joues dmon temps Je prends ton cur ou rien d'autre Viens style Hot, Hot, Hot ! Me lancer des kiss devant lui, eh demande lui ! Qu'est ce que qu'il peut bien mfaire comme ennui ? Tu rentres dans ce club, il te suit Moi je sais que tu y es, hé je fais comme lui Y a pas de quoi schiffonner comme Monica et Brandy En face de moi il pèse pas Je fais la grande gueule je sais que tu aimes Tu sais quc'est faux, c'est pour ça que jt'aime On se croise trop, on sparle peu Je crois que je pète trop, je parle de faire mieux On devrait se dire allez on laisse la Genre on trace et tu me tends le bras, c'est ça Dis-moi qutu sais pas encore, mens-moi encore Plus tu te pointes, moins ça mrends fort C'est pas grave non, laisse tomber Rien de grave jte dis, laisse retomber Ouais fous-toi de moi ou de lui et Jvous laisse toi et lui mais Cherche plus dans mes yeux à lire S'accrocher à rien, y a rien dpire... allez trace... You might also like Laisse-la ! Matt, on sprend la tête pour rien, tu lsais ? Beaucoup trop de blah, blah, blah pour une go, arrêtons les frais Je sais qu'elle est bien, je sais qutu la veux, moi aussi mais, laisse tomber Elle n'en vaut pas la peine elle ne le mérite même pas Dis-moi où te caches-tu en ce moment, sweet lady Ton phone est toujours occupé, serais-tu encore avec lui ? Tu me manques même quand tu es là avec moi Ton esprit est ailleurs, pourquoi ? Ten lasserais-tu de moi ? Tintéresse-t-il tant que ça ? Mais donne-moi une nuit, juste une nuit D'amour et de douceur, de tendresse et d'envie Pour tdire que ce n'est pas lui L'homme de ta vie, c'est moi Lady Laisse-la ! Matt, on sprend la tête pour rien, tu lsais ? Beaucoup trop de blah, blah, blah pour une go, arrêtons les frais Je sais qu'elle est bien, je sais qutu la veux, moi aussi mais, laisse tomber Elle n'en vaut pas la peine elle ne le mérite même pas</t>
+          <t>Écoute Flippe pas, ou bouge comme quand Je dégage, quand tu joues dmon temps Je prends ton cur ou rien d'autre Viens style Hot, Hot, Hot ! Me lancer des kiss devant lui, eh demande lui ! Qu'est ce que qu'il peut bien mfaire comme ennui ? Tu rentres dans ce club, il te suit Moi je sais que tu y es, hé je fais comme lui Y a pas de quoi schiffonner comme Monica et Brandy En face de moi il pèse pas Je fais la grande gueule je sais que tu aimes Tu sais quc'est faux, c'est pour ça que jt'aime On se croise trop, on sparle peu Je crois que je pète trop, je parle de faire mieux On devrait se dire allez on laisse la Genre on trace et tu me tends le bras, c'est ça Dis-moi qutu sais pas encore, mens-moi encore Plus tu te pointes, moins ça mrends fort C'est pas grave non, laisse tomber Rien de grave jte dis, laisse retomber Ouais fous-toi de moi ou de lui et Jvous laisse toi et lui mais Cherche plus dans mes yeux à lire S'accrocher à rien, y a rien dpire... allez trace... Laisse-la ! Matt, on sprend la tête pour rien, tu lsais ? Beaucoup trop de blah, blah, blah pour une go, arrêtons les frais Je sais qu'elle est bien, je sais qutu la veux, moi aussi mais, laisse tomber Elle n'en vaut pas la peine elle ne le mérite même pas Dis-moi où te caches-tu en ce moment, sweet lady Ton phone est toujours occupé, serais-tu encore avec lui ? Tu me manques même quand tu es là avec moi Ton esprit est ailleurs, pourquoi ? Ten lasserais-tu de moi ? Tintéresse-t-il tant que ça ? Mais donne-moi une nuit, juste une nuit D'amour et de douceur, de tendresse et d'envie Pour tdire que ce n'est pas lui L'homme de ta vie, c'est moi Lady Laisse-la ! Matt, on sprend la tête pour rien, tu lsais ? Beaucoup trop de blah, blah, blah pour une go, arrêtons les frais Je sais qu'elle est bien, je sais qutu la veux, moi aussi mais, laisse tomber Elle n'en vaut pas la peine elle ne le mérite même pas</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>x2 Baby, lady Sexy diam's fait moi vibrer, sillone mon body Je suis ton bonus track J'ai toujours un bonus pour secouer les homee's Le track de plus qui lance la partie Yo sexy diam's reste là Excuse moi mais reste là Viens sur le son où je suis, l'ambiance est physique Hold school New school classic Epouse donc la piste en stéréo Epouse moi dans le flow, il te faut D.E.F dans la Hip-hop zone et RB feat pour que je cautione A quelle place dans le set tu me vois Suis-je au top pour mes Spinderella, vas-y Donne moi une heure plus 4 ou 5 In da club comme 50 Cent, diamant Représente moi, laisse vibrer Track moi lady, viens me jouer Dis moi ce qu'on fout là si pour toi je ne suis qu'un titre caché Un inédit de plus fait à l'arraché Moi je veux que tu flashe dès que je lève la pause Pas de retenue girl oh non ose ! Je suis donc ta dernière chance, ton dernier disque Ta dernière danse si tu me dis que tu risque De te laisser prendre au jeu Je vais te laisser prendre feu On a l'édit qu'il te faut avec Prélude Je veux te faire quitter ton air prude et tu me dis shut...... Pas maintenant ne dis rien En place cousine et cette nuit fais ça bien Laisse bien la lumière autour de toi M'éclairer, me dire si tu veux ou pas Est-ce qu'elle brille ? Ouais Pour toi ? Je ne sais pas Laisse moi m'occuper de ça You might also likeSi je suis au top sur ta playlist Vas-y viens à moi sciemment Laisse toi glisser sur la piste Viens flirte avec moi diamant</t>
+          <t>x2 Baby, lady Sexy diam's fait moi vibrer, sillone mon body Je suis ton bonus track J'ai toujours un bonus pour secouer les homee's Le track de plus qui lance la partie Yo sexy diam's reste là Excuse moi mais reste là Viens sur le son où je suis, l'ambiance est physique Hold school New school classic Epouse donc la piste en stéréo Epouse moi dans le flow, il te faut D.E.F dans la Hip-hop zone et RB feat pour que je cautione A quelle place dans le set tu me vois Suis-je au top pour mes Spinderella, vas-y Donne moi une heure plus 4 ou 5 In da club comme 50 Cent, diamant Représente moi, laisse vibrer Track moi lady, viens me jouer Dis moi ce qu'on fout là si pour toi je ne suis qu'un titre caché Un inédit de plus fait à l'arraché Moi je veux que tu flashe dès que je lève la pause Pas de retenue girl oh non ose ! Je suis donc ta dernière chance, ton dernier disque Ta dernière danse si tu me dis que tu risque De te laisser prendre au jeu Je vais te laisser prendre feu On a l'édit qu'il te faut avec Prélude Je veux te faire quitter ton air prude et tu me dis shut...... Pas maintenant ne dis rien En place cousine et cette nuit fais ça bien Laisse bien la lumière autour de toi M'éclairer, me dire si tu veux ou pas Est-ce qu'elle brille ? Ouais Pour toi ? Je ne sais pas Laisse moi m'occuper de ça Si je suis au top sur ta playlist Vas-y viens à moi sciemment Laisse toi glisser sur la piste Viens flirte avec moi diamant</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>On envahit les avec des rimes 'Augmente le son Ce sont des MCs que je vise Voilà léquipe au complet Si tu bloques sur un style en cloque nous on s'moque pas On s'fout de toi on trouve pas de production en stock mec T'es fada, tu vois qu'ici-bas c'est comme dix doigts S'il faut les fermer en poing je viens oh les gars On sla fait du sud la forme du sud pour la norme Enorme et jgomme rien chauvin, cette fois j'me la donne J'te donne tout ce que j'ai, tout ce qu'on a, j'cogne dbonne foi J'te donne tout ce qu'on fait, tout ce qu'on voit comme il se doit Dans la rectitude comme d'hab' dans le sud J'représente pour mon hip-hop du sud, ouais du sud J'brûle sur mes rimes et des intérims, en stand by Skywalker moules sky s'présente pour vous quand je die faut prendre du walker Ça vient du sud, y a pas tout le monde mais on y pense mec J'rappe sur mes lots de strings, pas de femme en string J'm'exprime en rimes, extrait mes rimes sur scène Avec ma face de Scream 2, las de ce crime imaginaire Voici mon style externe où ma magie erre en l'air comme l'escrime C'est qui qui rappe là ? Ce putain dChill simplet Dis mon rap est égal à la somme de 5 ans avec peu ou sans semelles Plus la mesure des escaliers entre mon cul maigre et mes semelles Qui smêle aura nos rimes comme arbitrage AKH au mic en marge original You might also like Le Sud fout le waï man, swingue les sound man dans ton walkman Trop de son boy s'trainent pour des canailles Combien sont de taille pour la bataille en vérité ? Mec sors du néant De la bouche béante du dragon la brume annonce son aura Roulement de tambour devant le duc de Mars ah Mes compagnons de guerre j'donne la réplique aux tyr-mars Parle de réussite sous le sceau de ma ville Sous la Lune qui vacille d'horreur devant mon épée unique qui scintille Je brime l'élite mais y'a plus âme qui vive, au loin Dans les profondeurs du sud la poussière, s'élève le butin de glaives Jetés à terre pour la trêve, tu parles de représent ? Putain ouais on représente, défend le hip-hop du sud Putain dmerde on le rentre ainsi Être MC, trop sérieux pour que je tlaisse l'être MC Si je suis ici c'est pour toi, je parle donc suis même si c'est dur J'insiste sur le fait que mes stylos incisent seront les clous de ton cercueil Écoute Va t'en de là ! La misère fait tant de gros titres, putain verbe egotrip Même si le slip des gos strempe je peux pas, sûr que je changerai rien Écrire c'est pisser dans un violon, je sais mais si y a que ça Sans dec' trop de sang d'encre dans ce semblant de quotidien C'est sans dent que je parle, j'm'entends mec M'exhorte qu'à l'introspection Le déboule annonce la souche la base née de la bouse innée Notre arme bousille, faudra que tu poses tes fesses talquées sur le coussinet 1.3, le clan des égorgeurs de coussinets présent comme le yéti carré Si on sort c'est pour piétiner, essuie l'assaut lancé depuis le pays des Là où le pavé rugueux rugit et le cul des cavés rougit Je te présente la race rouge vif, l'encre et la fougue en folie La charge de la rime grasse lourde, bref une tuerie en live du midi Et c'est comme ça qu'on le sert ici sec, le Sud reste une valeur sûre Ça se sait, sur ce je signe Serval, salut ! X2 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes Le Sud fout le waï man, swingue les sound man dans ton walkman Trop de son boy s'trainent pour des canailles Combien sont de taille pour la bataille en vérité ? Un casseur de rimes sur toi, j'suis pas paranoïaque, moi Narre à bout baboni je vexe sur le mic, j'ai pas le choix Si t'es pas large hein, si t'as pas large hein Prends du vice ou glisse sur le précipice, pisse et mc Mes phrases dansent en transe sur une touche arabisante Sans forcer, j'force les sablés ta clique en bois Accentue ici accentue le sud soudé Mon seul souhait que je défends borné sur toutes les scènes Combien de frères se sont soulevés, ont sifflé, soufflés sur ma musique ? Stoppe ta flop, stoppe les dropes, on n'est pas à Saint-Top' ici C'est notre hip-hop d'ici, notre propre cop plane Mieux renseigné que ce con d'land Mars pour le terrain, c'est du scotchland, c'est tout pour tes reins Sous bande free la propagande mieux qu'un coup de bottin En garde à vue, t'as beau prétendre, j'vais t'en mettre plein la vue Vu ? Pas parti du big ben, sûr, nous, c'est du big pen C'est à toi que je pique man, on fout putain ! Nos vies des best-sellers des thrillers en live, des killers en vibe Ce qu'on cherche, à la base, c'est nos verbes, c'est tout Le revers de la rue se présente chez vous mieux qu'un checu C'est Mars le Sud, au fou, Belsunce je représente Sur pépé, flafa tu sais X2 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes Le Sud fout le waï man, swingue les sound man dans ton walkman Trop de son boy s'trainent pour des canailles Combien sont de taille pour la bataille en vérité ? Voila léquipe au complet X2 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes X4 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes C'est notre hip-hop, du sud, et pas celui des autres, tu lsais !</t>
+          <t>On envahit les avec des rimes 'Augmente le son Ce sont des MCs que je vise Voilà léquipe au complet Si tu bloques sur un style en cloque nous on s'moque pas On s'fout de toi on trouve pas de production en stock mec T'es fada, tu vois qu'ici-bas c'est comme dix doigts S'il faut les fermer en poing je viens oh les gars On sla fait du sud la forme du sud pour la norme Enorme et jgomme rien chauvin, cette fois j'me la donne J'te donne tout ce que j'ai, tout ce qu'on a, j'cogne dbonne foi J'te donne tout ce qu'on fait, tout ce qu'on voit comme il se doit Dans la rectitude comme d'hab' dans le sud J'représente pour mon hip-hop du sud, ouais du sud J'brûle sur mes rimes et des intérims, en stand by Skywalker moules sky s'présente pour vous quand je die faut prendre du walker Ça vient du sud, y a pas tout le monde mais on y pense mec J'rappe sur mes lots de strings, pas de femme en string J'm'exprime en rimes, extrait mes rimes sur scène Avec ma face de Scream 2, las de ce crime imaginaire Voici mon style externe où ma magie erre en l'air comme l'escrime C'est qui qui rappe là ? Ce putain dChill simplet Dis mon rap est égal à la somme de 5 ans avec peu ou sans semelles Plus la mesure des escaliers entre mon cul maigre et mes semelles Qui smêle aura nos rimes comme arbitrage AKH au mic en marge original Le Sud fout le waï man, swingue les sound man dans ton walkman Trop de son boy s'trainent pour des canailles Combien sont de taille pour la bataille en vérité ? Mec sors du néant De la bouche béante du dragon la brume annonce son aura Roulement de tambour devant le duc de Mars ah Mes compagnons de guerre j'donne la réplique aux tyr-mars Parle de réussite sous le sceau de ma ville Sous la Lune qui vacille d'horreur devant mon épée unique qui scintille Je brime l'élite mais y'a plus âme qui vive, au loin Dans les profondeurs du sud la poussière, s'élève le butin de glaives Jetés à terre pour la trêve, tu parles de représent ? Putain ouais on représente, défend le hip-hop du sud Putain dmerde on le rentre ainsi Être MC, trop sérieux pour que je tlaisse l'être MC Si je suis ici c'est pour toi, je parle donc suis même si c'est dur J'insiste sur le fait que mes stylos incisent seront les clous de ton cercueil Écoute Va t'en de là ! La misère fait tant de gros titres, putain verbe egotrip Même si le slip des gos strempe je peux pas, sûr que je changerai rien Écrire c'est pisser dans un violon, je sais mais si y a que ça Sans dec' trop de sang d'encre dans ce semblant de quotidien C'est sans dent que je parle, j'm'entends mec M'exhorte qu'à l'introspection Le déboule annonce la souche la base née de la bouse innée Notre arme bousille, faudra que tu poses tes fesses talquées sur le coussinet 1.3, le clan des égorgeurs de coussinets présent comme le yéti carré Si on sort c'est pour piétiner, essuie l'assaut lancé depuis le pays des Là où le pavé rugueux rugit et le cul des cavés rougit Je te présente la race rouge vif, l'encre et la fougue en folie La charge de la rime grasse lourde, bref une tuerie en live du midi Et c'est comme ça qu'on le sert ici sec, le Sud reste une valeur sûre Ça se sait, sur ce je signe Serval, salut ! X2 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes Le Sud fout le waï man, swingue les sound man dans ton walkman Trop de son boy s'trainent pour des canailles Combien sont de taille pour la bataille en vérité ? Un casseur de rimes sur toi, j'suis pas paranoïaque, moi Narre à bout baboni je vexe sur le mic, j'ai pas le choix Si t'es pas large hein, si t'as pas large hein Prends du vice ou glisse sur le précipice, pisse et mc Mes phrases dansent en transe sur une touche arabisante Sans forcer, j'force les sablés ta clique en bois Accentue ici accentue le sud soudé Mon seul souhait que je défends borné sur toutes les scènes Combien de frères se sont soulevés, ont sifflé, soufflés sur ma musique ? Stoppe ta flop, stoppe les dropes, on n'est pas à Saint-Top' ici C'est notre hip-hop d'ici, notre propre cop plane Mieux renseigné que ce con d'land Mars pour le terrain, c'est du scotchland, c'est tout pour tes reins Sous bande free la propagande mieux qu'un coup de bottin En garde à vue, t'as beau prétendre, j'vais t'en mettre plein la vue Vu ? Pas parti du big ben, sûr, nous, c'est du big pen C'est à toi que je pique man, on fout putain ! Nos vies des best-sellers des thrillers en live, des killers en vibe Ce qu'on cherche, à la base, c'est nos verbes, c'est tout Le revers de la rue se présente chez vous mieux qu'un checu C'est Mars le Sud, au fou, Belsunce je représente Sur pépé, flafa tu sais X2 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes Le Sud fout le waï man, swingue les sound man dans ton walkman Trop de son boy s'trainent pour des canailles Combien sont de taille pour la bataille en vérité ? Voila léquipe au complet X2 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes X4 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes C'est notre hip-hop, du sud, et pas celui des autres, tu lsais !</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C'est pas normal qu'on sache pas C'est pas normal Jaïd, tu sais écoute ça C'est pas normal comme beaucoup d'choses sur le globe Mais qu'est ce que la norme? Ou j'peux encore puiser l'espoir pour les mômes Dans la justesse de la justice, jamais d'la vie Justement, juste un mot pour ceux dont rien d'leur vie Ne servira d'exemple au pur sens du mot Trop d'morts encore pour un trop p'tit monde derrière les barreaux On s'moque de qui en bas ? ils doivent se dire eux là-haut On s'moque de savoir à qui ça profite Et j'parie gros sur les enjeux qui nous dépassent une fois d'plus La ruse qui m'endormira une fois d'plus Les familles pleurent et les larmes ne servent qu'à pleurer encore C'est pas normal, que j'sois là à parler encore Y a trop de morts Qu'est-ce que j'y peux moi ? Si les capotes sont pas gratuites Dis-moi qu'y a pas de budget pour ça, avec les fuites qu'y a Normal ils t'diront, y a déjà pas d'pognon pour la recherche alors on S'branle avec ce qu'on a, et qu'on aille tous se faire foutre Chez eux on rit d'Afrique, d'homo, d'hémophiles comme cobayes On parle de magouille devant les domestiques thaï Moi jeune du hip-hop parano inculte qu'on n'écoute pas Je dis qu'c'est pas normal qu'on sache pas You might also like C'est pas normal qu'on sache pas Que chaque fois qu'on veuille savoir c'est comme ça Qu'on bute sur un tissu d'doutes mais on s'en fout d'moi De c'que j'sais, de c'que j'crois J'dérange pas, contrairement à c'qu'on croit C'qu'on croit Face à eux j'fais pas l'poids C'qu'on croit J'dérange pas Alors j'me résigne et crois-moi j'aime pas ça J'me désigne pour m'occuper d'rien, j'me dis cherche pas La vérité où elle n'est pas, le comment du pourquoi Autant de morts à nouveau qu'à chaque nouveau pourquoi ? On meurt pas qu'de ça, non mais c'truc est trop sale Comme échappé d'un labo au stade d'étude un scandale Fruit d'la recherche en blouse blanche qui veut s'faire des frayeurs Qui joue avec les tubes pour la reconnaissance et l'honneur Qu'on ait l'virus de la science ça s'comprend dans un sens Le problème de la science c'est qu'on sait jamais dans quel sens on est En-dessous de cette façade, faut pas s'leurrer On ment aux séropo en leur disant faut pas pleurer Les traitements coûtent cher ils ont qu'à leur payer Ils ont qu'à financer si vraiment c'est une priorité Y a pas d'argent dans les bonnes caisses, y a qu'des restes C'est vraiment pas l'choix qu'ils ont les pauvres, ceux qui restent J'pense qu'on sait seulement c'qu'on veut nous laisser savoir J'pense que j'aurais besoin d'plus pour mieux y voir Moi, jeune du hip-hop, parano inculte qu'on n'écoute pas J'dis qu'c'est pas normal qu'on sache pas C'est pas normal qu'on sache pas C'est pas normal Jaïd C'est pas normal qu'on sache pas C'est pas normal qu'on sache pas Que chaque fois qu'on veuille savoir c'est comme ça Qu'on bute sur un tissu d'doutes mais on s'en fout d'moi De c'que j'sais, de c'que j'crois J'dérange pas, contrairement à c'qu'on croit C'qu'on croit Face à eux j'fais pas l'poids Tu l'sais Def Bond pour Sad Hill Mars 2000 Jaïd Sur un air positif Shurik'n Marseille</t>
+          <t>C'est pas normal qu'on sache pas C'est pas normal Jaïd, tu sais écoute ça C'est pas normal comme beaucoup d'choses sur le globe Mais qu'est ce que la norme? Ou j'peux encore puiser l'espoir pour les mômes Dans la justesse de la justice, jamais d'la vie Justement, juste un mot pour ceux dont rien d'leur vie Ne servira d'exemple au pur sens du mot Trop d'morts encore pour un trop p'tit monde derrière les barreaux On s'moque de qui en bas ? ils doivent se dire eux là-haut On s'moque de savoir à qui ça profite Et j'parie gros sur les enjeux qui nous dépassent une fois d'plus La ruse qui m'endormira une fois d'plus Les familles pleurent et les larmes ne servent qu'à pleurer encore C'est pas normal, que j'sois là à parler encore Y a trop de morts Qu'est-ce que j'y peux moi ? Si les capotes sont pas gratuites Dis-moi qu'y a pas de budget pour ça, avec les fuites qu'y a Normal ils t'diront, y a déjà pas d'pognon pour la recherche alors on S'branle avec ce qu'on a, et qu'on aille tous se faire foutre Chez eux on rit d'Afrique, d'homo, d'hémophiles comme cobayes On parle de magouille devant les domestiques thaï Moi jeune du hip-hop parano inculte qu'on n'écoute pas Je dis qu'c'est pas normal qu'on sache pas C'est pas normal qu'on sache pas Que chaque fois qu'on veuille savoir c'est comme ça Qu'on bute sur un tissu d'doutes mais on s'en fout d'moi De c'que j'sais, de c'que j'crois J'dérange pas, contrairement à c'qu'on croit C'qu'on croit Face à eux j'fais pas l'poids C'qu'on croit J'dérange pas Alors j'me résigne et crois-moi j'aime pas ça J'me désigne pour m'occuper d'rien, j'me dis cherche pas La vérité où elle n'est pas, le comment du pourquoi Autant de morts à nouveau qu'à chaque nouveau pourquoi ? On meurt pas qu'de ça, non mais c'truc est trop sale Comme échappé d'un labo au stade d'étude un scandale Fruit d'la recherche en blouse blanche qui veut s'faire des frayeurs Qui joue avec les tubes pour la reconnaissance et l'honneur Qu'on ait l'virus de la science ça s'comprend dans un sens Le problème de la science c'est qu'on sait jamais dans quel sens on est En-dessous de cette façade, faut pas s'leurrer On ment aux séropo en leur disant faut pas pleurer Les traitements coûtent cher ils ont qu'à leur payer Ils ont qu'à financer si vraiment c'est une priorité Y a pas d'argent dans les bonnes caisses, y a qu'des restes C'est vraiment pas l'choix qu'ils ont les pauvres, ceux qui restent J'pense qu'on sait seulement c'qu'on veut nous laisser savoir J'pense que j'aurais besoin d'plus pour mieux y voir Moi, jeune du hip-hop, parano inculte qu'on n'écoute pas J'dis qu'c'est pas normal qu'on sache pas C'est pas normal qu'on sache pas C'est pas normal Jaïd C'est pas normal qu'on sache pas C'est pas normal qu'on sache pas Que chaque fois qu'on veuille savoir c'est comme ça Qu'on bute sur un tissu d'doutes mais on s'en fout d'moi De c'que j'sais, de c'que j'crois J'dérange pas, contrairement à c'qu'on croit C'qu'on croit Face à eux j'fais pas l'poids Tu l'sais Def Bond pour Sad Hill Mars 2000 Jaïd Sur un air positif Shurik'n Marseille</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>My chinese connectionI got Encore un piège précis, je suis dispo je te l'ai déjà dit Alors c'est quoi cette fois, sur mon terrain tu me lances un défi ? Comme le 113 je pourrais te braquer même pour du toc Aujourd'hui jte perds dans les rues de Bangkok Avec ma chinese connection, tu veux friser l'exploit Def Bond la relève de sean , prise l'espoir M'avoir vu dans une vidéo et tout je m'en fous Blondin dit moi ce que je fais avec ces mecs Debout on est resté tu lsais, tomber ça serait tout gâcher tu le sais Pourquoi ils croient qu'on bosse alors, pour tchatcher ? Aller ah ! 12 ans comme un crève dans les aléas Disons que si j'en crève je serais au moins allé là Mic dans la main, la rage, la même qu'au début La même pêche, la même mèche, prête à flamber comme au début Tu sais quoi ? Même après la fin du monde je ferais la fête Je ne perds rien pour attendre peut-être, mais rien ne m'arrête Ni un spectre rusé, ni deux ou trois belles filles Ni quatre bad critiques, ni un type qui crois qu'il me nique Rien de tout ça, à mon âge, en dehors du FUN On peut te surprendre moi et ma chinese connection Pile tranquille, mais face j'ai pas de face et si ça file Que les fausses feintes fusent, j'y ferais face et habile J'aurais des tours sur moi, plus d'un et pas dla magie Réalise, tu parles au vieux loup de mer, je peux être You might also like Rusé comme un taxi à Bangkok Louche comme une Rolex à Hong Kong Net comme une rue à Singapour Yin Yang muable, si ça vire j'ai ma chinese connection Dur comme la prison à Manille Souple comme une danse à Jakarta Froid comme le Jade, lisse comme la soie Yin Yang muable, si ça vire j'ai ma Chinese connection Demande à Jahid si en boxe thaï On prend jamais de coups et si même pas sûr des siens on staille Mais ne recule devant rien, dans la vie comme eux sur le ring A chaque point je trinque au café au lait glace, chin ! A la santé dceux qui msuivent de trop près ou de trop loin Et qui suivront tout de trop près ou de trop loin sans moi demain De toutes façons, les routes se tracent à coup de combinaisons A coup dcoude invisible et pour les mêmes raisons Cash, place, class, devant la glace, dédicace Aux jeunes du quartier les plus perspicaces En place cousin, c'est ça que tu veux pour toi demain Faire quelque chose enfin de ta voix ou dtes mains Mais pour ça, si tu veux tomber les barrières de corail au sabre Pour une fois dans llagon rester dur comme du marbre N'oublie jamais que l'eau ronge la plus dure des roches quand même Avec le temps, tout vaut la peine, respecte le Nem Fais comme les gosses dans la misère au soleil qui splaignent pas Fais le mais comme t' y es pas là bas, frappe celui qui tpaye pas Soit rusé, louche, net, dur, souple Dans l'action des forces qui nous règlent, sois Rusé comme un taxi à Bangkok Louche comme une Rolex à Hong Kong Net comme une rue à Singapour Yin Yang muable, si ça vire j'ai ma chinese connection Dur comme la prison à Manille Souple comme une danse à Jakarta Froid comme le Jade, lisse comme la soie Yin Yang muable, si ça vire j'ai ma Chinese connection</t>
+          <t>My chinese connectionI got Encore un piège précis, je suis dispo je te l'ai déjà dit Alors c'est quoi cette fois, sur mon terrain tu me lances un défi ? Comme le 113 je pourrais te braquer même pour du toc Aujourd'hui jte perds dans les rues de Bangkok Avec ma chinese connection, tu veux friser l'exploit Def Bond la relève de sean , prise l'espoir M'avoir vu dans une vidéo et tout je m'en fous Blondin dit moi ce que je fais avec ces mecs Debout on est resté tu lsais, tomber ça serait tout gâcher tu le sais Pourquoi ils croient qu'on bosse alors, pour tchatcher ? Aller ah ! 12 ans comme un crève dans les aléas Disons que si j'en crève je serais au moins allé là Mic dans la main, la rage, la même qu'au début La même pêche, la même mèche, prête à flamber comme au début Tu sais quoi ? Même après la fin du monde je ferais la fête Je ne perds rien pour attendre peut-être, mais rien ne m'arrête Ni un spectre rusé, ni deux ou trois belles filles Ni quatre bad critiques, ni un type qui crois qu'il me nique Rien de tout ça, à mon âge, en dehors du FUN On peut te surprendre moi et ma chinese connection Pile tranquille, mais face j'ai pas de face et si ça file Que les fausses feintes fusent, j'y ferais face et habile J'aurais des tours sur moi, plus d'un et pas dla magie Réalise, tu parles au vieux loup de mer, je peux être Rusé comme un taxi à Bangkok Louche comme une Rolex à Hong Kong Net comme une rue à Singapour Yin Yang muable, si ça vire j'ai ma chinese connection Dur comme la prison à Manille Souple comme une danse à Jakarta Froid comme le Jade, lisse comme la soie Yin Yang muable, si ça vire j'ai ma Chinese connection Demande à Jahid si en boxe thaï On prend jamais de coups et si même pas sûr des siens on staille Mais ne recule devant rien, dans la vie comme eux sur le ring A chaque point je trinque au café au lait glace, chin ! A la santé dceux qui msuivent de trop près ou de trop loin Et qui suivront tout de trop près ou de trop loin sans moi demain De toutes façons, les routes se tracent à coup de combinaisons A coup dcoude invisible et pour les mêmes raisons Cash, place, class, devant la glace, dédicace Aux jeunes du quartier les plus perspicaces En place cousin, c'est ça que tu veux pour toi demain Faire quelque chose enfin de ta voix ou dtes mains Mais pour ça, si tu veux tomber les barrières de corail au sabre Pour une fois dans llagon rester dur comme du marbre N'oublie jamais que l'eau ronge la plus dure des roches quand même Avec le temps, tout vaut la peine, respecte le Nem Fais comme les gosses dans la misère au soleil qui splaignent pas Fais le mais comme t' y es pas là bas, frappe celui qui tpaye pas Soit rusé, louche, net, dur, souple Dans l'action des forces qui nous règlent, sois Rusé comme un taxi à Bangkok Louche comme une Rolex à Hong Kong Net comme une rue à Singapour Yin Yang muable, si ça vire j'ai ma chinese connection Dur comme la prison à Manille Souple comme une danse à Jakarta Froid comme le Jade, lisse comme la soie Yin Yang muable, si ça vire j'ai ma Chinese connection</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sans toi il n'y a pas de session, pas de sexy section Pas de rêve ni de chaleur, en fait pas de raison Pour une robe d'être fendue, un mec d'être tendu Donne-toi le feu vert, amène des filles, je veux que tu Check bien le style avant de sortir Une touche de sexy que l'on admire Le rouge sur les lèvres, un bustier qui lève on aime ça, et Laisse-moi le temps de voir la soirée se dérouler en douceur Leurs Boogie dans le secteur Que mon équipe de loups se dise My love Pour les courbes et les chutes de reins One love ! Rendez-vous ici après le show Laisse-moi raide dingue Bang bang Yo Hausse les degrés et le niveau de ces nuits Montre-moi que tu règnes ici, Club sessions ! Danse ! Get up Encore une fois bouge ton booty Danse ! get up N'hésite pas pour moi vas-y Réveille le yang sur le titre jusqu'à cinq du mat Réveille les petites et qu'elles posent le sac Donne le sourire au boss et la soif au crew Sème du sex-appeal un peu de partout et Envoie le Crystal et la glace à gogo Que ça parte en freestyle sur les cuisses à Momo Dis-leur qu'on est réglo dans le jeu mais le gage C'est que ce soir elles soient moins sages et Laisse-moi le temps de voir la soirée se dérouler en sueur Fat Boogie dans le secteur Laisse tes amies et prend ma clef My love Viens dans mon Bains douches et fait mousser le Dove Invite-toi ici après le show Laisse-moi raide dingue Bang bang Yo Hausse les degrés et le niveau de mes nuits Montre-moi que tu règnes ici, club sessions You might also like Danse ! Get up Encore une fois bouge ton booty Danse ! get up N'hésite pas pour moi vas-y Sur le mix, vas-y Danse, n'hésite pas pour moi vas-y</t>
+          <t>Sans toi il n'y a pas de session, pas de sexy section Pas de rêve ni de chaleur, en fait pas de raison Pour une robe d'être fendue, un mec d'être tendu Donne-toi le feu vert, amène des filles, je veux que tu Check bien le style avant de sortir Une touche de sexy que l'on admire Le rouge sur les lèvres, un bustier qui lève on aime ça, et Laisse-moi le temps de voir la soirée se dérouler en douceur Leurs Boogie dans le secteur Que mon équipe de loups se dise My love Pour les courbes et les chutes de reins One love ! Rendez-vous ici après le show Laisse-moi raide dingue Bang bang Yo Hausse les degrés et le niveau de ces nuits Montre-moi que tu règnes ici, Club sessions ! Danse ! Get up Encore une fois bouge ton booty Danse ! get up N'hésite pas pour moi vas-y Réveille le yang sur le titre jusqu'à cinq du mat Réveille les petites et qu'elles posent le sac Donne le sourire au boss et la soif au crew Sème du sex-appeal un peu de partout et Envoie le Crystal et la glace à gogo Que ça parte en freestyle sur les cuisses à Momo Dis-leur qu'on est réglo dans le jeu mais le gage C'est que ce soir elles soient moins sages et Laisse-moi le temps de voir la soirée se dérouler en sueur Fat Boogie dans le secteur Laisse tes amies et prend ma clef My love Viens dans mon Bains douches et fait mousser le Dove Invite-toi ici après le show Laisse-moi raide dingue Bang bang Yo Hausse les degrés et le niveau de mes nuits Montre-moi que tu règnes ici, club sessions Danse ! Get up Encore une fois bouge ton booty Danse ! get up N'hésite pas pour moi vas-y Sur le mix, vas-y Danse, n'hésite pas pour moi vas-y</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>x2 Tous veulent le succès, le luxe, le bizz pousse à l'excès Pas facile c'est ça qu'c'est, on glisse, tu rêves pas, tu peux t'pincer L'eau coulait sous les ponts depuis Quelques Gouttes Ghetto superstar, la gloire regarde c'qu'elle nous coute Les mains s'lèvent toutes, le monde est à nous, on est damnés Nos beats condamnés, 2000 Ärsenik et Def Bond Trop d'rappeurs en CDD, j'bondis Sur bande j'fais des dédicaces aux bandits Je scande mon rap tandis qu'tu demandes comment on fait Tant qu'on digue nos rivières couleur or, ça va sans dire À croire que ma place vaut d'l'or, que pour elle on m'veut mort Tu sais c'qui s'passe dehors, on est du même bord Donc j'vois qu'j'm'en sors hein, rassure-moi, dis-moi qu'ouais Pas plus franc qu'nous dans c'consort, dis-moi qu'tu l'sais Le succès c'est rien d'autre que notre vice à éviter Mais s'ils t'invitent, fais comme les autres, viens profiter J'suis pas l'dernier des cons pour laisser passer ça Et j'suis pas l'premier des fions pour m'arroser trop d'ça x2 Tous veulent le succès, le luxe, le bizz pousse à l'excès Pas facile c'est ça qu'c'est, on glisse, tu rêves pas, tu peux t'pincer You might also like La piaille autour de moi taille sec et j'ouvre mon cahier Tes mots m'écaillent avec moi mais certains jurent de tout grailler Le jeu a changé et au final on veut tout manger Droit à plus de sourires donc plus de danger Quand j'ai rangé mes bras et ris pour des vers l'enjeu A prit de l'ampleur, certains rotent d'un moment haït Ça caille sec dans mon dos l'été Péter au box office, amasser avant d'tout arrêter On prend des risques, sur disques on dit c'qu'on pense De là à s'fixer sur du fictif, nous on vit c'qu'on lance Oublie l'champ' et les femmes, les belles caisses notre came C'est quand les cam' sur off sur un beat, des MC dans l'âme Comme Lino, Calbo, en 2000 j'me cale au son Qui faut c'qui font, on ramasse au K.O Si l'bizz est un dard, j'ai toute la vie pour qu'il m'pique On essaye juste de rester Def Bond et Ärsenik x2 Tous veulent le succès, le luxe, le bizz pousse à l'excès Pas facile c'est ça qu'c'est, on glisse, tu rêves pas, tu peux t'pincer Mais qu'est-ce que tu veux qu'j'dise à ma môme quand elle sera grande ? Désolé, papa était underground Merde à la sère-mi, à ceux qui voudraient m'voir y rester Dans c'bizz, roule à 200 fonce-dé sans permis Désormais, j'permets plus, j'termine et j'kicke Ça pour faire mal, les poings et le front fermés Cputain dsuccès cest comme cfric au fond dma veste Ça aiguise les larmes des peu dproches qui mreste Jpose ma valise, sur son jvalse, les bandits salivent Tout cqui marrive, jlai mérité, je sais qujtenivre Jte blesse sur lbeat, bang, je sais qules vrais lsavent Ils kiffent le poison à la sauce Blondin sur Sad Hill Pour ta gouverne, jreste le même, lhiver jhiberne Couche dla rime sale à la gueule dceux qui nous bernent Tu lsais, même sur beat disco, on est pas discrets Dis cque tu veux quand tentendras ce son sur ldisque Secteur Ä pour Mars 2000, tu lsais 2 triple 0 x5 Tous veulent le succès, le luxe, le bizz pousse à l'excès Pas facile c'est ça qu'c'est, on glisse, tu rêves pas, tu peux t'pincer</t>
+          <t>x2 Tous veulent le succès, le luxe, le bizz pousse à l'excès Pas facile c'est ça qu'c'est, on glisse, tu rêves pas, tu peux t'pincer L'eau coulait sous les ponts depuis Quelques Gouttes Ghetto superstar, la gloire regarde c'qu'elle nous coute Les mains s'lèvent toutes, le monde est à nous, on est damnés Nos beats condamnés, 2000 Ärsenik et Def Bond Trop d'rappeurs en CDD, j'bondis Sur bande j'fais des dédicaces aux bandits Je scande mon rap tandis qu'tu demandes comment on fait Tant qu'on digue nos rivières couleur or, ça va sans dire À croire que ma place vaut d'l'or, que pour elle on m'veut mort Tu sais c'qui s'passe dehors, on est du même bord Donc j'vois qu'j'm'en sors hein, rassure-moi, dis-moi qu'ouais Pas plus franc qu'nous dans c'consort, dis-moi qu'tu l'sais Le succès c'est rien d'autre que notre vice à éviter Mais s'ils t'invitent, fais comme les autres, viens profiter J'suis pas l'dernier des cons pour laisser passer ça Et j'suis pas l'premier des fions pour m'arroser trop d'ça x2 Tous veulent le succès, le luxe, le bizz pousse à l'excès Pas facile c'est ça qu'c'est, on glisse, tu rêves pas, tu peux t'pincer La piaille autour de moi taille sec et j'ouvre mon cahier Tes mots m'écaillent avec moi mais certains jurent de tout grailler Le jeu a changé et au final on veut tout manger Droit à plus de sourires donc plus de danger Quand j'ai rangé mes bras et ris pour des vers l'enjeu A prit de l'ampleur, certains rotent d'un moment haït Ça caille sec dans mon dos l'été Péter au box office, amasser avant d'tout arrêter On prend des risques, sur disques on dit c'qu'on pense De là à s'fixer sur du fictif, nous on vit c'qu'on lance Oublie l'champ' et les femmes, les belles caisses notre came C'est quand les cam' sur off sur un beat, des MC dans l'âme Comme Lino, Calbo, en 2000 j'me cale au son Qui faut c'qui font, on ramasse au K.O Si l'bizz est un dard, j'ai toute la vie pour qu'il m'pique On essaye juste de rester Def Bond et Ärsenik x2 Tous veulent le succès, le luxe, le bizz pousse à l'excès Pas facile c'est ça qu'c'est, on glisse, tu rêves pas, tu peux t'pincer Mais qu'est-ce que tu veux qu'j'dise à ma môme quand elle sera grande ? Désolé, papa était underground Merde à la sère-mi, à ceux qui voudraient m'voir y rester Dans c'bizz, roule à 200 fonce-dé sans permis Désormais, j'permets plus, j'termine et j'kicke Ça pour faire mal, les poings et le front fermés Cputain dsuccès cest comme cfric au fond dma veste Ça aiguise les larmes des peu dproches qui mreste Jpose ma valise, sur son jvalse, les bandits salivent Tout cqui marrive, jlai mérité, je sais qujtenivre Jte blesse sur lbeat, bang, je sais qules vrais lsavent Ils kiffent le poison à la sauce Blondin sur Sad Hill Pour ta gouverne, jreste le même, lhiver jhiberne Couche dla rime sale à la gueule dceux qui nous bernent Tu lsais, même sur beat disco, on est pas discrets Dis cque tu veux quand tentendras ce son sur ldisque Secteur Ä pour Mars 2000, tu lsais 2 triple 0 x5 Tous veulent le succès, le luxe, le bizz pousse à l'excès Pas facile c'est ça qu'c'est, on glisse, tu rêves pas, tu peux t'pincer</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>L'histoire c'est comme un hold-up dans la banque de données Ils t'aiment pas , ils m'aiment pas ? Le contraire m'aurait étonné Je suis pas le genre de français qui ! Puffy Qui le premier descend ce qui ce fait de semblable chez lui Je rentre plus dans ce putain de débat depuis longtemps Sacrement l'impression d'y perdre mon temps D'expériences, à la gestion d'une carrière ce que je pense Tu le penses pas, c'est là notre seule différence Je parle pas de money, de morale, de réussite Mais dans ce que j'aime faire fiston, je vois une suite Si j'étais borné asocial, je serais chez moi A écrire mes textes et à dire que j'emmerde tout le monde Mais le monde je l'aime et si j'ai écrit ça chez moi Je veux que ça aille partout, même là où je vais pas En moi y a pas de comédie jouée devant une astuce Je veux pas voir un ghetto de plus Je veux passer mes nuits à bouger Je ne demande rien de plus que ça tu le sais Rêver, pour qui je devrais me justifier Si tu causes trop et pour rien, je dis pas que tu comprends gouffre Si en plus t'y es DJ, je dis pas enlève tes moufles Alors lâche moi les , mets des De nous deux, le mec qui a les boules, qui est-ce ? Ouais c'est moi, t'es qui ? je t'ai jamais vu me donner à bouffer Quand j'étais dans la merde, t'y a du dire on s'en fout de ce PD Je te connais, je sais comment tu raisonnes Personne te fait chier, tu ne peux pas ne faire chier personne Tu me dis ouais le respect, la tolérance dans tous les morceaux Repenche-toi bien sur ce que je fais, je suis pas Manau Mais non minot, je suis de l'époque où on breakait sur le lino Où on rappait sur Good times sans le stylo N'importe comment, ce comportement c'est français Si ton Kif c'est New-York tu parles mal l'anglais Ils vont te rire au nez si tu leur dis que tu veux être Underground Ton Underground mec, je suis underground ! Même avec un Get up un Get-down une bassline de Change Le funk il a démarré où, emm, en Inde ? Sois pas aigri ou comme Zoxea, demande moi ce que j'ai écrit Quand tu ouvres la bouche fais le tri You might also like Je veux passer mes nuits à bouger Je ne demande rien de plus que ça tu le sais Rêver, pour qui je devrais me justifier Je parle pas de money, de morale, de réussite Mais dans ce que j'aime faire fiston, je vois une suite En moi y a pas de comédie jouée devant une astuce Je veux pas voir un ghetto de plus Je veux passer mes nuits à bouger Je ne demande rien de plus que ça tu le sais Rêver, pour qui je devrais me justifier</t>
+          <t>L'histoire c'est comme un hold-up dans la banque de données Ils t'aiment pas , ils m'aiment pas ? Le contraire m'aurait étonné Je suis pas le genre de français qui ! Puffy Qui le premier descend ce qui ce fait de semblable chez lui Je rentre plus dans ce putain de débat depuis longtemps Sacrement l'impression d'y perdre mon temps D'expériences, à la gestion d'une carrière ce que je pense Tu le penses pas, c'est là notre seule différence Je parle pas de money, de morale, de réussite Mais dans ce que j'aime faire fiston, je vois une suite Si j'étais borné asocial, je serais chez moi A écrire mes textes et à dire que j'emmerde tout le monde Mais le monde je l'aime et si j'ai écrit ça chez moi Je veux que ça aille partout, même là où je vais pas En moi y a pas de comédie jouée devant une astuce Je veux pas voir un ghetto de plus Je veux passer mes nuits à bouger Je ne demande rien de plus que ça tu le sais Rêver, pour qui je devrais me justifier Si tu causes trop et pour rien, je dis pas que tu comprends gouffre Si en plus t'y es DJ, je dis pas enlève tes moufles Alors lâche moi les , mets des De nous deux, le mec qui a les boules, qui est-ce ? Ouais c'est moi, t'es qui ? je t'ai jamais vu me donner à bouffer Quand j'étais dans la merde, t'y a du dire on s'en fout de ce PD Je te connais, je sais comment tu raisonnes Personne te fait chier, tu ne peux pas ne faire chier personne Tu me dis ouais le respect, la tolérance dans tous les morceaux Repenche-toi bien sur ce que je fais, je suis pas Manau Mais non minot, je suis de l'époque où on breakait sur le lino Où on rappait sur Good times sans le stylo N'importe comment, ce comportement c'est français Si ton Kif c'est New-York tu parles mal l'anglais Ils vont te rire au nez si tu leur dis que tu veux être Underground Ton Underground mec, je suis underground ! Même avec un Get up un Get-down une bassline de Change Le funk il a démarré où, emm, en Inde ? Sois pas aigri ou comme Zoxea, demande moi ce que j'ai écrit Quand tu ouvres la bouche fais le tri Je veux passer mes nuits à bouger Je ne demande rien de plus que ça tu le sais Rêver, pour qui je devrais me justifier Je parle pas de money, de morale, de réussite Mais dans ce que j'aime faire fiston, je vois une suite En moi y a pas de comédie jouée devant une astuce Je veux pas voir un ghetto de plus Je veux passer mes nuits à bouger Je ne demande rien de plus que ça tu le sais Rêver, pour qui je devrais me justifier</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Business class, hôtels, que dis-je palaces Dans le luxueux je rêvasse Classe S benz toute option, direction l'avion Marseille, Hong Kong, allez simple billet basta Les mains vides, quatre carte de crédit dans mon portefeuille Champagne, hôtels sexy, gros fauteuils Digestion terminée building en vue, atterrissage risqué Taxi pour le Sheraton sur ... Traîne dans le centre et faire des affaires, restos bien choisis Star tracer sur à minuit Mon rêve commence toujours ici, se poursuit toujours à Manille La compagnie me remercie de l'avoir choisi De rien, je suis plein aux as je peux me le permettre c'est rien pour moi J'ai toujours rêvé de faire six pays en un mois Comme James Bond, partout dans le monde où ça me chante My name is Bond, Def Bond, et je suis large quand j'invente Refrain Eh Manille, j'avais pas un franc la première fois Fat flouz, ce soir je dors au Midtown Manila Tu sais bien, juste entre...boulevard et les bars Discothèque topless de la rue Del Pilar Des soirées qui glissent, des plages lisses à l'humide en ville Du ciel de plomb sur un volcan aux îles par mille Mais laisse-les dîner ? sans regret, quand je veux je reviens Garde ma villa sur mon île, je m'en vais demain Retrouver les boîtes de nuit perchées de Singapour R.A.P. R'n'B en France on est lourd Funky séjour, le luxe à tous les coins de rue Architecture pointue, la grande classe tout confondu Nuit de rêve dans ma suite au dernier donnant sur la baie Dîner, légère brise au balcon, lion éclairé Tôt le lendemain matin et pas d'avion cette fois Ce que tu vois d'un bateau tant mieux si ça ne s'achète pas Mer d'huile et ciel rangé, soleil couché dans le fond Passer la nuit sous le lune d'équateur, allongé sur le pont Pour la Thaïlande, ... Island Jet ski, jacuzzi, plages et massages body body La belle, la vraie vie, je flambe je me refuse rien Après tout, y'a pas de mal à se faire du bien Comme James Bond, partout dans le monde où ça me chante My name is Bond, Def Bond et je suis large quand j'invente You might also likeRefrain Petit escale à Maurice, soleil, sable et poissons salés Ici je bloque pas ou je risquerais de rester Le corps en vrac à bronzer croquer de l'ananas en short Il pleut en France, le froid J'ai ouïe dire que c'est le crise, peu importe Mon portefeuille se porte bien, porte le transat que je larve J'ai faim, riz frit, poissons, beignets bananes Curry ? poulet piment, grillades, mariages et baignades Plonger dans le lagon, tremper sous les cascades Tour de l'île en off shore fils, poste à fond sièges ... Le soir avec mes amis en barque, pêcher Je suis un mec simple mais j'ai des rêves de luxe Dépenses superflues, mains croisées derrière la nuque C'est pas le grand train que je souhaite mener, juste du Bien être en abondance comme 007, espion en place James Bond, partout dans le monde où ça me chante</t>
+          <t>Business class, hôtels, que dis-je palaces Dans le luxueux je rêvasse Classe S benz toute option, direction l'avion Marseille, Hong Kong, allez simple billet basta Les mains vides, quatre carte de crédit dans mon portefeuille Champagne, hôtels sexy, gros fauteuils Digestion terminée building en vue, atterrissage risqué Taxi pour le Sheraton sur ... Traîne dans le centre et faire des affaires, restos bien choisis Star tracer sur à minuit Mon rêve commence toujours ici, se poursuit toujours à Manille La compagnie me remercie de l'avoir choisi De rien, je suis plein aux as je peux me le permettre c'est rien pour moi J'ai toujours rêvé de faire six pays en un mois Comme James Bond, partout dans le monde où ça me chante My name is Bond, Def Bond, et je suis large quand j'invente Refrain Eh Manille, j'avais pas un franc la première fois Fat flouz, ce soir je dors au Midtown Manila Tu sais bien, juste entre...boulevard et les bars Discothèque topless de la rue Del Pilar Des soirées qui glissent, des plages lisses à l'humide en ville Du ciel de plomb sur un volcan aux îles par mille Mais laisse-les dîner ? sans regret, quand je veux je reviens Garde ma villa sur mon île, je m'en vais demain Retrouver les boîtes de nuit perchées de Singapour R.A.P. R'n'B en France on est lourd Funky séjour, le luxe à tous les coins de rue Architecture pointue, la grande classe tout confondu Nuit de rêve dans ma suite au dernier donnant sur la baie Dîner, légère brise au balcon, lion éclairé Tôt le lendemain matin et pas d'avion cette fois Ce que tu vois d'un bateau tant mieux si ça ne s'achète pas Mer d'huile et ciel rangé, soleil couché dans le fond Passer la nuit sous le lune d'équateur, allongé sur le pont Pour la Thaïlande, ... Island Jet ski, jacuzzi, plages et massages body body La belle, la vraie vie, je flambe je me refuse rien Après tout, y'a pas de mal à se faire du bien Comme James Bond, partout dans le monde où ça me chante My name is Bond, Def Bond et je suis large quand j'invente Refrain Petit escale à Maurice, soleil, sable et poissons salés Ici je bloque pas ou je risquerais de rester Le corps en vrac à bronzer croquer de l'ananas en short Il pleut en France, le froid J'ai ouïe dire que c'est le crise, peu importe Mon portefeuille se porte bien, porte le transat que je larve J'ai faim, riz frit, poissons, beignets bananes Curry ? poulet piment, grillades, mariages et baignades Plonger dans le lagon, tremper sous les cascades Tour de l'île en off shore fils, poste à fond sièges ... Le soir avec mes amis en barque, pêcher Je suis un mec simple mais j'ai des rêves de luxe Dépenses superflues, mains croisées derrière la nuque C'est pas le grand train que je souhaite mener, juste du Bien être en abondance comme 007, espion en place James Bond, partout dans le monde où ça me chante</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Etes-vous certain que ce plan soit infaillible ? Il l'est. Puisque j'ai tout prévu je saurai parer toute manoeuvre à percer les contretemps, tout ce qui pourrait contrarier le plan Appliquons-nous pour que sa mort soit particulièrement humiliante et indigne Oui, je vais mettre mon plan en marche immédiatement. Il n'y aura aucun échec Secret Défense, Def Bond x2 Alors comme le SPECTRE, il frappe Là ici, et revoici le même piège précis imbécile, garder les plans pour moi sans ici Faut maintenant, courir en maintenant ma seule arme mon stylo spectre c'est maintenant Il faut prouver ce que les autres croient qu'on prouve pas Trouver que le reste c'est de la merde, moi je trouve pas T'as vu mes options ? Je peux être classé en quelques sections Ca énerve, qu'est-ce que tu veux que je fasse pour toi fiston ? l'organisation Les yeux plus gros que le ventre à mon goût, pour contrôler à max, elles sont foutues Zone salie stop, avant une chose, même quand je sors d'un égout je sens la rose Caresse ton chat blanc, grosse bague au doigt Pendant que tes hommes tombent pour savoir qui je suis et où je suis moi Dehors prudent je reste vague sur mes absences, classe mes projets en Secret Défense x2 Je suis discret, distant, dispo, pas près de disparaitre Tu ne paies rien pour attendre Bond ! Rien ne m'arrête Dehors prudent je reste vague sur mes absences Classe mon truc en Secret Défense Quoi d'autre ? Je crois que le SPECTRE va pouvoir prendre une revanche personnelle. J'tai dans ma main comme mon chat persan, agent 03 sexy poumba regard persant J'suis pas héros moi je suis le vil infecte, 01 sceptre le masque de fer Gamine appelle-moi Spectre pour te servir Pour me servir tu sais quoi faire, sourire, et user de ce poison, chérie Def Bond doit mourir Le succès de la mission est un must en fait, je sais que Spectre ne tolère pas l'échec Spectre, vous vous plaisez à nous monter les uns contre les autres ! Tu peux m'envoyer tous les numéros que tu veux Mais contre 0013 Spectre, qu'est-ce que tu peux ? Enchaîne les missions, comme les dimanche mon émission Avec Kheops, Marseille, New-York en connection C'est maxi, après TAXI je reste axé, si on me dit Tu me plais Je dis je sais mais j'exagère, K.Reen croyais pas que j'étais comme ça Comme le 3 Oeil tu veux connaître mon rêve écoute ça A fond dans les clubs bouge tes fesses comme sur la FF Chronique-moi comme on chronique Mars chez Kif-Kif Tu sais que moi et Faf Larage on lache pas Que mon truc je le garde, je meurt mais je le rend pas Si on te vois pas, on dit que tu fais rien, c'est trop Si on te vois trop, on dit que t'en fais trop, c'est rien Dehors prudent, reste vague sur tes absences Classe tes projets en Secret Défense Je suis discret, distant, dispo, pas près de disparaitre Tu ne paies rien pour attendre Bond ! Rien ne m'arrête Dehors prudent je reste vague sur mes absences Classe mon truc en Secret Défense Bond est toujours en vie, et le Spectre livre toujours ce qu'il promet Notre organisation tout entière repose sur le fait que nous tenons nos promesses Je vous avais prévenu, nous ne tolérons aucun échec numéro 3, vous connaissez la sanction ? Oui numéro 1 Nos règlements sont très simples, si vous échouez...You might also like1</t>
+          <t>Etes-vous certain que ce plan soit infaillible ? Il l'est. Puisque j'ai tout prévu je saurai parer toute manoeuvre à percer les contretemps, tout ce qui pourrait contrarier le plan Appliquons-nous pour que sa mort soit particulièrement humiliante et indigne Oui, je vais mettre mon plan en marche immédiatement. Il n'y aura aucun échec Secret Défense, Def Bond x2 Alors comme le SPECTRE, il frappe Là ici, et revoici le même piège précis imbécile, garder les plans pour moi sans ici Faut maintenant, courir en maintenant ma seule arme mon stylo spectre c'est maintenant Il faut prouver ce que les autres croient qu'on prouve pas Trouver que le reste c'est de la merde, moi je trouve pas T'as vu mes options ? Je peux être classé en quelques sections Ca énerve, qu'est-ce que tu veux que je fasse pour toi fiston ? l'organisation Les yeux plus gros que le ventre à mon goût, pour contrôler à max, elles sont foutues Zone salie stop, avant une chose, même quand je sors d'un égout je sens la rose Caresse ton chat blanc, grosse bague au doigt Pendant que tes hommes tombent pour savoir qui je suis et où je suis moi Dehors prudent je reste vague sur mes absences, classe mes projets en Secret Défense x2 Je suis discret, distant, dispo, pas près de disparaitre Tu ne paies rien pour attendre Bond ! Rien ne m'arrête Dehors prudent je reste vague sur mes absences Classe mon truc en Secret Défense Quoi d'autre ? Je crois que le SPECTRE va pouvoir prendre une revanche personnelle. J'tai dans ma main comme mon chat persan, agent 03 sexy poumba regard persant J'suis pas héros moi je suis le vil infecte, 01 sceptre le masque de fer Gamine appelle-moi Spectre pour te servir Pour me servir tu sais quoi faire, sourire, et user de ce poison, chérie Def Bond doit mourir Le succès de la mission est un must en fait, je sais que Spectre ne tolère pas l'échec Spectre, vous vous plaisez à nous monter les uns contre les autres ! Tu peux m'envoyer tous les numéros que tu veux Mais contre 0013 Spectre, qu'est-ce que tu peux ? Enchaîne les missions, comme les dimanche mon émission Avec Kheops, Marseille, New-York en connection C'est maxi, après TAXI je reste axé, si on me dit Tu me plais Je dis je sais mais j'exagère, K.Reen croyais pas que j'étais comme ça Comme le 3 Oeil tu veux connaître mon rêve écoute ça A fond dans les clubs bouge tes fesses comme sur la FF Chronique-moi comme on chronique Mars chez Kif-Kif Tu sais que moi et Faf Larage on lache pas Que mon truc je le garde, je meurt mais je le rend pas Si on te vois pas, on dit que tu fais rien, c'est trop Si on te vois trop, on dit que t'en fais trop, c'est rien Dehors prudent, reste vague sur tes absences Classe tes projets en Secret Défense Je suis discret, distant, dispo, pas près de disparaitre Tu ne paies rien pour attendre Bond ! Rien ne m'arrête Dehors prudent je reste vague sur mes absences Classe mon truc en Secret Défense Bond est toujours en vie, et le Spectre livre toujours ce qu'il promet Notre organisation tout entière repose sur le fait que nous tenons nos promesses Je vous avais prévenu, nous ne tolérons aucun échec numéro 3, vous connaissez la sanction ? Oui numéro 1 Nos règlements sont très simples, si vous échouez...1</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Je sèche comme la dernière feuille d'un arbre en automne Je sais à peine ce que c'est d'être un enfant, jserais jamais un homme Un truc qui est sur c'est que si je sais pas pourquoi demain je meurs Je sais pourquoi ce soir j'ai peur Tu sais pourquoi je pleure plus quand je tombe de vélo ? Tu sais pourquoi des fois je manque l'école ? Non, c'est pas qu'il fait beau C'est que je suis fragile tu trouves ça marrant qu'à douze ans Je me force à ne pas rêver, je pourrais plus dire quand je serai grand Mes parents m'ont voulu je peux pas leur reprocher ça je sais Mais s'ils le savaient putain moi j'ai rien demandé je veux Garder mes copains et en avoir plein d'autres et Qu'est ce qu'on va leur dire demain quand ils frapperont à ma porte Je leur ai caché mon traitement comme m'a dit maman Mes cachets à la cantine quand j'y allais avant Mais moins je pesais lourd moins jcomptais pour ceux Qui me disaient différent d'eux différemment Je veux bien partir en les laissant regrettant ou pas mais fier Jsuis prêt à tenir jusqu'au bout comme mon père Il a fallu que jmûrisse vite pour tous les jours faire face au présent A présent je tremble et jfais pas semblant Je sèche comme la dernière feuille d'un arbre en automne Je sais à peine ce que c'est d'être un enfant, jserais jamais un homme Un truc qui est sur c'est que si je sais pas pourquoi demain je meurs Je sais pourquoi ce soir j'ai peur You might also like Et là jai peur parce que je sais pas où jvais Parce que j'ai pas envie d'y aller et d'abord je sais même pas comment c'est Peut-être que là-bas, les parents laissent leurs enfants parler Aux autres malades ou qu'on sraconte plus de blagues Peut-être que les cadeaux sont plus gros, qu'on en a plus à Noël Je vous jure que j'ai été sage, faites que ma vie soit belle Je m'emmêle les pensées, je m'emmêle parce que je l'ai Qui mieux que moi peut en parler merde ! Ce truc m'a rongé comme un aliment au micro-ondes et Ce soir prêt à servir la mort ? Qu'elle vienne me chercher J'ai tellement souffert que parfois j'en ai rêvé fort A souhaiter d'en finir du plus profond dmon corps Je pleure de peine et de soulagement de regrets flous sous calmants De sueurs chaudes froides devant mon dernier soir Quand un grand joue au docteur et qu'il triche voila cque ça donne Dieu, que cette larme de morphine soit la bonne ! Je sèche comme la dernière feuille d'un arbre en automne Je sais à peine ce que c'est d'être un enfant, jserais jamais un homme Un truc qui est sur c'est que si je sais pas pourquoi demain je meurs Je sais pourquoi ce soir j'ai peur</t>
+          <t>Je sèche comme la dernière feuille d'un arbre en automne Je sais à peine ce que c'est d'être un enfant, jserais jamais un homme Un truc qui est sur c'est que si je sais pas pourquoi demain je meurs Je sais pourquoi ce soir j'ai peur Tu sais pourquoi je pleure plus quand je tombe de vélo ? Tu sais pourquoi des fois je manque l'école ? Non, c'est pas qu'il fait beau C'est que je suis fragile tu trouves ça marrant qu'à douze ans Je me force à ne pas rêver, je pourrais plus dire quand je serai grand Mes parents m'ont voulu je peux pas leur reprocher ça je sais Mais s'ils le savaient putain moi j'ai rien demandé je veux Garder mes copains et en avoir plein d'autres et Qu'est ce qu'on va leur dire demain quand ils frapperont à ma porte Je leur ai caché mon traitement comme m'a dit maman Mes cachets à la cantine quand j'y allais avant Mais moins je pesais lourd moins jcomptais pour ceux Qui me disaient différent d'eux différemment Je veux bien partir en les laissant regrettant ou pas mais fier Jsuis prêt à tenir jusqu'au bout comme mon père Il a fallu que jmûrisse vite pour tous les jours faire face au présent A présent je tremble et jfais pas semblant Je sèche comme la dernière feuille d'un arbre en automne Je sais à peine ce que c'est d'être un enfant, jserais jamais un homme Un truc qui est sur c'est que si je sais pas pourquoi demain je meurs Je sais pourquoi ce soir j'ai peur Et là jai peur parce que je sais pas où jvais Parce que j'ai pas envie d'y aller et d'abord je sais même pas comment c'est Peut-être que là-bas, les parents laissent leurs enfants parler Aux autres malades ou qu'on sraconte plus de blagues Peut-être que les cadeaux sont plus gros, qu'on en a plus à Noël Je vous jure que j'ai été sage, faites que ma vie soit belle Je m'emmêle les pensées, je m'emmêle parce que je l'ai Qui mieux que moi peut en parler merde ! Ce truc m'a rongé comme un aliment au micro-ondes et Ce soir prêt à servir la mort ? Qu'elle vienne me chercher J'ai tellement souffert que parfois j'en ai rêvé fort A souhaiter d'en finir du plus profond dmon corps Je pleure de peine et de soulagement de regrets flous sous calmants De sueurs chaudes froides devant mon dernier soir Quand un grand joue au docteur et qu'il triche voila cque ça donne Dieu, que cette larme de morphine soit la bonne ! Je sèche comme la dernière feuille d'un arbre en automne Je sais à peine ce que c'est d'être un enfant, jserais jamais un homme Un truc qui est sur c'est que si je sais pas pourquoi demain je meurs Je sais pourquoi ce soir j'ai peur</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Elle veut mon sang quand elle me dit qu'elle m'aime cette diablesse Elle veut du flooze, les beaux diamants y a qu'ça qui l'intéresse Elle veut ma mort, mes potes me disent de n'pas lui céder tout l'temps Mais quand j'tombe dans ses yeux elle m'emmène où elle veut Elle veut mon sang, mon argent plus que mon cur Elle aime les zéros et les jeans plus que les fleurs Demandez-lui si elle assume, elle vous dira oui Elle veut les trucs cash pas d'crédit Du luxe dans les sorties même pour le choix des clubs Coupette dans les carrés VIP loin des pubs Lunettes glacées sous l'toit ouvert d'sa Smart Elle rêve de palace quand elle sort de son appart' Elle veut du flooze Du soleil et des sacs par douze Trop d'bijoux fantaisies, trop d'brushings, trop d'choses Trop d'shopping pour ma seule credit card Trop d'meilleures copines qui arrivent et repartent Elle dit qu'elle m'aime à tout le monde sauf à moi Elle en dira moins le jour où j'serai plus là Mais aujourd'hui elle sait que quand j'suis dans ces yeux Elle fait de moi c'qu'elle veut Elle veut mon sang quand elle me dit qu'elle m'aime cette diablesse Elle veut du flooze, les beaux diamants y a qu'ça qui l'intéresse Elle veut ma mort, mes potes me disent de n'pas lui céder tout l'temps Mais quand j'tombe dans ses yeux elle m'emmène où elle veut You might also like Elle veut ma mort, si j'reste ici c'est mon sort J'me croyais plus solide voire même plus fort J'défie le démon d'minuit les nuits d'chaque jour J'veux lui faire changer de vie et d'amis pour toujours L'emmener voir loin d'ici c'qu'est la misère du monde S'ouvrir l'esprit un peu et qu'elle arrête deux secondes Mais l'insouciance la laisse cruelle parfois Et j'lui en veut même pas J'tombe dans ces yeux et c'est tout ce qui compte quand j'suis avec Elle profite un peu beaucoup mais j'fais avec C'est le style de fille qu'on invite souvent Qui abuse de son charme consciemment tout le temps Elle souffle sur toi et tu te plies comme un roseau Protège ton cou d'ses baisers, il le faut Elle est attirée par tout c'qui l'intéresse J'te hais mais j't'aime, diablesse Elle veut mon sang quand elle me dit qu'elle m'aime cette diablesse Elle veut du flooze, les beaux diamants y a qu'ça qui l'intéresse Elle veut ma mort, mes potes me disent de n'pas lui céder tout l'temps Mais quand j'tombe dans ses yeux elle m'emmène où elle veut Elle veut mon sang, mon argent, moi je veux son cur son cur Elle est cruelle et pourtant elle me tient dans sa main Alors seul dans mon dilemme ses yeux sont ailleurs ses yeux sont ailleurs, les miens sur elle, mon Dieu Elle fait de moi c'qu'elle veut Elle veut mon sang, mon argent, moi je veux son cur son cur Elle est cruelle et pourtant elle me tient dans sa main Alors seul dans mon dilemme ses yeux sont ailleurs ses yeux sont ailleurs, sors-moi d'ce piège mon Dieu Elle fait de moi c'qu'elle veut Elle veut mon sang quand elle me dit qu'elle m'aime cette diablesse Elle veut du flooze, les beaux diamants y a qu'ça qui l'intéresse Elle veut ma mort, mes potes me disent de n'pas lui céder tout l'temps Mais quand j'tombe dans ses yeux elle m'emmène où elle veut Elle veut mon sang Elle veut du flooze Elle veut ma mort Mais quand j'tombe dans ses yeux elle m'emmène où elle veut</t>
+          <t>Elle veut mon sang quand elle me dit qu'elle m'aime cette diablesse Elle veut du flooze, les beaux diamants y a qu'ça qui l'intéresse Elle veut ma mort, mes potes me disent de n'pas lui céder tout l'temps Mais quand j'tombe dans ses yeux elle m'emmène où elle veut Elle veut mon sang, mon argent plus que mon cur Elle aime les zéros et les jeans plus que les fleurs Demandez-lui si elle assume, elle vous dira oui Elle veut les trucs cash pas d'crédit Du luxe dans les sorties même pour le choix des clubs Coupette dans les carrés VIP loin des pubs Lunettes glacées sous l'toit ouvert d'sa Smart Elle rêve de palace quand elle sort de son appart' Elle veut du flooze Du soleil et des sacs par douze Trop d'bijoux fantaisies, trop d'brushings, trop d'choses Trop d'shopping pour ma seule credit card Trop d'meilleures copines qui arrivent et repartent Elle dit qu'elle m'aime à tout le monde sauf à moi Elle en dira moins le jour où j'serai plus là Mais aujourd'hui elle sait que quand j'suis dans ces yeux Elle fait de moi c'qu'elle veut Elle veut mon sang quand elle me dit qu'elle m'aime cette diablesse Elle veut du flooze, les beaux diamants y a qu'ça qui l'intéresse Elle veut ma mort, mes potes me disent de n'pas lui céder tout l'temps Mais quand j'tombe dans ses yeux elle m'emmène où elle veut Elle veut ma mort, si j'reste ici c'est mon sort J'me croyais plus solide voire même plus fort J'défie le démon d'minuit les nuits d'chaque jour J'veux lui faire changer de vie et d'amis pour toujours L'emmener voir loin d'ici c'qu'est la misère du monde S'ouvrir l'esprit un peu et qu'elle arrête deux secondes Mais l'insouciance la laisse cruelle parfois Et j'lui en veut même pas J'tombe dans ces yeux et c'est tout ce qui compte quand j'suis avec Elle profite un peu beaucoup mais j'fais avec C'est le style de fille qu'on invite souvent Qui abuse de son charme consciemment tout le temps Elle souffle sur toi et tu te plies comme un roseau Protège ton cou d'ses baisers, il le faut Elle est attirée par tout c'qui l'intéresse J'te hais mais j't'aime, diablesse Elle veut mon sang quand elle me dit qu'elle m'aime cette diablesse Elle veut du flooze, les beaux diamants y a qu'ça qui l'intéresse Elle veut ma mort, mes potes me disent de n'pas lui céder tout l'temps Mais quand j'tombe dans ses yeux elle m'emmène où elle veut Elle veut mon sang, mon argent, moi je veux son cur son cur Elle est cruelle et pourtant elle me tient dans sa main Alors seul dans mon dilemme ses yeux sont ailleurs ses yeux sont ailleurs, les miens sur elle, mon Dieu Elle fait de moi c'qu'elle veut Elle veut mon sang, mon argent, moi je veux son cur son cur Elle est cruelle et pourtant elle me tient dans sa main Alors seul dans mon dilemme ses yeux sont ailleurs ses yeux sont ailleurs, sors-moi d'ce piège mon Dieu Elle fait de moi c'qu'elle veut Elle veut mon sang quand elle me dit qu'elle m'aime cette diablesse Elle veut du flooze, les beaux diamants y a qu'ça qui l'intéresse Elle veut ma mort, mes potes me disent de n'pas lui céder tout l'temps Mais quand j'tombe dans ses yeux elle m'emmène où elle veut Elle veut mon sang Elle veut du flooze Elle veut ma mort Mais quand j'tombe dans ses yeux elle m'emmène où elle veut</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Est-ce qu'on est prêt dans tes soirées pour le set de mon DJ Commence à dire autour de toi qu'il est en forme sur le mix Fait chauffer les Technics avant qu'il pose ses doigts dessus Si dans la nuit tu veux qu'on cause vinyle et de quoi je suis tox Quand je me brisais les reins sur les platines de Kheops On refera l'histoire du Hip Hop et la valeur de leur place Je dédie ce morceau à ceux qui scratchent à ma place Hey DJ ! Sauve ma vie cette nuit J'ai le cur brisé comme Indeep sans ce maxi Met-nous le son que je kiffe en ce moment, allez ! Il n'y a que toi qui sait comment le jouer Fait leur comprendre qui est la base Fait leur écouter ce bootleg que les derniers jaseurs écrasent En phasing, en fondu, décale si tu veux Mais fait honneur au nom rien que pour eux DJ donne plus de son Fais-moi bouger ce bordel pour de bon ici Cut Killer enchaîne les deux MK2 dans ce club, oui je veux Rester, tiser, dédier cette série rien que pour eux Faire honneur encore une fois Comme un classique je suis là pour maintenir le dancefloor Il me faut une face B, un mic, un son putain de fort Dans le sens du partage je fête mes quinze ans d'antenne Respect au DJ's sur la FM Si tu mixes par amour je sais ce que tu ressens Devant les bacs chez ton disquaire je sais ce que tu prends Rien à foutre des ventes, des classements ou de l'air-play Voilà ma tuerie en double à tester Fais-les danser encore jusqu'au bout de la nuit Fais-leur oublier leurs blèmes, qu'ils respirent ton envie Je passerai le mot, dirai aux nouveaux qui sont les murs maîtres Que leurs anciens ont fait du rap ce qu'ils essayent de connaître À chaque remix continue l'histoire Dans chaque battle je retrouve un peu la mémoire Transforme, cut ou pass-pass, comme tu veux Mais fais honneur au nom rien que pour eux You might also like DJ donne plus de son Fais-moi bouger ce bordel pour de bon ici Cut Killer enchaîne les deux MK2 dans ce club, oui je veux Rester, tiser, dédier cette série rien que pour eux Faire honneur encore une fois Je pense au Double H, Turntable Dragunz, Don't Sleep Dj Sample, Desh, Fonky Maestro Double Face, Crazy B et Faster J Pour les Dj's de France ou d'ailleurs...Cut Killer !</t>
+          <t>Est-ce qu'on est prêt dans tes soirées pour le set de mon DJ Commence à dire autour de toi qu'il est en forme sur le mix Fait chauffer les Technics avant qu'il pose ses doigts dessus Si dans la nuit tu veux qu'on cause vinyle et de quoi je suis tox Quand je me brisais les reins sur les platines de Kheops On refera l'histoire du Hip Hop et la valeur de leur place Je dédie ce morceau à ceux qui scratchent à ma place Hey DJ ! Sauve ma vie cette nuit J'ai le cur brisé comme Indeep sans ce maxi Met-nous le son que je kiffe en ce moment, allez ! Il n'y a que toi qui sait comment le jouer Fait leur comprendre qui est la base Fait leur écouter ce bootleg que les derniers jaseurs écrasent En phasing, en fondu, décale si tu veux Mais fait honneur au nom rien que pour eux DJ donne plus de son Fais-moi bouger ce bordel pour de bon ici Cut Killer enchaîne les deux MK2 dans ce club, oui je veux Rester, tiser, dédier cette série rien que pour eux Faire honneur encore une fois Comme un classique je suis là pour maintenir le dancefloor Il me faut une face B, un mic, un son putain de fort Dans le sens du partage je fête mes quinze ans d'antenne Respect au DJ's sur la FM Si tu mixes par amour je sais ce que tu ressens Devant les bacs chez ton disquaire je sais ce que tu prends Rien à foutre des ventes, des classements ou de l'air-play Voilà ma tuerie en double à tester Fais-les danser encore jusqu'au bout de la nuit Fais-leur oublier leurs blèmes, qu'ils respirent ton envie Je passerai le mot, dirai aux nouveaux qui sont les murs maîtres Que leurs anciens ont fait du rap ce qu'ils essayent de connaître À chaque remix continue l'histoire Dans chaque battle je retrouve un peu la mémoire Transforme, cut ou pass-pass, comme tu veux Mais fais honneur au nom rien que pour eux DJ donne plus de son Fais-moi bouger ce bordel pour de bon ici Cut Killer enchaîne les deux MK2 dans ce club, oui je veux Rester, tiser, dédier cette série rien que pour eux Faire honneur encore une fois Je pense au Double H, Turntable Dragunz, Don't Sleep Dj Sample, Desh, Fonky Maestro Double Face, Crazy B et Faster J Pour les Dj's de France ou d'ailleurs...Cut Killer !</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ils ont dit que j'étais un enragé apres mon battle contre Watson Je leur dit que j'ai changé, ouais je suis un nouvel homme Dony j'aimerais que l'on s'accolle, s'accote et placote Jamai m'a convaincu que c'est si le fun être une bonne personne Imbecile est ce que tu rigoles? Tu fais parti des types soft a qui je peux enligner 6 punch le temps que tes yeux clignotent Que ta machoire disloque avant même que tu ne ripostes Hein? Sors de ce corps Maybe Wats! Parlant d'une bitch, j'aimerais te rappeler a quel point t'es qu'une salope C'est fou, t'as cherché a me faire bannir du cercle WordUp! Mais la tu brailles car te raccoons me show love Petit con, si personne t'as touch c'est qu'on sait que t'es le genre de gars qui provoque Mais call les cops si on le cogne Man, je te souhaite de sortir de ta crise d'adolescence et de devenir un homme Au lieu de talkshit sur FaceBook, profite de tes vacances en Thailande Parce que word to Buzzy Bwoy, en Islam on aurait coupé ta langue Dony t'es une ostie de tapette quebecoise, non ça c'est son reve imagine Dony t'es une ostie de tapette francaise, donc j'ai revisé ces classiques Ça commence par I AM Dangerous, donc on sait qui dans ce battle mene Il va se croire a Paris sous les bombes, tellement que les punch vont le NTM Sefyu, paraît que vous Seth Guekko dans votre coin de bled MC genre gamin, je t'emmerde! Y aura un shit squad premiere classe en l'air Jai 45 Scientifik pour Funky sa Family, tu vois un ministere amer composé de Carmont et St-Pierre Pour croquer le monde, ça va vous prendre des ortheses dentaires Ce MC J'eclipse Solaar en utilisant contre lui le rap Français Mais il va vous dire ''j'm'en bat les couilles la France je l'a deteste'' Cherches tu a te convaincre tu le repetes sans cesse puis ça me laisse perplexe que ton origine te stresse Puis j'y ai reflechi et compris Etre Francais te complexe car t'es genetiquement faible, la preuve... Gaulois Romains, DEFAITE, croisades contre Saladin, DEFAITE Napoleon en Russie, DEFAITE, Senegal 1 France 0, DEFAITE Un genre historique de défaite qui a laissé des sequelles Meme en forcant la note t'auras les mêmes échecs au Québec Fais face a la musique Dony, les Français trop chiants chante et danse au violoncelle Hein, qu'est ce que je dis la? Fais face a la musique Dony, les Français de ton genre devant les gens violent cèdent Avant chaque battle tu dis fuck Charest fuck Harper, ça sent l'opportuniste Tu sais qu'on hait le PLQ donc pour l'amour tu suces le public Mais les Liberaux et Conservateurs ont signé tes papiers d'immigration, stupide Puis apres t'osent leur queter des subventions pour t'empiffrer de poutine Ça merite juste que j'envoie les goons braquer ta boutique Puis c'est pas raciste de souhaiter que tu fasses faillite C'est juste qu'icitte on hait les enfants de chienne qui mordent la main qui les nourrissent Fuck Dony S Cro, le nouveau Dony Brasco Venu nous infiltrer mais tu ne feras jamais parti des notres Puis t'as perdu contre Booyah You might also like Si vous étiez venu pour rire allez fumer, le ton monte j'suis pas la pour faire une romance J'sais pas si c'est la saison des battles saison des battles mais celle des bodybag commence Samy le word up 7 t obsède, c' était tes obsèques t' avais prit la mer plein d'peine Depuis ton corps s'serre t avais une pire hate de revenir sur scène En quittant le port t avait parle d un mouvement qui nous menait en bateau plein d haine Mais pour revenir sur le pont t'as bien prit la peine de sucer la graine du capitaine Moussaillon, t es pas un navy seal juste un imbécile Moi entre les sous fifre docile jme faufile Entre le meilleur et l excellent j oscille Une lame sur les gencives je lance l offensive A la faucille j vais rendre c'fossile hémophile Et vu ton attitude après le 7 ton vrai nom c est samy l' émotif Sous ton sourcil et toute ta figure j laisse des traces des fissures T as g check maybe watson whaou t as du être élevé a l' école d'la vie dure J te porte l estocade qui, fera que t auras l estomac en prisme Après maybe t es prochaine victime ce seront qui des spectatrices ou dora l exploratrice Au word up 7 j'ai perdu mais j'ai fait un battle classic fiston Toi au word up 7 t'as perdu puis t'as fait une dépression Cétait cute le soir même sur facebook de te voir chialer sur l'organisation T'en avais marre dêtre leur valet garçon d'attendre leur validation T'avais des envie d'action t'as jurer haut et fort de jamais revenir dans leur nation Mais ce soir t'es la et t'es la preuve que ça a pas de valeur la parole d'un traitre et d un felon Quand maybe a fait sa monte de lait ça m'a glace sec j'ai apprit que t avais frappe zef T'aurais du t'faire blaster mec faut euthanasier les petits chien qui veulent la place des maitres Il écrit des des sonnets et des petites scenette Mais tous le monde s'en bas les steaks des sornettes d'un serpent a sonnette C'est assez net qu'tu t'en fous des hassanats T'as choisis dêtre un traitre au lieux dêtre un mec cool Ton seul moyen de monter au ciel c'est en buvant du redbull Tu m'feras pas avaler de couleuvre t'es une langue de vipère et même la pire de la bande Tu craches tellement d'venin dans le dos que tu meurs empoissonne si tu t'mords la langue Tu reverrais d'etre dans le droit chemin mes tes exactions sont en zig zag si Tordu est ta vie qu'c'est la zizanie moi j'ai la cisaille qui tapera dans ses habits comme six high kick Quand mon bic rapplique c'est le blitzkrieg vite Ton cur est comme lil droit d'slick rick vide Tu vas prendre la trempe d'ta vie m'affronter tes toujours sur que ça te tente samy ? Lil du tigre transforme la hyène en gnou dans les vallées de la Tanzanie Contre maybe tu dis que tu viens d'une zone ou des petites filles s'font violer Rouyah please le vol de petite fille n'augmentera pas ta crédibilité Moi je viens d'une zone qu'a fait de nous des hommes qui regarde dans les yeux quand ils sert la main Pas des pleureuses égocentrique qui dans la rue servent de tapin Une zone ou nos père travaillent dur, nos mères nous élèvent et des bro deviennent des frères sauvages Une zone qui nous a donne de faux de nom mais qui a fait de nous des hommes et pas des personnages Depuis que j'ai emmené la rudesse dans ce bataille jeu, ces louveteaux sont soudainement devenus brutaux Je ne savais pas que vous etiez a ce point G, bande de clitos Mais y'osent me remettre en doute, veulent des preuves se croient a la commission Charbonneau Comme si j etais venu ici pour snitch, non je ne suis pas Lino Zambito J'ai les mains blanches comme neige donc quand je travaille du couteau pour abimer ses points vitaux Les lames font la job, tu vois 7 nains allant au boulot Normal que les rivaux ne voulaient pas que je reviennes de si tot Coliss! Je me sens comme Vito Rizzuto Puis je sais a quoi s'attendent le monde, que je me cogne le torse comme King Kong Que je cogne quiconque s'approchant pour le faire bondir telle une balle de ping pong Que je lui sonne la cloche, DING! DONG! Que je fasse des gun barres, j'espere que tu piges Don Sinon faudra sortir les outils pour te shot shot shot shot shot shot, Lil Jon! Garde mes armes en laisse, elles sont des chiennes feroces, pitbull C'est pas ça qui l'impressionne, ok, je tire au sol, il va danser le pied de poule Je les flash car elles sont mignonnes, tu vois des pitous cute Mais des que leur museau grogne, ouf! Te reduisent au silence tel le bouton mute Ok c'est inegal, laissons de coté les balles pour se raconter des vannes, NON Tu dis ne pas avoir de personnage car t'excelle niveau rap, NON T'as juste pas de personnage car t'as le charisme d'un cadavre, HAAAN! Mais je vais revenir sur l'une de tes phases, une bonne blague T'as déjà dit être trop gros pour courir alors t'arretes pour te battre RIRES! non personne t'en croit apte surtout apres le RC4 quand on a vu Wojtek te caresser la barbe Quelle était la prochaine etape, french kiss devant la cam? Quand tu nous defies de te frapper au milieu de tes verses ça ne fait pas de toi un brave Prends moi pas pour un niaiseux, des que Zef arrete de record, je vais te tabasser en masse Ils m'appelent bagarreur de rue, je repond que c'est inexact Mais je vais quand même tiger punch, uppercut, Ryuken son visage Je ne ferai pas semblant, ce n'est pas le clip de Dirty Taz Tu fais face a un impulsif sauvage, imprevisible kamikaze Souhaite mettre en cage l'animal pour éviter les chicanes Des que je rugis pendant le pugilat t'esquives en faisant des zigzags T'as pas le cardio pour te battre, gros criss, lache les BigMacs Soigne ton image, allons faire du magasinage La clique passe par ta boutique pour qu'elle soit victime de pillage Qu'est ce que tu vas faire le cave, t'auras pas le choix de rester calme Sinon c'est coup de boule dans ta region pectorale, Zinedine Zidane Ils ont menti quand ils ont dit que tu serais un adversaire efficace T'es ma punition pour avoir agi mal, va chier FiligraNn Puis t'as perdu contre Booyah Des barres d'hommes adulte c'est quelque chose avec lequel tu vas devoir dealer Et peut importe le nombre de tes lignes pré fabrique je ne sors que la réalité et ca tu n'peux pas légaler Pas d'stress j'ai prit l'intro de t rex et je l'ai bite Car je te vois sur les forums hurler et crier Qu't'es sur du smack shit depuis des annees bitch j'vais m'regaler Sammy comment t'expliquer y'a strictement aucune fierté d'avoir été le premier a les copier J'ai vu ta video d'promo ou tu dis que t'etais en avance sur ton temps, c'est marrant mais navrant T'es l'exemple le plus frappant pour les gens qui disent maintenant que le word up c'etait mieux avant Tu veux vraiment m'battre ? mais depuis quand les bitch peuvent dompter les macs Grâce a mon père dans mes veines coule du sang dhéro comme telemaque Tes rimes pseudo intelligente sont wack et fuckin plate Fak ca me fait de la peine quand tu fais l'smat Contrairement a moi y'a pas d'hero en toi même quand tu fais l' smack Trop souvent tu fais l'voyou zoulou souhou y'aurait des blood piru ou t habite Mais si ca tire ou ca s'cogne tu seras pas a l'aise comme giroux sur un beat Mon faux nom ecrit de vrai trucs pendant qu't'es sur du smack shit Opere la magie j't slape, te scalp et t'as reput falsh j'la slaque vite Tes battles sont chiant comme de la musique d'ascenseur j'flip tes lignes et les rends meilleurs 2013 t'es adversaire tour a tour sélève ... world trade center Pas besoin de ligne de meurtre de masse moi c'est juste la réalité que je nard Je retourne tes vers a l'envers et les retourne donc j'fais d'tes rêves des cauchemars J'suis freddy krueger j't'attends avec un shotgun sur le perron Vu qu't'es attire par les histoire de rue comme les papillons sont attire par les néon J'suis hitman, holla appelez moi leon ou neron car j'fou la ville en feu J'attrape cet imbécile heureux et je le plie en deux Sache que j'suis pas un hipster odieu so soir le seul piu piu qu't'entendra ce sera le bruit de mon silencieux Samy moi et les autres battles mc's en vrai on a rien de temeraire On est juste des conards vulgaire qui se font la guerre avec des armes imaginaire Mais vu qu'suis aussi con qu'un dictateur j'y vais franco Popopopo J'ai moins d'ame et plus d'ammo qu'dans les gun a rambo J'ai des vilain propo si tu me tourne le dos tu tourne comme dans la gueule d'un croco J't'laisse en lambeau j'vais pas t'lacher la peau voilale combo avec deux trois poto du togo on sort de la lambo on t'fait danser le pogo T'arrache les chico en dansant le pow pow et t'ecrase la face pour quelle ressemble a celle de paul wall Toi tu croit fort et fat mais c'est faux Conio tu vis simplement on line yolo Y'a que toi qui t aime et ça p'tite conne on l'sait trop Tu vis reclut dans tes peines et tes reves de mytho ca doit etre toi tryso sur l'forum hiphop franco Tu fais l'chaud regard froid et hot comme marlo stanfield T'es face a un petit gros au crane rase si tu passe devant moi tu t'prend la premiere balle comme dans le pilote de the shield Je reviens en arriere faire des ligne a la smack moi aussi ca me tente J'mets samy dans une ... fuck mon genie mets jaffar dans une lampe Ils disent que le WordUp est une grande famille, je fuck up mon frere, inceste Zef je sais que c'est ton boy mais ce soir c'est ma chienne, princesse Dague a la main je decide quand ton temps s'arrete, Prince Perse Blanc Malcolm X, je remue la foule, d'un geste de l'index Puis on parle souvent de mon entourage donc je vais ne parler une fois pour toute pour tourner la page Exemple, si je dis que mes gars roulent sur vos femmes, c'est qu'on est de bons tailleurs On nique sa mere, murda ou'mook, on est des Ruff Riders Chienne! Je traine avec des gars que tu dois craindre Je parle autant d'alter mondialistes qui s'entraident que de gars de shop aux grosses mains qui s'entrainent Je parle autant de pere de famille a la vie simple et saine Que de gars de gang aux longs flingues, machoire carrée comme un boxeur d'Ukraine Se crinquent pour rien, degainent et pointe le cylindre, BANG! Peu importe dans quoi l'on baigne, sourire au visage des que notre ennemi saigne Ces amis! Ain't nuthing to fuck with, WU TANG Paquet de fous sur la rive nord, Longueuil jusqu'à Ste-Hyacinthe T'inquietes frangin, je ne leur demanderai pas de faire ce que je peux faire moé même Y en a pas de problemes, coup de poing dans l abdomen, corde a linge Ecrase sa fraise pour lui faire bouffer une salade de neige Jusqu'à ce que se dents grincent, qu'il soit bleme et fasse hein hein Je suis comme arrete de te plaindre criss de tapette francaise Je continue le manege pour qu'ils comprennent que nous sommes tous dingues dans la belle province Du genre je pourrais tirer Monk E juste pour dire que je 12 singes, daaaayyyyuuuuuuuuuuuuum Je le tue avec des lignes generiques, gros, I dont give a fuck Je pourrais même rapper de sciences physiques, pour montrer que je me isotope Testosterone au max, je suis agressif, blâmer mes hormones Si je dis BITCH DECRISS, t'es mieux de le faire car je te l'ordonne Des que les goons se rappliquent, faut que tu te pousses, Auto STOP Gun a la cuisse, automatique, Robocop Rearrange son portrait, Boum! Photoshop Fuck les guns, il voit rouge? Mes punch lui signalent d'arreter, Octogone Full mount, frappe Don, m'acharne comme la misere sur le dos de pauvres hommes Trop facile a abattre, t'as la shape d'une quille, Bowling T'es gras et t'as du caractere, Souligne Gros cave, je ne suis pas venu pour te remercier comme si c'etait juste pour rire Attaque sa clique pour le laisser demembré, Jun Lin Ah shit, fallait encore que je parle d'un cadavre, je ne suis pas correct Donc j ai decidé de faire amende honorable pour que mon karma soit net Vous vous rappelez a quel point Dony reve d'etre queb, bien j'ai trouvé le moyen pour qu'il s'integre Allons jouer au hockey, c'est comme le foot mais ça prend un casque, rondelle nouere, glace palette drette Mais vu qu'il patine comme un fag y a fallu que je le criss dans le net a coup de double echecs Car vous savez que les Français de son genre devant les gens violents cedent Puis t'as perdu contre Booyah J'ai l'habitude de dire si vous voulez faire du battle sans savoir rapper allez vous faire foutre Tu sais quoi samy ... va te faire foutre Le rap c'est pas pour toi lâche ce taff la petit lascar on va se battre J'vais pas attendre le printemps pour t'allonger sur l'asphalte Et qu'es ce qui t'a prit de commencer le rap avec une voix de la sorte Des que tu commence a speat comme un phoque, on dirait un chat qui s'coince la queue dans la porte J'suis le king l'don oubli pas l's petasse voleur comme enron a l'ancienne comme érode Je te fais saigner dans les règles de l'art ... period J'suis pas pour la guerre entre frère j'reve que la paix et la trêve n'aient pas d'seuil Mais c'soir pour me battre il va te falloir une patte de lapin ou un trèfle a quatre feuille Je te laisse sur le carreau en parlant d'ton swagg de samouraï douchbag d un air moqueur Si jétais ignorant ou sans talent je dirais que je pique sa dame au cur Si vous regardez la carte vous comprendrez qu'les roi symbolisent drama et loe pesci Notre battle est un joker, deux mecs aussi chiant pendant pret d'une demi heure c'est bien plus qu'un pari Ils ont mit l'as avant les king j'suis pas sur que la suite me donne envie J'suis carre pose ma quinte pour coucher le nouveau valet d'fili J'ai les cartes en mains et j'prefere avoir la graisse de snookie qu'etre une poukave comme lui ou pookie J'prends ça relaxe a la snoopie j'le stomp ecrit rien d'stupide juste des textes spookie Quand le meilleur ami d'scoubi lui a des textes pourrit La conclusion a c'que je dis c'est qu't'as peur de ton ombre samy String sous l'jean tu n'frappe pas tu griffe avec tes ongles sales T'es rapide pour partir en guerre mais t'es bon qu'a tuer des enfants ... oncle sam On m'a dit de parler de ta machoire croche mais ca marche pas dans vrai vie ton visage est tout droit C'est quand t'arrive au word up qu'ca t'foudroit ta machoire du bas s'decroche trop attire par l'odeur de la graine a obia C'qui me fait de la peine c'est pas que tu veux etre calif a la place du calif mais plus québécois que les québécois Samy l'integration c'est pas pour toi fils t'es ne ici t'es chez toi Et j'comprends pas pourquoi tu cherches l'amour de certains racistes qui t'aime pas je vais pas te faire de fable Ldepuis qu'j'vis ici j'sais qu'ces gars la detestent les francais mais tu sais quoi ils haissent encore plus les arabes Sur ton chemin pour te retrouver va falloir jeter des cailloux comme le petit poucet Car si ils le pouvaient ils te renverraient du pays d'ou tu viens ... meme si ils savent pas tres bien ou c'est Attention je dis pas que les quebecois sont raciste j'dis qu'y'en a c'est pas pareil Toi j'ai un secret je vais t'le glisser a l'oreille Ils vous aime pas car ils ont peur que vous leur voliez leurs arbres et leurs creches de noel Certains deviennent fou ont arrive plus a les raisonner Deviennent raciste a cause accommodement qu'aucun immigrant n a janais demande La j'viens placer la rafalle pi j'vais m'arracher a la salle Le temps qu't'as perdu dans l'rap t aurais mieux fait d'le passer a la fac J'suis un foureur de mere un genre de batard a la sad Front pour les miens comme yasser arafat toi t'es juste une honte comme bashar al assad J'ai dit que tu voulais etres plus quebecois que les quebecois mais j'en suis plus sur Au vue de ta nouvelle coiffure et ta petite moustache retro Tu ressemble plus a un acteur gay de porno ou un latino vato loco qui traine sur jean talon et papineau Une chose est sur t'as trop de probleme identitaire Tu reves tellement d'etre mexicain qu'pour aller aux states tu creuses un tunnel sous la frontiere T as trop d probleme d identite tu sais plus qui t es T'es comme ces p'tits cons des auditions qui font du rap et s'permettent d'etre raciste T'es comme jean francois lisee qui se dit d'gauche mais a des discours de fachistes T es comme ces communiste de la classe moyenne Perdu entre ton attitude de faux rebelles et ton amour profond envers le système T es comme tout ces rappeurs médiocre qui ont cru que fili et zef allaient lancer leurs carrières Tu rêvais du gâteau, mais y'a même pas de miettes quand tu regarde en arrière T es comme ces faux révolutionnaire qui rêve d émeute derrière un clavier et un ecran 17 pouces Ouais vous avez bien comprit, j clash pas qu sammy j vous dissèque tous Et les rappeurs ?j'en ai rien a foutre des rappeurs J tue la concurrence comme brother mouzone ... et j rap mieux qu vous autre</t>
+          <t>Ils ont dit que j'étais un enragé apres mon battle contre Watson Je leur dit que j'ai changé, ouais je suis un nouvel homme Dony j'aimerais que l'on s'accolle, s'accote et placote Jamai m'a convaincu que c'est si le fun être une bonne personne Imbecile est ce que tu rigoles? Tu fais parti des types soft a qui je peux enligner 6 punch le temps que tes yeux clignotent Que ta machoire disloque avant même que tu ne ripostes Hein? Sors de ce corps Maybe Wats! Parlant d'une bitch, j'aimerais te rappeler a quel point t'es qu'une salope C'est fou, t'as cherché a me faire bannir du cercle WordUp! Mais la tu brailles car te raccoons me show love Petit con, si personne t'as touch c'est qu'on sait que t'es le genre de gars qui provoque Mais call les cops si on le cogne Man, je te souhaite de sortir de ta crise d'adolescence et de devenir un homme Au lieu de talkshit sur FaceBook, profite de tes vacances en Thailande Parce que word to Buzzy Bwoy, en Islam on aurait coupé ta langue Dony t'es une ostie de tapette quebecoise, non ça c'est son reve imagine Dony t'es une ostie de tapette francaise, donc j'ai revisé ces classiques Ça commence par I AM Dangerous, donc on sait qui dans ce battle mene Il va se croire a Paris sous les bombes, tellement que les punch vont le NTM Sefyu, paraît que vous Seth Guekko dans votre coin de bled MC genre gamin, je t'emmerde! Y aura un shit squad premiere classe en l'air Jai 45 Scientifik pour Funky sa Family, tu vois un ministere amer composé de Carmont et St-Pierre Pour croquer le monde, ça va vous prendre des ortheses dentaires Ce MC J'eclipse Solaar en utilisant contre lui le rap Français Mais il va vous dire ''j'm'en bat les couilles la France je l'a deteste'' Cherches tu a te convaincre tu le repetes sans cesse puis ça me laisse perplexe que ton origine te stresse Puis j'y ai reflechi et compris Etre Francais te complexe car t'es genetiquement faible, la preuve... Gaulois Romains, DEFAITE, croisades contre Saladin, DEFAITE Napoleon en Russie, DEFAITE, Senegal 1 France 0, DEFAITE Un genre historique de défaite qui a laissé des sequelles Meme en forcant la note t'auras les mêmes échecs au Québec Fais face a la musique Dony, les Français trop chiants chante et danse au violoncelle Hein, qu'est ce que je dis la? Fais face a la musique Dony, les Français de ton genre devant les gens violent cèdent Avant chaque battle tu dis fuck Charest fuck Harper, ça sent l'opportuniste Tu sais qu'on hait le PLQ donc pour l'amour tu suces le public Mais les Liberaux et Conservateurs ont signé tes papiers d'immigration, stupide Puis apres t'osent leur queter des subventions pour t'empiffrer de poutine Ça merite juste que j'envoie les goons braquer ta boutique Puis c'est pas raciste de souhaiter que tu fasses faillite C'est juste qu'icitte on hait les enfants de chienne qui mordent la main qui les nourrissent Fuck Dony S Cro, le nouveau Dony Brasco Venu nous infiltrer mais tu ne feras jamais parti des notres Puis t'as perdu contre Booyah Si vous étiez venu pour rire allez fumer, le ton monte j'suis pas la pour faire une romance J'sais pas si c'est la saison des battles saison des battles mais celle des bodybag commence Samy le word up 7 t obsède, c' était tes obsèques t' avais prit la mer plein d'peine Depuis ton corps s'serre t avais une pire hate de revenir sur scène En quittant le port t avait parle d un mouvement qui nous menait en bateau plein d haine Mais pour revenir sur le pont t'as bien prit la peine de sucer la graine du capitaine Moussaillon, t es pas un navy seal juste un imbécile Moi entre les sous fifre docile jme faufile Entre le meilleur et l excellent j oscille Une lame sur les gencives je lance l offensive A la faucille j vais rendre c'fossile hémophile Et vu ton attitude après le 7 ton vrai nom c est samy l' émotif Sous ton sourcil et toute ta figure j laisse des traces des fissures T as g check maybe watson whaou t as du être élevé a l' école d'la vie dure J te porte l estocade qui, fera que t auras l estomac en prisme Après maybe t es prochaine victime ce seront qui des spectatrices ou dora l exploratrice Au word up 7 j'ai perdu mais j'ai fait un battle classic fiston Toi au word up 7 t'as perdu puis t'as fait une dépression Cétait cute le soir même sur facebook de te voir chialer sur l'organisation T'en avais marre dêtre leur valet garçon d'attendre leur validation T'avais des envie d'action t'as jurer haut et fort de jamais revenir dans leur nation Mais ce soir t'es la et t'es la preuve que ça a pas de valeur la parole d'un traitre et d un felon Quand maybe a fait sa monte de lait ça m'a glace sec j'ai apprit que t avais frappe zef T'aurais du t'faire blaster mec faut euthanasier les petits chien qui veulent la place des maitres Il écrit des des sonnets et des petites scenette Mais tous le monde s'en bas les steaks des sornettes d'un serpent a sonnette C'est assez net qu'tu t'en fous des hassanats T'as choisis dêtre un traitre au lieux dêtre un mec cool Ton seul moyen de monter au ciel c'est en buvant du redbull Tu m'feras pas avaler de couleuvre t'es une langue de vipère et même la pire de la bande Tu craches tellement d'venin dans le dos que tu meurs empoissonne si tu t'mords la langue Tu reverrais d'etre dans le droit chemin mes tes exactions sont en zig zag si Tordu est ta vie qu'c'est la zizanie moi j'ai la cisaille qui tapera dans ses habits comme six high kick Quand mon bic rapplique c'est le blitzkrieg vite Ton cur est comme lil droit d'slick rick vide Tu vas prendre la trempe d'ta vie m'affronter tes toujours sur que ça te tente samy ? Lil du tigre transforme la hyène en gnou dans les vallées de la Tanzanie Contre maybe tu dis que tu viens d'une zone ou des petites filles s'font violer Rouyah please le vol de petite fille n'augmentera pas ta crédibilité Moi je viens d'une zone qu'a fait de nous des hommes qui regarde dans les yeux quand ils sert la main Pas des pleureuses égocentrique qui dans la rue servent de tapin Une zone ou nos père travaillent dur, nos mères nous élèvent et des bro deviennent des frères sauvages Une zone qui nous a donne de faux de nom mais qui a fait de nous des hommes et pas des personnages Depuis que j'ai emmené la rudesse dans ce bataille jeu, ces louveteaux sont soudainement devenus brutaux Je ne savais pas que vous etiez a ce point G, bande de clitos Mais y'osent me remettre en doute, veulent des preuves se croient a la commission Charbonneau Comme si j etais venu ici pour snitch, non je ne suis pas Lino Zambito J'ai les mains blanches comme neige donc quand je travaille du couteau pour abimer ses points vitaux Les lames font la job, tu vois 7 nains allant au boulot Normal que les rivaux ne voulaient pas que je reviennes de si tot Coliss! Je me sens comme Vito Rizzuto Puis je sais a quoi s'attendent le monde, que je me cogne le torse comme King Kong Que je cogne quiconque s'approchant pour le faire bondir telle une balle de ping pong Que je lui sonne la cloche, DING! DONG! Que je fasse des gun barres, j'espere que tu piges Don Sinon faudra sortir les outils pour te shot shot shot shot shot shot, Lil Jon! Garde mes armes en laisse, elles sont des chiennes feroces, pitbull C'est pas ça qui l'impressionne, ok, je tire au sol, il va danser le pied de poule Je les flash car elles sont mignonnes, tu vois des pitous cute Mais des que leur museau grogne, ouf! Te reduisent au silence tel le bouton mute Ok c'est inegal, laissons de coté les balles pour se raconter des vannes, NON Tu dis ne pas avoir de personnage car t'excelle niveau rap, NON T'as juste pas de personnage car t'as le charisme d'un cadavre, HAAAN! Mais je vais revenir sur l'une de tes phases, une bonne blague T'as déjà dit être trop gros pour courir alors t'arretes pour te battre RIRES! non personne t'en croit apte surtout apres le RC4 quand on a vu Wojtek te caresser la barbe Quelle était la prochaine etape, french kiss devant la cam? Quand tu nous defies de te frapper au milieu de tes verses ça ne fait pas de toi un brave Prends moi pas pour un niaiseux, des que Zef arrete de record, je vais te tabasser en masse Ils m'appelent bagarreur de rue, je repond que c'est inexact Mais je vais quand même tiger punch, uppercut, Ryuken son visage Je ne ferai pas semblant, ce n'est pas le clip de Dirty Taz Tu fais face a un impulsif sauvage, imprevisible kamikaze Souhaite mettre en cage l'animal pour éviter les chicanes Des que je rugis pendant le pugilat t'esquives en faisant des zigzags T'as pas le cardio pour te battre, gros criss, lache les BigMacs Soigne ton image, allons faire du magasinage La clique passe par ta boutique pour qu'elle soit victime de pillage Qu'est ce que tu vas faire le cave, t'auras pas le choix de rester calme Sinon c'est coup de boule dans ta region pectorale, Zinedine Zidane Ils ont menti quand ils ont dit que tu serais un adversaire efficace T'es ma punition pour avoir agi mal, va chier FiligraNn Puis t'as perdu contre Booyah Des barres d'hommes adulte c'est quelque chose avec lequel tu vas devoir dealer Et peut importe le nombre de tes lignes pré fabrique je ne sors que la réalité et ca tu n'peux pas légaler Pas d'stress j'ai prit l'intro de t rex et je l'ai bite Car je te vois sur les forums hurler et crier Qu't'es sur du smack shit depuis des annees bitch j'vais m'regaler Sammy comment t'expliquer y'a strictement aucune fierté d'avoir été le premier a les copier J'ai vu ta video d'promo ou tu dis que t'etais en avance sur ton temps, c'est marrant mais navrant T'es l'exemple le plus frappant pour les gens qui disent maintenant que le word up c'etait mieux avant Tu veux vraiment m'battre ? mais depuis quand les bitch peuvent dompter les macs Grâce a mon père dans mes veines coule du sang dhéro comme telemaque Tes rimes pseudo intelligente sont wack et fuckin plate Fak ca me fait de la peine quand tu fais l'smat Contrairement a moi y'a pas d'hero en toi même quand tu fais l' smack Trop souvent tu fais l'voyou zoulou souhou y'aurait des blood piru ou t habite Mais si ca tire ou ca s'cogne tu seras pas a l'aise comme giroux sur un beat Mon faux nom ecrit de vrai trucs pendant qu't'es sur du smack shit Opere la magie j't slape, te scalp et t'as reput falsh j'la slaque vite Tes battles sont chiant comme de la musique d'ascenseur j'flip tes lignes et les rends meilleurs 2013 t'es adversaire tour a tour sélève ... world trade center Pas besoin de ligne de meurtre de masse moi c'est juste la réalité que je nard Je retourne tes vers a l'envers et les retourne donc j'fais d'tes rêves des cauchemars J'suis freddy krueger j't'attends avec un shotgun sur le perron Vu qu't'es attire par les histoire de rue comme les papillons sont attire par les néon J'suis hitman, holla appelez moi leon ou neron car j'fou la ville en feu J'attrape cet imbécile heureux et je le plie en deux Sache que j'suis pas un hipster odieu so soir le seul piu piu qu't'entendra ce sera le bruit de mon silencieux Samy moi et les autres battles mc's en vrai on a rien de temeraire On est juste des conards vulgaire qui se font la guerre avec des armes imaginaire Mais vu qu'suis aussi con qu'un dictateur j'y vais franco Popopopo J'ai moins d'ame et plus d'ammo qu'dans les gun a rambo J'ai des vilain propo si tu me tourne le dos tu tourne comme dans la gueule d'un croco J't'laisse en lambeau j'vais pas t'lacher la peau voilale combo avec deux trois poto du togo on sort de la lambo on t'fait danser le pogo T'arrache les chico en dansant le pow pow et t'ecrase la face pour quelle ressemble a celle de paul wall Toi tu croit fort et fat mais c'est faux Conio tu vis simplement on line yolo Y'a que toi qui t aime et ça p'tite conne on l'sait trop Tu vis reclut dans tes peines et tes reves de mytho ca doit etre toi tryso sur l'forum hiphop franco Tu fais l'chaud regard froid et hot comme marlo stanfield T'es face a un petit gros au crane rase si tu passe devant moi tu t'prend la premiere balle comme dans le pilote de the shield Je reviens en arriere faire des ligne a la smack moi aussi ca me tente J'mets samy dans une ... fuck mon genie mets jaffar dans une lampe Ils disent que le WordUp est une grande famille, je fuck up mon frere, inceste Zef je sais que c'est ton boy mais ce soir c'est ma chienne, princesse Dague a la main je decide quand ton temps s'arrete, Prince Perse Blanc Malcolm X, je remue la foule, d'un geste de l'index Puis on parle souvent de mon entourage donc je vais ne parler une fois pour toute pour tourner la page Exemple, si je dis que mes gars roulent sur vos femmes, c'est qu'on est de bons tailleurs On nique sa mere, murda ou'mook, on est des Ruff Riders Chienne! Je traine avec des gars que tu dois craindre Je parle autant d'alter mondialistes qui s'entraident que de gars de shop aux grosses mains qui s'entrainent Je parle autant de pere de famille a la vie simple et saine Que de gars de gang aux longs flingues, machoire carrée comme un boxeur d'Ukraine Se crinquent pour rien, degainent et pointe le cylindre, BANG! Peu importe dans quoi l'on baigne, sourire au visage des que notre ennemi saigne Ces amis! Ain't nuthing to fuck with, WU TANG Paquet de fous sur la rive nord, Longueuil jusqu'à Ste-Hyacinthe T'inquietes frangin, je ne leur demanderai pas de faire ce que je peux faire moé même Y en a pas de problemes, coup de poing dans l abdomen, corde a linge Ecrase sa fraise pour lui faire bouffer une salade de neige Jusqu'à ce que se dents grincent, qu'il soit bleme et fasse hein hein Je suis comme arrete de te plaindre criss de tapette francaise Je continue le manege pour qu'ils comprennent que nous sommes tous dingues dans la belle province Du genre je pourrais tirer Monk E juste pour dire que je 12 singes, daaaayyyyuuuuuuuuuuuuum Je le tue avec des lignes generiques, gros, I dont give a fuck Je pourrais même rapper de sciences physiques, pour montrer que je me isotope Testosterone au max, je suis agressif, blâmer mes hormones Si je dis BITCH DECRISS, t'es mieux de le faire car je te l'ordonne Des que les goons se rappliquent, faut que tu te pousses, Auto STOP Gun a la cuisse, automatique, Robocop Rearrange son portrait, Boum! Photoshop Fuck les guns, il voit rouge? Mes punch lui signalent d'arreter, Octogone Full mount, frappe Don, m'acharne comme la misere sur le dos de pauvres hommes Trop facile a abattre, t'as la shape d'une quille, Bowling T'es gras et t'as du caractere, Souligne Gros cave, je ne suis pas venu pour te remercier comme si c'etait juste pour rire Attaque sa clique pour le laisser demembré, Jun Lin Ah shit, fallait encore que je parle d'un cadavre, je ne suis pas correct Donc j ai decidé de faire amende honorable pour que mon karma soit net Vous vous rappelez a quel point Dony reve d'etre queb, bien j'ai trouvé le moyen pour qu'il s'integre Allons jouer au hockey, c'est comme le foot mais ça prend un casque, rondelle nouere, glace palette drette Mais vu qu'il patine comme un fag y a fallu que je le criss dans le net a coup de double echecs Car vous savez que les Français de son genre devant les gens violents cedent Puis t'as perdu contre Booyah J'ai l'habitude de dire si vous voulez faire du battle sans savoir rapper allez vous faire foutre Tu sais quoi samy ... va te faire foutre Le rap c'est pas pour toi lâche ce taff la petit lascar on va se battre J'vais pas attendre le printemps pour t'allonger sur l'asphalte Et qu'es ce qui t'a prit de commencer le rap avec une voix de la sorte Des que tu commence a speat comme un phoque, on dirait un chat qui s'coince la queue dans la porte J'suis le king l'don oubli pas l's petasse voleur comme enron a l'ancienne comme érode Je te fais saigner dans les règles de l'art ... period J'suis pas pour la guerre entre frère j'reve que la paix et la trêve n'aient pas d'seuil Mais c'soir pour me battre il va te falloir une patte de lapin ou un trèfle a quatre feuille Je te laisse sur le carreau en parlant d'ton swagg de samouraï douchbag d un air moqueur Si jétais ignorant ou sans talent je dirais que je pique sa dame au cur Si vous regardez la carte vous comprendrez qu'les roi symbolisent drama et loe pesci Notre battle est un joker, deux mecs aussi chiant pendant pret d'une demi heure c'est bien plus qu'un pari Ils ont mit l'as avant les king j'suis pas sur que la suite me donne envie J'suis carre pose ma quinte pour coucher le nouveau valet d'fili J'ai les cartes en mains et j'prefere avoir la graisse de snookie qu'etre une poukave comme lui ou pookie J'prends ça relaxe a la snoopie j'le stomp ecrit rien d'stupide juste des textes spookie Quand le meilleur ami d'scoubi lui a des textes pourrit La conclusion a c'que je dis c'est qu't'as peur de ton ombre samy String sous l'jean tu n'frappe pas tu griffe avec tes ongles sales T'es rapide pour partir en guerre mais t'es bon qu'a tuer des enfants ... oncle sam On m'a dit de parler de ta machoire croche mais ca marche pas dans vrai vie ton visage est tout droit C'est quand t'arrive au word up qu'ca t'foudroit ta machoire du bas s'decroche trop attire par l'odeur de la graine a obia C'qui me fait de la peine c'est pas que tu veux etre calif a la place du calif mais plus québécois que les québécois Samy l'integration c'est pas pour toi fils t'es ne ici t'es chez toi Et j'comprends pas pourquoi tu cherches l'amour de certains racistes qui t'aime pas je vais pas te faire de fable Ldepuis qu'j'vis ici j'sais qu'ces gars la detestent les francais mais tu sais quoi ils haissent encore plus les arabes Sur ton chemin pour te retrouver va falloir jeter des cailloux comme le petit poucet Car si ils le pouvaient ils te renverraient du pays d'ou tu viens ... meme si ils savent pas tres bien ou c'est Attention je dis pas que les quebecois sont raciste j'dis qu'y'en a c'est pas pareil Toi j'ai un secret je vais t'le glisser a l'oreille Ils vous aime pas car ils ont peur que vous leur voliez leurs arbres et leurs creches de noel Certains deviennent fou ont arrive plus a les raisonner Deviennent raciste a cause accommodement qu'aucun immigrant n a janais demande La j'viens placer la rafalle pi j'vais m'arracher a la salle Le temps qu't'as perdu dans l'rap t aurais mieux fait d'le passer a la fac J'suis un foureur de mere un genre de batard a la sad Front pour les miens comme yasser arafat toi t'es juste une honte comme bashar al assad J'ai dit que tu voulais etres plus quebecois que les quebecois mais j'en suis plus sur Au vue de ta nouvelle coiffure et ta petite moustache retro Tu ressemble plus a un acteur gay de porno ou un latino vato loco qui traine sur jean talon et papineau Une chose est sur t'as trop de probleme identitaire Tu reves tellement d'etre mexicain qu'pour aller aux states tu creuses un tunnel sous la frontiere T as trop d probleme d identite tu sais plus qui t es T'es comme ces p'tits cons des auditions qui font du rap et s'permettent d'etre raciste T'es comme jean francois lisee qui se dit d'gauche mais a des discours de fachistes T es comme ces communiste de la classe moyenne Perdu entre ton attitude de faux rebelles et ton amour profond envers le système T es comme tout ces rappeurs médiocre qui ont cru que fili et zef allaient lancer leurs carrières Tu rêvais du gâteau, mais y'a même pas de miettes quand tu regarde en arrière T es comme ces faux révolutionnaire qui rêve d émeute derrière un clavier et un ecran 17 pouces Ouais vous avez bien comprit, j clash pas qu sammy j vous dissèque tous Et les rappeurs ?j'en ai rien a foutre des rappeurs J tue la concurrence comme brother mouzone ... et j rap mieux qu vous autre</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Je préfère qu'on danse dessus, qu'on stape dessus Peu dgroupes sposent dessus, la vérité je suis déçu Si Sté, moi ou Yak on l'aime bien forte Pour une soirée dcitée ou dpalace peu importe La vibe qui adoucit ou déclenche le moulon Stop c'est bon, soyons sérieux, allons ! Si je bouge avec mes barges pour qu'ils restent tranquilles là Ne me sors pas un son qui nscomprend que sous ecsta Comment je peux croire que ctemps-là est fini ? Comment ? Je peux voir quça marche mec, d'ou c'est fini ? Ambiance sous les spots lights à la marseillaise Viens donc tester mon Funk 13 Viens goûter au son de chez moi ! Yes yes y'all ! Bouger et qutu dises, c'est quoi ? Yes yes y'all ! Sur un beat de Mars à l'aise ! Yes yes y'all ! Viens donc tester mon funk 13 Number one C'est comme Mase ou Kim sur un son de Puffy Ça spasse au Palazio, entre Vitry et Ivry Ce soir c'est fesses moulées et jupes mini-mini Les raclis viennent de partout de Paris à Cergy Soirée Funk, Ragga, Rap, ou R'N'B Faut quça bouge pour qu'les mecs sortent leur cartes de crédit Free Style Dom Pérignon c'est tout cqu'elles boivent baby Pour une after party, faut qut'allonges baby C'est le genre de gos qui faut couvrir drubis Gare ton Peugeot, elles veulent du 3.28 litres Sur la Place ce soir c'est Kheops DJ Def Bond et Yak, Sté au M.I.C You might also like Viens goûter au son de chez moi ! Yes yes y'all ! Bouger et qutu dises, c'est quoi ? Yes yes y'all ! Sur un beat de Mars à l'aise ! Yes yes y'all ! Viens donc tester mon funk 13 Number one Ce soir pour terminer l'bal au Mic c'est Yak, Yak Trio funk 13 pour foutre des claques, claques Assure Def, pour l'occase passe moi un smoking Un cigare à smoker, pour ce soir c'est moi le king Tes sex me garde ça pour le finish Chérie laisse moi baver, lover sur tes hot speech Ici c'est le spécial coin ou le funk pèse Ici c'est Yak pour Def, Sté goutte mon funk 13 A l'aise, j'ai ma chemise achetée en Italie On tchatche rude frère, malheur a celui qui salit Sur funk 13 son on brûle les radio station Yak de Marseille pour renforcer la connexion Viens goûter au son de chez moi ! Yes yes y'all ! Bouger et qutu dises, c'est quoi ? Yes yes y'all ! Sur un beat de Mars à l'aise ! Yes yes y'all ! Viens donc tester mon funk 13 Number one</t>
+          <t>Je préfère qu'on danse dessus, qu'on stape dessus Peu dgroupes sposent dessus, la vérité je suis déçu Si Sté, moi ou Yak on l'aime bien forte Pour une soirée dcitée ou dpalace peu importe La vibe qui adoucit ou déclenche le moulon Stop c'est bon, soyons sérieux, allons ! Si je bouge avec mes barges pour qu'ils restent tranquilles là Ne me sors pas un son qui nscomprend que sous ecsta Comment je peux croire que ctemps-là est fini ? Comment ? Je peux voir quça marche mec, d'ou c'est fini ? Ambiance sous les spots lights à la marseillaise Viens donc tester mon Funk 13 Viens goûter au son de chez moi ! Yes yes y'all ! Bouger et qutu dises, c'est quoi ? Yes yes y'all ! Sur un beat de Mars à l'aise ! Yes yes y'all ! Viens donc tester mon funk 13 Number one C'est comme Mase ou Kim sur un son de Puffy Ça spasse au Palazio, entre Vitry et Ivry Ce soir c'est fesses moulées et jupes mini-mini Les raclis viennent de partout de Paris à Cergy Soirée Funk, Ragga, Rap, ou R'N'B Faut quça bouge pour qu'les mecs sortent leur cartes de crédit Free Style Dom Pérignon c'est tout cqu'elles boivent baby Pour une after party, faut qut'allonges baby C'est le genre de gos qui faut couvrir drubis Gare ton Peugeot, elles veulent du 3.28 litres Sur la Place ce soir c'est Kheops DJ Def Bond et Yak, Sté au M.I.C Viens goûter au son de chez moi ! Yes yes y'all ! Bouger et qutu dises, c'est quoi ? Yes yes y'all ! Sur un beat de Mars à l'aise ! Yes yes y'all ! Viens donc tester mon funk 13 Number one Ce soir pour terminer l'bal au Mic c'est Yak, Yak Trio funk 13 pour foutre des claques, claques Assure Def, pour l'occase passe moi un smoking Un cigare à smoker, pour ce soir c'est moi le king Tes sex me garde ça pour le finish Chérie laisse moi baver, lover sur tes hot speech Ici c'est le spécial coin ou le funk pèse Ici c'est Yak pour Def, Sté goutte mon funk 13 A l'aise, j'ai ma chemise achetée en Italie On tchatche rude frère, malheur a celui qui salit Sur funk 13 son on brûle les radio station Yak de Marseille pour renforcer la connexion Viens goûter au son de chez moi ! Yes yes y'all ! Bouger et qutu dises, c'est quoi ? Yes yes y'all ! Sur un beat de Mars à l'aise ! Yes yes y'all ! Viens donc tester mon funk 13 Number one</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Girl! Pour mes sweet funky ladies Encore une fois Def Bond laisse-moi te voir ce soir Laisse-moi t'voir ce soir, baby Funk et RB connection Tu l'sais je n'pense qu'à ça oh girl Tu vois qu'ici j'suis loosé, qu'j'connais personne Qu'y a qu'toi qu'j'ai vue hier et qui m'a dit on s'phone J'attends toujours qu'tu ring my bell Tu crois qu'j'veux ton string ma belle, non Chérie non pas ce soir, quoi qu'il arrive J'irai seul et j'attendrai qu'tu arrives mais Viens dans mes bras que l'étau s'resserre Viens dans ma sphère et laisse mon DJ faire oh girl! On fera comme si rien n'était à part nous Comme si tu voulais facilement m'rendre fou C'est fou comme tu amènes l'attention sur toi just give me the light j'brûle déjà Sur les platines pour le set RB Club friction, j't'en prie arrête miss Prélude au sexe si tu l'dis comme ça J't'attends seul sans ma section là You might also like Girl girl J'veux qu'tu sois ma lady tonight j'veux qu'tu sois avec moi Laisse-moi te voir ce soir My funky lady tonight sexy sexy ah Je n'pense qu'à ça oh girl J'croyais qu'ça pouvait être cool avec toi L'amour que tu m'souffles n'a d'sens qu'avec ça Mais là, sur l'coup, j'trouve plus les mots Quand les sentiments s'passent de discours, j'suis pro Dans mon cur, baby je sais qu'tu sais Je changerai qui sait p't-être mais Viens donc deviner dans mes yeux moi c'que j'aime chez toi Maintenant qu't'es là, dis moi c'que tu penses de ça Vas-y girl et prends l'temps d'faire si possible J'te trouve vite, trop bien et douée pour une XXX Dis-moi, combien d'MC à ton actif J'veux pas être dans l'flirt, du MC dans l'actu J'te briefe mais oublie l'motif Cinderella En France on dit j'kiffe, à Marseille on dit papa Approche-toi et reste ici Ce soir je n'pense qu'à ça Viens m'voir Girl girl J'veux qu'tu sois ma lady tonight j'veux qu'tu sois avec moi Laisse-moi te voir ce soir My funky lady tonight sexy sexy ah Je n'pense qu'à ça oh girl Ok, représente pour mes sweet sexy ladies hey, sexy ladies! Def Bond pour mes sweet sexy ladies hey, sexy ladies! Lève ta main pour mes sweet sexy ladies hey, sexy ladies! Marseille boogie sweet sexy ladies hey, sexy ladies! J'veux qu'tu sois ma lady oh viens ce soir Ma sweet sexy lady Je n'pense qu'à ça J'veux qu'tu sois ma lady oh viens ce soir Ma sweet sexy lady Je n'pense qu'à ça J'veux qu'tu sois ma lady oh Ma sweet sexy lady oh J'veux qu'tu sois ma lady oh Ma sweet sexy lady oh Je ne pense qu'à ça</t>
+          <t>Girl! Pour mes sweet funky ladies Encore une fois Def Bond laisse-moi te voir ce soir Laisse-moi t'voir ce soir, baby Funk et RB connection Tu l'sais je n'pense qu'à ça oh girl Tu vois qu'ici j'suis loosé, qu'j'connais personne Qu'y a qu'toi qu'j'ai vue hier et qui m'a dit on s'phone J'attends toujours qu'tu ring my bell Tu crois qu'j'veux ton string ma belle, non Chérie non pas ce soir, quoi qu'il arrive J'irai seul et j'attendrai qu'tu arrives mais Viens dans mes bras que l'étau s'resserre Viens dans ma sphère et laisse mon DJ faire oh girl! On fera comme si rien n'était à part nous Comme si tu voulais facilement m'rendre fou C'est fou comme tu amènes l'attention sur toi just give me the light j'brûle déjà Sur les platines pour le set RB Club friction, j't'en prie arrête miss Prélude au sexe si tu l'dis comme ça J't'attends seul sans ma section là Girl girl J'veux qu'tu sois ma lady tonight j'veux qu'tu sois avec moi Laisse-moi te voir ce soir My funky lady tonight sexy sexy ah Je n'pense qu'à ça oh girl J'croyais qu'ça pouvait être cool avec toi L'amour que tu m'souffles n'a d'sens qu'avec ça Mais là, sur l'coup, j'trouve plus les mots Quand les sentiments s'passent de discours, j'suis pro Dans mon cur, baby je sais qu'tu sais Je changerai qui sait p't-être mais Viens donc deviner dans mes yeux moi c'que j'aime chez toi Maintenant qu't'es là, dis moi c'que tu penses de ça Vas-y girl et prends l'temps d'faire si possible J'te trouve vite, trop bien et douée pour une XXX Dis-moi, combien d'MC à ton actif J'veux pas être dans l'flirt, du MC dans l'actu J'te briefe mais oublie l'motif Cinderella En France on dit j'kiffe, à Marseille on dit papa Approche-toi et reste ici Ce soir je n'pense qu'à ça Viens m'voir Girl girl J'veux qu'tu sois ma lady tonight j'veux qu'tu sois avec moi Laisse-moi te voir ce soir My funky lady tonight sexy sexy ah Je n'pense qu'à ça oh girl Ok, représente pour mes sweet sexy ladies hey, sexy ladies! Def Bond pour mes sweet sexy ladies hey, sexy ladies! Lève ta main pour mes sweet sexy ladies hey, sexy ladies! Marseille boogie sweet sexy ladies hey, sexy ladies! J'veux qu'tu sois ma lady oh viens ce soir Ma sweet sexy lady Je n'pense qu'à ça J'veux qu'tu sois ma lady oh viens ce soir Ma sweet sexy lady Je n'pense qu'à ça J'veux qu'tu sois ma lady oh Ma sweet sexy lady oh J'veux qu'tu sois ma lady oh Ma sweet sexy lady oh Je ne pense qu'à ça</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Hip hop Marseillais Hip hop Hip hop Marseillais Hip hop Hip hop Marseillais Hip hop Hip hop Marseillais Hip hop Tu le sais mon hip-hop est comme ça Sec de Marseille, impulsif comme Cantona Si tu cherches après moi, pour rien J'écrirai sur toi comme un chien Te descendrai en rimes Un stylo dans chaque main Mon son fou à fond J'ai bon fond pourtant j'suis à fond Groupe par groupe mec Satan ou bidon fils je suis là Et si je fais le con dans le Mia C'est pas pour qu'il ne te reste que ça sur moi, écoute Tout ce que je fais est voulu A choisir qu'on porte un avis critique et objectif dessus Mais dès que ça vire je flaire vite si on veut jouer Joue sans moi, si tu fais que ça fils t'es coulé Plus méfiant qu'avant, on n'est plus naïf non plus Je sais vite à qui j'ai à faire, sans être payé j'suis ouvert Je reste dur avec les mecs qui parlent trop qui parlent trop Juste pour être clair et réglo S'il faut représenter par la technique on est là Avec le son sourd ou pas, un truc qui est sûr on traine pas Plus simple que d'aller en duo, solo aujourd'hui Hip hop Marseillais pour la vie You might also like x2 Hip hop Marseillais, Hip hop Faf Larage avec le Hip hop Marseillais, Hip hop Def Bond pour le Hip hop Marseillais, Hip hop Si tu veux du bon, du Hip hop Marseillais, Hip hop Fils ne bouge pas Mec je vais parler hip hop Marseillais Et comme ça tu vois ce que c'est, plus besoin de critiquer C'est fait, c'est passé Marseille depuis a retrouvé ses forces Bosse, s'organise non-stop tu le sais Conséquence fils, la ville ne dort plus non Du Centre à Saint Marcel, concerts,soirées sur mesures Des magasins de fringues et des disquaires, fournis En pur son, hip-hop d'ici pour tes technics Du vinyle pour les DJ qui mixent, faut encore prendre des risques C'est pas New-York mais on fixe, la barre haut hey Tout le monde fait ce qu'il faut S'intéresse à la production du coin, ça bouge trop EH YO! sur la planète, de plus en plus de groupes avec un niveau honnête Se pendront en live, check Les émissions speed, les disques en vrac Grades nouveautés qui claquent DJ scratche sur ma voix Faf Larage en nage Représente sa famille, sa vie, son rang mec Tu le sais, d'où je viens, ce que je fais Un gage de qualité hip hop Marseillais x2 Hip hop Marseillais, Hip hop Faf Larage avec le Hip hop Marseillais, Hip hop Def Bond pour le Hip hop Marseillais, Hip hop Si tu veux du bon, du Hip hop Marseillais, Hip hop Fils ne bouge pas F-A-F Larage, D-E-F Bond A-K-A ex Soul Swing Estampillé millésime 97 Lâche les mots comme des serveurs internet Mec, si je booste la tchatche c'est pour une histoire ou l'ego J'suis pas né dans la rue, pas dans le superflu non plus Compte ici que je ne vis pas, c'est exclus Comme un steak cru saignant je deviens dur si on me chauffe Présent au travers du mic comme dans ta vie comme une voix off, bof Complète c'est pas ça, les potes m'en parlent mieux que toi C'est pas le Club Med youkoulélés, y a le soleil les fadas Des ennuis, les nanas cherchent la caillasse peu importe d'où elle vient Pour ce qui est de plonger Mais c'est vrai, demain c'est loin loin J'ai jamais choisi mes relations J'ai pris ceux que j'ai croisés pour seule sélection La simplicité en premier, je peux être ami avec tout le monde, crevards inclus Tu peux venir de n'importe où mais jamais trahir la rue Pour l'équilibre spécifié dans les textes Tous les jours se remettre en place Passer du temps la vérité en face Choisir tes instrus taillées dans la masse Par respect rester vrai Pour le hip hop Marseillais Tu le sais Ouais, pour IAM Sad Hill tu le sais La Fonky Family, le 3 il fils K.Rhyme Le Roi, Le Freeman Sad Hill, Kif Kif, La Cosca Tanto Productions et le Côté Obscur Et Prodijnamore fils et Squat dans le slip, Sista Micky Et il y a encore trop de groupes, trop de monde qui représentent fils Trop de pression, tu le sais, Hip hop Marseillais A tous ces membres actifs, tu le sais Hey Blondin</t>
+          <t>Hip hop Marseillais Hip hop Hip hop Marseillais Hip hop Hip hop Marseillais Hip hop Hip hop Marseillais Hip hop Tu le sais mon hip-hop est comme ça Sec de Marseille, impulsif comme Cantona Si tu cherches après moi, pour rien J'écrirai sur toi comme un chien Te descendrai en rimes Un stylo dans chaque main Mon son fou à fond J'ai bon fond pourtant j'suis à fond Groupe par groupe mec Satan ou bidon fils je suis là Et si je fais le con dans le Mia C'est pas pour qu'il ne te reste que ça sur moi, écoute Tout ce que je fais est voulu A choisir qu'on porte un avis critique et objectif dessus Mais dès que ça vire je flaire vite si on veut jouer Joue sans moi, si tu fais que ça fils t'es coulé Plus méfiant qu'avant, on n'est plus naïf non plus Je sais vite à qui j'ai à faire, sans être payé j'suis ouvert Je reste dur avec les mecs qui parlent trop qui parlent trop Juste pour être clair et réglo S'il faut représenter par la technique on est là Avec le son sourd ou pas, un truc qui est sûr on traine pas Plus simple que d'aller en duo, solo aujourd'hui Hip hop Marseillais pour la vie x2 Hip hop Marseillais, Hip hop Faf Larage avec le Hip hop Marseillais, Hip hop Def Bond pour le Hip hop Marseillais, Hip hop Si tu veux du bon, du Hip hop Marseillais, Hip hop Fils ne bouge pas Mec je vais parler hip hop Marseillais Et comme ça tu vois ce que c'est, plus besoin de critiquer C'est fait, c'est passé Marseille depuis a retrouvé ses forces Bosse, s'organise non-stop tu le sais Conséquence fils, la ville ne dort plus non Du Centre à Saint Marcel, concerts,soirées sur mesures Des magasins de fringues et des disquaires, fournis En pur son, hip-hop d'ici pour tes technics Du vinyle pour les DJ qui mixent, faut encore prendre des risques C'est pas New-York mais on fixe, la barre haut hey Tout le monde fait ce qu'il faut S'intéresse à la production du coin, ça bouge trop EH YO! sur la planète, de plus en plus de groupes avec un niveau honnête Se pendront en live, check Les émissions speed, les disques en vrac Grades nouveautés qui claquent DJ scratche sur ma voix Faf Larage en nage Représente sa famille, sa vie, son rang mec Tu le sais, d'où je viens, ce que je fais Un gage de qualité hip hop Marseillais x2 Hip hop Marseillais, Hip hop Faf Larage avec le Hip hop Marseillais, Hip hop Def Bond pour le Hip hop Marseillais, Hip hop Si tu veux du bon, du Hip hop Marseillais, Hip hop Fils ne bouge pas F-A-F Larage, D-E-F Bond A-K-A ex Soul Swing Estampillé millésime 97 Lâche les mots comme des serveurs internet Mec, si je booste la tchatche c'est pour une histoire ou l'ego J'suis pas né dans la rue, pas dans le superflu non plus Compte ici que je ne vis pas, c'est exclus Comme un steak cru saignant je deviens dur si on me chauffe Présent au travers du mic comme dans ta vie comme une voix off, bof Complète c'est pas ça, les potes m'en parlent mieux que toi C'est pas le Club Med youkoulélés, y a le soleil les fadas Des ennuis, les nanas cherchent la caillasse peu importe d'où elle vient Pour ce qui est de plonger Mais c'est vrai, demain c'est loin loin J'ai jamais choisi mes relations J'ai pris ceux que j'ai croisés pour seule sélection La simplicité en premier, je peux être ami avec tout le monde, crevards inclus Tu peux venir de n'importe où mais jamais trahir la rue Pour l'équilibre spécifié dans les textes Tous les jours se remettre en place Passer du temps la vérité en face Choisir tes instrus taillées dans la masse Par respect rester vrai Pour le hip hop Marseillais Tu le sais Ouais, pour IAM Sad Hill tu le sais La Fonky Family, le 3 il fils K.Rhyme Le Roi, Le Freeman Sad Hill, Kif Kif, La Cosca Tanto Productions et le Côté Obscur Et Prodijnamore fils et Squat dans le slip, Sista Micky Et il y a encore trop de groupes, trop de monde qui représentent fils Trop de pression, tu le sais, Hip hop Marseillais A tous ces membres actifs, tu le sais Hey Blondin</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cherche pas au fond mec sa forme est dans le flow Pas de tenue légère c'est du Hip-Hop sans Yo, hey Yo ! J'avance et je fais confiance à mes gars Si tous me disent c'est là que tu la vois Et si les places sont renouvelées Moi je reste en place, je viens aux nouvelles et Je la vois dans la vibe clip ricain façon Elle respire New York sans chercher de raison Tout le monde devient Ground Zero quand elle flotte sur le mix Langues dehors, les idées classées X Sur une bonne Prod', un bon Beat, laisse tomber elle va Booster l'ambiance de ce club passe le mot à mama Olla Tinquiète pas pour la fistonne et Elle se débrouille bien Seule sans personne et Cherche pas à comprendre c'est elle qu'il te faut Elle a le sien, le bon, le top, le haut niveau D.E, E.F, B.O ? Non ! Quand elle rentre on dit quoi ? C'est du High Level Cherche pas quand elle sourit on dit Woua ah ah ah cherche pas Quand elle bouge on dit quoi ? C'est du High Level, cherche pas Quand elle danse on dit Woua ah ah ah cherche pas Je vois que tu chauffes ça beauty Je suis pas R. Kelly mais tu bouges bien, ouh, c'est du High Booty Ça flaire la fiesta dans ses mouvements Faut que je reste, tiens moi la veste et parle doucement Elle veut du Bad Boy sur le dancefloor Du style dans le corps à corps Et quand le Dj joue ce qu'elle adore Elle serre et dit encore Vas-y bouge la place pour moi Fais grimper le niveau faut que tu gères ça Dans les VIP's on lâche les joints, descends la marche et rejoins Le reste du clan et l'ambiance des miens Pour tous les rats de studios dans mon cas Toutes les ratures de stylo mon gars, lève ton verre et dis Oh ! Honneur au Fats beats au Fats flows En Phatfarm, le groupe qui donne de Fats shows Montre-leur que tu sais maintenant ce qu'ils veulent Montre-leur que tu veux maintenant que ça gueule Et que c'est pas juste une impression, fais monter la pression Viens là il faut que je te voie You might also likeRefrain</t>
+          <t>Cherche pas au fond mec sa forme est dans le flow Pas de tenue légère c'est du Hip-Hop sans Yo, hey Yo ! J'avance et je fais confiance à mes gars Si tous me disent c'est là que tu la vois Et si les places sont renouvelées Moi je reste en place, je viens aux nouvelles et Je la vois dans la vibe clip ricain façon Elle respire New York sans chercher de raison Tout le monde devient Ground Zero quand elle flotte sur le mix Langues dehors, les idées classées X Sur une bonne Prod', un bon Beat, laisse tomber elle va Booster l'ambiance de ce club passe le mot à mama Olla Tinquiète pas pour la fistonne et Elle se débrouille bien Seule sans personne et Cherche pas à comprendre c'est elle qu'il te faut Elle a le sien, le bon, le top, le haut niveau D.E, E.F, B.O ? Non ! Quand elle rentre on dit quoi ? C'est du High Level Cherche pas quand elle sourit on dit Woua ah ah ah cherche pas Quand elle bouge on dit quoi ? C'est du High Level, cherche pas Quand elle danse on dit Woua ah ah ah cherche pas Je vois que tu chauffes ça beauty Je suis pas R. Kelly mais tu bouges bien, ouh, c'est du High Booty Ça flaire la fiesta dans ses mouvements Faut que je reste, tiens moi la veste et parle doucement Elle veut du Bad Boy sur le dancefloor Du style dans le corps à corps Et quand le Dj joue ce qu'elle adore Elle serre et dit encore Vas-y bouge la place pour moi Fais grimper le niveau faut que tu gères ça Dans les VIP's on lâche les joints, descends la marche et rejoins Le reste du clan et l'ambiance des miens Pour tous les rats de studios dans mon cas Toutes les ratures de stylo mon gars, lève ton verre et dis Oh ! Honneur au Fats beats au Fats flows En Phatfarm, le groupe qui donne de Fats shows Montre-leur que tu sais maintenant ce qu'ils veulent Montre-leur que tu veux maintenant que ça gueule Et que c'est pas juste une impression, fais monter la pression Viens là il faut que je te voie Refrain</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Yeah Sad Hill Impact hein Mars 2000, tu le sais Je brise et mise gros pour tant de larmes Vise, tendre l'arme pour qu'un cur cesse de battre Infâme geste ou je blâme, teste un drame Y'a plus de limite, ceux sont les films que j'imite A tort j'excite, à mort, je m'incite à commettre un délit Délires interdits, envie de l'écrire, de lire, m'élire On me dit de me taire, je flaire cet univers que j'effleure Où je baise encore une façon de respirer de mauvais cur Un quart de ma vie, je garde mon avis Regarde mon ami, jusqu'où j'en suis venu ici sans aucune retenue Des ennemis qui te guettent dans chaque avenue Où finit les on se file à mains nues, de sang froid j'élimine Comme les mômes aux sales mines qui en disent long Soupir illégal, choisir de périr, courir m'est égal À travers le danger d'entrée tout terrain pour se venger Déranger tel l'étrange étranger au destin de clandestin Sombre est mon instinct quand vient cet instant néfaste en plein intestin x2 Je veux être libre de penser, tu le sais, rien n'a d'égal Me lancer avancer à coup de rimes illégales Je vise haut, brise et mise gros s'il le faut S'il faut ce qu'il faut, autant rester illégaux You might also like Eh toi tu sais ce que c'est ? Être illégal au fond tu sais ce que c'est ? Nous on le sait pas, alors on fait ce qu'on fait Aux yeux de la loi on dit trop faut être bon, moi je dis oh ! Ces yeux ils louchent parfois et, putain on s'trompe d'avis On tombe tous dans le panneau et quand c'est pas de haut on dit rien Eh merde moi je croyais aussi, oh t'inquiètes, je suis pas un saint Et ce que j'ai trouvé en moi, je le cherche plus dans la loi Une équité face à une balance où il manque un poids Et si ça marche comme ça, alors je marche comme ça Contourne, joue avec, sans rien enfreindre si t'as le choix A coup d'allusions contre les coups d'illusions illogiques, vas-y Je roule avec toi via des textes illicites La loi est faite par l'homme pour l'homme, elle est faite comme lui Lui il est plein de vice et on t'stoppe si tu fais comme lui Si ça tourne en rond comme pour nous fils t'y es pas dans le faux Et faut que la chance tourne, et qu'on soit des bons dans ce flow x2 Je veux être libre de penser, tu le sais, rien n'a d'égal Me lancer avancer à coup de rimes illégales Je vise haut, brise et mise gros s'il le faut S'il faut ce qu'il faut, autant rester illégaux Vendre du shit c'est illégal, si on te chope on te fout au goal T'en prends plein la gueule, la poisse au rendez-vous rigole Seul face au destin, rêve de vie de festin Infesté de requins pleins de baratin Pourquoi je deale aux minots, des putains de rimes aux kilos Pour augmenter mon bulletin, jatteins l'instinct d'animaux J'voudrais tant, sabrer le champagne avec Tony et Def, tous def' Niquer le bénef, sans derrière un chef Tous chiffons sur les tables l'illégalité paye Ne pas finir sur la paille, faire ce qui faut pour l'oseille Tous les moyens sont bons pour décamper, ne pas ramper Le charbon c'est pas ma tasse de thé, faut qu'on se casse en beauté J'ai essayé l'honnêteté, ça n'a rien donné Lâcher des CV, la réponse, on garde vos coordonnées Allez tous vous faire foutre à la fin Qui est-ce qui me nourrit quand j'ai faim ? Hein hein dis moi ? x3 Je veux être libre de penser, tu le sais, rien n'a d'égal Me lancer avancer à coup de rimes illégales Je vise haut, brise et mise gros s'il le faut S'il faut ce qu'il faut, autant rester illégaux C'est la police qui vous parle, mettez les mains derrière la tête ! Ne bougez pas ! Ne respirez même plus ! Vous êtes en état d'arrestation !</t>
+          <t>Yeah Sad Hill Impact hein Mars 2000, tu le sais Je brise et mise gros pour tant de larmes Vise, tendre l'arme pour qu'un cur cesse de battre Infâme geste ou je blâme, teste un drame Y'a plus de limite, ceux sont les films que j'imite A tort j'excite, à mort, je m'incite à commettre un délit Délires interdits, envie de l'écrire, de lire, m'élire On me dit de me taire, je flaire cet univers que j'effleure Où je baise encore une façon de respirer de mauvais cur Un quart de ma vie, je garde mon avis Regarde mon ami, jusqu'où j'en suis venu ici sans aucune retenue Des ennemis qui te guettent dans chaque avenue Où finit les on se file à mains nues, de sang froid j'élimine Comme les mômes aux sales mines qui en disent long Soupir illégal, choisir de périr, courir m'est égal À travers le danger d'entrée tout terrain pour se venger Déranger tel l'étrange étranger au destin de clandestin Sombre est mon instinct quand vient cet instant néfaste en plein intestin x2 Je veux être libre de penser, tu le sais, rien n'a d'égal Me lancer avancer à coup de rimes illégales Je vise haut, brise et mise gros s'il le faut S'il faut ce qu'il faut, autant rester illégaux Eh toi tu sais ce que c'est ? Être illégal au fond tu sais ce que c'est ? Nous on le sait pas, alors on fait ce qu'on fait Aux yeux de la loi on dit trop faut être bon, moi je dis oh ! Ces yeux ils louchent parfois et, putain on s'trompe d'avis On tombe tous dans le panneau et quand c'est pas de haut on dit rien Eh merde moi je croyais aussi, oh t'inquiètes, je suis pas un saint Et ce que j'ai trouvé en moi, je le cherche plus dans la loi Une équité face à une balance où il manque un poids Et si ça marche comme ça, alors je marche comme ça Contourne, joue avec, sans rien enfreindre si t'as le choix A coup d'allusions contre les coups d'illusions illogiques, vas-y Je roule avec toi via des textes illicites La loi est faite par l'homme pour l'homme, elle est faite comme lui Lui il est plein de vice et on t'stoppe si tu fais comme lui Si ça tourne en rond comme pour nous fils t'y es pas dans le faux Et faut que la chance tourne, et qu'on soit des bons dans ce flow x2 Je veux être libre de penser, tu le sais, rien n'a d'égal Me lancer avancer à coup de rimes illégales Je vise haut, brise et mise gros s'il le faut S'il faut ce qu'il faut, autant rester illégaux Vendre du shit c'est illégal, si on te chope on te fout au goal T'en prends plein la gueule, la poisse au rendez-vous rigole Seul face au destin, rêve de vie de festin Infesté de requins pleins de baratin Pourquoi je deale aux minots, des putains de rimes aux kilos Pour augmenter mon bulletin, jatteins l'instinct d'animaux J'voudrais tant, sabrer le champagne avec Tony et Def, tous def' Niquer le bénef, sans derrière un chef Tous chiffons sur les tables l'illégalité paye Ne pas finir sur la paille, faire ce qui faut pour l'oseille Tous les moyens sont bons pour décamper, ne pas ramper Le charbon c'est pas ma tasse de thé, faut qu'on se casse en beauté J'ai essayé l'honnêteté, ça n'a rien donné Lâcher des CV, la réponse, on garde vos coordonnées Allez tous vous faire foutre à la fin Qui est-ce qui me nourrit quand j'ai faim ? Hein hein dis moi ? x3 Je veux être libre de penser, tu le sais, rien n'a d'égal Me lancer avancer à coup de rimes illégales Je vise haut, brise et mise gros s'il le faut S'il faut ce qu'il faut, autant rester illégaux C'est la police qui vous parle, mettez les mains derrière la tête ! Ne bougez pas ! Ne respirez même plus ! Vous êtes en état d'arrestation !</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>InstrumentaleYou might also like</t>
+          <t>Instrumentale</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>InstrumentaleYou might also like</t>
+          <t>Instrumentale</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Hey yo, bienvenue à tous si vous nous rejoignez pour cette émission spéciale Funk-RB Def Bond derrière les prods ce soir pour vous avec en invités De jeunes artistes qui claquent tout On aura Crystal, Prélude, Trade-Union, Narimane Y aura aussi Jean-Marc Reyno, Saïd, Melissa et Size Tout ça sous l'il des deux plus grands curs et des deux plus belles voix dFrance Tout l'monde sait, j'ai nommé Moïse et Piero Battery Mélange de styles donc ce soir Et dgénérations Et pas d'place pour les imitations J'ouvre le bal tout d'suite Avec Diablesse, mon nouveau titre Et si vous aimez l'Funk et le RB Restez avec moi C'est Def Bond pour l'amour du sonYou might also like</t>
+          <t>Hey yo, bienvenue à tous si vous nous rejoignez pour cette émission spéciale Funk-RB Def Bond derrière les prods ce soir pour vous avec en invités De jeunes artistes qui claquent tout On aura Crystal, Prélude, Trade-Union, Narimane Y aura aussi Jean-Marc Reyno, Saïd, Melissa et Size Tout ça sous l'il des deux plus grands curs et des deux plus belles voix dFrance Tout l'monde sait, j'ai nommé Moïse et Piero Battery Mélange de styles donc ce soir Et dgénérations Et pas d'place pour les imitations J'ouvre le bal tout d'suite Avec Diablesse, mon nouveau titre Et si vous aimez l'Funk et le RB Restez avec moi C'est Def Bond pour l'amour du son</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>je pense toujours à toi, my love J'ai ta voix Des joies au fond de moi Elle résonne Et je nme lasse pas et je ne me lasse pas J'entends encore J'entends encore Tes pas de lautre côté du mur Je sens encore Je sens encore Ton souffle ainsi que tous ses murmures Je vois s'unir deux vies Qui nous ont rapprochés, qui nous ont scellés Même quand on se déchirait, XXX Le ciel embué Un dernier baiser J'm'évanouis dans ma journée Et j'vois cette énorme dette Oui envers la vie Celle qui nous aime et nous d'aimer ce qui nous fait envie Cette vie dans laquelle on jette son âme ou sa tête Oh oui, j'te garde en moi You might also like J'ai ta voix Des joies au fond de moi Elle résonne Et je nme lasse pas et je nme lasse pas Je me souviens Je me souviens Nos instants oui comme on se ressemblait Je me souviens Je me souviens Je me souviens comme on s'appartenait Oui je sais, le mieux serait de lâcher prise De lâcher la douleur qui mépuise et me grise Oh je sais que je brise autant que je méprise Ce qui me reconstruit Et pour moi l'histoire de nos deux vies réunies A bien plus de valeur, les autres c'est acquis Mais j'oublie, cest ma négligence qui nous a détruits J'ai ta voix Des joies au fond de moi au fond de moi, au fond de moi Elle résonne elle résonne Et je n'me lasse pas elle résonne J'ai ta voix Des joies au fond de moi Elle résonne elle résonne, elle résonne Et je n'me lasse pas Trade Union Yo-yo Greg et Chacha Def Bond</t>
+          <t>je pense toujours à toi, my love J'ai ta voix Des joies au fond de moi Elle résonne Et je nme lasse pas et je ne me lasse pas J'entends encore J'entends encore Tes pas de lautre côté du mur Je sens encore Je sens encore Ton souffle ainsi que tous ses murmures Je vois s'unir deux vies Qui nous ont rapprochés, qui nous ont scellés Même quand on se déchirait, XXX Le ciel embué Un dernier baiser J'm'évanouis dans ma journée Et j'vois cette énorme dette Oui envers la vie Celle qui nous aime et nous d'aimer ce qui nous fait envie Cette vie dans laquelle on jette son âme ou sa tête Oh oui, j'te garde en moi J'ai ta voix Des joies au fond de moi Elle résonne Et je nme lasse pas et je nme lasse pas Je me souviens Je me souviens Nos instants oui comme on se ressemblait Je me souviens Je me souviens Je me souviens comme on s'appartenait Oui je sais, le mieux serait de lâcher prise De lâcher la douleur qui mépuise et me grise Oh je sais que je brise autant que je méprise Ce qui me reconstruit Et pour moi l'histoire de nos deux vies réunies A bien plus de valeur, les autres c'est acquis Mais j'oublie, cest ma négligence qui nous a détruits J'ai ta voix Des joies au fond de moi au fond de moi, au fond de moi Elle résonne elle résonne Et je n'me lasse pas elle résonne J'ai ta voix Des joies au fond de moi Elle résonne elle résonne, elle résonne Et je n'me lasse pas Trade Union Yo-yo Greg et Chacha Def Bond</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ouais mon gars Fares, remet du Tropico J'ai fait le vide depuis l'début Mais j'peux pas faire semblant Il m'faut du temps pour oublie Toutes mes faiblesses Pigaille sur le poignet Son corps siliconé J'encaisse que d'la monnaie J'passe mes soirées sous Jack honey Pigaille sur le poignet Elle veut du temps et ma monnaie Sa mère, j'vais lui donner Car son body le méritait Elle veut du temps, elle veut ma monnaie Nique sa mère, j'vais tout lui donner j'vais tout lui donner Car son corps le méritait J'suis dans le bolide 5H du mat j'suis d'vant ta porte You might also like J'ai fait le vide depuis l'début Mais j'peux pas faire semblant Il m'faut du temps pour oublier Toutes mes faiblesses God bless Quand j'vois son ? en face de moi Anh, god bless Quand j'vois son body Bouger en face de moi Elle est blonde Elle est vraiment pas mal Son cul c'est un attentat Tout ça m'fait polémique Quand j'la traîne en rée-soi Bébé donne moi ton body J'veux pas d'ton cur Il m'faut d'la liqueur Pigaille sur le poignet Son corps siliconé J'encaisse que d'la monnaie J'passe mes soirées sous Jack honey Pigaille sur le poignet Elle veut du temps et ma monnaie Sa mère, j'vais lui donner Car son body le méritait J'ai fait le vide depuis l'début Mais j'peux pas faire semblant Il m'faut du temps pour oublier Toutes mes faiblesses J'ai fait le vide depuis l'début Mais j'peux pas faire semblant Il m'faut du temps pour oublie Toutes mes faiblesses</t>
+          <t>Ouais mon gars Fares, remet du Tropico J'ai fait le vide depuis l'début Mais j'peux pas faire semblant Il m'faut du temps pour oublie Toutes mes faiblesses Pigaille sur le poignet Son corps siliconé J'encaisse que d'la monnaie J'passe mes soirées sous Jack honey Pigaille sur le poignet Elle veut du temps et ma monnaie Sa mère, j'vais lui donner Car son body le méritait Elle veut du temps, elle veut ma monnaie Nique sa mère, j'vais tout lui donner j'vais tout lui donner Car son corps le méritait J'suis dans le bolide 5H du mat j'suis d'vant ta porte J'ai fait le vide depuis l'début Mais j'peux pas faire semblant Il m'faut du temps pour oublier Toutes mes faiblesses God bless Quand j'vois son ? en face de moi Anh, god bless Quand j'vois son body Bouger en face de moi Elle est blonde Elle est vraiment pas mal Son cul c'est un attentat Tout ça m'fait polémique Quand j'la traîne en rée-soi Bébé donne moi ton body J'veux pas d'ton cur Il m'faut d'la liqueur Pigaille sur le poignet Son corps siliconé J'encaisse que d'la monnaie J'passe mes soirées sous Jack honey Pigaille sur le poignet Elle veut du temps et ma monnaie Sa mère, j'vais lui donner Car son body le méritait J'ai fait le vide depuis l'début Mais j'peux pas faire semblant Il m'faut du temps pour oublier Toutes mes faiblesses J'ai fait le vide depuis l'début Mais j'peux pas faire semblant Il m'faut du temps pour oublie Toutes mes faiblesses</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Quand ce sera la fin d'la musique, tu tireras... 97, j'flingue un plouc au micro J'pousse un mot pour les clebs et les salauds C'est clair, mec fuit au galop Jaloux, bombes dans mon ballot Un tas de textes crados, tu voudrais pomper mon halo Un coup bas, chez le FN tu pètes les boundas C'est moi qui fout le boule avec ma zik' de bamboulas Moteur, action, fils du béton, klaxon Viens à Marseille con, et tu verras comme nous taxons J'suis pas le meilleur des mecs, loin de là J'brûle des boulas, j'suis pas sex-symbol mais symbole sec Au mic Check, pour ton info personnelle, mec j'perce au soleil On m'a vu en sommeil, j'étais en mode veille J'pète un pot pour les amis fidèles, compagnons modèles À ceux qui prient le soir et ceux qui s'éclatent dans les Hôtels Chacun sa vie, j'suis pas juge tu piges, gruge, suge Purge au mic dans un pur style pétassifuge Fuit les pétasses, qu'Allah les punissent Les langues de pute punissent les puristes J'm'immunise contre les pétasses du mouv' par l'âge vocal Poules mélos flippent au stylo aigris qui ont les boules Gonflées, trop d'classe, Coule la session sous la pression des solistes En sous l'eau apnée mon jean flingue au verbe Plein d'verve nerveux fervent sans moula mais plein d'herbe Traîner dans les bars les Stans dans la sciure Prescott, Polo, Tommy Jean sans figure Caquette cocotte dans ton fanzine pourri Bientôt tu vas goûter à la Benzine Souris, rigole avec les mecs que tu connais J'suis pas ton pote fils, le naturel revient au galop Avec les sales aussi, manière de gicler ton équipe de Gamins d'économe Pour t'expliquer la vie à coup de pieds au cul minimum T'ignore tous le soi-disant mytho du rap te claque Sgeg, c'est l'été lève ton bonnet et ton anorak Voici mon nom de code, j'te le file pour pas un peso Morte A La Francia Italia Deso You might also like 97, je marche à Sad Hill C'est le sale Chill Armé d'un cimeterre dans la main, au milieu d'un cimetière Désolé J'prends le mic pour la pagaille, tu le sais Au nom du père, du fils et du Sentenza, Amen, Ainsi soit-il C'est comme ça que ça ce passe mec ici Dicave l'assassin au SM, l'analphabète qui pisse à la raie Des De La Noé, les ploucs de la SACEM Assaut verballistique, shoote les vieux du showbiz Mon son pèse comme Toto pèse dans les gros bizz J'veux être unique, pas de beuf de base intégré Quand j'mens, j'jure sur la tête à Megret Ça devrait suffire pour qu'il clams, la haine, la kryptonite Frappe lui et sa clique Illico et sa pouf la bonite J'devrais donner des cours, comment tenir un mic à l'ENA Imagine ça, moi le type du bled de l'Etna En freestyle à l'assemblée, passe le mic Et j'fouette un par un les députés présents ce jour-là D'emblée Agent du micro d'argent, tueur solitaire à la solde du C.O Discipline militaire, j'finis un job pour lequel on me paie C'est pourtant simple, je déboule avec un signe de paix Et tu pètes, c'est comme ça qu'on traite ces frères, un Vieil ami comme moi Sers donc un verre à Sentenza, j't'apprendrais les bonnes Manières Quand tu baves dans la capsule, pas de lapsus Tu veux la bombe mais capsulte Capte mon argot, mon argument, je braque Wells Fargo Caractère bardé d'Ergo, mais Charlot, ton speech à L'effet D'un gros lard qui fond au Serengeti C'est pas un mic que t'as, c'est un yeti Et donne le salaire de la peur, chaque texte est une prime J'suis mercenaire, ici le sans pitié prime J'ai fais mon cursus sur le sentiers de la guerre En évitant les bagarres, pas clair j'peux taper comme je Fesai naguère Coléreux, je ramène le choléra Je banni les rimes Collaro qui dira que Chill est naïf Plein de conneries, je gerbe sur les clacos Dans un style inédit, le flow marque mick huh... Marco Inso facto, salaud, le king du KO Total Kheops, vote l'FF, peace aux frères d'IAM, Fonky Family K.Rhyme Le Roi et Faf Larage, Def Bond, 3ème il sur ma Page Don't sleep, aux mecs qui bossent d'une manière ardue Côté Obscur, Les Mecs De La Rue Adios Amigo</t>
+          <t>Quand ce sera la fin d'la musique, tu tireras... 97, j'flingue un plouc au micro J'pousse un mot pour les clebs et les salauds C'est clair, mec fuit au galop Jaloux, bombes dans mon ballot Un tas de textes crados, tu voudrais pomper mon halo Un coup bas, chez le FN tu pètes les boundas C'est moi qui fout le boule avec ma zik' de bamboulas Moteur, action, fils du béton, klaxon Viens à Marseille con, et tu verras comme nous taxons J'suis pas le meilleur des mecs, loin de là J'brûle des boulas, j'suis pas sex-symbol mais symbole sec Au mic Check, pour ton info personnelle, mec j'perce au soleil On m'a vu en sommeil, j'étais en mode veille J'pète un pot pour les amis fidèles, compagnons modèles À ceux qui prient le soir et ceux qui s'éclatent dans les Hôtels Chacun sa vie, j'suis pas juge tu piges, gruge, suge Purge au mic dans un pur style pétassifuge Fuit les pétasses, qu'Allah les punissent Les langues de pute punissent les puristes J'm'immunise contre les pétasses du mouv' par l'âge vocal Poules mélos flippent au stylo aigris qui ont les boules Gonflées, trop d'classe, Coule la session sous la pression des solistes En sous l'eau apnée mon jean flingue au verbe Plein d'verve nerveux fervent sans moula mais plein d'herbe Traîner dans les bars les Stans dans la sciure Prescott, Polo, Tommy Jean sans figure Caquette cocotte dans ton fanzine pourri Bientôt tu vas goûter à la Benzine Souris, rigole avec les mecs que tu connais J'suis pas ton pote fils, le naturel revient au galop Avec les sales aussi, manière de gicler ton équipe de Gamins d'économe Pour t'expliquer la vie à coup de pieds au cul minimum T'ignore tous le soi-disant mytho du rap te claque Sgeg, c'est l'été lève ton bonnet et ton anorak Voici mon nom de code, j'te le file pour pas un peso Morte A La Francia Italia Deso 97, je marche à Sad Hill C'est le sale Chill Armé d'un cimeterre dans la main, au milieu d'un cimetière Désolé J'prends le mic pour la pagaille, tu le sais Au nom du père, du fils et du Sentenza, Amen, Ainsi soit-il C'est comme ça que ça ce passe mec ici Dicave l'assassin au SM, l'analphabète qui pisse à la raie Des De La Noé, les ploucs de la SACEM Assaut verballistique, shoote les vieux du showbiz Mon son pèse comme Toto pèse dans les gros bizz J'veux être unique, pas de beuf de base intégré Quand j'mens, j'jure sur la tête à Megret Ça devrait suffire pour qu'il clams, la haine, la kryptonite Frappe lui et sa clique Illico et sa pouf la bonite J'devrais donner des cours, comment tenir un mic à l'ENA Imagine ça, moi le type du bled de l'Etna En freestyle à l'assemblée, passe le mic Et j'fouette un par un les députés présents ce jour-là D'emblée Agent du micro d'argent, tueur solitaire à la solde du C.O Discipline militaire, j'finis un job pour lequel on me paie C'est pourtant simple, je déboule avec un signe de paix Et tu pètes, c'est comme ça qu'on traite ces frères, un Vieil ami comme moi Sers donc un verre à Sentenza, j't'apprendrais les bonnes Manières Quand tu baves dans la capsule, pas de lapsus Tu veux la bombe mais capsulte Capte mon argot, mon argument, je braque Wells Fargo Caractère bardé d'Ergo, mais Charlot, ton speech à L'effet D'un gros lard qui fond au Serengeti C'est pas un mic que t'as, c'est un yeti Et donne le salaire de la peur, chaque texte est une prime J'suis mercenaire, ici le sans pitié prime J'ai fais mon cursus sur le sentiers de la guerre En évitant les bagarres, pas clair j'peux taper comme je Fesai naguère Coléreux, je ramène le choléra Je banni les rimes Collaro qui dira que Chill est naïf Plein de conneries, je gerbe sur les clacos Dans un style inédit, le flow marque mick huh... Marco Inso facto, salaud, le king du KO Total Kheops, vote l'FF, peace aux frères d'IAM, Fonky Family K.Rhyme Le Roi et Faf Larage, Def Bond, 3ème il sur ma Page Don't sleep, aux mecs qui bossent d'une manière ardue Côté Obscur, Les Mecs De La Rue Adios Amigo</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Je suis venu du bled, je ne vous ai rien demandé J'ai bossé dur, j'ai jamais mendié Fils de pute Mon coeur s'embrase, je ressens l'incendie Et tous les jours, je survis pour préparer ma chute... Pour préparer ma chute... Et je lutte, et je lutte... Pour préparer ma chute... La vie ça tient à rien, on marche sur un fil tranchant Fils de bonne famille, mais pour le mal, j'ai un penchant A l'endroit où j'ai mal, il n'y a pas de pansements On fait avec, et on survit franchement La vie ça tient à rien, on marche sur un fil tranchant Fils de bonne famille, mais pour le mal, j'ai un penchant Envie d'étrangler mes ennemis, de leur faire un truc hardcore Parce que je suis jeune, arabe, je suis insolent, je viens de Bondy Nord Tu m'envoies ton petit frère, je vais le violer Il se prendra une baffe, même si il rigolait Désolé, mon cerveau camisolé Pour ça que j'aime pas me mélanger, je préfère m'isoler Rigolez, rigolez, mais on va vous fumer lourd et on sera collés Faut pas s'affoler, ce n'est que le début de la fin Parce que chez nous, même si on a faim, on tend jamais la main Et même si je veux tout, je ne m'attends à rien Je ne veux jamais bosser sous les ordres d'un Satan aryen Rien Donc je suis bon à rien Je ne rentre pas dans le moule C'est pas grave, je suis Arabe, je vais rentrer dans le boule Quand je vais foutre la cagoule, mais pas comme Benayoun Fuck you motherfuck, je ne serais jamais ton clown Les vieux c'est de la soul, les jeunes c'est de la soupe Et la musique me soule, et on endort la foule Du pain et des jeux, du feu pour les gueux Des chèvres et des beuh, et je trouve ça dégueu' On me prétend naïf, un peu hédoniste Je rappe des utopies, sur des skis en hors-piste J'encaisse comme Ortiz, je serre la main aux orties Tellement de Sheitan autour de moi, il me faut un exorciste La vie ça ne tient à rien, on marche sur un fil Je ne veux pas faire le trottoir, mais marcher sur la ville Tu veux me bloquer la voie ? Le destin a fait son choix Tu ne peux rien y faire, je suis plus fort que toi Plus fort que toute ta team, ton équipe de boiteux Vous ne tiendriez pas deux secondes, là où je squatte Bondy Laissez moi passer, laissez moi passer Je ne peux rien effacer, je ne peux pas vous pardonner Parce que comme Claude, j'ai donné de l'amour que l'on ne m'a pas redonné Laissez-moi passer, ou je vais tous vous cartonner J'écoute vos clashs c'est faible, rangez toutes vos fables Quinze ans de rap lourd, vous c'est toujours exécrable Tu veux vraiment me suivre ? Assiets-toi mon fils Je vais t'apprendre le biz', c'est tout un exercice Cesse de donner ton cul, travaille ton propre talent Ne parle pas sur les hommes, un vrai bonhomme retient sa langue Ne reste pas les bras ballants, rappe comme une avalanche Laisses les faire, eux, ils rappent en avalant Fais gaffe à celle que tu galoches, mais n'oublie pas d'être galant La plupart c'est des salopes, vide ta sacoche en détalant Ça fait du bien de se lâcher, mais n'insulte jamais les mères Tu peux vite te faire schlasser, et tu feras pleurer ta mère Et ouais poto c'est la merde, vida loca, vie de laud-sa Si tu fais le Tony, n'oublies pas qu'il y a toujours un Sosa Un laud-sa, plus que toi, et c'est la vie Wesh wesh, trop de weswes, tu peux finir à l'asile Poto, préserve les tiens, il n'est jamais trop tôt Ça pue la merde d'aimer ses proches que sur des photos Ça pue la merde de mourir bourré sur une moto Tu t'appelais un tel le beau-gosse, maintenant c'est un tel Allah y Rahmo Il n'y a plus de respect nulle part, c'est pour ça qu'on casse des bouches On casse des barres discrètement, pour éviter la case départ Eh, je vais calmer tes ardeurs Mon casier judiciaire est vierge, oui j'ai baisé l'inspecteur L'intelligence un crime, on veut me faire croire ça Plus rien à foutre ici, je me sens comme Zlatan au Barça Mes rimes sont profondes comme ta gorge, deep throat J'ai mis de côté la pop, c'est mon côté Death Row J'ai plus de mille flows, lu plus d'une centaine de livres Le savoir est une arme mais le savoir ne suffit pas pour vivre J'ai rappé dans des salles vides, j'ai chanté jusqu'à la fin Parce qu'il me fallait survivre, j'ai du talent mais je n'ai rien J'ai du talent mais je n'ai rien, et je refuse de tricher J'ai préféré m'afficher, que de rentrer dans vos clichés J'espère que tu m'as pigé, l'industrie ne m'a pas piégé J'ai décidé tout seul, de chanter des trucs légers Parce qu'il n'y a pas que des bimbos, des mecs aux gros biscotaux Il y a des mères de famille, et leurs millions de marmots Premier à faire de l'électro, je peux faire chialer les violons Je peux faire chialer les pianos, faire s'envoler les colombes C'est pour mes gars en chicha, ceux que tu prends pour des victimes Petite tapette n'oublie pas, je te fais rentrer au White Dream Purple Money, Purple Team, et les plus braves nous estiment Et les baltringues nous esquivent, et les biatches nous respirent Et les biatches nous espèrent dans leurs lits chez elles Il n'y aura pas de hlel, pas de lune de miel aux Seychelles Pas besoin de toi pour la vaisselle, le rangement et les tajins Si j'arrête le célibat c'est que tu as usé de ta magie Cousine, rappelle-toi les villas et les jacuzzis Starfoullah, les Mathusalem, le sexe dans la piscine Tu crois que je chantais pour toi ? Je te promets tu te trompes L'éléphant n'était dans la mare que pour tremper sa trompe C'est mon côté Strauss-Khan, comme en bécane je pars en i Tu m'as ouvert les portes mais c'était pas celles du Paradis Pardon pour ta schnek, sincèrement je regrète Au lieu de michtonner le confort, va taffer pour des hassanettes Je peux faire un collier de perles avec tous les yeux qu'on me jette Plus d'une centaine par an, imagine j'en ai vingt-sept Même mon voisin me boycotte quand j'enregistrais de la dancehall Mais ce bouffon, baisse la tête quand il me croise dans le hall Exactement, comme les mecs du milieu hip-hop Hypocrites, normal que vous fassiez des flops Vous êtes trop têtus, comme dans le magazine Une Ferrari dépasse toujours une limousine Trop de featurings, ça nique une carrière C'est une affaire de famille, donc je ne rappe qu'avec mes frères Je ne rappe qu'avec les vrais qui ne viennent pas par derrière Je ne vous ferais jamais confiance, même à la mosquée en pleine prière Je sais que la zic' c'est haram, calmes-toi du con Tous les jours je bosse dur pour traverser le pont La Dounia ça fait flipper, ça fait péter un câble Certains écrivent avec la plume et la feuille du Diable Tu crois que ça fait bien ? MC Lady Gaga Iblis en Djellabah, fait du Krav' Maga Attends un peu, crois-tu encore en Dieu ? Tu penses que c'est un jeu ? T'es super sérieux ? Remets toi en question, si tu te lâches c'est instantatné Porte à ta bouche, tu finis cané, crysanthème fané Six minutes quinze, il me reste vingt secondes J'ai pas fini de vomir toute la rage que m'inspire le monde Tu peux me bloquer les ondes, je fais quand même ma promo L'album arrive, il est lourd motherfucking coño Embrasse le maître ou quitte le dojo Viens pas prendre dans tes bras que sous les feux des projos You might also like J'ai bossé dur, j'ai jamais mendié Fils de Pute ...1</t>
+          <t>Je suis venu du bled, je ne vous ai rien demandé J'ai bossé dur, j'ai jamais mendié Fils de pute Mon coeur s'embrase, je ressens l'incendie Et tous les jours, je survis pour préparer ma chute... Pour préparer ma chute... Et je lutte, et je lutte... Pour préparer ma chute... La vie ça tient à rien, on marche sur un fil tranchant Fils de bonne famille, mais pour le mal, j'ai un penchant A l'endroit où j'ai mal, il n'y a pas de pansements On fait avec, et on survit franchement La vie ça tient à rien, on marche sur un fil tranchant Fils de bonne famille, mais pour le mal, j'ai un penchant Envie d'étrangler mes ennemis, de leur faire un truc hardcore Parce que je suis jeune, arabe, je suis insolent, je viens de Bondy Nord Tu m'envoies ton petit frère, je vais le violer Il se prendra une baffe, même si il rigolait Désolé, mon cerveau camisolé Pour ça que j'aime pas me mélanger, je préfère m'isoler Rigolez, rigolez, mais on va vous fumer lourd et on sera collés Faut pas s'affoler, ce n'est que le début de la fin Parce que chez nous, même si on a faim, on tend jamais la main Et même si je veux tout, je ne m'attends à rien Je ne veux jamais bosser sous les ordres d'un Satan aryen Rien Donc je suis bon à rien Je ne rentre pas dans le moule C'est pas grave, je suis Arabe, je vais rentrer dans le boule Quand je vais foutre la cagoule, mais pas comme Benayoun Fuck you motherfuck, je ne serais jamais ton clown Les vieux c'est de la soul, les jeunes c'est de la soupe Et la musique me soule, et on endort la foule Du pain et des jeux, du feu pour les gueux Des chèvres et des beuh, et je trouve ça dégueu' On me prétend naïf, un peu hédoniste Je rappe des utopies, sur des skis en hors-piste J'encaisse comme Ortiz, je serre la main aux orties Tellement de Sheitan autour de moi, il me faut un exorciste La vie ça ne tient à rien, on marche sur un fil Je ne veux pas faire le trottoir, mais marcher sur la ville Tu veux me bloquer la voie ? Le destin a fait son choix Tu ne peux rien y faire, je suis plus fort que toi Plus fort que toute ta team, ton équipe de boiteux Vous ne tiendriez pas deux secondes, là où je squatte Bondy Laissez moi passer, laissez moi passer Je ne peux rien effacer, je ne peux pas vous pardonner Parce que comme Claude, j'ai donné de l'amour que l'on ne m'a pas redonné Laissez-moi passer, ou je vais tous vous cartonner J'écoute vos clashs c'est faible, rangez toutes vos fables Quinze ans de rap lourd, vous c'est toujours exécrable Tu veux vraiment me suivre ? Assiets-toi mon fils Je vais t'apprendre le biz', c'est tout un exercice Cesse de donner ton cul, travaille ton propre talent Ne parle pas sur les hommes, un vrai bonhomme retient sa langue Ne reste pas les bras ballants, rappe comme une avalanche Laisses les faire, eux, ils rappent en avalant Fais gaffe à celle que tu galoches, mais n'oublie pas d'être galant La plupart c'est des salopes, vide ta sacoche en détalant Ça fait du bien de se lâcher, mais n'insulte jamais les mères Tu peux vite te faire schlasser, et tu feras pleurer ta mère Et ouais poto c'est la merde, vida loca, vie de laud-sa Si tu fais le Tony, n'oublies pas qu'il y a toujours un Sosa Un laud-sa, plus que toi, et c'est la vie Wesh wesh, trop de weswes, tu peux finir à l'asile Poto, préserve les tiens, il n'est jamais trop tôt Ça pue la merde d'aimer ses proches que sur des photos Ça pue la merde de mourir bourré sur une moto Tu t'appelais un tel le beau-gosse, maintenant c'est un tel Allah y Rahmo Il n'y a plus de respect nulle part, c'est pour ça qu'on casse des bouches On casse des barres discrètement, pour éviter la case départ Eh, je vais calmer tes ardeurs Mon casier judiciaire est vierge, oui j'ai baisé l'inspecteur L'intelligence un crime, on veut me faire croire ça Plus rien à foutre ici, je me sens comme Zlatan au Barça Mes rimes sont profondes comme ta gorge, deep throat J'ai mis de côté la pop, c'est mon côté Death Row J'ai plus de mille flows, lu plus d'une centaine de livres Le savoir est une arme mais le savoir ne suffit pas pour vivre J'ai rappé dans des salles vides, j'ai chanté jusqu'à la fin Parce qu'il me fallait survivre, j'ai du talent mais je n'ai rien J'ai du talent mais je n'ai rien, et je refuse de tricher J'ai préféré m'afficher, que de rentrer dans vos clichés J'espère que tu m'as pigé, l'industrie ne m'a pas piégé J'ai décidé tout seul, de chanter des trucs légers Parce qu'il n'y a pas que des bimbos, des mecs aux gros biscotaux Il y a des mères de famille, et leurs millions de marmots Premier à faire de l'électro, je peux faire chialer les violons Je peux faire chialer les pianos, faire s'envoler les colombes C'est pour mes gars en chicha, ceux que tu prends pour des victimes Petite tapette n'oublie pas, je te fais rentrer au White Dream Purple Money, Purple Team, et les plus braves nous estiment Et les baltringues nous esquivent, et les biatches nous respirent Et les biatches nous espèrent dans leurs lits chez elles Il n'y aura pas de hlel, pas de lune de miel aux Seychelles Pas besoin de toi pour la vaisselle, le rangement et les tajins Si j'arrête le célibat c'est que tu as usé de ta magie Cousine, rappelle-toi les villas et les jacuzzis Starfoullah, les Mathusalem, le sexe dans la piscine Tu crois que je chantais pour toi ? Je te promets tu te trompes L'éléphant n'était dans la mare que pour tremper sa trompe C'est mon côté Strauss-Khan, comme en bécane je pars en i Tu m'as ouvert les portes mais c'était pas celles du Paradis Pardon pour ta schnek, sincèrement je regrète Au lieu de michtonner le confort, va taffer pour des hassanettes Je peux faire un collier de perles avec tous les yeux qu'on me jette Plus d'une centaine par an, imagine j'en ai vingt-sept Même mon voisin me boycotte quand j'enregistrais de la dancehall Mais ce bouffon, baisse la tête quand il me croise dans le hall Exactement, comme les mecs du milieu hip-hop Hypocrites, normal que vous fassiez des flops Vous êtes trop têtus, comme dans le magazine Une Ferrari dépasse toujours une limousine Trop de featurings, ça nique une carrière C'est une affaire de famille, donc je ne rappe qu'avec mes frères Je ne rappe qu'avec les vrais qui ne viennent pas par derrière Je ne vous ferais jamais confiance, même à la mosquée en pleine prière Je sais que la zic' c'est haram, calmes-toi du con Tous les jours je bosse dur pour traverser le pont La Dounia ça fait flipper, ça fait péter un câble Certains écrivent avec la plume et la feuille du Diable Tu crois que ça fait bien ? MC Lady Gaga Iblis en Djellabah, fait du Krav' Maga Attends un peu, crois-tu encore en Dieu ? Tu penses que c'est un jeu ? T'es super sérieux ? Remets toi en question, si tu te lâches c'est instantatné Porte à ta bouche, tu finis cané, crysanthème fané Six minutes quinze, il me reste vingt secondes J'ai pas fini de vomir toute la rage que m'inspire le monde Tu peux me bloquer les ondes, je fais quand même ma promo L'album arrive, il est lourd motherfucking coño Embrasse le maître ou quitte le dojo Viens pas prendre dans tes bras que sous les feux des projos J'ai bossé dur, j'ai jamais mendié Fils de Pute ...1</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Je viens de Marseille la ville photique Ce qui implique, logique, l'unique chaleur de mes lyrics Se fixe, se glisse, qu'importe le rythme Mais celui-ci est volontairement pur, dépouillé mais funky Ainsi vous êtes introduits dans le siège de l'Alliance Afro-Asiatique Niveau rap musique un point stratégique Mythique, mystique cauchemar des xénophobes Amenemket, quel est le lien, dis-moi d'où tu viens? Je viens de Marseille où pharaon excelle Attention au son de l'éternelle production Sans crier gare la vérité se révèle face à vous Un sujet tabou, en tout et pour tout Où en 90, le Soul Swing'n Radical persiste Sans risque, poursuit sa liste et j'insiste Pharaon Akhénaton Roi Soleil Dis-moi d'où tu viens, où tu te réveilles? À Marseille, tu t'en fous, je te l'avoue pour nous c'est pareil Un conseil, surtout veille mec, essaye D'assimiler la balistique linguistique Des phraséologistes, kamikazes mythologiques Rimologistes, scientistes à la technologie du style De rap avancé et prolixe Viennent de la Planète Mars et non d'ailleurs, eh oui! Ils symbolisent la revanche des enfants du soleil Yo Shurik'n, dis-moi si tu viens de Marseille Les rues de goudron gris et sale ornées d'après trottoirs Martelés par les pas des prostituées quand s'éveille le soir C'est de là que je viens, là où je naquis Et dans quelques années c'est ici que se terminera ma vie Dans cette ville aux 10 000 cités, aux mille et une filles Où le béton des tours caresse Aton qui brille Mais ne te méprends pas, le pays d'où je viens N'a rien à voir avec celui des merveilles Je viens de Marseille IAM and the Soul Swing'n Radical Live de la Planète Mars! Signing off!You might also like</t>
+          <t>Je viens de Marseille la ville photique Ce qui implique, logique, l'unique chaleur de mes lyrics Se fixe, se glisse, qu'importe le rythme Mais celui-ci est volontairement pur, dépouillé mais funky Ainsi vous êtes introduits dans le siège de l'Alliance Afro-Asiatique Niveau rap musique un point stratégique Mythique, mystique cauchemar des xénophobes Amenemket, quel est le lien, dis-moi d'où tu viens? Je viens de Marseille où pharaon excelle Attention au son de l'éternelle production Sans crier gare la vérité se révèle face à vous Un sujet tabou, en tout et pour tout Où en 90, le Soul Swing'n Radical persiste Sans risque, poursuit sa liste et j'insiste Pharaon Akhénaton Roi Soleil Dis-moi d'où tu viens, où tu te réveilles? À Marseille, tu t'en fous, je te l'avoue pour nous c'est pareil Un conseil, surtout veille mec, essaye D'assimiler la balistique linguistique Des phraséologistes, kamikazes mythologiques Rimologistes, scientistes à la technologie du style De rap avancé et prolixe Viennent de la Planète Mars et non d'ailleurs, eh oui! Ils symbolisent la revanche des enfants du soleil Yo Shurik'n, dis-moi si tu viens de Marseille Les rues de goudron gris et sale ornées d'après trottoirs Martelés par les pas des prostituées quand s'éveille le soir C'est de là que je viens, là où je naquis Et dans quelques années c'est ici que se terminera ma vie Dans cette ville aux 10 000 cités, aux mille et une filles Où le béton des tours caresse Aton qui brille Mais ne te méprends pas, le pays d'où je viens N'a rien à voir avec celui des merveilles Je viens de Marseille IAM and the Soul Swing'n Radical Live de la Planète Mars! Signing off!</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Toi-même tu sais Qu'une soirée avec le crew ça se déroule comme ça On parle on s'engraine, on sort on ne sait plus où ça Ta douce flippe parce qu'un soir de plus il n'y a rien de prévu Elle dit que si tu ne rentres pas c'est que tu ne l'aimes plus Après c'est le même biz de coups de tel ou de textos De coups de gueules et de vas-y lâche-moi les Presto ! C'est ça je vais te tromper, rentrer déchiré ou me mettre à l'envers De la before au club, du club à l'after Vas-y monte le son et baisse les vitres, il me faut de l'air Si je prends le numéro d'une go les gars il faut se taire De toutes façons je ne vais rien en faire, vous me connaissez Depuis le temps Une groupie qui me saoule en cinq minutes non, je préfère être franc Chiller seul avec mes amis de la night c'est ce qui me tient en vie Ce que tu piges pas, ce qui me rend fou chaque samedi Moi ce foutu mec normal ou ce salaud qui t'aime tant Je changerai, qui sait peut être mais, laisse-moi du temps Toujours le même biz et toujours autant Souvent la même histoire et même trop souvent Vas-y ne stresse pas, attends Je changerai, qui sait peut-être mais, laisse-moi du temps You might also like Oui c'est moi, c'est pour te dire que c'est fini Et que je ne serai pas là quand tu rentreras C'est comme foirer le Nord et le Sud sans toi Réaliser combien j'en ai manqué des fois et me dire Que ce qu'il me reste ce ne sont que des souvenirs Mes dièzes pour te séduire, oublie je ne suis plus comme ça Il faut que l'on se reparle sans qu'il y ait de malentendu Il faut se dire que j'étais con, mettons la faute là dessus Je n'ai plus de style même si je roule encore en Merco Plus que toi comme essence et un vieux numéro Dis-moi que tu vas bien, oui parle-moi de toi Dis-moi que tu penses à moi et que cela t'arrive souvent Est-ce qu'on te branche souvent quand tu danses en club ? Est-ce que tu les pointes, à part ça est-ce que tu es seule ? Fais-moi un signe, pose tes yeux sur moi Fais-moi un seul sourire revient et dis-moi Ce qu'il faut que je fasse s'il me reste une chance Encore une fois s'il te reste une danse pour moi Toujours le même biz et toujours autant Souvent la même histoire et même trop souvent Vas-y ne stresse pas, attends Je changerai, qui sait peut-être mais, laisse-moi du temps</t>
+          <t>Toi-même tu sais Qu'une soirée avec le crew ça se déroule comme ça On parle on s'engraine, on sort on ne sait plus où ça Ta douce flippe parce qu'un soir de plus il n'y a rien de prévu Elle dit que si tu ne rentres pas c'est que tu ne l'aimes plus Après c'est le même biz de coups de tel ou de textos De coups de gueules et de vas-y lâche-moi les Presto ! C'est ça je vais te tromper, rentrer déchiré ou me mettre à l'envers De la before au club, du club à l'after Vas-y monte le son et baisse les vitres, il me faut de l'air Si je prends le numéro d'une go les gars il faut se taire De toutes façons je ne vais rien en faire, vous me connaissez Depuis le temps Une groupie qui me saoule en cinq minutes non, je préfère être franc Chiller seul avec mes amis de la night c'est ce qui me tient en vie Ce que tu piges pas, ce qui me rend fou chaque samedi Moi ce foutu mec normal ou ce salaud qui t'aime tant Je changerai, qui sait peut être mais, laisse-moi du temps Toujours le même biz et toujours autant Souvent la même histoire et même trop souvent Vas-y ne stresse pas, attends Je changerai, qui sait peut-être mais, laisse-moi du temps Oui c'est moi, c'est pour te dire que c'est fini Et que je ne serai pas là quand tu rentreras C'est comme foirer le Nord et le Sud sans toi Réaliser combien j'en ai manqué des fois et me dire Que ce qu'il me reste ce ne sont que des souvenirs Mes dièzes pour te séduire, oublie je ne suis plus comme ça Il faut que l'on se reparle sans qu'il y ait de malentendu Il faut se dire que j'étais con, mettons la faute là dessus Je n'ai plus de style même si je roule encore en Merco Plus que toi comme essence et un vieux numéro Dis-moi que tu vas bien, oui parle-moi de toi Dis-moi que tu penses à moi et que cela t'arrive souvent Est-ce qu'on te branche souvent quand tu danses en club ? Est-ce que tu les pointes, à part ça est-ce que tu es seule ? Fais-moi un signe, pose tes yeux sur moi Fais-moi un seul sourire revient et dis-moi Ce qu'il faut que je fasse s'il me reste une chance Encore une fois s'il te reste une danse pour moi Toujours le même biz et toujours autant Souvent la même histoire et même trop souvent Vas-y ne stresse pas, attends Je changerai, qui sait peut-être mais, laisse-moi du temps</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Black 10 1er couplet Del-fa traversai le collège avec de drôles de tenues dans la cours chaque jours était un show inattendu tu te moquais autant que tu étais surpris tu le prenais pour un martien scrtach Un jour tu reçus une k7 au son bousillé à la bande usée de la part de Joe lindien dun grand groupe que lui appelait wu clin clin Lex te donna le bon blase scratch Tas essayé découter cette défunte cassette mais en vain tu lâchas laffaire pour te rabattre sur naughty by nature Jusquau jour où lex te remis un son propre tu ne fus toujours pas convaincu cétait trop brut pour toi A croire quon avait tous posé ça dans une ve-ca En effet par la suite tas appris quon avait tous posé ça dans une chambre sur un 8 pistes 3 samples sur un beat doù le son minimaliste le tout produit par the rza lachimiste Avec le temps sentant lengouement tu tes fait avoir tu tes mis dans lambiance pas autant que tes bougs de la segpa tous engrainés des oreilles de la tête aux pieds par Del-fa En baggy, clarcks, helly hansen tous sapés les veu-chs en pétard ou nattés que dun coté Lentille blanche à lil gauche comme method man Chaque mimique était copiée, étudiée au détail près les dents recouvertes dalu imitation du dentier en argent de odb En plein été avec Joe lindien tu te promenais avec un poste dans tout Grigny Pour faire écouter un album dont vous ne connaissiez pas lauteur encore moins le nom vous étiez jeunes coupables et con Refrain scratch dj jumpoff Black 10 2eme couplet Un soir tard tu tapprêtais à voir best of rap tu tes tombé sur best of wu Tang tes devenu dingue affolé tas cherché une k7 vidéo à effacer Grands ouvert furent tes yeux et ceux de tes petits frérots tas enfin pu mettre des visages sur toutes ces voix que técoutais sur ta vieille k7 audio Cétait magnifique vous étiez en transe vous kiffiez vous absorbiez cétait intense au collège jean Villard vous aviez enfin compris le délire de Del-fa Il avait converti bien plus que la segpa on était dans les oreilles des noichs, des babs, des rebeus, des renois Petit à petit tas saisi quon était un grand groupe après le succès de enter the 36 chambers Presque tous on a enchainés des albums solos tous produit par rza le chef du commando le wu cocktail explosif qui était obligé de vous plaire Ambiance sombre, soul, interlude, bruitage, shaolin, super héros marvel, musique guerrière rythmique tribale On avait tous un rôle une spécialité martiale Chacun était un Marvel aux attaques phénoménales On avait tous un blaze à consonance originale Dans la pochette de notre premier cd on pouvait y trouver tous les blazes du clan dans notre sillage on a fait émerger scratch Sans oublier le cousin de ghost face Les compiles killah bees on était dans en place dans le biz Wu tang forever au début tétait pas dedans tu le trouvais trop propre pas assez sale dans lenregistrement On était sorti de notre grotte ça yest on avait de largent petit à petit comme jadis tu tes fait avoir dommage que sur la plupart des titres il manquait le fou odb Sa folie son rap de barbare cétait lâme du wu Tang cétait le plus fort après son départ les choses nétaient plus les mêmes embrouilles bagarre Tas essayé dy croire les seconds albums solos déclin, desespoir, embourgeoisés le manque dinspi cest ça la rançon de la gloire On était devenu bling bling on voulait faire comme tout le monde tétais déçus de nous voir entouré de potiches et de bijoux partout Tu voulais revoir ces clips dans des bus déglingués Dans des endroits chelous dans ces lieux bondés de monde Chez nous on respecte nos anciens on sen sort plus ou moins the rza a tiré son épingle du jeu tarentino quentin cest lui qui sen sort le mieux bande originale de films rôle petit ou moyen il capitalise notre histoire le wu une histoire sans fin You might also likeRefrain Black10 comme le 10eme membre imaginaire du wutang 4 fois Blah black10 mc shaolin mandingue Le wu reste mon groupe de cur même sil est parti dans le décor Pro-wu je le reste encore et encore black10ème membre imaginaire du wu Tang Scratchs Dj Jumpoff</t>
+          <t>Black 10 1er couplet Del-fa traversai le collège avec de drôles de tenues dans la cours chaque jours était un show inattendu tu te moquais autant que tu étais surpris tu le prenais pour un martien scrtach Un jour tu reçus une k7 au son bousillé à la bande usée de la part de Joe lindien dun grand groupe que lui appelait wu clin clin Lex te donna le bon blase scratch Tas essayé découter cette défunte cassette mais en vain tu lâchas laffaire pour te rabattre sur naughty by nature Jusquau jour où lex te remis un son propre tu ne fus toujours pas convaincu cétait trop brut pour toi A croire quon avait tous posé ça dans une ve-ca En effet par la suite tas appris quon avait tous posé ça dans une chambre sur un 8 pistes 3 samples sur un beat doù le son minimaliste le tout produit par the rza lachimiste Avec le temps sentant lengouement tu tes fait avoir tu tes mis dans lambiance pas autant que tes bougs de la segpa tous engrainés des oreilles de la tête aux pieds par Del-fa En baggy, clarcks, helly hansen tous sapés les veu-chs en pétard ou nattés que dun coté Lentille blanche à lil gauche comme method man Chaque mimique était copiée, étudiée au détail près les dents recouvertes dalu imitation du dentier en argent de odb En plein été avec Joe lindien tu te promenais avec un poste dans tout Grigny Pour faire écouter un album dont vous ne connaissiez pas lauteur encore moins le nom vous étiez jeunes coupables et con Refrain scratch dj jumpoff Black 10 2eme couplet Un soir tard tu tapprêtais à voir best of rap tu tes tombé sur best of wu Tang tes devenu dingue affolé tas cherché une k7 vidéo à effacer Grands ouvert furent tes yeux et ceux de tes petits frérots tas enfin pu mettre des visages sur toutes ces voix que técoutais sur ta vieille k7 audio Cétait magnifique vous étiez en transe vous kiffiez vous absorbiez cétait intense au collège jean Villard vous aviez enfin compris le délire de Del-fa Il avait converti bien plus que la segpa on était dans les oreilles des noichs, des babs, des rebeus, des renois Petit à petit tas saisi quon était un grand groupe après le succès de enter the 36 chambers Presque tous on a enchainés des albums solos tous produit par rza le chef du commando le wu cocktail explosif qui était obligé de vous plaire Ambiance sombre, soul, interlude, bruitage, shaolin, super héros marvel, musique guerrière rythmique tribale On avait tous un rôle une spécialité martiale Chacun était un Marvel aux attaques phénoménales On avait tous un blaze à consonance originale Dans la pochette de notre premier cd on pouvait y trouver tous les blazes du clan dans notre sillage on a fait émerger scratch Sans oublier le cousin de ghost face Les compiles killah bees on était dans en place dans le biz Wu tang forever au début tétait pas dedans tu le trouvais trop propre pas assez sale dans lenregistrement On était sorti de notre grotte ça yest on avait de largent petit à petit comme jadis tu tes fait avoir dommage que sur la plupart des titres il manquait le fou odb Sa folie son rap de barbare cétait lâme du wu Tang cétait le plus fort après son départ les choses nétaient plus les mêmes embrouilles bagarre Tas essayé dy croire les seconds albums solos déclin, desespoir, embourgeoisés le manque dinspi cest ça la rançon de la gloire On était devenu bling bling on voulait faire comme tout le monde tétais déçus de nous voir entouré de potiches et de bijoux partout Tu voulais revoir ces clips dans des bus déglingués Dans des endroits chelous dans ces lieux bondés de monde Chez nous on respecte nos anciens on sen sort plus ou moins the rza a tiré son épingle du jeu tarentino quentin cest lui qui sen sort le mieux bande originale de films rôle petit ou moyen il capitalise notre histoire le wu une histoire sans fin Refrain Black10 comme le 10eme membre imaginaire du wutang 4 fois Blah black10 mc shaolin mandingue Le wu reste mon groupe de cur même sil est parti dans le décor Pro-wu je le reste encore et encore black10ème membre imaginaire du wu Tang Scratchs Dj Jumpoff</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Le mic saigne pour une nouvelle prestation du 3 Impose l'accent de Mars quoi qu'il en soit Un choix fait par les frères, voir le 3ème Oeil représenter Marseille Dans tout l'univers flanquer des revers sur maxis Sans prendre part à vos guerres car toutes guerres se payent cher Pas en première mais en frères n'a-t-on rien d'autre à faire Que faire des victimes au revolver, le respect se perd La mission du jour scruter le terrain venir dans ta ville serein Te faire plaisir que tu ne paye pas pour rien Le travail y est, la maîtrise y est En concert c'est pas nos joue-plus qui ferait chier Tout ce qui est fait est fait avec le coeur au front, la sueur tombe de nos fronts Pour mener à bien la mission sur scène C'est comme en cas d'embrouilles, on y va les couilles accrochées On speed à la Speedy demande à Shukri, les font de la jungle Du bon son pour ceux qui en veulent Frère lâcher l'affaire rien à faire, on fera tout pour faire Avancer l'affaire, croit nous frère, si on trahi qu'on finissent en enfer C'est clair, pas de concession sur ce beat Le Trois, Côté Obscur, Sad Hill t'invitent vite sur le son de Marseille x2 3ème il scrute le terrain Sans pitié trace indélébile Dans ta ville on vient représenter S'il faut mouiller le maillot Montrer les crocs Compte sur nous gazier Marseille et sa production signore You might also like Jusqu'ici le vice a guidé nos vies Aujourd'hui, le rap prend le relais Et fait de nous des soldats, dévoués à jamais FF le sait le travail est fait Même sans un rond la roue tourne Y'a que le job qui paie Inch'Allah qu'on se retrouve tous blindés Mais avant, il faut prouver Devant dix personnes ou des milliers Ne pas se dégonfler c'est avec la rage qu'il faut s'imposer Car personne ne voudrait crever pauvres et miséreux Alors que d'autres pètent le champagne et vivre heureux Voir ces morveux frimer en cabriolet Alors que nos potes sont obligés de cambrioler Pour ne pas se laisser noyer De quoi nous motiver, Le 3 et ses alliés Commencent à peine à être aux côtés Quand les critiques vont fuser Mais rien à foutre des groupes d'à côté Tout est fait pour assurer la montée de nos phrasés, franc parler Juste pour les vrais, Mombi tu le sais Ouais, je sais qu'les bons, les vrais Saurons distinguer le faux du vrai C'est pourquoi on représente les nôtres avec tant de fierté Le 3 opérationnel pour tout types de combats Quand il y a deux membres, on rappe gras Mais pour ceux là, lâche du cash à nos managers Puis l'on signera le contrat Le 3 opérationnel pour tout types de combats Quand il y a deux membres, on rappe gras Mais pour ceux-là lâche du cash à nos managers Puis l'on signera le contrat x4 3ème il scrute le terrain Sans pitié trace indélébile Dans ta ville on vient représenter S'il faut mouiller le maillot Montrer les crocs Compte sur nous gazier Marseille et sa production signore 3e il, 3e il scrute le terrain Bomb et DJ Ralph, sans pitié Jo Popo, Boss One, sans pitié Khéops et Sad Hill, sans pitié IAM, Côté Obscur, Kif Kif, Faf Larage sans pitié K. Rhyme Le Roi, Def Bond FF, Le Venin venom bonhomme Rohff et le 113 Clan, Mafia Comoria 143, 3e il, Marseille sans pitié, ouais1</t>
+          <t>Le mic saigne pour une nouvelle prestation du 3 Impose l'accent de Mars quoi qu'il en soit Un choix fait par les frères, voir le 3ème Oeil représenter Marseille Dans tout l'univers flanquer des revers sur maxis Sans prendre part à vos guerres car toutes guerres se payent cher Pas en première mais en frères n'a-t-on rien d'autre à faire Que faire des victimes au revolver, le respect se perd La mission du jour scruter le terrain venir dans ta ville serein Te faire plaisir que tu ne paye pas pour rien Le travail y est, la maîtrise y est En concert c'est pas nos joue-plus qui ferait chier Tout ce qui est fait est fait avec le coeur au front, la sueur tombe de nos fronts Pour mener à bien la mission sur scène C'est comme en cas d'embrouilles, on y va les couilles accrochées On speed à la Speedy demande à Shukri, les font de la jungle Du bon son pour ceux qui en veulent Frère lâcher l'affaire rien à faire, on fera tout pour faire Avancer l'affaire, croit nous frère, si on trahi qu'on finissent en enfer C'est clair, pas de concession sur ce beat Le Trois, Côté Obscur, Sad Hill t'invitent vite sur le son de Marseille x2 3ème il scrute le terrain Sans pitié trace indélébile Dans ta ville on vient représenter S'il faut mouiller le maillot Montrer les crocs Compte sur nous gazier Marseille et sa production signore Jusqu'ici le vice a guidé nos vies Aujourd'hui, le rap prend le relais Et fait de nous des soldats, dévoués à jamais FF le sait le travail est fait Même sans un rond la roue tourne Y'a que le job qui paie Inch'Allah qu'on se retrouve tous blindés Mais avant, il faut prouver Devant dix personnes ou des milliers Ne pas se dégonfler c'est avec la rage qu'il faut s'imposer Car personne ne voudrait crever pauvres et miséreux Alors que d'autres pètent le champagne et vivre heureux Voir ces morveux frimer en cabriolet Alors que nos potes sont obligés de cambrioler Pour ne pas se laisser noyer De quoi nous motiver, Le 3 et ses alliés Commencent à peine à être aux côtés Quand les critiques vont fuser Mais rien à foutre des groupes d'à côté Tout est fait pour assurer la montée de nos phrasés, franc parler Juste pour les vrais, Mombi tu le sais Ouais, je sais qu'les bons, les vrais Saurons distinguer le faux du vrai C'est pourquoi on représente les nôtres avec tant de fierté Le 3 opérationnel pour tout types de combats Quand il y a deux membres, on rappe gras Mais pour ceux là, lâche du cash à nos managers Puis l'on signera le contrat Le 3 opérationnel pour tout types de combats Quand il y a deux membres, on rappe gras Mais pour ceux-là lâche du cash à nos managers Puis l'on signera le contrat x4 3ème il scrute le terrain Sans pitié trace indélébile Dans ta ville on vient représenter S'il faut mouiller le maillot Montrer les crocs Compte sur nous gazier Marseille et sa production signore 3e il, 3e il scrute le terrain Bomb et DJ Ralph, sans pitié Jo Popo, Boss One, sans pitié Khéops et Sad Hill, sans pitié IAM, Côté Obscur, Kif Kif, Faf Larage sans pitié K. Rhyme Le Roi, Def Bond FF, Le Venin venom bonhomme Rohff et le 113 Clan, Mafia Comoria 143, 3e il, Marseille sans pitié, ouais1</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Là-bas ici, ici là-bas même combat Avec ou sans on s'en sortira Les groupes bossent pour ça Les groupes représentent pour ça Pas dimitation autour de moi, on essaye d'être des groupes de marque Le mic serré dans la main comme l'effet du gaz à long terme, pas le choix ici, un rythme vite et sec ça me suffit Trouver par là que ça pour défier les défis Marseille sub loin, Marseille plus loin Pour démarcher, économie plus vide claque Et j'ai connu mes débuts Et l'auto-prod ici avec le Soul Swing Les longs voyages, l'affichage, les colles plein le jean Faut passer par là, vivre ça pour voir plus loin Avec ici un truc en moins Personne ne sait que texistes sauf toi Tes amis, ton stylo, la chance de ta vie Au fond de toi le devoir de faire du bon sinon rien Je parle d'ici, ailleurs je connais peu mais j'imagine Que même autour de la capitale les groupes ont autant de mal Parce qu'ils sont plus plus près de tout, plus alors c'est idem Ici comme ailleurs seuls les branleurs se plaignent Mon constat reste un constat pour les jeunes qui bossent dur Sûrs de leur volonté, pas de mur qui tienne Ici rien n'est gagné d'avance, à l'image de la vie Les groupes ici et là représentent et je sais ce que je dis You might also like Loin des majors, dégun ne pleure sur son sort Écoute, ici les groupes représentent Le devoir de faire du bon sinon rien Écoute, ici les groupes représentent Près des majors, tout n'est pas si sûr alors Écoute, chez toi les groupes représentent Le devoir de faire du bon sinon rien Écoute, chez toi les groupes représentent Y a surement des groupes bidons mais comme ailleurs on s'en fout Je vais pas dire qu'on les aime Parce qu'ils sont du sud ou qu'ils marchent avec nous Non, si tu mouilles pas le maillot poto Check un autre joueur de passage qui cherche le niveau Dans mon club, des groupes se saignent,,travaillent, restent eux-mêmes dans leur taff Passent leurs journées dans la musique Le sang chaud, y a vraiment trop de clichés, c'est trop C'est le cur que tu touches et la fierté ici-bas c'est tout ce qui reste J'ai pas droit au test, poings fermés comme Cantona Absent en équipe de France je comprends pas Alors ne cherche pas tout, viens la rage dans le mic Viens regarder de plus près tiens si je pointe, prends le bien Je tiens pas à courir après le mouvement À ceux qui me pardonnent d'être chauvin quand je déconne J'aurai, expliquerai et re-rappellerai la motivation, sa variante La différence c'est frappant, les structures bien absentes Scène effervescente, groupes confiants, centralisation obsédante Situation évidente mais caractère battant Les groupes ici et là représentent il pour dent Pas d'arrangement Loin des majors, dégun ne pleure sur son sort Écoute, ici les groupes représentent Le devoir de faire du bon sinon rien Écoute, ici les groupes représentent Près des majors, tout n'est pas si sûr alors Écoute, chez toi les groupes représentent Le devoir de faire du bon sinon rien Écoute, chez toi les groupes représentent Mars au micro, propos du C.O Autant de pression qu'au casino Plus rien à perdre on fait banco, le niveau monte Les crocs poussent, trop de soucis Pas le temps d'attendre, il faut que ça représente ici Question de survie</t>
+          <t>Là-bas ici, ici là-bas même combat Avec ou sans on s'en sortira Les groupes bossent pour ça Les groupes représentent pour ça Pas dimitation autour de moi, on essaye d'être des groupes de marque Le mic serré dans la main comme l'effet du gaz à long terme, pas le choix ici, un rythme vite et sec ça me suffit Trouver par là que ça pour défier les défis Marseille sub loin, Marseille plus loin Pour démarcher, économie plus vide claque Et j'ai connu mes débuts Et l'auto-prod ici avec le Soul Swing Les longs voyages, l'affichage, les colles plein le jean Faut passer par là, vivre ça pour voir plus loin Avec ici un truc en moins Personne ne sait que texistes sauf toi Tes amis, ton stylo, la chance de ta vie Au fond de toi le devoir de faire du bon sinon rien Je parle d'ici, ailleurs je connais peu mais j'imagine Que même autour de la capitale les groupes ont autant de mal Parce qu'ils sont plus plus près de tout, plus alors c'est idem Ici comme ailleurs seuls les branleurs se plaignent Mon constat reste un constat pour les jeunes qui bossent dur Sûrs de leur volonté, pas de mur qui tienne Ici rien n'est gagné d'avance, à l'image de la vie Les groupes ici et là représentent et je sais ce que je dis Loin des majors, dégun ne pleure sur son sort Écoute, ici les groupes représentent Le devoir de faire du bon sinon rien Écoute, ici les groupes représentent Près des majors, tout n'est pas si sûr alors Écoute, chez toi les groupes représentent Le devoir de faire du bon sinon rien Écoute, chez toi les groupes représentent Y a surement des groupes bidons mais comme ailleurs on s'en fout Je vais pas dire qu'on les aime Parce qu'ils sont du sud ou qu'ils marchent avec nous Non, si tu mouilles pas le maillot poto Check un autre joueur de passage qui cherche le niveau Dans mon club, des groupes se saignent,,travaillent, restent eux-mêmes dans leur taff Passent leurs journées dans la musique Le sang chaud, y a vraiment trop de clichés, c'est trop C'est le cur que tu touches et la fierté ici-bas c'est tout ce qui reste J'ai pas droit au test, poings fermés comme Cantona Absent en équipe de France je comprends pas Alors ne cherche pas tout, viens la rage dans le mic Viens regarder de plus près tiens si je pointe, prends le bien Je tiens pas à courir après le mouvement À ceux qui me pardonnent d'être chauvin quand je déconne J'aurai, expliquerai et re-rappellerai la motivation, sa variante La différence c'est frappant, les structures bien absentes Scène effervescente, groupes confiants, centralisation obsédante Situation évidente mais caractère battant Les groupes ici et là représentent il pour dent Pas d'arrangement Loin des majors, dégun ne pleure sur son sort Écoute, ici les groupes représentent Le devoir de faire du bon sinon rien Écoute, ici les groupes représentent Près des majors, tout n'est pas si sûr alors Écoute, chez toi les groupes représentent Le devoir de faire du bon sinon rien Écoute, chez toi les groupes représentent Mars au micro, propos du C.O Autant de pression qu'au casino Plus rien à perdre on fait banco, le niveau monte Les crocs poussent, trop de soucis Pas le temps d'attendre, il faut que ça représente ici Question de survie</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Les images passent ces flashs me renvoient Mon nom sur ses lèvres Et pourtant, les jours sont trop longs Les jours sont définis et si les épreuves les rallongent Passe un peu l'éponge et regarde les journées qui te rongent Il n'y a pas de futur, que le flux éternel du présent Philosophie dans les livres ou combat sans égal de l'instant Guerre inutile, présent inutile et j'en sais Plus qu'hier moins que demain mais jamais assez Est-ce la vie sans pitié, un zeste injuste Qui marque son bien erroné quand elle met sa pendule à l'heure On meurt sous son régime, on est la tête pleine d'énigmes Impuissant quand la fatalité signe On ne perd pas ce qu'on aime et personne nous quitte Je deviens égoïste quand je me demande pourquoi moi ? Fausse question, pourquoi je serai traité autrement Et d'où je sors pour être épargné dans le changement Indécent, méprise chaque lever de soleil Au coucher si tu veux pleure en cherchant le sommeil Mais ne juge pas, essaie d'oublier ce goût amer Rien sur Terre a le pouvoir de tout refaire En te détachant lentement après coup du contrecoup Tu trouveras les jours plus longs c'est tout You might also like La raison qui me retient ici, c'est ma mère, la savoir seule Trop longs, aucun doute et pourtant La raison qui me retient ici, c'est ma mère, la savoir seule J'en trouve les jours trop longs Je vois l'espace temps s'agrandir à chaque fois que j'y pense La peine me lance, comme un coup de couteau Mon cur saigne, l'hémorragie imprègne mes souvenirs d'enfance Puis-je encore compter sur la chance ? Les rêves aux couleurs d'espoir ne sont plus les mêmes Ma mère me manque et étaler mes histoires ça me gêne J'en garde les détails, comme le dragon tient son trésor Au fond le secret j'y tiens et sa place est en moi dès lors Alors je me dois d'être là, présent pour la famille Effacé mais disponible, c'est tout moi Droit j'étais, je suis encore plus en retrait malgré moi Accepte-moi si je m'accepte avec ça J'ai pas le temps ni le droit de me plaindre au regard des autres Je crois fort au destin et remet rarement la faute à tort Accuser c'est mauvais et tu sais oublie Je l'ai trop fait et ça m'a jamais servi, regarde où j'en suis Les thunes, égalité pour tout le monde Aujourd'hui j'écris pour occuper des journées trop longues La raison qui me retient ici, c'est ma mère, la savoir seule Trop longs, aucun doute et pourtant La raison qui me retient ici, c'est ma mère, la savoir seule J'en trouve les jours trop longs Chaque chose nait avec son opposé Et apprendre le mécanisme des polarité c'est souffrir Commettre des erreurs dans les situations difficiles Mais prendre l'existence comme une danse éphémère Ouvert, toujours tout relativiser Je ne peux plus voir les choses d'un seul côté Et rien d'absolu, la dualité marque ma vie La réversibilité vécue, rude est la leçon apprise Allez, pour la sagesse considérez surtout si c'est dur La vie la mort inséparables par nature Les images passent, ces flash me renvoient Mon nom sur ses lèvres, et pourtant Les jours sont trop longs La raison qui me retient ici, c'est ma mère, la savoir seule Trop longs, aucun doute et pourtant La raison qui me retient ici, c'est ma mère, la savoir seule J'en trouve les jours trop longs x3 Les images passent, les flash me renvoient Mon nom sur ses lèvres, pourtant Les jours sont trop longs</t>
+          <t>Les images passent ces flashs me renvoient Mon nom sur ses lèvres Et pourtant, les jours sont trop longs Les jours sont définis et si les épreuves les rallongent Passe un peu l'éponge et regarde les journées qui te rongent Il n'y a pas de futur, que le flux éternel du présent Philosophie dans les livres ou combat sans égal de l'instant Guerre inutile, présent inutile et j'en sais Plus qu'hier moins que demain mais jamais assez Est-ce la vie sans pitié, un zeste injuste Qui marque son bien erroné quand elle met sa pendule à l'heure On meurt sous son régime, on est la tête pleine d'énigmes Impuissant quand la fatalité signe On ne perd pas ce qu'on aime et personne nous quitte Je deviens égoïste quand je me demande pourquoi moi ? Fausse question, pourquoi je serai traité autrement Et d'où je sors pour être épargné dans le changement Indécent, méprise chaque lever de soleil Au coucher si tu veux pleure en cherchant le sommeil Mais ne juge pas, essaie d'oublier ce goût amer Rien sur Terre a le pouvoir de tout refaire En te détachant lentement après coup du contrecoup Tu trouveras les jours plus longs c'est tout La raison qui me retient ici, c'est ma mère, la savoir seule Trop longs, aucun doute et pourtant La raison qui me retient ici, c'est ma mère, la savoir seule J'en trouve les jours trop longs Je vois l'espace temps s'agrandir à chaque fois que j'y pense La peine me lance, comme un coup de couteau Mon cur saigne, l'hémorragie imprègne mes souvenirs d'enfance Puis-je encore compter sur la chance ? Les rêves aux couleurs d'espoir ne sont plus les mêmes Ma mère me manque et étaler mes histoires ça me gêne J'en garde les détails, comme le dragon tient son trésor Au fond le secret j'y tiens et sa place est en moi dès lors Alors je me dois d'être là, présent pour la famille Effacé mais disponible, c'est tout moi Droit j'étais, je suis encore plus en retrait malgré moi Accepte-moi si je m'accepte avec ça J'ai pas le temps ni le droit de me plaindre au regard des autres Je crois fort au destin et remet rarement la faute à tort Accuser c'est mauvais et tu sais oublie Je l'ai trop fait et ça m'a jamais servi, regarde où j'en suis Les thunes, égalité pour tout le monde Aujourd'hui j'écris pour occuper des journées trop longues La raison qui me retient ici, c'est ma mère, la savoir seule Trop longs, aucun doute et pourtant La raison qui me retient ici, c'est ma mère, la savoir seule J'en trouve les jours trop longs Chaque chose nait avec son opposé Et apprendre le mécanisme des polarité c'est souffrir Commettre des erreurs dans les situations difficiles Mais prendre l'existence comme une danse éphémère Ouvert, toujours tout relativiser Je ne peux plus voir les choses d'un seul côté Et rien d'absolu, la dualité marque ma vie La réversibilité vécue, rude est la leçon apprise Allez, pour la sagesse considérez surtout si c'est dur La vie la mort inséparables par nature Les images passent, ces flash me renvoient Mon nom sur ses lèvres, et pourtant Les jours sont trop longs La raison qui me retient ici, c'est ma mère, la savoir seule Trop longs, aucun doute et pourtant La raison qui me retient ici, c'est ma mère, la savoir seule J'en trouve les jours trop longs x3 Les images passent, les flash me renvoient Mon nom sur ses lèvres, pourtant Les jours sont trop longs</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Les jours sont définis et si les épreuves les rallongent Passe un peu l'éponge et regarde les journées qui te rongent Il n'y a pas de futur, que le flux éternel du présent Philosophie dans les livres, combat sans égal de l'instant Guerre inutile, présent inutile, j'en sais Plus qu'hier moins que demain mais jamais assez Est-ce la vie sans pitié, un zeste injuste Qui marque son bien et remet quand elle veut sa pendule à l'heure On meurt sous son régime, on est la tête pleine d'énigmes Impuissant quand la fatalité signe On ne perd pas ceux qu'on aime et personne nous quitte Je deviens égoïste quand je me demande pourquoi moi ? Fausse question, pourquoi je serai traité autrement Et d'où je sors pour être épargné dans le changement Redescend, me disent chaque lever du soleil Au coucher si tu veux pleure en cherchant le sommeil Mais ne juge pas, essaie d'oublier ce goût amer Rien sur Terre a le pouvoir de tout refaire En te détachant lentement après coup du contrecoup Tu trouveras les jours plus longs c'est tout Je vis chaque seconde, chaque minute, chaque heure comme un combat Les jours se suivent si lentement que ces souvenirs qui sont en moi Trop long assez pour repenser Trop long pas assez pour effacer Je vois l'espace temps s'agrandir à chaque fois que j'y pense La peine me lance, comme un coup de couteau Mon cur saigne, lhémorragie imprègne mes souvenirs d'enfance Puis-je encore compter sur la chance ? Les rêves aux couleurs d'espoir ne sont plus les mêmes Ma mère me manque et étaler mes histoires ça me gêne J'en garde les détails, comme le dragon tient son trésor Au fond le secret j'y tiens et sa place est en moi dès lors Alors je me dois d'être là, présent pour la famille Effacé mais disponible, c'est tout moi Droit j'étais, je suis encore plus en retrait malgré moi Accepte-moi si je m'accepte avec ça J'ai pas le temps ni le droit de me plaindre regarde les autres Je crois fort au destin et remet rarement la faute à tort Accuser c'est mauvais et tu sais oublie Je l'ai trop fait et ça m'a jamais servi, regarde où j'en suis Les thunes égalité pour tout le monde Aujourd'hui j'écris pour occuper des journées trop longues Je vis chaque seconde, chaque minute, chaque heure comme un combat Les jours se suivent si lentement que ces souvenirs qui sont en moi Trop long assez pour repenser Trop long pas assez pour effacer Chaque chose nait avec son opposé Et apprendre le mécanisme des polarités c'est souffrir Commettre des erreurs dans les situations difficiles Mais prendre l'existence comme une danse éphémère Ouvert, toujours tout relativiser Je ne peux plus voir les choses d'un seul côté Et rien d'absolu, la dualité marque ma vie La réversibilité vécue rude et la leçon apprise Allez, pour la sagesse considérez surtout si c'est dur La vie la mort inséparables par nature Je vis chaque seconde, chaque minute, chaque heure comme un combat Les jours se suivent si lentement que ces souvenirs qui sont en moi Trop long assez pour repenser Trop long pas assez pour effacerYou might also like</t>
+          <t>Les jours sont définis et si les épreuves les rallongent Passe un peu l'éponge et regarde les journées qui te rongent Il n'y a pas de futur, que le flux éternel du présent Philosophie dans les livres, combat sans égal de l'instant Guerre inutile, présent inutile, j'en sais Plus qu'hier moins que demain mais jamais assez Est-ce la vie sans pitié, un zeste injuste Qui marque son bien et remet quand elle veut sa pendule à l'heure On meurt sous son régime, on est la tête pleine d'énigmes Impuissant quand la fatalité signe On ne perd pas ceux qu'on aime et personne nous quitte Je deviens égoïste quand je me demande pourquoi moi ? Fausse question, pourquoi je serai traité autrement Et d'où je sors pour être épargné dans le changement Redescend, me disent chaque lever du soleil Au coucher si tu veux pleure en cherchant le sommeil Mais ne juge pas, essaie d'oublier ce goût amer Rien sur Terre a le pouvoir de tout refaire En te détachant lentement après coup du contrecoup Tu trouveras les jours plus longs c'est tout Je vis chaque seconde, chaque minute, chaque heure comme un combat Les jours se suivent si lentement que ces souvenirs qui sont en moi Trop long assez pour repenser Trop long pas assez pour effacer Je vois l'espace temps s'agrandir à chaque fois que j'y pense La peine me lance, comme un coup de couteau Mon cur saigne, lhémorragie imprègne mes souvenirs d'enfance Puis-je encore compter sur la chance ? Les rêves aux couleurs d'espoir ne sont plus les mêmes Ma mère me manque et étaler mes histoires ça me gêne J'en garde les détails, comme le dragon tient son trésor Au fond le secret j'y tiens et sa place est en moi dès lors Alors je me dois d'être là, présent pour la famille Effacé mais disponible, c'est tout moi Droit j'étais, je suis encore plus en retrait malgré moi Accepte-moi si je m'accepte avec ça J'ai pas le temps ni le droit de me plaindre regarde les autres Je crois fort au destin et remet rarement la faute à tort Accuser c'est mauvais et tu sais oublie Je l'ai trop fait et ça m'a jamais servi, regarde où j'en suis Les thunes égalité pour tout le monde Aujourd'hui j'écris pour occuper des journées trop longues Je vis chaque seconde, chaque minute, chaque heure comme un combat Les jours se suivent si lentement que ces souvenirs qui sont en moi Trop long assez pour repenser Trop long pas assez pour effacer Chaque chose nait avec son opposé Et apprendre le mécanisme des polarités c'est souffrir Commettre des erreurs dans les situations difficiles Mais prendre l'existence comme une danse éphémère Ouvert, toujours tout relativiser Je ne peux plus voir les choses d'un seul côté Et rien d'absolu, la dualité marque ma vie La réversibilité vécue rude et la leçon apprise Allez, pour la sagesse considérez surtout si c'est dur La vie la mort inséparables par nature Je vis chaque seconde, chaque minute, chaque heure comme un combat Les jours se suivent si lentement que ces souvenirs qui sont en moi Trop long assez pour repenser Trop long pas assez pour effacer</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>- Hum, Monsieur Bond ! - Oui ? Si je reviens avec cette envie de voir le trésor de plus près Plus je force et plus je sens le but a mes pieds Def Bond, dernier de la série hip-hop Mars 2000 Cherche encore ce que je renferme le thème dans le fossile Si c'était facile de réussir a tout prix, de prendre le succès Je devine que tout le monde chasserait On serait des Mad Max que la vue d'un Oscar désaxerait Tueurs de syntaxes que l'absolu relaxerait - Continuez, Monsieur Bond ! Mais ce qu'il y a de moins sûr, sur cette Terre, c'est bien ce qui arrive On tombe dans le star system en disant mais qu'est ce qui m'arrive ? A trop chercher le haut du podium, on attire l'envie Un numéro 2 toute sa vie se fout des envieux En attendant que son heure sonne, pendant qu'on se trompe de personne Combat les squales au shlass sous les yeux de personnes Opère a l'ombre et dénombre parmi peu de semblables Si oui un jour à ses conditions être capable De gérer son avenir a fond ou celui de son team Se créer occases, saisir bases bonnes, pondre un hymne digne Doucement décevoir, surprendre, ou mettre la haine Sûrement ne rien en croire, tout ltemps faire ce qu'on aime Que germe l'histoire sur le fragment qui me concerne Puissant, faire ses preuves comme le thème You might also like 007 Je connais bien mes points faibles. Je suis tout prêt à remplir cette mission dans l'esprit que vous indiquez, si au moins je savais de quoi il s'agit M Vous voulez savoir pourquoi où et comment ? Si je consens à satisfaire votre curiosité, c'est parce que vous êtes pour moi le premier homme capable d'apprécier ce que j'ai fait, et de garder le secret - Continuez, Monsieur Bond ! Faudrait affronter les explosions djoie comme le feu des fosses Avant que son amour propre que son amour ne faute n'endosse la Note et cqui va avec, trouver la voie puis Les épices pour donner un sens au droit chemin jcrois Mission sur braise pour double 013 présent Mais si on est de baise, court sur thèse, mec, on est dedans Je veux rien devant ou je tire, jure sur Pine Wood l'empire Ici, le serment est fait, sers m'en un frais que je respire - Continuez, Monsieur Bond ! L'aspérité du jeu vaut tous les risques et tous les disques a prendre Le creux de la vague, une blague, n'est que passade à comprendre Sortir de l'écume, une perle rare en tête, voila ce qui manque A la surface, une flotte de langues sales, voila qui splanque Je veux un putain dparcours le sien, ça mnouait Je veux du concret, de la force en longueur, ça je voulais De la potion magique pour ma technique tout d'un coup De la rage de loup, retenue de la rue a la foule pour tous Doucement décevoir, surprendre ou mettre la haine Sûrement ne rien en croire, tout le temps faire ce qu'on aime Que germe l'histoire sur le fragment qui me concerne Puissant, faire ses preuves comme le thème 007 Je connais bien mes points faibles, patron. Je suis tout prêt à remplir cette mission dans l'esprit que vous indiquez, si au moins je savais de quoi il s'agit M Vous voulez savoir pourquoi où et comment ? Si je consens à satisfaire votre curiosité, c'est parce que vous êtes pour moi le premier homme capable d'apprécier ce que j'ai fait, et de garder le secret Def Bond, partout dans le monde x8 Def Bond M Il y a si peu de temps et tant de choses dont nous devons discuter</t>
+          <t>- Hum, Monsieur Bond ! - Oui ? Si je reviens avec cette envie de voir le trésor de plus près Plus je force et plus je sens le but a mes pieds Def Bond, dernier de la série hip-hop Mars 2000 Cherche encore ce que je renferme le thème dans le fossile Si c'était facile de réussir a tout prix, de prendre le succès Je devine que tout le monde chasserait On serait des Mad Max que la vue d'un Oscar désaxerait Tueurs de syntaxes que l'absolu relaxerait - Continuez, Monsieur Bond ! Mais ce qu'il y a de moins sûr, sur cette Terre, c'est bien ce qui arrive On tombe dans le star system en disant mais qu'est ce qui m'arrive ? A trop chercher le haut du podium, on attire l'envie Un numéro 2 toute sa vie se fout des envieux En attendant que son heure sonne, pendant qu'on se trompe de personne Combat les squales au shlass sous les yeux de personnes Opère a l'ombre et dénombre parmi peu de semblables Si oui un jour à ses conditions être capable De gérer son avenir a fond ou celui de son team Se créer occases, saisir bases bonnes, pondre un hymne digne Doucement décevoir, surprendre, ou mettre la haine Sûrement ne rien en croire, tout ltemps faire ce qu'on aime Que germe l'histoire sur le fragment qui me concerne Puissant, faire ses preuves comme le thème 007 Je connais bien mes points faibles. Je suis tout prêt à remplir cette mission dans l'esprit que vous indiquez, si au moins je savais de quoi il s'agit M Vous voulez savoir pourquoi où et comment ? Si je consens à satisfaire votre curiosité, c'est parce que vous êtes pour moi le premier homme capable d'apprécier ce que j'ai fait, et de garder le secret - Continuez, Monsieur Bond ! Faudrait affronter les explosions djoie comme le feu des fosses Avant que son amour propre que son amour ne faute n'endosse la Note et cqui va avec, trouver la voie puis Les épices pour donner un sens au droit chemin jcrois Mission sur braise pour double 013 présent Mais si on est de baise, court sur thèse, mec, on est dedans Je veux rien devant ou je tire, jure sur Pine Wood l'empire Ici, le serment est fait, sers m'en un frais que je respire - Continuez, Monsieur Bond ! L'aspérité du jeu vaut tous les risques et tous les disques a prendre Le creux de la vague, une blague, n'est que passade à comprendre Sortir de l'écume, une perle rare en tête, voila ce qui manque A la surface, une flotte de langues sales, voila qui splanque Je veux un putain dparcours le sien, ça mnouait Je veux du concret, de la force en longueur, ça je voulais De la potion magique pour ma technique tout d'un coup De la rage de loup, retenue de la rue a la foule pour tous Doucement décevoir, surprendre ou mettre la haine Sûrement ne rien en croire, tout le temps faire ce qu'on aime Que germe l'histoire sur le fragment qui me concerne Puissant, faire ses preuves comme le thème 007 Je connais bien mes points faibles, patron. Je suis tout prêt à remplir cette mission dans l'esprit que vous indiquez, si au moins je savais de quoi il s'agit M Vous voulez savoir pourquoi où et comment ? Si je consens à satisfaire votre curiosité, c'est parce que vous êtes pour moi le premier homme capable d'apprécier ce que j'ai fait, et de garder le secret Def Bond, partout dans le monde x8 Def Bond M Il y a si peu de temps et tant de choses dont nous devons discuter</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>J'arrive sur la prod ça fait comme badaboum Tarrive dans Planète rap ça fait genre bah bah bouh Chez toi odeur de cannabis est tapissée Chez moi p'tit sofa hm lumière tamisée Quelques maîtres quelques rookies dans l'SAS Chez nous pas dtraître pas d'pookie dans l'SAS SO Aya Pour les flows SO IAM Les gens croient en Dieu Malheureusement j'suis païen Dans tes enceintes les flows glissent comme les pinguoins Quatre heures pour rec la même piste Ah j'suis pas bien Hm j'ai bien mangé Hm j'ai bien mangé C'est vrai jai plus trop faim mais Bygga cuisine des bangers Hm jai bien mangé Hm j'ai bien mangé Les MCs ont la dalle mais jsais cuisiner des banger Rime mijotée Healer flouté Très bien noté Team équipée Public shooté Pas de loupé Shenzen J'ai jamais la flemme quand j'pense au parcours d'Eminem La prépa est olympique La compo est sasmique Énergie open mic classique Léquipe est réunie prépare la tactique Qu'on nous retienne récit biblique RNS grandit Potentiel d'un joueur de Bondy Rapper comme jamais Sapé comme jamais Freestyle à jamais Eight mile à jamais You might also like Ça fait plus d'un an qu'j'ai rien fais seul La rime engourdie à tel point qu'j'ai perdu l'statut de professeur Maintenant j'dois m'y remettre, j'dois réapprendre le système Métrique compter chaque syllabe comme un processeur J'hésite encore entre l'arme et la fuite J'suis qu'un fumeur qui court après sa vie J'poursuis mes rêve mais, pour l'instant j'reste à Rennes Et faudrait bien qu'j'me décide ouais faudrait que j'bouge de la vite Donc j'fais des tours à la capitale Ah ouais t'as kiffé ? C'est tous des cons à la capitale Hm nan pas trop J'ai vu Paris et ses tours J'ai vu Paris et ses gens Bref j'ai vu Paris et c'est moche C'est d'la merde hein ! J'fais des natures mortes comme un peintre mais j'y gagne R Faut qu'j'me dépêche avant d'être pendu comme un cintre et là j'galère car j'attendais juste qu'on m'achète donc j'trace ma route à la machette et j'vais travailler comme un chien J'm'impose une discipline de fer alors j'vois des stories sans moi J'travaille dix milles heures et cents mois Et c'est ma faute mais c'est l'enfer, j'ai plus qu'ma meuf en sémaphore Plus qu'ma meuf on s'aime à fond mais plus qu'ma meuf c'est pas assez quand j'veux l'monde pour ma sédation On m'dit qu'c'est carré mais c'est faux, je sais c'que j'vaux, et c'est mieux qu'eux Je sais c'que j'veux, je sais c'que j'fais Je sais qu'ils voudraient qu'j'sois moins bon, juste pour pouvoir faire un peu mieux Mais j'taffe trop fort et j'suis trop bon, en un couplet j'redeviens l'boss, en deuxtrois lignes c'est moi l'patron</t>
+          <t>J'arrive sur la prod ça fait comme badaboum Tarrive dans Planète rap ça fait genre bah bah bouh Chez toi odeur de cannabis est tapissée Chez moi p'tit sofa hm lumière tamisée Quelques maîtres quelques rookies dans l'SAS Chez nous pas dtraître pas d'pookie dans l'SAS SO Aya Pour les flows SO IAM Les gens croient en Dieu Malheureusement j'suis païen Dans tes enceintes les flows glissent comme les pinguoins Quatre heures pour rec la même piste Ah j'suis pas bien Hm j'ai bien mangé Hm j'ai bien mangé C'est vrai jai plus trop faim mais Bygga cuisine des bangers Hm jai bien mangé Hm j'ai bien mangé Les MCs ont la dalle mais jsais cuisiner des banger Rime mijotée Healer flouté Très bien noté Team équipée Public shooté Pas de loupé Shenzen J'ai jamais la flemme quand j'pense au parcours d'Eminem La prépa est olympique La compo est sasmique Énergie open mic classique Léquipe est réunie prépare la tactique Qu'on nous retienne récit biblique RNS grandit Potentiel d'un joueur de Bondy Rapper comme jamais Sapé comme jamais Freestyle à jamais Eight mile à jamais Ça fait plus d'un an qu'j'ai rien fais seul La rime engourdie à tel point qu'j'ai perdu l'statut de professeur Maintenant j'dois m'y remettre, j'dois réapprendre le système Métrique compter chaque syllabe comme un processeur J'hésite encore entre l'arme et la fuite J'suis qu'un fumeur qui court après sa vie J'poursuis mes rêve mais, pour l'instant j'reste à Rennes Et faudrait bien qu'j'me décide ouais faudrait que j'bouge de la vite Donc j'fais des tours à la capitale Ah ouais t'as kiffé ? C'est tous des cons à la capitale Hm nan pas trop J'ai vu Paris et ses tours J'ai vu Paris et ses gens Bref j'ai vu Paris et c'est moche C'est d'la merde hein ! J'fais des natures mortes comme un peintre mais j'y gagne R Faut qu'j'me dépêche avant d'être pendu comme un cintre et là j'galère car j'attendais juste qu'on m'achète donc j'trace ma route à la machette et j'vais travailler comme un chien J'm'impose une discipline de fer alors j'vois des stories sans moi J'travaille dix milles heures et cents mois Et c'est ma faute mais c'est l'enfer, j'ai plus qu'ma meuf en sémaphore Plus qu'ma meuf on s'aime à fond mais plus qu'ma meuf c'est pas assez quand j'veux l'monde pour ma sédation On m'dit qu'c'est carré mais c'est faux, je sais c'que j'vaux, et c'est mieux qu'eux Je sais c'que j'veux, je sais c'que j'fais Je sais qu'ils voudraient qu'j'sois moins bon, juste pour pouvoir faire un peu mieux Mais j'taffe trop fort et j'suis trop bon, en un couplet j'redeviens l'boss, en deuxtrois lignes c'est moi l'patron</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Comme Appolo 13 on nous croyait perdus au sud de la France 0013 allo Houston c'est pas de chance ! Je veux rester en orbite, jkiffe l'isolement et lsoleil Je fais du cosmo hip-hop et sous la combi de l'oseille Tu te rends compte on l'a fait Ouais je sais ce qu'on a fait Je sais ce qu'on était je sais ce qu'on est je veux en parler T'inquiète j'ai rien d'endommager et si je taffe en apesanteur C'est pour qula planète grimpe et prenne de l'ampleur, Serval Y a 10 piges qu'on taffe trop pour le fief Sans faillir une seconde Tu parles qu'on la lâche pas la chance sachant qu'il n'y en a pas de seconde Et là jte parle de Mars t'y crois toi ? Eh bien crois-y Comme la peste noire, on submerge le pays Drimes choisies et moisies, lit le Phocée 2000 façons De rester en place, c'est pas leurs sondes qui vont nous fesser Nos textes effraient comme E.T Charment petit à petit Ni vu ni connu, jtembrouille, regarde maintenant quest ce qui brille MARS 2000 rebelle grain de riz dans le rouage Grande gueule mais pas chez nous point de sang Bleu Mars 2000 une armée de Kingon en scaphandre Et un regard qui dit on va s'étendre et se défendre et on laissera que des cendres Mars 2000 lescrimeur de choc You might also like Pas près à clamser Mars 2000 on a su s'planter Armstrong du Hip-Hop, on reste dans l'strong, les faux sont braqués Bond, IAM, don d'gamme good came il fallait Y a d'larme qui s'prépare, restez aux aguets Mars 2000, cest ça depuis plus de 10 ans Et tu en a encore pour longtemps Ils veulent nous ramener vers la terre, ils veulent qu'on la ferme notre gueule Dans la bataille pour notre survie nous on s'en fout de ce qu'ils veulent Avec les bases qu'on a, Tonton, La Cosca, Kif Kif, Côté Obscur, à Sad Hill je suis là L'histoire est vraie, entrainés comme des astronautes on prend note On sdonne des notes, on écrit des notes, on spose sur des notes Épopée unique, ou bien le courage la ruse et la foi Ici c'est Mars ouais avec Chill, Jo, Malek et moi J'veux qu'on joue, tan, tan, tan quand j'parais A c'qui paraît, t'étais l'baron jme marrais Mouvement d'troupe méchant scoop te voilà carré Tour d'magie magistral, j'rappe et tu disparais C'est c'que j'vis ou qu'j'ai vécu connard qu'je narre Et pas d'blabla, tous des balances ces enfoirés J'suis l'stratège de mars ma base où on tente d'me carrer Tu sais qui y a derrière, pour toi ça m'paraît mal barré Hermétique à mort, ma zique à bras l'corps taré d'notes paré laisse-les parler Et j'm'en bas les couilles qu'ils me prennent pour une bonne poire et Mars 2000, MC d'l'an 2000 en 16 bars narre Odyssée de l'estrasse que j'fus en soirée Et l'odyssée d'ce mic, c'est l'conte d' une saga d'la lune noire et D'une dream team qui ici s'est emparé IAM Pas près à clamser Mars 2000 on a su s'planter Armstrong du Hip-Hop, on reste dans l'strong, les faux sont braqués Bond, IAM, don d'gamme good came il fallait Y a d'larme qui s'prépare, restez aux aguets</t>
+          <t>Comme Appolo 13 on nous croyait perdus au sud de la France 0013 allo Houston c'est pas de chance ! Je veux rester en orbite, jkiffe l'isolement et lsoleil Je fais du cosmo hip-hop et sous la combi de l'oseille Tu te rends compte on l'a fait Ouais je sais ce qu'on a fait Je sais ce qu'on était je sais ce qu'on est je veux en parler T'inquiète j'ai rien d'endommager et si je taffe en apesanteur C'est pour qula planète grimpe et prenne de l'ampleur, Serval Y a 10 piges qu'on taffe trop pour le fief Sans faillir une seconde Tu parles qu'on la lâche pas la chance sachant qu'il n'y en a pas de seconde Et là jte parle de Mars t'y crois toi ? Eh bien crois-y Comme la peste noire, on submerge le pays Drimes choisies et moisies, lit le Phocée 2000 façons De rester en place, c'est pas leurs sondes qui vont nous fesser Nos textes effraient comme E.T Charment petit à petit Ni vu ni connu, jtembrouille, regarde maintenant quest ce qui brille MARS 2000 rebelle grain de riz dans le rouage Grande gueule mais pas chez nous point de sang Bleu Mars 2000 une armée de Kingon en scaphandre Et un regard qui dit on va s'étendre et se défendre et on laissera que des cendres Mars 2000 lescrimeur de choc Pas près à clamser Mars 2000 on a su s'planter Armstrong du Hip-Hop, on reste dans l'strong, les faux sont braqués Bond, IAM, don d'gamme good came il fallait Y a d'larme qui s'prépare, restez aux aguets Mars 2000, cest ça depuis plus de 10 ans Et tu en a encore pour longtemps Ils veulent nous ramener vers la terre, ils veulent qu'on la ferme notre gueule Dans la bataille pour notre survie nous on s'en fout de ce qu'ils veulent Avec les bases qu'on a, Tonton, La Cosca, Kif Kif, Côté Obscur, à Sad Hill je suis là L'histoire est vraie, entrainés comme des astronautes on prend note On sdonne des notes, on écrit des notes, on spose sur des notes Épopée unique, ou bien le courage la ruse et la foi Ici c'est Mars ouais avec Chill, Jo, Malek et moi J'veux qu'on joue, tan, tan, tan quand j'parais A c'qui paraît, t'étais l'baron jme marrais Mouvement d'troupe méchant scoop te voilà carré Tour d'magie magistral, j'rappe et tu disparais C'est c'que j'vis ou qu'j'ai vécu connard qu'je narre Et pas d'blabla, tous des balances ces enfoirés J'suis l'stratège de mars ma base où on tente d'me carrer Tu sais qui y a derrière, pour toi ça m'paraît mal barré Hermétique à mort, ma zique à bras l'corps taré d'notes paré laisse-les parler Et j'm'en bas les couilles qu'ils me prennent pour une bonne poire et Mars 2000, MC d'l'an 2000 en 16 bars narre Odyssée de l'estrasse que j'fus en soirée Et l'odyssée d'ce mic, c'est l'conte d' une saga d'la lune noire et D'une dream team qui ici s'est emparé IAM Pas près à clamser Mars 2000 on a su s'planter Armstrong du Hip-Hop, on reste dans l'strong, les faux sont braqués Bond, IAM, don d'gamme good came il fallait Y a d'larme qui s'prépare, restez aux aguets</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Je m'exprime dans la langue de mes ex-colons Mes pensées restent celles de mes ancêtres, La chair de ma chair, l'ombilical cordon se coupe et la saga commence Bras, jambe, jambe, bras, tête et la terre c'est la lieutenance Mecqua est la base, renoi protège tes sens Les démons, des hommes prennent l'apparence deviennent CIA Pistant Malik Shabbaz Un jury corrompu prononçant la sentence d'Abu-jamal Une horde de porcs criblant de balles Amadou Diallo Des activistes fachistes visant le dos d'Ibrahim Ali L'ami dit moi quel est le deal ? C'est de survie qu'il s'agit certains civils ont quitté la ville Sous la pression du stress et du boucan Témoin du mal, loin de la sérénité du boutan Soldat laisse l'excès de zèle aux débutants Mène ma guerre saine avec la paix dans le cur Communiquant chaque battement à mon entourage parle argot Comme on porte un camouflage Trop d'oreilles dans les bâtiments, Diaspora d'Afrique J'ai pas besoin d'un logis dé-blin encore moins d'un let-gi dé-blin Je le dois à Dieu le fait que j'agite les mains Toutes les langues Mal' les remercie J'ai pas besoin d'un logis dé-blin encore moins d'un let-gi dé-blin Touche mes racines et je te mets ca dans la gueule Je te le dis qu'une seule fois promis à tes pôtes les juges une seule fois Diaspora, ma vie mamie, diaspora dis lui qui je suis, man Un bad Boy avec un don qui restera celui d'un bad Boy Dans la Malekal mon Kro y'a que des Bad Boy Hé là à quatre boy on vient te montrer quoi de neuf Putain comme s'ils ne savaient pas ou je crèche Pont de Sève téci, 92 où je crèche kro J'oublie pas d'où je viens, n'oublie pas d'où je viens Car c'est moi on m'appelle Mala ou bien wesh Maza Laza You might also like Ma feuille est blanche, je bois du Rhum matin nuit et soir Fons-dé par sa vantouse j'ai peur de crever d'un coup J'ai perdu le contrôle de mon esprit De ce siècle mon mal est profond, ce rap est dédié aux saint esprit Non y'a pas d'heure pour s'faire pousser, y'a pas d'heure pour tuer Y'a pas d'heure pour mourir, y'a pas d'heure pour buter Un flic qui te derespecte qui te traite de négro suspect Négro suspect repose en paix Né d'une mère, d'un père, d'une famille bourge J'ai fumé mon premier spliff à l'âge de 11 piges, je sais de quoi je cause A ma diaspo, à mes compos à mon stylo sans oublier ma propre conso Mes complices Lunatic débarque en boule En un mot on est là nous réunis au nom de l'ultime cause Pourquoi s'éparpiller, nos forces ont besoin d'être soudées Comme les fidèles du prophète face aux mécréants de Mephisto céleste Le cran d'arrêt planté dans la chair des nôtres sans fond C'est vrai ça blesse voici les conséquences, le bât blesse L'opresseur nous dirige, impose sa loi Les rues sont bondées de mauvais garcon Les mêmes qui encaissent sans cesse pour se faire Y'a aucune recette nique sa mère à ceux qui donnent leurs fesses B.O, check, B2O Ton crewà perdu les eaux pour accoucher d'une grosse putain Ouais, d'une grosse pute, les faux mc je butte Ecoute quand il y a un doute il n'y a pas de doute De mon temps les colombes sont enterrées depuis longtemps Je rappe en pilotant, frappe en pilonnant Au bled ils croient que c'est tranquille au nord, mais non Paye moi, je rappe illégalement, encore des Hauts-de-Seine Un jour, je serais riche m'man Arrache toi de là, je te le conseille vivement Peu reste officiel à mon échelle Attention, je suis toutes options Implorez le ciel, j'ai la nuque du rap sous mon aisselle J'écrase les porcs, rabaisse, équipé sport, b.o Vers nous sont braqués les spots Drôle d'époque frérot J'en fais que t'en fais les frais sans effets spéciaux La vie est vraie quand elle est frais, kro Ali Black Jack On sait tous d'où l'on vient mais où on va reste un mystère A ma diaspora d'Afrique et autres hémisphères Militaires ambiances forces des Yvelines Puisé depuis la plus profonde de nos racines On sait tous d'où l'on vient mais où on va reste un mystère A ma diaspora d'Afrique et autres hémisphères Militaires ambiances forces des Yvelines Puisé depuis la plus profonde de nos racines</t>
+          <t>Je m'exprime dans la langue de mes ex-colons Mes pensées restent celles de mes ancêtres, La chair de ma chair, l'ombilical cordon se coupe et la saga commence Bras, jambe, jambe, bras, tête et la terre c'est la lieutenance Mecqua est la base, renoi protège tes sens Les démons, des hommes prennent l'apparence deviennent CIA Pistant Malik Shabbaz Un jury corrompu prononçant la sentence d'Abu-jamal Une horde de porcs criblant de balles Amadou Diallo Des activistes fachistes visant le dos d'Ibrahim Ali L'ami dit moi quel est le deal ? C'est de survie qu'il s'agit certains civils ont quitté la ville Sous la pression du stress et du boucan Témoin du mal, loin de la sérénité du boutan Soldat laisse l'excès de zèle aux débutants Mène ma guerre saine avec la paix dans le cur Communiquant chaque battement à mon entourage parle argot Comme on porte un camouflage Trop d'oreilles dans les bâtiments, Diaspora d'Afrique J'ai pas besoin d'un logis dé-blin encore moins d'un let-gi dé-blin Je le dois à Dieu le fait que j'agite les mains Toutes les langues Mal' les remercie J'ai pas besoin d'un logis dé-blin encore moins d'un let-gi dé-blin Touche mes racines et je te mets ca dans la gueule Je te le dis qu'une seule fois promis à tes pôtes les juges une seule fois Diaspora, ma vie mamie, diaspora dis lui qui je suis, man Un bad Boy avec un don qui restera celui d'un bad Boy Dans la Malekal mon Kro y'a que des Bad Boy Hé là à quatre boy on vient te montrer quoi de neuf Putain comme s'ils ne savaient pas ou je crèche Pont de Sève téci, 92 où je crèche kro J'oublie pas d'où je viens, n'oublie pas d'où je viens Car c'est moi on m'appelle Mala ou bien wesh Maza Laza Ma feuille est blanche, je bois du Rhum matin nuit et soir Fons-dé par sa vantouse j'ai peur de crever d'un coup J'ai perdu le contrôle de mon esprit De ce siècle mon mal est profond, ce rap est dédié aux saint esprit Non y'a pas d'heure pour s'faire pousser, y'a pas d'heure pour tuer Y'a pas d'heure pour mourir, y'a pas d'heure pour buter Un flic qui te derespecte qui te traite de négro suspect Négro suspect repose en paix Né d'une mère, d'un père, d'une famille bourge J'ai fumé mon premier spliff à l'âge de 11 piges, je sais de quoi je cause A ma diaspo, à mes compos à mon stylo sans oublier ma propre conso Mes complices Lunatic débarque en boule En un mot on est là nous réunis au nom de l'ultime cause Pourquoi s'éparpiller, nos forces ont besoin d'être soudées Comme les fidèles du prophète face aux mécréants de Mephisto céleste Le cran d'arrêt planté dans la chair des nôtres sans fond C'est vrai ça blesse voici les conséquences, le bât blesse L'opresseur nous dirige, impose sa loi Les rues sont bondées de mauvais garcon Les mêmes qui encaissent sans cesse pour se faire Y'a aucune recette nique sa mère à ceux qui donnent leurs fesses B.O, check, B2O Ton crewà perdu les eaux pour accoucher d'une grosse putain Ouais, d'une grosse pute, les faux mc je butte Ecoute quand il y a un doute il n'y a pas de doute De mon temps les colombes sont enterrées depuis longtemps Je rappe en pilotant, frappe en pilonnant Au bled ils croient que c'est tranquille au nord, mais non Paye moi, je rappe illégalement, encore des Hauts-de-Seine Un jour, je serais riche m'man Arrache toi de là, je te le conseille vivement Peu reste officiel à mon échelle Attention, je suis toutes options Implorez le ciel, j'ai la nuque du rap sous mon aisselle J'écrase les porcs, rabaisse, équipé sport, b.o Vers nous sont braqués les spots Drôle d'époque frérot J'en fais que t'en fais les frais sans effets spéciaux La vie est vraie quand elle est frais, kro Ali Black Jack On sait tous d'où l'on vient mais où on va reste un mystère A ma diaspora d'Afrique et autres hémisphères Militaires ambiances forces des Yvelines Puisé depuis la plus profonde de nos racines On sait tous d'où l'on vient mais où on va reste un mystère A ma diaspora d'Afrique et autres hémisphères Militaires ambiances forces des Yvelines Puisé depuis la plus profonde de nos racines</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sauve-moi de ce monde baby, sors-moi de la confusion Suis-moi en souvenir du premier pas il y a dix ans Du temps où je ne pouvais pas croire à Manhattan sans les tours Du temps où si on s'écrasait, il fallait que cela se fasse au retour Mary J dans les Boomings chantait l'amour vrai Aujourd'hui dans Brooklyn je peux sentir encore ce passé Au fond d'un taxi jaune roulant sur The Bridge Mixtapes dans la main, nouveautés oblige ! Je veux te faire revivre mes Je veux que tu voies la vie là-bas et te dire qu'au fond Parfois la culture en France c'est la grosse sègue J'aime mon pays mais je ne peux pas croire tout ce qu'il me lègue Non, se faire une opinion dans le vingt heures ou sur CNN C'est vendre son âme au diable sachant qu'on n'a pas tous la même Oublie ce qui nous dépasse, demain pars avec moi Je veux que tu vives ça de près, je ne peux pas dire pourquoi Loin de tout ça suis- moi suis-moi baby Laisse tout ça je ne veux que toi laisse tout darling HOT 97 pour le week-end Dis oui baby, Broadway darling NYC pour le week-end Comment savoir le fond du gâchis 11092001 Je ne veux rien savoir, je veux juste vivre que l'on soit pas deux mais un Parler de l'enfant que l'on aura et du bonheur d'être père Que l'on se tienne la main devant un nouvel écran sur Time Square Toucher ton ventre et, te dire que je t'aime et Se dire que le destin nous tient entre ses bras et Se vouer à lui, ici ou chez nous, peu importe Essayer de faire de notre vie un truc bien et propre Je l'aime cette ville du fond du cur mec, je te le dis Je lui dois mes rêves d'MC, les influences de ma vie Ma façon de faire ou voir ce job, mes pieds sur terre Ma façon de t'en parler, ma promesse de ne plus le faire Oublie les Anti-Ricains ou les Pro Les mecs dans le rap qui oublient, ceux qui en font trop Oublie ce qui me dépasse demain pars avec moi Je veux que tu vives ça de près, je te dirai pourquoi You might also like Loin de tout ça suis- moi suis-moi baby Laisse tout ça je ne veux que toi laisse tout darling HOT 97 pour le week-end Dis oui baby, Broadway darling NYC pour le week-end Lady, loin d'ici dis-moi oui pour le week-end Lady, loin d'ici NYC pour le week-end Loin de tout ça suis- moi suis-moi baby Laisse tout ça je ne veux que toi laisse tout darling HOT 97 pour le week-end Dis oui baby, Broadway darling NYC pour le week-end</t>
+          <t>Sauve-moi de ce monde baby, sors-moi de la confusion Suis-moi en souvenir du premier pas il y a dix ans Du temps où je ne pouvais pas croire à Manhattan sans les tours Du temps où si on s'écrasait, il fallait que cela se fasse au retour Mary J dans les Boomings chantait l'amour vrai Aujourd'hui dans Brooklyn je peux sentir encore ce passé Au fond d'un taxi jaune roulant sur The Bridge Mixtapes dans la main, nouveautés oblige ! Je veux te faire revivre mes Je veux que tu voies la vie là-bas et te dire qu'au fond Parfois la culture en France c'est la grosse sègue J'aime mon pays mais je ne peux pas croire tout ce qu'il me lègue Non, se faire une opinion dans le vingt heures ou sur CNN C'est vendre son âme au diable sachant qu'on n'a pas tous la même Oublie ce qui nous dépasse, demain pars avec moi Je veux que tu vives ça de près, je ne peux pas dire pourquoi Loin de tout ça suis- moi suis-moi baby Laisse tout ça je ne veux que toi laisse tout darling HOT 97 pour le week-end Dis oui baby, Broadway darling NYC pour le week-end Comment savoir le fond du gâchis 11092001 Je ne veux rien savoir, je veux juste vivre que l'on soit pas deux mais un Parler de l'enfant que l'on aura et du bonheur d'être père Que l'on se tienne la main devant un nouvel écran sur Time Square Toucher ton ventre et, te dire que je t'aime et Se dire que le destin nous tient entre ses bras et Se vouer à lui, ici ou chez nous, peu importe Essayer de faire de notre vie un truc bien et propre Je l'aime cette ville du fond du cur mec, je te le dis Je lui dois mes rêves d'MC, les influences de ma vie Ma façon de faire ou voir ce job, mes pieds sur terre Ma façon de t'en parler, ma promesse de ne plus le faire Oublie les Anti-Ricains ou les Pro Les mecs dans le rap qui oublient, ceux qui en font trop Oublie ce qui me dépasse demain pars avec moi Je veux que tu vives ça de près, je te dirai pourquoi Loin de tout ça suis- moi suis-moi baby Laisse tout ça je ne veux que toi laisse tout darling HOT 97 pour le week-end Dis oui baby, Broadway darling NYC pour le week-end Lady, loin d'ici dis-moi oui pour le week-end Lady, loin d'ici NYC pour le week-end Loin de tout ça suis- moi suis-moi baby Laisse tout ça je ne veux que toi laisse tout darling HOT 97 pour le week-end Dis oui baby, Broadway darling NYC pour le week-end</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Qui prend le MIC pour un rien et représente souvent ? Qui lfume, si c'est pas un mec du HIP-HOP tu mens J'ai pas à mcasser la tronche pour ce sujet-là, suis-je là Pour en mettre plein la vue ou faire ce pourquoi je suis la Poursuite, au titre authentique Ou MC de Mars avec un style sans éthique Délit dfuite sur un scooter pourri Je suis bon pilote comme Starcky et Hutch et pour l'instant je file Tu sais ce que c'est, jpeux pas m'arrêter Tu lvoudrais mais bon, jveux pas m'arrêter Poursuite, au titre authentique Ou MC de Mars avec un style sans éthique Monté ressorts cours, jantes 19 pouces, quand j'appuie Y a pas dtravers, je colle au sol des virages secs de l'ennui T'y est un vrai plein Yo what's up !, mais tu sais pas ou tu vas ? T'y es à fond mais dans lvent, regarde ou tu vas ! T'y es un Alési, tout dans les graviers voilà Quand t'y allais, on te doublait tu parlais gras ? T'es mauvais, voilà ! Regarde par-là Trois tours dans la vue. Ho, minot excuse-toi ! Manger la paille des bas-côtés, pas coté mais têtu Imbu, qui a rien vu, qui veut trenvoyer au stand tout nu Pour la compétition, y a moins fair-play que toi, c'est pas dpot Jpars pas en pole position, mais y en a sous lcapot C'est comme un jeune qui voudrais monter trop vite, chance trop ptite Allez trop vite pour sramasser une bite, c'est trop bête Jgarde les pieds bien sur le bitume sous moi Si jparle trop, que ça mmonte trop mec le dernier c'est moi You might also like Tu sais ce que c'est, jpeux pas m'arrêter Tu lvoudrais mais bon, jveux pas m'arrêter Poursuite, au titre authentique Ou MC de Mars avec un style sans éthique Mais j'en ai encore des tours, des chicanes, que si jcannes là Sous l'excès, les essais m'auront servis à quoi ? A faire le bouffon, et quoi de plus au fond que moi tout seul Une ptite voix qui mdirait de fermer ma gueule Quand j'y pense, je regrette mes gaffes Et dmes deux oreilles entends une voix qui me dit Passe ou casse Accélère , avance, Non-stop Non-stop, Non-stop, Non-stop Double 013 pour Mars 2000 en 9.9 A fond, à fond, pas dbluff, bluff Cour pour Sad Hill, l'écusson dmon écurie Sur circuit sec ou mouillé le flair dmon nez tu ris ? Tiens bon lvolant comme Satanas et Diabolo Vaillant comme Michel, ou trop comme James Dean Chaud comme la gomme quand jpile, comme ma forme, quand je style Je suis bon pilote comme Starsky et Hutch, et pour l'heure je file Tu sais ce que c'est, jpeux pas m'arrêter Tu lvoudrais mais bon, jveux pas m'arrêter Poursuite, au titre authentique Ou MC de Mars avec un style sans éthique</t>
+          <t>Qui prend le MIC pour un rien et représente souvent ? Qui lfume, si c'est pas un mec du HIP-HOP tu mens J'ai pas à mcasser la tronche pour ce sujet-là, suis-je là Pour en mettre plein la vue ou faire ce pourquoi je suis la Poursuite, au titre authentique Ou MC de Mars avec un style sans éthique Délit dfuite sur un scooter pourri Je suis bon pilote comme Starcky et Hutch et pour l'instant je file Tu sais ce que c'est, jpeux pas m'arrêter Tu lvoudrais mais bon, jveux pas m'arrêter Poursuite, au titre authentique Ou MC de Mars avec un style sans éthique Monté ressorts cours, jantes 19 pouces, quand j'appuie Y a pas dtravers, je colle au sol des virages secs de l'ennui T'y est un vrai plein Yo what's up !, mais tu sais pas ou tu vas ? T'y es à fond mais dans lvent, regarde ou tu vas ! T'y es un Alési, tout dans les graviers voilà Quand t'y allais, on te doublait tu parlais gras ? T'es mauvais, voilà ! Regarde par-là Trois tours dans la vue. Ho, minot excuse-toi ! Manger la paille des bas-côtés, pas coté mais têtu Imbu, qui a rien vu, qui veut trenvoyer au stand tout nu Pour la compétition, y a moins fair-play que toi, c'est pas dpot Jpars pas en pole position, mais y en a sous lcapot C'est comme un jeune qui voudrais monter trop vite, chance trop ptite Allez trop vite pour sramasser une bite, c'est trop bête Jgarde les pieds bien sur le bitume sous moi Si jparle trop, que ça mmonte trop mec le dernier c'est moi Tu sais ce que c'est, jpeux pas m'arrêter Tu lvoudrais mais bon, jveux pas m'arrêter Poursuite, au titre authentique Ou MC de Mars avec un style sans éthique Mais j'en ai encore des tours, des chicanes, que si jcannes là Sous l'excès, les essais m'auront servis à quoi ? A faire le bouffon, et quoi de plus au fond que moi tout seul Une ptite voix qui mdirait de fermer ma gueule Quand j'y pense, je regrette mes gaffes Et dmes deux oreilles entends une voix qui me dit Passe ou casse Accélère , avance, Non-stop Non-stop, Non-stop, Non-stop Double 013 pour Mars 2000 en 9.9 A fond, à fond, pas dbluff, bluff Cour pour Sad Hill, l'écusson dmon écurie Sur circuit sec ou mouillé le flair dmon nez tu ris ? Tiens bon lvolant comme Satanas et Diabolo Vaillant comme Michel, ou trop comme James Dean Chaud comme la gomme quand jpile, comme ma forme, quand je style Je suis bon pilote comme Starsky et Hutch, et pour l'heure je file Tu sais ce que c'est, jpeux pas m'arrêter Tu lvoudrais mais bon, jveux pas m'arrêter Poursuite, au titre authentique Ou MC de Mars avec un style sans éthique</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>You used to be, je roule pour mes flash-back Mine, mine, mine Old school lover, old school Qui peut me tourner le cerveau Comme à l'époque Loose Ends Ce temps dont maintenant on se moque Moi j'en pince pour mes flash-back Et je blague pour mieux vieillir Si t'y es là et que t'as connu avant, tu peux me dire Y a plus de slows pour que je me trouve une femme À moins d'être quelqu'un ou plein de caille à on me crame Ne rame pas en me ramenant ces mêmes larmes de ciné Ne blâme pas ces mêmes larmes si t'y es pas décidé Ce que je vois c'est qu'il y a moins de sourires aux lèvres À moins de courir au lièvre ou de mentir le vice au lèvres Zieute comme les yeux se penchent sur le luxe Comme on dit zut quand ce qu'on quitte représente plus Tu brilles moins c'est sûrement notre époque que tu reflètes Tu brilles moins que mes premiers flirts sous la boule à facettes Cur froid, si t'y es pas chaude avec ça oublie Moi j'ai besoin de souvenir pour la vie, Oliver dis lui You used to be, je roule pour mes flash-back Mine, mine, mine Old school lover, old school You might also like Saturday morning j'me rappelle de ça Fridays at an end Guess who I saw today My first love I let get away She's everything I'm looking for Just can believe I still, adore you woo You used to be, je roule pour mes flash-back Mine, mine, mine Old school lover, old school Do you remember, comment je peux oublier ? Do you remember, high school, do you remember Oliver come on, when everybody played it cool You used to be, je roule pour mes flash-back Mine, mine, mine Old school lover, old school</t>
+          <t>You used to be, je roule pour mes flash-back Mine, mine, mine Old school lover, old school Qui peut me tourner le cerveau Comme à l'époque Loose Ends Ce temps dont maintenant on se moque Moi j'en pince pour mes flash-back Et je blague pour mieux vieillir Si t'y es là et que t'as connu avant, tu peux me dire Y a plus de slows pour que je me trouve une femme À moins d'être quelqu'un ou plein de caille à on me crame Ne rame pas en me ramenant ces mêmes larmes de ciné Ne blâme pas ces mêmes larmes si t'y es pas décidé Ce que je vois c'est qu'il y a moins de sourires aux lèvres À moins de courir au lièvre ou de mentir le vice au lèvres Zieute comme les yeux se penchent sur le luxe Comme on dit zut quand ce qu'on quitte représente plus Tu brilles moins c'est sûrement notre époque que tu reflètes Tu brilles moins que mes premiers flirts sous la boule à facettes Cur froid, si t'y es pas chaude avec ça oublie Moi j'ai besoin de souvenir pour la vie, Oliver dis lui You used to be, je roule pour mes flash-back Mine, mine, mine Old school lover, old school Saturday morning j'me rappelle de ça Fridays at an end Guess who I saw today My first love I let get away She's everything I'm looking for Just can believe I still, adore you woo You used to be, je roule pour mes flash-back Mine, mine, mine Old school lover, old school Do you remember, comment je peux oublier ? Do you remember, high school, do you remember Oliver come on, when everybody played it cool You used to be, je roule pour mes flash-back Mine, mine, mine Old school lover, old school</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>InstrumentaleYou might also like</t>
+          <t>Instrumentale</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Sur ma vie jsais pas quoi faire, la vie mdonne envie de rien faire Mais jamais dla vie je me foutrais en l'air Dur comme du fer, jpréfère faire ce que je fais Que rien frère, laisse faire qui tu sais, j'ai personne à qui plaire Pour qui ils se prennent les gens qui mjugent sans me connaître ? Déjà je suis pas sur qu'on ait vraiment la même vue dnos fenêtres Je me suis jamais plaint, j'ai jamais été plein étant jeune Alors jprends le droit de voir la couleur qu'il a ton blé, vieux Mon père s'est crevé toute sa putain dvie pour ramener des clous Tu veux que jreprenne le flambeau, mes burnes ! Pendant que tu mets ta flamme dans l'urne T'y es fou ! Moi debout, tu assumeras mes conneries Tu nous as cassé nos rêves, rien a foutre de la vie J'ai bien des potes instruits qui s'en sortiront par les études La seule fierté qui mreste strouve dans mon attitude J'ai jamais trop ouvert les bouquins, ça valait pas le coup On m'a trop dit que je valais rien, j'ai trop ouvert dverrous Trop laisser rentrer d'images, et ça minot ça marque ses pages Trop cru au flouze facile qui déteint pas avec l'âge Mon livre à moi il est plein d'action et plein de sang, plein d'émotion De rires, de larmes et pourtant Je mferais pas 1 franc avec ça non plus, tu lcroies Les best-sellers c'est pour qui veut, sauf pour les mecs comme moi Je banalise pas ma délinquance, loin dlà, vas-y ! Mais dans cputain dmonde qui vole quoi et à qui ? You might also like Sur ma vie jsais pas quoi faire, la vie mdonne envie de rien faire Mais jamais dla vie je me foutrais en l'air Dur comme du fer, jpréfère faire ce que je fais Que rien frère, laisse faire qui tu sais, j'ai personne à qui plaire Jpréfère braquer cque jpeux qumendier Je sais que je serais hors, si un jour la terre s'arrête de tourner Même dans la merde, ils mbavent que j'emmerde la France Que jvole des jobs, que j rentre au pays de leur vacances Autour dton hôtel PD, c'est mon grand-père qu'on égorge Dans ta télé cqui te plais, c'est quand dans ces guerres tu forges Ta haine contre moi, montre-moi le vrai dans l'écran Ça pue l'intox, et y a qu'avec des bofs comme toi quça prend Même ton fils ny croit pas plus, tu lvois changer dans la rue Ils se mélangent, ils s'échangent leurs points dvue, tu le tiens plus Pour son bien tu voudrais reprendre le dessus mais c'est mort S'il fait les mêmes conneries que moi, sûrement quça vient de moi encore Lui et moi, on perd les mêmes repères, on parle aux mêmes pères Inquiets, fixés sur les clichés de trop près Démodés comme pour les fringues, mais hors de cause Les miennes au top, le prix du respect, faut que je dispose De quoi rassurer les petites vieilles et leurs sacs De quoi inviter la fille que j'aime ailleurs que dans un snack Et merde, y a des avions de poudre qui passent au-dessus de toi Il y a tant de choses qui spassent au-dessus de nous, lâche-moi ! Sur ma vie jsais pas quoi faire, la vie mdonne envie de rien faire Mais jamais dla vie je me foutrais en l'air Dur comme du fer, jpréfère faire ce que je fais Que rien frère, laisse faire qui tu sais, j'ai personne à qui plaire</t>
+          <t>Sur ma vie jsais pas quoi faire, la vie mdonne envie de rien faire Mais jamais dla vie je me foutrais en l'air Dur comme du fer, jpréfère faire ce que je fais Que rien frère, laisse faire qui tu sais, j'ai personne à qui plaire Pour qui ils se prennent les gens qui mjugent sans me connaître ? Déjà je suis pas sur qu'on ait vraiment la même vue dnos fenêtres Je me suis jamais plaint, j'ai jamais été plein étant jeune Alors jprends le droit de voir la couleur qu'il a ton blé, vieux Mon père s'est crevé toute sa putain dvie pour ramener des clous Tu veux que jreprenne le flambeau, mes burnes ! Pendant que tu mets ta flamme dans l'urne T'y es fou ! Moi debout, tu assumeras mes conneries Tu nous as cassé nos rêves, rien a foutre de la vie J'ai bien des potes instruits qui s'en sortiront par les études La seule fierté qui mreste strouve dans mon attitude J'ai jamais trop ouvert les bouquins, ça valait pas le coup On m'a trop dit que je valais rien, j'ai trop ouvert dverrous Trop laisser rentrer d'images, et ça minot ça marque ses pages Trop cru au flouze facile qui déteint pas avec l'âge Mon livre à moi il est plein d'action et plein de sang, plein d'émotion De rires, de larmes et pourtant Je mferais pas 1 franc avec ça non plus, tu lcroies Les best-sellers c'est pour qui veut, sauf pour les mecs comme moi Je banalise pas ma délinquance, loin dlà, vas-y ! Mais dans cputain dmonde qui vole quoi et à qui ? Sur ma vie jsais pas quoi faire, la vie mdonne envie de rien faire Mais jamais dla vie je me foutrais en l'air Dur comme du fer, jpréfère faire ce que je fais Que rien frère, laisse faire qui tu sais, j'ai personne à qui plaire Jpréfère braquer cque jpeux qumendier Je sais que je serais hors, si un jour la terre s'arrête de tourner Même dans la merde, ils mbavent que j'emmerde la France Que jvole des jobs, que j rentre au pays de leur vacances Autour dton hôtel PD, c'est mon grand-père qu'on égorge Dans ta télé cqui te plais, c'est quand dans ces guerres tu forges Ta haine contre moi, montre-moi le vrai dans l'écran Ça pue l'intox, et y a qu'avec des bofs comme toi quça prend Même ton fils ny croit pas plus, tu lvois changer dans la rue Ils se mélangent, ils s'échangent leurs points dvue, tu le tiens plus Pour son bien tu voudrais reprendre le dessus mais c'est mort S'il fait les mêmes conneries que moi, sûrement quça vient de moi encore Lui et moi, on perd les mêmes repères, on parle aux mêmes pères Inquiets, fixés sur les clichés de trop près Démodés comme pour les fringues, mais hors de cause Les miennes au top, le prix du respect, faut que je dispose De quoi rassurer les petites vieilles et leurs sacs De quoi inviter la fille que j'aime ailleurs que dans un snack Et merde, y a des avions de poudre qui passent au-dessus de toi Il y a tant de choses qui spassent au-dessus de nous, lâche-moi ! Sur ma vie jsais pas quoi faire, la vie mdonne envie de rien faire Mais jamais dla vie je me foutrais en l'air Dur comme du fer, jpréfère faire ce que je fais Que rien frère, laisse faire qui tu sais, j'ai personne à qui plaire</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Plus de monde, plus de monde Cest lalbum de Bond bis Code 1 eight 7 en nine nine prépare tes obsèques sur bande Si tu piges bsahtek c'est là que je bande Ce qui est profond est partagé par le plus de monde En plus demande, y'a plus de monde on répond à la demande Qui veut suspendre de rimes, qui me veut me suce pendre Ma prime fallait s'y attendre C'est Tuco qui t'cause, bise tendre à ceux qui m'en veulent Écoute la masse ce que les gens gueulent De mon côté, je reste nature, pieds sur terre Textes pleins d'ratures sur Ampex, ma nature pointeur pour le cortex Plus de monde gi ?, plus demain comme on dit Encore plus de mains qu'applaudissent pour c'qu'on dit Explicites lyrics, ex play je cite mes risques Explique why, je sors mes disques boy pour plus de monde d'où je sors D'une ronde, Belsunce Breakdown Les cent's pas d'cents tnaket now Je reste dans les ondes, coupeur de lemon, mon butin Putain j'le keep none bien stone on pèse des tonnes On baise des cônes, on gere le son de la base C'est l'album de Bond, gaze ? You might also like Comment y a plus de monde plus de groupes ici et là Comment y a plus de troupes, c'est maintenant le constat Qu'on se frappe le vrai vite debout on le mérite Tas rien vu grimper doucement, tu veux tout voir couler vite Si je te parle de ça avec Freeman et Le Roi C'est quDef Bond combien j'ai ramé il a connu ça Je veux pas te causer d'un truc auquel j'ai pas gouter quoi que ce soit Sur ma vie mec, quoi que ce soit On sporte bien on supporte bien les jeunes en route No plus jeunes y'avait rien, merde j'en ai rien à foutre C'était Zéro sur la FM, Zéro avec les femmes Moins de zéro sur le compte, check ce qui en émane Arabica deux purs MC's dans le style Faux espion à la passion indélébile Moins je pense que demain ils peuvent tout nous couper Plus je pense qu'il y aura du monde partout et pour tout niquer tu le sais Plus en plus de monde, on fait de l'ombre Sur le plan dbataille on est nombreux Assis sur ton pieu, vieux tu m'en veux, ouais toi Je constate le constat, vous les pet ? en costard Le Roi les gêne, ahchem ! Couleur crème dans mes gênes Qui a cru, personne me pardonne la marmaille gronde Quand les flops me mettent la main d'ssus je cogne On subit, le borgne nous envoie ses momies On crie, on plie, on trie, cette relève où d'emblée embaumée sans respect Taillé en osselet on est prêt qui ouvre les hostilités, Le Roi C'est vrai qu'on est pas beaucoup là, wallah c'est pas tout d'partout entouré de loup Même celui qu'on faisait rire scolle à nous, maintenant on est plein, combien ? On est une pagaille en provenance de Belsunce pour foutre le why</t>
+          <t>Plus de monde, plus de monde Cest lalbum de Bond bis Code 1 eight 7 en nine nine prépare tes obsèques sur bande Si tu piges bsahtek c'est là que je bande Ce qui est profond est partagé par le plus de monde En plus demande, y'a plus de monde on répond à la demande Qui veut suspendre de rimes, qui me veut me suce pendre Ma prime fallait s'y attendre C'est Tuco qui t'cause, bise tendre à ceux qui m'en veulent Écoute la masse ce que les gens gueulent De mon côté, je reste nature, pieds sur terre Textes pleins d'ratures sur Ampex, ma nature pointeur pour le cortex Plus de monde gi ?, plus demain comme on dit Encore plus de mains qu'applaudissent pour c'qu'on dit Explicites lyrics, ex play je cite mes risques Explique why, je sors mes disques boy pour plus de monde d'où je sors D'une ronde, Belsunce Breakdown Les cent's pas d'cents tnaket now Je reste dans les ondes, coupeur de lemon, mon butin Putain j'le keep none bien stone on pèse des tonnes On baise des cônes, on gere le son de la base C'est l'album de Bond, gaze ? Comment y a plus de monde plus de groupes ici et là Comment y a plus de troupes, c'est maintenant le constat Qu'on se frappe le vrai vite debout on le mérite Tas rien vu grimper doucement, tu veux tout voir couler vite Si je te parle de ça avec Freeman et Le Roi C'est quDef Bond combien j'ai ramé il a connu ça Je veux pas te causer d'un truc auquel j'ai pas gouter quoi que ce soit Sur ma vie mec, quoi que ce soit On sporte bien on supporte bien les jeunes en route No plus jeunes y'avait rien, merde j'en ai rien à foutre C'était Zéro sur la FM, Zéro avec les femmes Moins de zéro sur le compte, check ce qui en émane Arabica deux purs MC's dans le style Faux espion à la passion indélébile Moins je pense que demain ils peuvent tout nous couper Plus je pense qu'il y aura du monde partout et pour tout niquer tu le sais Plus en plus de monde, on fait de l'ombre Sur le plan dbataille on est nombreux Assis sur ton pieu, vieux tu m'en veux, ouais toi Je constate le constat, vous les pet ? en costard Le Roi les gêne, ahchem ! Couleur crème dans mes gênes Qui a cru, personne me pardonne la marmaille gronde Quand les flops me mettent la main d'ssus je cogne On subit, le borgne nous envoie ses momies On crie, on plie, on trie, cette relève où d'emblée embaumée sans respect Taillé en osselet on est prêt qui ouvre les hostilités, Le Roi C'est vrai qu'on est pas beaucoup là, wallah c'est pas tout d'partout entouré de loup Même celui qu'on faisait rire scolle à nous, maintenant on est plein, combien ? On est une pagaille en provenance de Belsunce pour foutre le why</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Quand j'prends le cro-mi j'ai l'envie d'chroniquer Pas jouer les prodiges angoissés J'viens pour doigter même le croque-mitaine Obligé, faut s'y mettre, j'domine mes excès d'folie, j'traîne Souvent à sec comme la version grecque du Monopoly, j'prête Peu, m'endette grave, enchaîne à peine, c'est naze, touché Je flotte, mon pote, tu nages la brasse coulée T'as vu, j'pique, rugby, sois prêt pour le plaquage groupé Surprise ! Jusqu'ici tu pries pour ne pas m'voir t'shooter Bouffée d'insuline, du style à revendre, j'donne Du fil à retordre, je t'choque, c'est dar à chaque couplet Tous ces gars futiles ruminent, v'là l'temps fort subtil Je t'endors avec du chloroforme sur un passage clouté J'ride un tractopelle, pas d'problème En cas d'attaque, pas d'blagues J'veux ma balade dans Manhattan en McConnel, le taf promet Intraçable dans ma matrice, actif H24 à la Jack Bauer à Caracas Relax, j'opère, sonne-per prendra ma place Sans même un brin d'colère, rire aux lèvres Quand j'blaste t'as la kalash dans l'abdomen Transperce ta carapace avec des balles slovènes L'alcootest au max, t'as l'veau-cer qui boit la tasse, OK Tes bagues en or, l'fait que tu boursicotes ? Fantasmes J'reste droit et dur, les autres virevoltent en face J'misole, prends place au sein d'ce marécage J'ai juste un aller simple pour c'qui arrive Mais vas-y fuck, je m'en tape You might also like Depuis qu'on élabore ces phases au rayon du flow et d'la forme J'pose et j'assome, j'ai pas l'crom' à l'envers Ni l'crayon du coté d'la gomme Petite question, tu connais l'approche, shlag ? J'taffe depuis que j'évite les pions du collège Je m'accroche à c'passe-temps Les corps viennent voler dans l'décor, les côtes s'déplacent Top chrono, record explosé, j'bats des scores et hausse les stats Fils, ton côté chaud est factice, t'es choqué, nos schémas t'ken T'as trop d'égo mais pas d'style, un beau vélo mais pas d'selle C'est Vidji, petite conne, toutes tes critiques ricochent Équilibre, et feeling, mix propre dans c'coup d'récidivistes corses Oui, on a clippé cagoulés, à coups d'C4, de fusils ram Et jusqu'à se faire adouber et approuver par le public Tu veux détrôner ma team et qu'David remplace Goliath Fais pas style, tu connais qu'la vie délavée d'Chantal Goya Sans blagues, gros, y'a foule d'aspects Qui nous séparent l'un de l'autre, j'suis malade mental T'as juste la tête qui tourne, de vagues symptômes Y'a pas de vaccin, pauvre gars, ni de fumée sans feu Observe la recrudescence de tapins dans le Rap, je m'impose Gars, je n'ai pas ce hype syndrome, j'les laisse s'enculer entre eux Préserve ma tenue décente J'veux qu'ma fin sente le parfum d'rose La suprématie s'confirme, qu'est-ce qu'il ya ? Quoi ? J'pèse, conquis tes villageois, j'pique ton spliff Mais disons que j'vésqui la loi, mec, avec des petites combines Mais si t'aboies, j'mets les dix doigts dans ton pif Comprime tes voies respiratoires Fuck les bons gamins, j'dégomme comme mes garnements Downtown, des gomm-cogne, des morts pour des départements Pom-pom ! Oublie le marchand d'sable, zinc, on marche ensemble Pas d'argent sale, mes gens du 5 Majeur savent Nous ? On pond des bonnes sauces maison, braque les ondes Pendant qu'mes potes bossent des sons assaisonnés avec soin J'ai ma cote de maille, Golgoth écope d'entailles Quand j'taille, tes entrailles sortent comme dans Drive Premier soir, j'te fuck, si t'es folle, me l'dis pas s'te plait J'veux pas qu'on m'cane comme le Ol' Dirty Bastard, hé Chaque fois qu'on invente des textes, il s'agit d'nos rêves On change les singes en bébé comme Yajirobe, hé Tes gorilles mimpressionnent pas, j'suis un vrai soldat, j'raisonne Dans le réseau, t'es sot, j'suis un trésor rare Tu vas ter-sau, écarte tes sommes et garde tes horreurs Marqué par l'désordre des hommes, j'ai peur des sauveurs Le nom d'mon gang, brodé sur mes Cortez En tête du cortège, le cortex dans l'vortex Eh Nek, on va rater l'stud dimanche si on part à L.A Bordel, j'suis dans une dimension parallèle Tel un vrai missile Tu sais c'qui nous pousse, le Rap est plein d'valeurs ! On t'a dit basta, enfoiré T'auras pas d'coup d'pouce mais 5 Majeur ! Et notre équipe est magique Tu sais c'qui nous pousse, le Rap est plein d'valeurs ! C'est pas suffisant pour m'ralentir, checke mon 5 Maj' T'auras pas d'coup d'pouce mais 5 Majeur ! Deuxième opus, on arrive sur beat impec', tchek Hunam, roule un pet, s'te plait Faut les calmer, j'crois qu'les faux s'inquiètent Ça y est, on est bon, c'est L'heure de faire les choses à fond pas celle d'aller pioncer J'fonce tête baissée, conséquences d'entrée J'che-cra sur les groupes inconscients d'être lents Et clichés dans la pensée, ferme ta gueule T'es pas James Bond, fais ce qu'on t'dit Écoute le skeu-di en mode gros joint dosé, chaise longue J'brille dans mes projets, j'craque sans mes feuilles J'vise pas les trophées, j'mets des claques dans les gueules Ils ont des manches à pelle coincés dans les seufs J'les chope comme les murs Des gamines de quinze balais dans les teufs J'suis crade comme l'époque, stable comme mes potes On taffait déjà alors qu'tu collectionnais les pogs On fait sauter des portes, c'est une prise d'otages sur prod J'ai des capacités mais la drogue me les décuple, tu Lâches des phases vraiment pétées, me battre essaie J'fais la pluie et l'beau temps comme Alain Gillot-Pétré J'me défonce et j'abats l'taff, promis pas d'blague Premier skeu-di dans les bacs On t'a vu chercher l'produit comme un crackman J'ai le style à Batman, la force de Hulk Ça tu l'reconnais vu qu'j'abolis tes phases téléphonées J'bute les putes sans les nommer, l'ami Pour qu'les corps des wacks se plient J'pratique la lutte comme l'origami S'il me reste quelques petites heures à vivre Niquez vos singles décoratifs, les hits Les hipsters et leurs sunglasses Les risques de perdre sont quasi-nuls pour notre effectif Sache que les quilles de bière et lesthétique ne font pas l'attitude Les flics me stressent c'est frénétique Les filles de rêve me serrent les tripes C'est triste, je sais, ce maudit constat contraste mes habitudes On est en 2012, ma caille On s'descend pour le seille-o ou le pétrole enseveli sous la glace Sache que j'enregistre tout ça calmement Tout l'temps mon crew tabasse, on fout l'vacarme Pousse-toi, trou d'balle, tu brasses du vent Tu passes du temps à parler d'choses Dont on a strictement rien à branler J'sais qu'y a qu'tes mensonges que t'as inventé, appelle le 5 Maj Les sales mecs s'installent, mes gars restent instables Mais ramènent le Saint Graal dans l'bassin Nantais Viens pas t'plaindre, j'ai rien changé, notre mode opératoire Met la claque aux gamins sans gels et dégingandés 3</t>
+          <t>Quand j'prends le cro-mi j'ai l'envie d'chroniquer Pas jouer les prodiges angoissés J'viens pour doigter même le croque-mitaine Obligé, faut s'y mettre, j'domine mes excès d'folie, j'traîne Souvent à sec comme la version grecque du Monopoly, j'prête Peu, m'endette grave, enchaîne à peine, c'est naze, touché Je flotte, mon pote, tu nages la brasse coulée T'as vu, j'pique, rugby, sois prêt pour le plaquage groupé Surprise ! Jusqu'ici tu pries pour ne pas m'voir t'shooter Bouffée d'insuline, du style à revendre, j'donne Du fil à retordre, je t'choque, c'est dar à chaque couplet Tous ces gars futiles ruminent, v'là l'temps fort subtil Je t'endors avec du chloroforme sur un passage clouté J'ride un tractopelle, pas d'problème En cas d'attaque, pas d'blagues J'veux ma balade dans Manhattan en McConnel, le taf promet Intraçable dans ma matrice, actif H24 à la Jack Bauer à Caracas Relax, j'opère, sonne-per prendra ma place Sans même un brin d'colère, rire aux lèvres Quand j'blaste t'as la kalash dans l'abdomen Transperce ta carapace avec des balles slovènes L'alcootest au max, t'as l'veau-cer qui boit la tasse, OK Tes bagues en or, l'fait que tu boursicotes ? Fantasmes J'reste droit et dur, les autres virevoltent en face J'misole, prends place au sein d'ce marécage J'ai juste un aller simple pour c'qui arrive Mais vas-y fuck, je m'en tape Depuis qu'on élabore ces phases au rayon du flow et d'la forme J'pose et j'assome, j'ai pas l'crom' à l'envers Ni l'crayon du coté d'la gomme Petite question, tu connais l'approche, shlag ? J'taffe depuis que j'évite les pions du collège Je m'accroche à c'passe-temps Les corps viennent voler dans l'décor, les côtes s'déplacent Top chrono, record explosé, j'bats des scores et hausse les stats Fils, ton côté chaud est factice, t'es choqué, nos schémas t'ken T'as trop d'égo mais pas d'style, un beau vélo mais pas d'selle C'est Vidji, petite conne, toutes tes critiques ricochent Équilibre, et feeling, mix propre dans c'coup d'récidivistes corses Oui, on a clippé cagoulés, à coups d'C4, de fusils ram Et jusqu'à se faire adouber et approuver par le public Tu veux détrôner ma team et qu'David remplace Goliath Fais pas style, tu connais qu'la vie délavée d'Chantal Goya Sans blagues, gros, y'a foule d'aspects Qui nous séparent l'un de l'autre, j'suis malade mental T'as juste la tête qui tourne, de vagues symptômes Y'a pas de vaccin, pauvre gars, ni de fumée sans feu Observe la recrudescence de tapins dans le Rap, je m'impose Gars, je n'ai pas ce hype syndrome, j'les laisse s'enculer entre eux Préserve ma tenue décente J'veux qu'ma fin sente le parfum d'rose La suprématie s'confirme, qu'est-ce qu'il ya ? Quoi ? J'pèse, conquis tes villageois, j'pique ton spliff Mais disons que j'vésqui la loi, mec, avec des petites combines Mais si t'aboies, j'mets les dix doigts dans ton pif Comprime tes voies respiratoires Fuck les bons gamins, j'dégomme comme mes garnements Downtown, des gomm-cogne, des morts pour des départements Pom-pom ! Oublie le marchand d'sable, zinc, on marche ensemble Pas d'argent sale, mes gens du 5 Majeur savent Nous ? On pond des bonnes sauces maison, braque les ondes Pendant qu'mes potes bossent des sons assaisonnés avec soin J'ai ma cote de maille, Golgoth écope d'entailles Quand j'taille, tes entrailles sortent comme dans Drive Premier soir, j'te fuck, si t'es folle, me l'dis pas s'te plait J'veux pas qu'on m'cane comme le Ol' Dirty Bastard, hé Chaque fois qu'on invente des textes, il s'agit d'nos rêves On change les singes en bébé comme Yajirobe, hé Tes gorilles mimpressionnent pas, j'suis un vrai soldat, j'raisonne Dans le réseau, t'es sot, j'suis un trésor rare Tu vas ter-sau, écarte tes sommes et garde tes horreurs Marqué par l'désordre des hommes, j'ai peur des sauveurs Le nom d'mon gang, brodé sur mes Cortez En tête du cortège, le cortex dans l'vortex Eh Nek, on va rater l'stud dimanche si on part à L.A Bordel, j'suis dans une dimension parallèle Tel un vrai missile Tu sais c'qui nous pousse, le Rap est plein d'valeurs ! On t'a dit basta, enfoiré T'auras pas d'coup d'pouce mais 5 Majeur ! Et notre équipe est magique Tu sais c'qui nous pousse, le Rap est plein d'valeurs ! C'est pas suffisant pour m'ralentir, checke mon 5 Maj' T'auras pas d'coup d'pouce mais 5 Majeur ! Deuxième opus, on arrive sur beat impec', tchek Hunam, roule un pet, s'te plait Faut les calmer, j'crois qu'les faux s'inquiètent Ça y est, on est bon, c'est L'heure de faire les choses à fond pas celle d'aller pioncer J'fonce tête baissée, conséquences d'entrée J'che-cra sur les groupes inconscients d'être lents Et clichés dans la pensée, ferme ta gueule T'es pas James Bond, fais ce qu'on t'dit Écoute le skeu-di en mode gros joint dosé, chaise longue J'brille dans mes projets, j'craque sans mes feuilles J'vise pas les trophées, j'mets des claques dans les gueules Ils ont des manches à pelle coincés dans les seufs J'les chope comme les murs Des gamines de quinze balais dans les teufs J'suis crade comme l'époque, stable comme mes potes On taffait déjà alors qu'tu collectionnais les pogs On fait sauter des portes, c'est une prise d'otages sur prod J'ai des capacités mais la drogue me les décuple, tu Lâches des phases vraiment pétées, me battre essaie J'fais la pluie et l'beau temps comme Alain Gillot-Pétré J'me défonce et j'abats l'taff, promis pas d'blague Premier skeu-di dans les bacs On t'a vu chercher l'produit comme un crackman J'ai le style à Batman, la force de Hulk Ça tu l'reconnais vu qu'j'abolis tes phases téléphonées J'bute les putes sans les nommer, l'ami Pour qu'les corps des wacks se plient J'pratique la lutte comme l'origami S'il me reste quelques petites heures à vivre Niquez vos singles décoratifs, les hits Les hipsters et leurs sunglasses Les risques de perdre sont quasi-nuls pour notre effectif Sache que les quilles de bière et lesthétique ne font pas l'attitude Les flics me stressent c'est frénétique Les filles de rêve me serrent les tripes C'est triste, je sais, ce maudit constat contraste mes habitudes On est en 2012, ma caille On s'descend pour le seille-o ou le pétrole enseveli sous la glace Sache que j'enregistre tout ça calmement Tout l'temps mon crew tabasse, on fout l'vacarme Pousse-toi, trou d'balle, tu brasses du vent Tu passes du temps à parler d'choses Dont on a strictement rien à branler J'sais qu'y a qu'tes mensonges que t'as inventé, appelle le 5 Maj Les sales mecs s'installent, mes gars restent instables Mais ramènent le Saint Graal dans l'bassin Nantais Viens pas t'plaindre, j'ai rien changé, notre mode opératoire Met la claque aux gamins sans gels et dégingandés 3</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Def Bond Hey yo bang bang ! , donne toi de la chaleur et du boogie yo Gang bang ! , comme dans les Peepshows ou les movies yo Slang slang ! , laisse moi te causer mal, tu me rend Dingue dingue ! , quand tu me dis n'y va pas doucement Flexy souple dans les mouvements et à chaque pas Sexy dessous blancs et pas de fesses qui claquent pas Viens-là toi ma Fatty girl, dans ou hors de ton lit Moi et lui, dit oui, du sport et on oublie Matt Comme c'est bizzare de voir à quel point Tu es ouverte, serais-tu humide ? Serais-tu en manque girl ?, de sexe ou de douceur ? Donc je laisse le hasard guider mes mains Aux endroits qui te rendent liquide, fait de même beautée Et je ferais tout ce qu'il n'ose pas te faire Lady Refrain Quand on vient t'en demande encore Tu jouis de plus en plus fort Quand Monsieur n'est pas là ou dort Par terre ou à l'arrière de la Jaguard Plus q'un trio dans l'effort, du soft au plus hardcore T'as le 12 et le 13 pour le sport Quand ton gars n'est pas là ou dort You might also likeDef Bond Et ne me dis pas que tu veux qu'on fasse ça dans ton lit Un Kamasous-trois, avec moi mais sans ton mari Tu me dis viens avec nous jouer je t'en prie j'ai-j'ai Eu Matt, ce soir pour 3 du mat' c'est ouai-ouai Infidèle, belle et prudente, tu veux qu'on se mélange Avec Manix vu que ton homme se manque Pour un rodéo sur Backseat ou un hit sur les ondes C'est D.E.F ex-Bond et Houston Matt Tu peux flaner tous les week-end avec D'autres bougs c'est nice lady Mais tu ne trouvera pas mieux pour le sport que MarseilleParis Hey hey, on sera meilleurs que ton gars, d'ailleurs Si tu es en chaleur et que tu as le Fire, laisse toi faire Je te fais pas de dessin si tu es OP Girl Def C'est deux pour le prix d'un Refrain BREAK Yo danse pour nous ici, trio sur le dancefloor Heatmaker baby, jupes mini-mini D.E.F ex-Bond, du sport sur le beat avec Matt Houston Ici c'est D.E.F ex-bond, du sport sur le beat, Hey hey..... Refrain</t>
+          <t>Def Bond Hey yo bang bang ! , donne toi de la chaleur et du boogie yo Gang bang ! , comme dans les Peepshows ou les movies yo Slang slang ! , laisse moi te causer mal, tu me rend Dingue dingue ! , quand tu me dis n'y va pas doucement Flexy souple dans les mouvements et à chaque pas Sexy dessous blancs et pas de fesses qui claquent pas Viens-là toi ma Fatty girl, dans ou hors de ton lit Moi et lui, dit oui, du sport et on oublie Matt Comme c'est bizzare de voir à quel point Tu es ouverte, serais-tu humide ? Serais-tu en manque girl ?, de sexe ou de douceur ? Donc je laisse le hasard guider mes mains Aux endroits qui te rendent liquide, fait de même beautée Et je ferais tout ce qu'il n'ose pas te faire Lady Refrain Quand on vient t'en demande encore Tu jouis de plus en plus fort Quand Monsieur n'est pas là ou dort Par terre ou à l'arrière de la Jaguard Plus q'un trio dans l'effort, du soft au plus hardcore T'as le 12 et le 13 pour le sport Quand ton gars n'est pas là ou dort Def Bond Et ne me dis pas que tu veux qu'on fasse ça dans ton lit Un Kamasous-trois, avec moi mais sans ton mari Tu me dis viens avec nous jouer je t'en prie j'ai-j'ai Eu Matt, ce soir pour 3 du mat' c'est ouai-ouai Infidèle, belle et prudente, tu veux qu'on se mélange Avec Manix vu que ton homme se manque Pour un rodéo sur Backseat ou un hit sur les ondes C'est D.E.F ex-Bond et Houston Matt Tu peux flaner tous les week-end avec D'autres bougs c'est nice lady Mais tu ne trouvera pas mieux pour le sport que MarseilleParis Hey hey, on sera meilleurs que ton gars, d'ailleurs Si tu es en chaleur et que tu as le Fire, laisse toi faire Je te fais pas de dessin si tu es OP Girl Def C'est deux pour le prix d'un Refrain BREAK Yo danse pour nous ici, trio sur le dancefloor Heatmaker baby, jupes mini-mini D.E.F ex-Bond, du sport sur le beat avec Matt Houston Ici c'est D.E.F ex-bond, du sport sur le beat, Hey hey..... Refrain</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Je sors d'une bouche, d'une note de piano ou d'une corde Douce comme un enfant et sa mère qui le borde Je pousse dans les soirées et l'ambiance déborde Calme ou nerveuse et dans n'importe quel ordre Ma force ? Mixer les émotions dessus Ca se corse quand je fixe une âme déçue Si on apprend à ouvrir les yeux pour y voir Qu'on me dise que l'on voit clair dans le flou de mon phare Non je ne pense pas et le sens que je touche ne pense pas Et l'expliquer devient louche Quelque soit la forme qu'on m'imagine là Me voir un jour fuir ça on ne l'imagine pas Et si un homme qui me créer lorsqu'il s'endort Ne jure qu'à travers ma vertu pour sort Une sorte de deuxième mère en un mot En un morceau, que la musique soit ce mot Refrain Je porte en moi tous ces groupes tandis Que tant de groupes s'en foutent doucement dit Ma raison l'emporte à chaque note que berce mon flow Que la musique soit ce mot Le dont de servir à l'homme qui me lit Le truc qui lui prouve que jour et nuit Avec moi rien ne se passe dans son dos Que la musique soit ce mot You might also likeJe veux que l'on vibre, que mon tout ne serve qu'à sourire Qu'on anile un instant les moments, les pires Qu'un voile dépose ses frissons pour la nuit Sur les bras levés pour me dire tout ça Mon essence, mon pourquoi, ma cause première L'opulence de ce pouvoir n'est qu'une pause peu fière Il ne faut pas dire que l'on m'utilise négativement Mes note se moquent que les gens négatifs mentent Il faut que je replonge et qu'est ce qu'il me reste de ce réel ? Songe aux ressources, au lest, du neuf Sers-toi de moi pour écrire Que ma main suive tes accords et transpire Prends soin de moi comme un fils, je t'en prie Si je fais partie des coulisses de ta vie Une sorte de truc bien simple en un mot Que la musique soit ce mot Refrain Que la musique soit ce mot quand je ne trouve plus les miens Le truc qui me prouve qu'avec elle rien ne se passe dans son dos Marque l'histoire de ma vie, joue vas-y !</t>
+          <t>Je sors d'une bouche, d'une note de piano ou d'une corde Douce comme un enfant et sa mère qui le borde Je pousse dans les soirées et l'ambiance déborde Calme ou nerveuse et dans n'importe quel ordre Ma force ? Mixer les émotions dessus Ca se corse quand je fixe une âme déçue Si on apprend à ouvrir les yeux pour y voir Qu'on me dise que l'on voit clair dans le flou de mon phare Non je ne pense pas et le sens que je touche ne pense pas Et l'expliquer devient louche Quelque soit la forme qu'on m'imagine là Me voir un jour fuir ça on ne l'imagine pas Et si un homme qui me créer lorsqu'il s'endort Ne jure qu'à travers ma vertu pour sort Une sorte de deuxième mère en un mot En un morceau, que la musique soit ce mot Refrain Je porte en moi tous ces groupes tandis Que tant de groupes s'en foutent doucement dit Ma raison l'emporte à chaque note que berce mon flow Que la musique soit ce mot Le dont de servir à l'homme qui me lit Le truc qui lui prouve que jour et nuit Avec moi rien ne se passe dans son dos Que la musique soit ce mot Je veux que l'on vibre, que mon tout ne serve qu'à sourire Qu'on anile un instant les moments, les pires Qu'un voile dépose ses frissons pour la nuit Sur les bras levés pour me dire tout ça Mon essence, mon pourquoi, ma cause première L'opulence de ce pouvoir n'est qu'une pause peu fière Il ne faut pas dire que l'on m'utilise négativement Mes note se moquent que les gens négatifs mentent Il faut que je replonge et qu'est ce qu'il me reste de ce réel ? Songe aux ressources, au lest, du neuf Sers-toi de moi pour écrire Que ma main suive tes accords et transpire Prends soin de moi comme un fils, je t'en prie Si je fais partie des coulisses de ta vie Une sorte de truc bien simple en un mot Que la musique soit ce mot Refrain Que la musique soit ce mot quand je ne trouve plus les miens Le truc qui me prouve qu'avec elle rien ne se passe dans son dos Marque l'histoire de ma vie, joue vas-y !</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Marre de faire dans la politesse Jenfonce la porte sans messuyer les pieds depuis les cieux jai débarqué Mercure et son flow vont te faire bouger les fesses Le mic je sais le dominer on a une relation privilégiée Jemmerde la fédération, fuck la validation Comme dans la rue jattends qule peuple prenne ses propres décisions Yen a ras lcul de toutes vos émissions Ils veulent enfermer le rap toujours dla même façon en décidant qui méritera les biftons Et bouffon, tu nous parles de sous-culture ? Si tu comprends pas nos textes peut-être tes juste pas assez mûre Tas buguer sur mon blaze, tas pas saisi lenvergure ? En secret ta meuf mécoute et ça lui plaît pourvu quça dure On changera pas lmonde mais on peut changer nos ondes Je reste soft mais jveux carte blanche comme James Bond Les premiers casseurs sont les briseurs despoirs Qui parmi eux ont déjà dû avancer dans le noir ? Les sceptiques saseptisent jles esquives leur explique Partout ya des rêveries mais la société les proscrits ! Qui connaît la vérité sur les dessaisis ? Une jeunesse perdues qui attends lamnéstie You might also likeEt nous on veut remettre le bien commun au centre de la table Proposer aux gosses qui nous entourent un avenir plus stable Ya du taf et on va lfaire, question de survie On ne veut pas que du pain nan, on veut aussi la boulangrie Si tu partages pas la lutte gros tu partagra la défaite Personne ne veut mener sa vie en demandant la piecette Ils font du vice un revenu sétonnent des proxénètes ? Si ça continu je vais devoir porter mes couilles et soulever la préfète Vendeurs de mensonges, craignent que lon séveil Perdu dans nos songes on se prépare à léchec Ouais je reste lucide, pas facile dêtre intrépide Même si mon art piétine je sais qula cousinade préside Alors on paye pas dmine et on affine nos sets On balance tant le feu quelles sont toutes stupéfaites Prophètes des nouvelles ères nous sommes les successeurs Ni empereur ni professeur on le fait just avec le coeur Il fait tellment sec quon a pas besoin de grinder En finissant le stock on à gratté jusquà point dheure Le fou rire en coin, perspicaces et danseurs Traditions maison meilleures que les Peacky Blinders Mercure a sauté lpas, les deux pieds dans lplât Avec Roots T nous vous guidons au delà du trépas Personne mas dis gros, tes délires yen assez Et perso ma vie, moi, je la vois ensoleillée x2</t>
+          <t>Marre de faire dans la politesse Jenfonce la porte sans messuyer les pieds depuis les cieux jai débarqué Mercure et son flow vont te faire bouger les fesses Le mic je sais le dominer on a une relation privilégiée Jemmerde la fédération, fuck la validation Comme dans la rue jattends qule peuple prenne ses propres décisions Yen a ras lcul de toutes vos émissions Ils veulent enfermer le rap toujours dla même façon en décidant qui méritera les biftons Et bouffon, tu nous parles de sous-culture ? Si tu comprends pas nos textes peut-être tes juste pas assez mûre Tas buguer sur mon blaze, tas pas saisi lenvergure ? En secret ta meuf mécoute et ça lui plaît pourvu quça dure On changera pas lmonde mais on peut changer nos ondes Je reste soft mais jveux carte blanche comme James Bond Les premiers casseurs sont les briseurs despoirs Qui parmi eux ont déjà dû avancer dans le noir ? Les sceptiques saseptisent jles esquives leur explique Partout ya des rêveries mais la société les proscrits ! Qui connaît la vérité sur les dessaisis ? Une jeunesse perdues qui attends lamnéstie Et nous on veut remettre le bien commun au centre de la table Proposer aux gosses qui nous entourent un avenir plus stable Ya du taf et on va lfaire, question de survie On ne veut pas que du pain nan, on veut aussi la boulangrie Si tu partages pas la lutte gros tu partagra la défaite Personne ne veut mener sa vie en demandant la piecette Ils font du vice un revenu sétonnent des proxénètes ? Si ça continu je vais devoir porter mes couilles et soulever la préfète Vendeurs de mensonges, craignent que lon séveil Perdu dans nos songes on se prépare à léchec Ouais je reste lucide, pas facile dêtre intrépide Même si mon art piétine je sais qula cousinade préside Alors on paye pas dmine et on affine nos sets On balance tant le feu quelles sont toutes stupéfaites Prophètes des nouvelles ères nous sommes les successeurs Ni empereur ni professeur on le fait just avec le coeur Il fait tellment sec quon a pas besoin de grinder En finissant le stock on à gratté jusquà point dheure Le fou rire en coin, perspicaces et danseurs Traditions maison meilleures que les Peacky Blinders Mercure a sauté lpas, les deux pieds dans lplât Avec Roots T nous vous guidons au delà du trépas Personne mas dis gros, tes délires yen assez Et perso ma vie, moi, je la vois ensoleillée x2</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ils aimaient jouer dans ce grand parc, les dimanches Frère et sur, sur et frère, ils faisaient plaisir à voir Aux yeux d'une famille heureuse, les gens jalousent et envient Par les trous dans les haies des buissons, les deux gosses eux en rient Ne manquent de rien, pour grandir en enfance béton Enfants trop jeunes pour mesurer leur chance, disait-on L'aîné venait à peine de souffler les bougies dses 10 ans 16h30, la cloche sonne, tous sortent en criant, c'est les vacances ! Stoppés dans leur élan devant l'école Des parapluies, mais plus dparents au bout ne jouent lrôle La pluie signe l'accident, le vent les emporte Alors les mêmes gens envient moins la malchance chez les autres Pas d'autres proches, eux si proches lun de lautre Sitôt séparés, trop tôt séparés, alors quoi faire ? Réagir puis se résigner, loin de son frère sans nouvelles Partir pour partir où, retourner au foyer ? Non pense-t-elle J'aurais pu mourir de chagrin, mais jpleure d'assurance Plein dpitié on trouvera bien dans mon malheur de la chance C'est complexe, maintenant lui le sait Plié dans son lit, la couverture trop fine, bourré dconsignes Couché sur son épaule, tatouée de fer dceinture Sûr qu'avant 18 ans, il s'enfuira comme il le jure Sans un adieu, courant libre comme un enfant un dimanche Heureux, mais qui a trop vécu pour parler dchance You might also like Comme les mots de mes fins dphrases en précédent d'autres Les situations s'enchaînent les unes après les autres Les joies, les peines, amènent du bien ou mènent au fond Chance, malchance, qui sait au fond ? Il ne pensait qu'à la revoir, comme elle aurait grandi Il la retrouve allongée 8 ans après, si affaiblie Chez moi, j'avais cqu'il fallait, faux parents, argent Dehors j'ai mal fréquenté, drogue dure j'ai échoué Je m'en fous dtout ça, jte sors de là, je veux plus dton absence Les médecins diront cette fois beaucoup dchance Tout ça, c'est fini, elle vit chez lui sans luxe dans son amour Sa sur c'est ses yeux, sa fiancée n'est pas pour Ses problèmes de couple, il n'y prête guère attention Elle veut partir ? Il a connu pire séparation Il ne la retient presque pas, regrette quand il y pense N'aurait-elle pas pu me laisser ne serait ce qu'une chance ? Sa sur le console, l'accumulation le rend dépressif Mal dans sa peau, trop souvent impulsif C'est à son tour de lui venir en aide, ce qu'elle fait Elle seule peut savoir, peut comprendre, sans besoin dparler Si ça va mieux, c'est qu'elle a dû donner dsa présence Les rebondissement l'empêcheront de parler dchance Aujourd'hui, rien n'a changé, demain tout peut changer Ils sont mariés, elle a des enfants, lui ne sait pas encore Quand ils se voient chaque dimanche et que les enfants s'amusent Le grand parc semble vouloir faire des excuses En silence ils pensent, des joies aux peines, d'en haut au fond Chance malchance, qui sait au fond ? Comme les mots de mes fins dphrases en précédent d'autres Les situations s'enchaînent les unes après les autres Les joies, les peines, amènent du bien ou mènent au fond Chance, malchance, qui sait au fond ?</t>
+          <t>Ils aimaient jouer dans ce grand parc, les dimanches Frère et sur, sur et frère, ils faisaient plaisir à voir Aux yeux d'une famille heureuse, les gens jalousent et envient Par les trous dans les haies des buissons, les deux gosses eux en rient Ne manquent de rien, pour grandir en enfance béton Enfants trop jeunes pour mesurer leur chance, disait-on L'aîné venait à peine de souffler les bougies dses 10 ans 16h30, la cloche sonne, tous sortent en criant, c'est les vacances ! Stoppés dans leur élan devant l'école Des parapluies, mais plus dparents au bout ne jouent lrôle La pluie signe l'accident, le vent les emporte Alors les mêmes gens envient moins la malchance chez les autres Pas d'autres proches, eux si proches lun de lautre Sitôt séparés, trop tôt séparés, alors quoi faire ? Réagir puis se résigner, loin de son frère sans nouvelles Partir pour partir où, retourner au foyer ? Non pense-t-elle J'aurais pu mourir de chagrin, mais jpleure d'assurance Plein dpitié on trouvera bien dans mon malheur de la chance C'est complexe, maintenant lui le sait Plié dans son lit, la couverture trop fine, bourré dconsignes Couché sur son épaule, tatouée de fer dceinture Sûr qu'avant 18 ans, il s'enfuira comme il le jure Sans un adieu, courant libre comme un enfant un dimanche Heureux, mais qui a trop vécu pour parler dchance Comme les mots de mes fins dphrases en précédent d'autres Les situations s'enchaînent les unes après les autres Les joies, les peines, amènent du bien ou mènent au fond Chance, malchance, qui sait au fond ? Il ne pensait qu'à la revoir, comme elle aurait grandi Il la retrouve allongée 8 ans après, si affaiblie Chez moi, j'avais cqu'il fallait, faux parents, argent Dehors j'ai mal fréquenté, drogue dure j'ai échoué Je m'en fous dtout ça, jte sors de là, je veux plus dton absence Les médecins diront cette fois beaucoup dchance Tout ça, c'est fini, elle vit chez lui sans luxe dans son amour Sa sur c'est ses yeux, sa fiancée n'est pas pour Ses problèmes de couple, il n'y prête guère attention Elle veut partir ? Il a connu pire séparation Il ne la retient presque pas, regrette quand il y pense N'aurait-elle pas pu me laisser ne serait ce qu'une chance ? Sa sur le console, l'accumulation le rend dépressif Mal dans sa peau, trop souvent impulsif C'est à son tour de lui venir en aide, ce qu'elle fait Elle seule peut savoir, peut comprendre, sans besoin dparler Si ça va mieux, c'est qu'elle a dû donner dsa présence Les rebondissement l'empêcheront de parler dchance Aujourd'hui, rien n'a changé, demain tout peut changer Ils sont mariés, elle a des enfants, lui ne sait pas encore Quand ils se voient chaque dimanche et que les enfants s'amusent Le grand parc semble vouloir faire des excuses En silence ils pensent, des joies aux peines, d'en haut au fond Chance malchance, qui sait au fond ? Comme les mots de mes fins dphrases en précédent d'autres Les situations s'enchaînent les unes après les autres Les joies, les peines, amènent du bien ou mènent au fond Chance, malchance, qui sait au fond ?</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Un mètre quatre-vingt-sept pour quatre-vingt-cinq kilos Deux albums, une B.O Il a plus de quinze sélections en compilations nationales Ganay, Jean Bouin, de Peretti et Virage Sud Vous demandent de souhaiter la bienvenue à Deeeef Bond! Un club plein qui transpire, j'aime ça Le son bien fort, d'Miami à Ibiza Def Bond, laisse-moi juste préciser On m'range pas, elles sont plutôt larges mes idées Élevé au son, j'roule pour N.Y.C Nourri au sun, du bloc à Marseille City Pousse le volume quand j'passe sur les ondes Ramène des gens pour encore plus de monde Sur le beat y a pas d'hic, sur l'cur c'est tout Moi j'ai qu'ça et le reste j'm'en fous Que les majors suivent ou pas, les gens danseront Que les radios m'suivent ou pas, les gens penseront J'veux du positif, d'la lumière et des rimes Un amour simple comme ces mots pour te dire Prends ta lady gars, et serre-la fort Dis-lui qu'tu y crois encore, encore You might also like Lève-toi ma lady Décolle de ta chaise Viens là Yeah yeah Reste pas seule dans ton coin, assise et timide Viens donc avec moi Tout le monde lève sa main en l'air L'ambiance est à faire alors aide-nous Noyée dans la foule, lady Tu rends les mecs fous vas-y Ramène des amis et oublie tout Ramène du monde Qu'on fasse la fête ici En moins qu'une seconde Lève ta main en l'air Appelle du monde Qu'on flirte au son de cette nuit Ramène du monde Ramène du monde Hey yo, c'est quoi ici l'parfum d'la décennie C'est quoi l'odeur, la couleur du bon RB C'est quoi le hip-hop, ici c'est quoi l'deal Personne ne sait mais tout l'monde fait du style J'bosse depuis hier comme un numéro un Aujourd'hui encore, j'le dis, sur c'numéro viens Représente pour l'son que tu aimes s'il est bon Pas d'différence entre la forme et le fond Viens sur le mix, l'homme des sessions clubbin' Sexy lady fais l'show en cabine Passe-passe entre deux d'mes vinyles Ça s'passe encore mieux qu'le beurre et le fil D comme Def, B comme Bond Haute tension D comme direct, viens dans ma dimension J'veux du son et du monde sur ma guest list Ramène du monde quand j'suis là sur la piste Ramène du monde Qu'on fasse la fête ici En moins qu'une seconde Lève ta main en l'air Appelle du monde Qu'on flirte au son de cette nuit Ramène du monde Ramène du monde Parle autour de toi de cette nuit Dis-leur qu'on est là Ouvre-moi ton cur ma lady Viens te joindre à moi Ramène du monde Qu'on fasse la fête ici En moins qu'une seconde Lève ta main en l'air Appelle du monde Qu'on flirte au son de cette nuit Ramène du monde Ramène du monde Appelle du monde Appelle du monde Ramène du monde Ramène du monde Appelle du monde Appelle du monde Ramène du monde Ramène du monde Appelle du monde Lève ta main en l'air Ramène du monde</t>
+          <t>Un mètre quatre-vingt-sept pour quatre-vingt-cinq kilos Deux albums, une B.O Il a plus de quinze sélections en compilations nationales Ganay, Jean Bouin, de Peretti et Virage Sud Vous demandent de souhaiter la bienvenue à Deeeef Bond! Un club plein qui transpire, j'aime ça Le son bien fort, d'Miami à Ibiza Def Bond, laisse-moi juste préciser On m'range pas, elles sont plutôt larges mes idées Élevé au son, j'roule pour N.Y.C Nourri au sun, du bloc à Marseille City Pousse le volume quand j'passe sur les ondes Ramène des gens pour encore plus de monde Sur le beat y a pas d'hic, sur l'cur c'est tout Moi j'ai qu'ça et le reste j'm'en fous Que les majors suivent ou pas, les gens danseront Que les radios m'suivent ou pas, les gens penseront J'veux du positif, d'la lumière et des rimes Un amour simple comme ces mots pour te dire Prends ta lady gars, et serre-la fort Dis-lui qu'tu y crois encore, encore Lève-toi ma lady Décolle de ta chaise Viens là Yeah yeah Reste pas seule dans ton coin, assise et timide Viens donc avec moi Tout le monde lève sa main en l'air L'ambiance est à faire alors aide-nous Noyée dans la foule, lady Tu rends les mecs fous vas-y Ramène des amis et oublie tout Ramène du monde Qu'on fasse la fête ici En moins qu'une seconde Lève ta main en l'air Appelle du monde Qu'on flirte au son de cette nuit Ramène du monde Ramène du monde Hey yo, c'est quoi ici l'parfum d'la décennie C'est quoi l'odeur, la couleur du bon RB C'est quoi le hip-hop, ici c'est quoi l'deal Personne ne sait mais tout l'monde fait du style J'bosse depuis hier comme un numéro un Aujourd'hui encore, j'le dis, sur c'numéro viens Représente pour l'son que tu aimes s'il est bon Pas d'différence entre la forme et le fond Viens sur le mix, l'homme des sessions clubbin' Sexy lady fais l'show en cabine Passe-passe entre deux d'mes vinyles Ça s'passe encore mieux qu'le beurre et le fil D comme Def, B comme Bond Haute tension D comme direct, viens dans ma dimension J'veux du son et du monde sur ma guest list Ramène du monde quand j'suis là sur la piste Ramène du monde Qu'on fasse la fête ici En moins qu'une seconde Lève ta main en l'air Appelle du monde Qu'on flirte au son de cette nuit Ramène du monde Ramène du monde Parle autour de toi de cette nuit Dis-leur qu'on est là Ouvre-moi ton cur ma lady Viens te joindre à moi Ramène du monde Qu'on fasse la fête ici En moins qu'une seconde Lève ta main en l'air Appelle du monde Qu'on flirte au son de cette nuit Ramène du monde Ramène du monde Appelle du monde Appelle du monde Ramène du monde Ramène du monde Appelle du monde Appelle du monde Ramène du monde Ramène du monde Appelle du monde Lève ta main en l'air Ramène du monde</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ambiance tamisée, je mise sur l'ambiance pour te viser À chaque fois j'ai souhaité que tu repartes seule Pas assez prétentieux pour prétendre t'avoir si je veux Moi, assis là, je rêve de nous deux Regarde comme tu rentres, comme tu souris Pas de compétition, un peu de pression, si....si Si tu savais que je viens ici pour toi tous les soirs Que ça ce n'est pas mon style mais que tu es mon style à moi Tu jetterais peut-être un il vers ma table J'aurais peut-être le cran de t'inviter de façon aimable Je veux que tu sortes du lot, faire ce qu'il faut Pour avoir une chance de plus que les autres, je sais ce que tu vaux Plus que tout ce que j'ai connu jusqu'ici Des histoires courtes ou de longues lassitudes Cherche moi comme je te cherche princesse Viens et parles moi, il n'y a pas de cesse, je veux qu'on soit Rien que nous deux, du bon son pour la cause et Rien que nous deux, de la lumière à petites doses et Que l'on se retrouve peu importe l'endroit Seuls, isolés toi et moi Je prie alors que je ne suis pas croyant, c'est le comble Je prévois alors que je ne suis pas voyant, c'est con Parce qu'il n'y a rien qui se produit quand je passe près de toi Mes conneries me couleront si tu ne viens pas Je branche le ventre noué, je suis zéro Devine juste ça dans mes gestes idiots Je te dis que je ne trouve pas mes mots, tu me dis ce n'est pas grave Que l'on a qu'à boire un verre dehors, seuls, qu'on soit Rien que nous deux et tout part de là Une robe dans le vent, un mec galant si tu as froid Il faut que l'on prenne notre temps sans perdre notre temps Que l'on fasse comme on a envie et que l'on s'en foute du temps J'aime cette mélodie et l'instant qu'elle parfume Douce comme guitare sèche au clair de lune Tu me dis qu'est ce qui te plais dans la vie à part ça ? Franchement tout, si je la passe avec toi You might also like Rien que nous deux, du bon son pour la cause et Rien que nous deux, de la lumière à petites doses et Que l'on se retrouve peu importe l'endroit Seuls, isolés toi et moi Rien que nous deux Je veux qu'on soit Rien que nous deux</t>
+          <t>Ambiance tamisée, je mise sur l'ambiance pour te viser À chaque fois j'ai souhaité que tu repartes seule Pas assez prétentieux pour prétendre t'avoir si je veux Moi, assis là, je rêve de nous deux Regarde comme tu rentres, comme tu souris Pas de compétition, un peu de pression, si....si Si tu savais que je viens ici pour toi tous les soirs Que ça ce n'est pas mon style mais que tu es mon style à moi Tu jetterais peut-être un il vers ma table J'aurais peut-être le cran de t'inviter de façon aimable Je veux que tu sortes du lot, faire ce qu'il faut Pour avoir une chance de plus que les autres, je sais ce que tu vaux Plus que tout ce que j'ai connu jusqu'ici Des histoires courtes ou de longues lassitudes Cherche moi comme je te cherche princesse Viens et parles moi, il n'y a pas de cesse, je veux qu'on soit Rien que nous deux, du bon son pour la cause et Rien que nous deux, de la lumière à petites doses et Que l'on se retrouve peu importe l'endroit Seuls, isolés toi et moi Je prie alors que je ne suis pas croyant, c'est le comble Je prévois alors que je ne suis pas voyant, c'est con Parce qu'il n'y a rien qui se produit quand je passe près de toi Mes conneries me couleront si tu ne viens pas Je branche le ventre noué, je suis zéro Devine juste ça dans mes gestes idiots Je te dis que je ne trouve pas mes mots, tu me dis ce n'est pas grave Que l'on a qu'à boire un verre dehors, seuls, qu'on soit Rien que nous deux et tout part de là Une robe dans le vent, un mec galant si tu as froid Il faut que l'on prenne notre temps sans perdre notre temps Que l'on fasse comme on a envie et que l'on s'en foute du temps J'aime cette mélodie et l'instant qu'elle parfume Douce comme guitare sèche au clair de lune Tu me dis qu'est ce qui te plais dans la vie à part ça ? Franchement tout, si je la passe avec toi Rien que nous deux, du bon son pour la cause et Rien que nous deux, de la lumière à petites doses et Que l'on se retrouve peu importe l'endroit Seuls, isolés toi et moi Rien que nous deux Je veux qu'on soit Rien que nous deux</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Oh, Roméo XXX parlare a mi ragazza XXX Roméo Roméo per XXX Per la vita Non XXX Roméo Il a c'quon perd souvent avec le temps Les rêves et l'insouciance de la vie Le truc en plus qui m'laisse les yeux brillants Je crois quje me retrouve sans lui Dieu sait qu'j'ai souvent rêvé d'un Roméo Je sais c'que veut dire Quand j'le regarde marcher vers moi J'le veux lui, il est tout c'quil me faut Docteur pourquoi jai chaud? J'sais plus où jsuis quand il me dit J'donnerais tout my lady L'histoire est à nous crois-moi Sérieuse et douce lady Narimane chante pour moi You might also like Il est tout c'quil me faut Je l'aime et je sais c'qu'il faut J'crois qu'j'l'ai dans la peau Mon Roméo Mon film et mon héros Mon cri d'amour et mon ego Je suis accro de mon Roméo Tant besoin de le garder, cette fois Pour le tester moi je l'ennuie Histoire de voir s'il tient si fort à moi Mais je sais toujours avant lui Je sais qu'j'l'ai trouvé maintenant mon Roméo Je sais c'que sont les maux Quand parfois il s'éloigne de moi J'le veux lui avec tous ses défauts Faire équipe en duo J'le vois que lui quand il me dit J'donnerais tout my lady L'histoire est à nous crois-moi Sérieuse et douce lady Narimane chante pour moi Il est tout c'qu'il me faut Je l'aime et je sais c'qu'il faut J'crois qu'j'l'ai dans la peau Mon Roméo Mon film et mon héros Mon cri d'amour et mon ego Je suis accro de mon Roméo Viens là j'donnerais tout pour toi Tu sais que l'histoire est à nous crois-moi Ma sérieuse douce lady Amor Narimane chante cette fois pour moi Il est tout c'qu'il me faut Je l'aime et je sais c'qu'il faut J'crois qu'j'l'ai dans la peau Mon Roméo Mon film et mon héros Mon cri d'amour et mon ego Je suis accro de mon Roméo</t>
+          <t>Oh, Roméo XXX parlare a mi ragazza XXX Roméo Roméo per XXX Per la vita Non XXX Roméo Il a c'quon perd souvent avec le temps Les rêves et l'insouciance de la vie Le truc en plus qui m'laisse les yeux brillants Je crois quje me retrouve sans lui Dieu sait qu'j'ai souvent rêvé d'un Roméo Je sais c'que veut dire Quand j'le regarde marcher vers moi J'le veux lui, il est tout c'quil me faut Docteur pourquoi jai chaud? J'sais plus où jsuis quand il me dit J'donnerais tout my lady L'histoire est à nous crois-moi Sérieuse et douce lady Narimane chante pour moi Il est tout c'quil me faut Je l'aime et je sais c'qu'il faut J'crois qu'j'l'ai dans la peau Mon Roméo Mon film et mon héros Mon cri d'amour et mon ego Je suis accro de mon Roméo Tant besoin de le garder, cette fois Pour le tester moi je l'ennuie Histoire de voir s'il tient si fort à moi Mais je sais toujours avant lui Je sais qu'j'l'ai trouvé maintenant mon Roméo Je sais c'que sont les maux Quand parfois il s'éloigne de moi J'le veux lui avec tous ses défauts Faire équipe en duo J'le vois que lui quand il me dit J'donnerais tout my lady L'histoire est à nous crois-moi Sérieuse et douce lady Narimane chante pour moi Il est tout c'qu'il me faut Je l'aime et je sais c'qu'il faut J'crois qu'j'l'ai dans la peau Mon Roméo Mon film et mon héros Mon cri d'amour et mon ego Je suis accro de mon Roméo Viens là j'donnerais tout pour toi Tu sais que l'histoire est à nous crois-moi Ma sérieuse douce lady Amor Narimane chante cette fois pour moi Il est tout c'qu'il me faut Je l'aime et je sais c'qu'il faut J'crois qu'j'l'ai dans la peau Mon Roméo Mon film et mon héros Mon cri d'amour et mon ego Je suis accro de mon Roméo</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Hé Blondin ! Ola Amigo Tu veux que j'te dise ? Chaque chose en son temps amigo T'es le plus grand dégueulasse que...que la...que...que la Terre ait jamais porté ! Yeah yeah yeah yeah Le plaisir de l'effort on lâche la prise du mic' Avant de servir de tapis pour la France on peigne notre zone qu'au mic' La merde, merde c'est dur à dire, dire combien d'temps, temps ça durera Ça serait trahir mes frères de leur dire-dire que l'on mangera dur là Vous êtes pas du S.Ad Hill comme moi ils s'laissent aller L'Espera Noches est salée, selon mes pas se laissent installer Tout pour la peine, tous la veulent belle et la souhaitent enfin bonne T'as vu dans la forme, ils font du rap jamais l'homme, non ? J'hésite entre Def Bond, Psy 4, Yak, Sad Hill Pour un pacte avec le pharaon des pyramides pour l'Impact de Sad Hill Dans c'domaine je suis un à l'apparence de Bruce Willis Doubtfire to Williams mais tu prends la parole du pouvoir You might also like Sache minot qu'dans c'domaine y'a pas d'chef, donc je f'rai pas d'bref Psy4, Def, Yak venant du même nef On est moins d'neuf mais j't'assure qu'on fera jaloux et jalouses On t'rend chèvre et tu dis hella hella Taille d'un sourd qui dort Le système ne lÉtat, Tyson la caille donc pour notre silence d'or Ma salive rouille cet or donc là je te rassures Avec l'épée porte mon cur le rap le seul à se courber Arthur C'est la Psykatra de la Rim'ia En live live de Sad Hill'ia Def-Def aussi Live-live de Sad Hill'ia Yak-Yak-Yak-Yak Aussi live de Sad Hill'ia Yo Mist'ah, pas de pile pour le deuxième acte sist'ah Ssiste-a movie sur Sad Hill Impact sist'ah XXL dans la rime comme Daniel Hechter Ai-je tord comme Michel d'extraire des rimes de stars Pour des MC style baisse comme des stores ou tout simplement plus se taire Quand Sopra instaure c'est du premier comme DJ Gangstarr C'est pour les gars, les nanas, les minots, les vieux, les gentils, les colons Quand brûle la sono, s'infiltrer avant d'aller au lolo Sad Hill au match chez nous quand ça deal aux caves chez vous Un Stabilo et on fuck pour cela on convoque Certains ont voulu m'avoir comme lauxiliaire sans m'toucher Ça m'a touché, qu'ensuite qui m'craignent à l'odorat mais sans m'toucher Mais dans ma saga, quand l'opposant sort c'genre de vanne J'file l'épidémie, la race des sangs chauds Je l'répète, Psy4 de la Rime y'a qu'pour l'hymne Faut qu'on s'aligne quand y'a du son, faut qu'on soit digne Et qu'on fasse comme Sya, Blondin qu'est-ce y'a ? T'as vu ça pousse maintenant 7 plus qu'avant Que ce public voyait Alonzo avec une auréole Sous domaine, j'casse plus ma voix que les Tu sais j'ai pas le temps qu'attendre que l'rap prend de l'âge Pour être aussi fort que la mer et que toi même dans les coquillages Les gars on reprend le refrain ou quoi ? Pépère C'est la Psykatra de la Rim'ia En live live de Sad Hill Jo il y a Yak-Yak aussi est là Pour Sad Hill'ia Lève les bras s'il-te plait Fais pour Sad Hill'ia Yo Mist'ah, pas de pile pour le deuxième acte sist'ah Ssiste-a movie sur Sad Hill Impact sist'ah Je vais dormir tranquille parce que je sais maintenant que mon pire ennemi veille sur moi C'est la Psykatra de la Rim'ia Yak-Yak pour Sad Hill'ia Def-Def-Def Def lève les bras Pour Sad Hill'ia Yo Mist'ah, pas de pile pour le deuxième acte sist'ah Ssiste-a movie sur Sad Hill Impact sist'ah</t>
+          <t>Hé Blondin ! Ola Amigo Tu veux que j'te dise ? Chaque chose en son temps amigo T'es le plus grand dégueulasse que...que la...que...que la Terre ait jamais porté ! Yeah yeah yeah yeah Le plaisir de l'effort on lâche la prise du mic' Avant de servir de tapis pour la France on peigne notre zone qu'au mic' La merde, merde c'est dur à dire, dire combien d'temps, temps ça durera Ça serait trahir mes frères de leur dire-dire que l'on mangera dur là Vous êtes pas du S.Ad Hill comme moi ils s'laissent aller L'Espera Noches est salée, selon mes pas se laissent installer Tout pour la peine, tous la veulent belle et la souhaitent enfin bonne T'as vu dans la forme, ils font du rap jamais l'homme, non ? J'hésite entre Def Bond, Psy 4, Yak, Sad Hill Pour un pacte avec le pharaon des pyramides pour l'Impact de Sad Hill Dans c'domaine je suis un à l'apparence de Bruce Willis Doubtfire to Williams mais tu prends la parole du pouvoir Sache minot qu'dans c'domaine y'a pas d'chef, donc je f'rai pas d'bref Psy4, Def, Yak venant du même nef On est moins d'neuf mais j't'assure qu'on fera jaloux et jalouses On t'rend chèvre et tu dis hella hella Taille d'un sourd qui dort Le système ne lÉtat, Tyson la caille donc pour notre silence d'or Ma salive rouille cet or donc là je te rassures Avec l'épée porte mon cur le rap le seul à se courber Arthur C'est la Psykatra de la Rim'ia En live live de Sad Hill'ia Def-Def aussi Live-live de Sad Hill'ia Yak-Yak-Yak-Yak Aussi live de Sad Hill'ia Yo Mist'ah, pas de pile pour le deuxième acte sist'ah Ssiste-a movie sur Sad Hill Impact sist'ah XXL dans la rime comme Daniel Hechter Ai-je tord comme Michel d'extraire des rimes de stars Pour des MC style baisse comme des stores ou tout simplement plus se taire Quand Sopra instaure c'est du premier comme DJ Gangstarr C'est pour les gars, les nanas, les minots, les vieux, les gentils, les colons Quand brûle la sono, s'infiltrer avant d'aller au lolo Sad Hill au match chez nous quand ça deal aux caves chez vous Un Stabilo et on fuck pour cela on convoque Certains ont voulu m'avoir comme lauxiliaire sans m'toucher Ça m'a touché, qu'ensuite qui m'craignent à l'odorat mais sans m'toucher Mais dans ma saga, quand l'opposant sort c'genre de vanne J'file l'épidémie, la race des sangs chauds Je l'répète, Psy4 de la Rime y'a qu'pour l'hymne Faut qu'on s'aligne quand y'a du son, faut qu'on soit digne Et qu'on fasse comme Sya, Blondin qu'est-ce y'a ? T'as vu ça pousse maintenant 7 plus qu'avant Que ce public voyait Alonzo avec une auréole Sous domaine, j'casse plus ma voix que les Tu sais j'ai pas le temps qu'attendre que l'rap prend de l'âge Pour être aussi fort que la mer et que toi même dans les coquillages Les gars on reprend le refrain ou quoi ? Pépère C'est la Psykatra de la Rim'ia En live live de Sad Hill Jo il y a Yak-Yak aussi est là Pour Sad Hill'ia Lève les bras s'il-te plait Fais pour Sad Hill'ia Yo Mist'ah, pas de pile pour le deuxième acte sist'ah Ssiste-a movie sur Sad Hill Impact sist'ah Je vais dormir tranquille parce que je sais maintenant que mon pire ennemi veille sur moi C'est la Psykatra de la Rim'ia Yak-Yak pour Sad Hill'ia Def-Def-Def Def lève les bras Pour Sad Hill'ia Yo Mist'ah, pas de pile pour le deuxième acte sist'ah Ssiste-a movie sur Sad Hill Impact sist'ah</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Incarné en une meute de garnements dégourdis Écornant les sillons des boucles qui étourdissent Pus de contrepèterie pour pester, j'grimpe, je trotte Parfois traite de fils de... Pour se tester faut plus qu'un pied de un peu lesté Tâter d'la puis agaçant de se sentir séquestré Trop de sarcasme, stop, halte Catastrophe, stressant d'se sentir fissuré Patate chaude Les bouillantes vapeurs forment leurs propres sphères Les couillons enterrent la chaleur, les autres s'en servent Comme point d'appui parfait pour une figure exact, tente De bondir hors de l'objet de cette manière éclatante Une pirouette si t'es taquin L'effet dure le temps qu'une trottinette fasse le tour du coin Non, j'serais pas ravi dêtre au bout d'une hémorragie Gros rejet, pharmacie, peuvent t'endommager Si par magie, preu rappeur pas trop enragé balance une prophétie P't-être dans mille piges Ça peut marcher Et oui, c'est difficile dêtre au fond du trou Quand on sautille l'samedi soir Faux comme une vitrine qui pétille Mais je me faufile entre les tuiles, effrite l'isolant Y a pas que les pitres sur la lune qui ont une tête désolée Focus d'esprit, esquive les faux-culs aigris Laisse vivre les rumeurs tordues et puis saute par dessus Pour l'exercice de styleYou might also like</t>
+          <t>Incarné en une meute de garnements dégourdis Écornant les sillons des boucles qui étourdissent Pus de contrepèterie pour pester, j'grimpe, je trotte Parfois traite de fils de... Pour se tester faut plus qu'un pied de un peu lesté Tâter d'la puis agaçant de se sentir séquestré Trop de sarcasme, stop, halte Catastrophe, stressant d'se sentir fissuré Patate chaude Les bouillantes vapeurs forment leurs propres sphères Les couillons enterrent la chaleur, les autres s'en servent Comme point d'appui parfait pour une figure exact, tente De bondir hors de l'objet de cette manière éclatante Une pirouette si t'es taquin L'effet dure le temps qu'une trottinette fasse le tour du coin Non, j'serais pas ravi dêtre au bout d'une hémorragie Gros rejet, pharmacie, peuvent t'endommager Si par magie, preu rappeur pas trop enragé balance une prophétie P't-être dans mille piges Ça peut marcher Et oui, c'est difficile dêtre au fond du trou Quand on sautille l'samedi soir Faux comme une vitrine qui pétille Mais je me faufile entre les tuiles, effrite l'isolant Y a pas que les pitres sur la lune qui ont une tête désolée Focus d'esprit, esquive les faux-culs aigris Laisse vivre les rumeurs tordues et puis saute par dessus Pour l'exercice de style</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Attention, Attention, ici le Squad Alerte niveau 5, des Brous ont kidnappé Tonton Envoyer Jo Popo, Def Bond et Sentenza pour le libérer Ici l'élite des pilotes de Kilo India Foxtrot Au carré, y'a pas de secret il faut qu'on s'frotte Qu'on prenne possession du terrain là dans le maquis Qu'on parachute ces rimes, nos productions vêtues de kaki Coude à coude on devient plus fort, le clan uni forme Un clan invincible, soldats du Hip Hop en uniformes Quiconque touche à l'un de nous sera puni, forme Un plan, balaie les Bravo, Romeo, Oscar, Uniforme Soldat du Hip Hop dévoué depuis bien longtemps Combattant opérant au sein du 3 Pseudo Jo Popo en mission solo Avec Def Bond, Sentenza, représente le CO Trois mercenaires chargés, armés jusqu'aux dents Débarquent à Brouland pour sortir Tonton du guet-apens Tendu par les morfondus de sons, Kif Kif Production Je scrute le terrain, Def j'ai comme une sale impression Je pose les capteurs thermiques, les MC paniquent Contrôle la tension, plus de 50 bars de pression On envahit les lieux avec des rimes qui créent une tuerie Pour ces MC, j'annonce une lyricale pénurie C'est la guérilla venue de Marseille J'ai un tuyau, reste en mode veille Ecoute le flow acharné du guerrier du 13 C S'il faut prouver donne moi un mic, je l'exécute sans pitié Au Nord, à l'Ouest, je reste au Sud-Est Ce n'est pas par hasard c'est là où le micro je teste Pour mes frères qui surveillent mes arrières L'élite D'Action Directe brise ta carrière Juliette Oscar, Papa Oscar, Papa Oscar Dites leurs qu'il est trop tard You might also like Ici l'élite des pilotes de Kilo India Foxtrot Au carré, y'a pas de secret il faut qu'on s'frotte Qu'on prenne possession du terrain là dans le maquis Qu'on parachute ces rimes, nos productions vêtues de kaki Coude à coude on devient plus fort, le clan uni forme Un clan invincible, soldats du Hip Hop en uniformes Quiconque touche à l'un de nous sera puni, forme Un plan, balaie les Bravo, Romeo, Oscar, Uniforme Matricule double zéro Def Bond, 28 ans l'expérience Requise pour la mission étant un cv flambant Mercenaire ou Ninja, espion sur commande Pour sauver Tonton j'arrive de Thaïlande Lieutenant Sentenza, Jo Popo, et moi 3 pour l'élite, le must des services secrets lyric On a bloqué un mec de chez nous, invisible on vient chez vous Récupérer les maquettes p'têt qu'après on casse tout Hey mec, on dirait que ça te gène de marcher sur un Brou ? Non ne croyez pas que ça me gène de venir avec vous Ne leur lâche pas un bootleg Pedro, pas un morceau Ces animaux, ça bave des mots mais sortis de quel dico ? Ça y met de vieux roulements, des faux blancs, ils me cassent les couilles Des impros apprises par cur, des nuds dans les fils comme une soupe de nouilles Action en combi, Sad Hill Ne se pose pas qui veut sur les instrumentaux de ma ville Tiens bon Tonton, fais semblant de sampler pour ces ânes Promis tu resteras ici moins longtemps que Juliette Papa Kauffman Un pour ta figure, deux pour tes fesses Si tu veux sortir un bon son laisse Les productions sur nos disquettes, les mix sur nos DAT Les micros d'argent à l'école des grands, allo ici Delta Echo Foxtrot Bond pour le Box Office CO ne meurt jamais, Bons Baisers du Kif Kif Ici l'élite des pilotes de Kilo India Foxtrot Au carré, y'a pas de secret il faut qu'on s'frotte Qu'on prenne possession du terrain là dans le maquis Qu'on parachute ces rimes, nos productions vêtues de kaki Coude à coude on devient plus fort, le clan uni forme Un clan invincible, soldats du Hip Hop en uniformes Quiconque touche à l'un de nous sera puni, forme Un plan, balaie les Bravo, Romeo, Oscar, Uniforme Je suis comme Sport Billy, sors du p'tit sac un blouson Killy Un kil' de Buddha et des boots, des bootlegs de NYC Un bout d'mes lyrics, avec quoi je boute les nazes Les caves avec des textes style merde à celui qui lit Jacte en alphabet Morse, balance un telex à la bonnasse J'ai besoin de Moula pour m'équiper, flouer ces connasses Ça te parait bon Def ? Quoi ? C'est bien le plan que tu potasses Que Dieu fasse qu'ils goûtent aux Kicks Et au dessous de nos godasses On peut y aller, parait qu'y a des patrouilles dans leur chalet Installés dans les buttes, on crache rafales et tirs salés Les brous partent en courant, parfait je les vois qui s'taillent Sauf leur chef qui rétorque avec un sale freestyle Plein de Wesh Wesh Yor de J'te le dis Yor De panoplies hardcore, de métaphores bonnes pour les juniors Allez vire, casse toi de là, je suis de l'ordre du Temple Scolaire Je pouvais pas laisser ces mecs rapper en chemise polaire Libère Tonton, armé d'Alpha à Zulu Je prends plaisir sur ce coup à trainer les Brous dans la boue Rappelle toi du Lieutenant la Sentence, je sais pas à quand Mais bons baisers du commandant de lÉcole du Mégot d'Afghan Ici y'a pas de héros, d'Ajax, de Bayard, de Custer Juste 3 soupçonnés zéros, bien équipés de lyrics clusters A tout concurrent de s'exprimer poliment Y'a pas de conquérants que des cohérents Stoppe les boniments Ici l'élite des pilotes de Kilo India Foxtrot Au carré, y'a pas de secret il faut qu'on s'frotte Qu'on prenne possession du terrain là dans le maquis Qu'on parachute ces rimes, nos productions vêtues de kaki Coude à coude on devient plus fort, le clan uni forme Un clan invincible, soldats du Hip Hop en uniformes Quiconque touche à l'un de nous sera puni, forme Un plan, balaie les Bravo, Romeo, Oscar, Uniforme Mission Accomplie Les têtes sont sèches et la récolte est bonne Vous pouvez rentrer, terminé O.K message reçu Kilo India Foxtrot au carré rentre à la base</t>
+          <t>Attention, Attention, ici le Squad Alerte niveau 5, des Brous ont kidnappé Tonton Envoyer Jo Popo, Def Bond et Sentenza pour le libérer Ici l'élite des pilotes de Kilo India Foxtrot Au carré, y'a pas de secret il faut qu'on s'frotte Qu'on prenne possession du terrain là dans le maquis Qu'on parachute ces rimes, nos productions vêtues de kaki Coude à coude on devient plus fort, le clan uni forme Un clan invincible, soldats du Hip Hop en uniformes Quiconque touche à l'un de nous sera puni, forme Un plan, balaie les Bravo, Romeo, Oscar, Uniforme Soldat du Hip Hop dévoué depuis bien longtemps Combattant opérant au sein du 3 Pseudo Jo Popo en mission solo Avec Def Bond, Sentenza, représente le CO Trois mercenaires chargés, armés jusqu'aux dents Débarquent à Brouland pour sortir Tonton du guet-apens Tendu par les morfondus de sons, Kif Kif Production Je scrute le terrain, Def j'ai comme une sale impression Je pose les capteurs thermiques, les MC paniquent Contrôle la tension, plus de 50 bars de pression On envahit les lieux avec des rimes qui créent une tuerie Pour ces MC, j'annonce une lyricale pénurie C'est la guérilla venue de Marseille J'ai un tuyau, reste en mode veille Ecoute le flow acharné du guerrier du 13 C S'il faut prouver donne moi un mic, je l'exécute sans pitié Au Nord, à l'Ouest, je reste au Sud-Est Ce n'est pas par hasard c'est là où le micro je teste Pour mes frères qui surveillent mes arrières L'élite D'Action Directe brise ta carrière Juliette Oscar, Papa Oscar, Papa Oscar Dites leurs qu'il est trop tard Ici l'élite des pilotes de Kilo India Foxtrot Au carré, y'a pas de secret il faut qu'on s'frotte Qu'on prenne possession du terrain là dans le maquis Qu'on parachute ces rimes, nos productions vêtues de kaki Coude à coude on devient plus fort, le clan uni forme Un clan invincible, soldats du Hip Hop en uniformes Quiconque touche à l'un de nous sera puni, forme Un plan, balaie les Bravo, Romeo, Oscar, Uniforme Matricule double zéro Def Bond, 28 ans l'expérience Requise pour la mission étant un cv flambant Mercenaire ou Ninja, espion sur commande Pour sauver Tonton j'arrive de Thaïlande Lieutenant Sentenza, Jo Popo, et moi 3 pour l'élite, le must des services secrets lyric On a bloqué un mec de chez nous, invisible on vient chez vous Récupérer les maquettes p'têt qu'après on casse tout Hey mec, on dirait que ça te gène de marcher sur un Brou ? Non ne croyez pas que ça me gène de venir avec vous Ne leur lâche pas un bootleg Pedro, pas un morceau Ces animaux, ça bave des mots mais sortis de quel dico ? Ça y met de vieux roulements, des faux blancs, ils me cassent les couilles Des impros apprises par cur, des nuds dans les fils comme une soupe de nouilles Action en combi, Sad Hill Ne se pose pas qui veut sur les instrumentaux de ma ville Tiens bon Tonton, fais semblant de sampler pour ces ânes Promis tu resteras ici moins longtemps que Juliette Papa Kauffman Un pour ta figure, deux pour tes fesses Si tu veux sortir un bon son laisse Les productions sur nos disquettes, les mix sur nos DAT Les micros d'argent à l'école des grands, allo ici Delta Echo Foxtrot Bond pour le Box Office CO ne meurt jamais, Bons Baisers du Kif Kif Ici l'élite des pilotes de Kilo India Foxtrot Au carré, y'a pas de secret il faut qu'on s'frotte Qu'on prenne possession du terrain là dans le maquis Qu'on parachute ces rimes, nos productions vêtues de kaki Coude à coude on devient plus fort, le clan uni forme Un clan invincible, soldats du Hip Hop en uniformes Quiconque touche à l'un de nous sera puni, forme Un plan, balaie les Bravo, Romeo, Oscar, Uniforme Je suis comme Sport Billy, sors du p'tit sac un blouson Killy Un kil' de Buddha et des boots, des bootlegs de NYC Un bout d'mes lyrics, avec quoi je boute les nazes Les caves avec des textes style merde à celui qui lit Jacte en alphabet Morse, balance un telex à la bonnasse J'ai besoin de Moula pour m'équiper, flouer ces connasses Ça te parait bon Def ? Quoi ? C'est bien le plan que tu potasses Que Dieu fasse qu'ils goûtent aux Kicks Et au dessous de nos godasses On peut y aller, parait qu'y a des patrouilles dans leur chalet Installés dans les buttes, on crache rafales et tirs salés Les brous partent en courant, parfait je les vois qui s'taillent Sauf leur chef qui rétorque avec un sale freestyle Plein de Wesh Wesh Yor de J'te le dis Yor De panoplies hardcore, de métaphores bonnes pour les juniors Allez vire, casse toi de là, je suis de l'ordre du Temple Scolaire Je pouvais pas laisser ces mecs rapper en chemise polaire Libère Tonton, armé d'Alpha à Zulu Je prends plaisir sur ce coup à trainer les Brous dans la boue Rappelle toi du Lieutenant la Sentence, je sais pas à quand Mais bons baisers du commandant de lÉcole du Mégot d'Afghan Ici y'a pas de héros, d'Ajax, de Bayard, de Custer Juste 3 soupçonnés zéros, bien équipés de lyrics clusters A tout concurrent de s'exprimer poliment Y'a pas de conquérants que des cohérents Stoppe les boniments Ici l'élite des pilotes de Kilo India Foxtrot Au carré, y'a pas de secret il faut qu'on s'frotte Qu'on prenne possession du terrain là dans le maquis Qu'on parachute ces rimes, nos productions vêtues de kaki Coude à coude on devient plus fort, le clan uni forme Un clan invincible, soldats du Hip Hop en uniformes Quiconque touche à l'un de nous sera puni, forme Un plan, balaie les Bravo, Romeo, Oscar, Uniforme Mission Accomplie Les têtes sont sèches et la récolte est bonne Vous pouvez rentrer, terminé O.K message reçu Kilo India Foxtrot au carré rentre à la base</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>VIP Sexion VIP Sexion VI VI VI VI VIP Sexion Ouais Qui qu'tu sois, où qu'tu sois, j'te l'dis Tout pour le représente ton club Ce soir c'est grande classe elle est pas belle la vie Ce soir c'est en place on est pas bien là ? Bouge ton corps sur la piste et quand tu auras soif chérie c'est offert hein VIP Ce soir c'est grande classe elle est pas belle la vie Ce soir c'est en place on est pas bien là ? Bouge ton corps sur la piste et si tu t'ennuies viens ici hein VIP Ce soir pour toi cousine je s'rai sapé comme jamais Caisse clean check ma routine ouais J'vais t'payer une soirée d'star du beau monde c'que tu veux à boire Fais moi honneur tiens moi l'bras tu manques de rien si tu m'as J'étalerais mes francs dans c'club j'en sors pas un ou on ira dans l'autre Tout l'monde me sert la main J'veux qu'tu sois conquise exquise Qu'est ce qu'y a mes relations t'font hésiter ? On a causé mariage ? Non alors j'fréquente qui j'veux Depuis quand pour être en place faut être blond aux yeux bleus Mes potes sont là tous les week-end Ils flambent tous les week-end Tu veux plus v'nir les filles comme toi ça tombe tous les week-end Lustrer la BM j'dois Couper c'gang j'dois Mettre des coups d'pression le samedi soir J'fais c'que j'ai à faire avant d'passer j't'appelle On fait comme ça j'compte sur toi chut et sois belle You might also like Ce soir c'est grande classe elle est pas belle la vie Ce soir c'est en place on est pas bien là ? Bouge ton corps sur la piste et quand tu auras soif chérie c'est offert hein VIP Ce soir c'est grande classe elle est pas belle la vie Ce soir c'est en place on est pas bien là ? Bouge ton corps sur la piste et si tu t'ennuies viens ici hein VIP Oh cousin bien ? Ouais bien Paaah en place hein combien vous êtes ? J'sais pas une dizainre Pouaaah trop en place Ça rate pas ce soir c'est fiesta caliente On est assis, bouteilles, pas un franc, niente C'est chaud et même si l'DJ mixe techno on s'en fout C'qu'on fait c'est pas hip-hop mais danse partout Il sort des femmes, c'est l'pot au feu j'pète le feu On m'dit Champagne ou Whiskey ? j'dis Ouais met les deux Ouvre grands les yeux chérie crois-y comme dans les magazines Force toi à t'amuser plus fais flipper tes copines Pendant qu'j'descend mes verres mes potes montent sur les tables La moitié d'entre eux n'calculent plus rien quand ils s'mettent minables Pardonne les approche toi d'moi j'te sens vivre Tu veux danser ? Ok commence à tourner j'arrive C'est pas pour moi c'truc là c'est pour les jeunes ça J'suis bien là Mon verre en place Viens tchatcher dans l'carré si tu fais pas semblant Tout l'monde crie chaud bouillant Ce soir c'est grande classe elle est pas belle la vie Ce soir c'est en place on est pas bien là ? Bouge ton corps sur la piste et quand tu auras soif chérie c'est offert hein VIP Ce soir c'est grande classe elle est pas belle la vie Ce soir c'est en place on est pas bien là ? Bouge ton corps sur la piste et si tu t'ennuies viens ici hein VIP Ce soir c'est grande classe elle est pas belle la vie Ce soir c'est en place on est pas bien là ? Bouge ton corps sur la piste et quand tu auras soif chérie c'est offert hein VIP Ce soir c'est grande classe elle est pas belle la vie Ce soir c'est en place on est pas bien là ? Bouge ton corps sur la piste et si tu t'ennuies viens ici hein VIP1</t>
+          <t>VIP Sexion VIP Sexion VI VI VI VI VIP Sexion Ouais Qui qu'tu sois, où qu'tu sois, j'te l'dis Tout pour le représente ton club Ce soir c'est grande classe elle est pas belle la vie Ce soir c'est en place on est pas bien là ? Bouge ton corps sur la piste et quand tu auras soif chérie c'est offert hein VIP Ce soir c'est grande classe elle est pas belle la vie Ce soir c'est en place on est pas bien là ? Bouge ton corps sur la piste et si tu t'ennuies viens ici hein VIP Ce soir pour toi cousine je s'rai sapé comme jamais Caisse clean check ma routine ouais J'vais t'payer une soirée d'star du beau monde c'que tu veux à boire Fais moi honneur tiens moi l'bras tu manques de rien si tu m'as J'étalerais mes francs dans c'club j'en sors pas un ou on ira dans l'autre Tout l'monde me sert la main J'veux qu'tu sois conquise exquise Qu'est ce qu'y a mes relations t'font hésiter ? On a causé mariage ? Non alors j'fréquente qui j'veux Depuis quand pour être en place faut être blond aux yeux bleus Mes potes sont là tous les week-end Ils flambent tous les week-end Tu veux plus v'nir les filles comme toi ça tombe tous les week-end Lustrer la BM j'dois Couper c'gang j'dois Mettre des coups d'pression le samedi soir J'fais c'que j'ai à faire avant d'passer j't'appelle On fait comme ça j'compte sur toi chut et sois belle Ce soir c'est grande classe elle est pas belle la vie Ce soir c'est en place on est pas bien là ? Bouge ton corps sur la piste et quand tu auras soif chérie c'est offert hein VIP Ce soir c'est grande classe elle est pas belle la vie Ce soir c'est en place on est pas bien là ? Bouge ton corps sur la piste et si tu t'ennuies viens ici hein VIP Oh cousin bien ? Ouais bien Paaah en place hein combien vous êtes ? J'sais pas une dizainre Pouaaah trop en place Ça rate pas ce soir c'est fiesta caliente On est assis, bouteilles, pas un franc, niente C'est chaud et même si l'DJ mixe techno on s'en fout C'qu'on fait c'est pas hip-hop mais danse partout Il sort des femmes, c'est l'pot au feu j'pète le feu On m'dit Champagne ou Whiskey ? j'dis Ouais met les deux Ouvre grands les yeux chérie crois-y comme dans les magazines Force toi à t'amuser plus fais flipper tes copines Pendant qu'j'descend mes verres mes potes montent sur les tables La moitié d'entre eux n'calculent plus rien quand ils s'mettent minables Pardonne les approche toi d'moi j'te sens vivre Tu veux danser ? Ok commence à tourner j'arrive C'est pas pour moi c'truc là c'est pour les jeunes ça J'suis bien là Mon verre en place Viens tchatcher dans l'carré si tu fais pas semblant Tout l'monde crie chaud bouillant Ce soir c'est grande classe elle est pas belle la vie Ce soir c'est en place on est pas bien là ? Bouge ton corps sur la piste et quand tu auras soif chérie c'est offert hein VIP Ce soir c'est grande classe elle est pas belle la vie Ce soir c'est en place on est pas bien là ? Bouge ton corps sur la piste et si tu t'ennuies viens ici hein VIP Ce soir c'est grande classe elle est pas belle la vie Ce soir c'est en place on est pas bien là ? Bouge ton corps sur la piste et quand tu auras soif chérie c'est offert hein VIP Ce soir c'est grande classe elle est pas belle la vie Ce soir c'est en place on est pas bien là ? Bouge ton corps sur la piste et si tu t'ennuies viens ici hein VIP1</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>x2 Baby, lady Sexy diam's fait moi vibrer, sillone mon body Je suis ton bonus track J'ai toujours un bonus pour secouer les homee's Le track de plus qui lance la partie Yo sexy diam's reste là Excuse moi mais reste là Viens sur le son où je suis, l'ambiance est physique Hold school New school classic Epouse donc la piste en stéréo Epouse moi dans le flow, il te faut D.E.F dans la Hip-hop zone et RB feat pour que je cautione A quelle place dans le set tu me vois Suis-je au top pour mes Spinderella, vas-y Donne moi une heure plus 4 ou 5 In da club comme 50 Cent, diamant Représente moi, laisse vibrer Track moi lady, viens me jouer Dis moi ce qu'on fout là si pour toi je ne suis qu'un titre caché Un inédit de plus fait à l'arraché Moi je veux que tu flashe dès que je lève la pause Pas de retenue girl oh non ose ! Je suis donc ta dernière chance, ton dernier disque Ta dernière danse si tu me dis que tu risque De te laisser prendre au jeu Je vais te laisser prendre feu On a l'édit qu'il te faut avec Prélude Je veux te faire quitter ton air prude et tu me dis shut...... Pas maintenant ne dis rien En place cousine et cette nuit fais ça bien Laisse bien la lumière autour de toi M'éclairer, me dire si tu veux ou pas Est-ce qu'elle brille ? Ouais Pour toi ? Je ne sais pas Laisse moi m'occuper de ça You might also likeSi je suis au top sur ta playlist Vas-y viens à moi sciemment Laisse toi glisser sur la piste Viens flirte avec moi diamant</t>
+          <t>x2 Baby, lady Sexy diam's fait moi vibrer, sillone mon body Je suis ton bonus track J'ai toujours un bonus pour secouer les homee's Le track de plus qui lance la partie Yo sexy diam's reste là Excuse moi mais reste là Viens sur le son où je suis, l'ambiance est physique Hold school New school classic Epouse donc la piste en stéréo Epouse moi dans le flow, il te faut D.E.F dans la Hip-hop zone et RB feat pour que je cautione A quelle place dans le set tu me vois Suis-je au top pour mes Spinderella, vas-y Donne moi une heure plus 4 ou 5 In da club comme 50 Cent, diamant Représente moi, laisse vibrer Track moi lady, viens me jouer Dis moi ce qu'on fout là si pour toi je ne suis qu'un titre caché Un inédit de plus fait à l'arraché Moi je veux que tu flashe dès que je lève la pause Pas de retenue girl oh non ose ! Je suis donc ta dernière chance, ton dernier disque Ta dernière danse si tu me dis que tu risque De te laisser prendre au jeu Je vais te laisser prendre feu On a l'édit qu'il te faut avec Prélude Je veux te faire quitter ton air prude et tu me dis shut...... Pas maintenant ne dis rien En place cousine et cette nuit fais ça bien Laisse bien la lumière autour de toi M'éclairer, me dire si tu veux ou pas Est-ce qu'elle brille ? Ouais Pour toi ? Je ne sais pas Laisse moi m'occuper de ça Si je suis au top sur ta playlist Vas-y viens à moi sciemment Laisse toi glisser sur la piste Viens flirte avec moi diamant</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Tu penses avoir une chance avec ce nouveau concept Tu rêves comme toutes de strass et de paillettes Tu quitterais ton homme pour vivre ça une fois L'école ou un job pour voir ça Tu regardes les clips avec les yeux grand ouverts Tu veux du soleil mais ton ciel est couvert Au milieu de ce vent tu trouves le métier facile Et dans cet océan tu cherche encore cette île Mais tu ignore tout des règles du jeu, sweet lady Tout est fragile et plus Real que TV Avant de plonger dans le plus beau métier du monde Écoute-moi et retiens ton souffle une seconde Si je n'ai rien à t'apprendre, j'ai des choses à te dire Sur le doute, le bonheur, le meilleur et le pire Pendant le voyage travaille et protège-toi Rêve mais ne dors pas Change de cap, éloigne-toi Toutes voiles dehors, filles ou gars Quelles sont tes motivations ? Je me demande Es-tu prête à tout pour Single Island Écoute, rêve jeunesse mais ne dors pas Laisse cette vision pour d'autres que toi Il y a plein de solutions mais il n' y a pas de Single Island You might also like Ne mise pas tout sur les radios pour jouer ton titre N'attends pas qu'un D.A te dise Yo t'es mon type ! Ne compte pas sur les puristes pour être objectifs Ne compte pas quand tu aimes, compte sur toi et ton kif Fait le bon choix au bon endroit, au bon moment et peut-être Que la chance et le public te lèveront de la tête Single Island Souhaite un truc carré, une famille et ce job pour lequel tu es né Si tu veux flotter sur les règles du jeu, Big Poppa Laisse-moi te dire qu'on est deux et viens par là On se fera plaisir tant que l'on ne maîtrise pas la donne Tant que le discours est propre et que la musique est bonne Si je n'ai rien à t'apprendre, j'ai des choses à te dire Sur le doute, le bonheur, le meilleur et le pire Pendant le voyage travaille et protège-toi Rêve mais ne dors pas Change de cap, éloigne-toi Toutes voiles dehors, filles ou gars Quelles sont tes motivations ? Je me demande Es-tu prête à tout pour Single Island Écoute, rêve jeunesse mais ne dors pas Laisse cette vision pour d'autres que toi Il y a plein de solutions mais il n' y a pas de Single Island</t>
+          <t>Tu penses avoir une chance avec ce nouveau concept Tu rêves comme toutes de strass et de paillettes Tu quitterais ton homme pour vivre ça une fois L'école ou un job pour voir ça Tu regardes les clips avec les yeux grand ouverts Tu veux du soleil mais ton ciel est couvert Au milieu de ce vent tu trouves le métier facile Et dans cet océan tu cherche encore cette île Mais tu ignore tout des règles du jeu, sweet lady Tout est fragile et plus Real que TV Avant de plonger dans le plus beau métier du monde Écoute-moi et retiens ton souffle une seconde Si je n'ai rien à t'apprendre, j'ai des choses à te dire Sur le doute, le bonheur, le meilleur et le pire Pendant le voyage travaille et protège-toi Rêve mais ne dors pas Change de cap, éloigne-toi Toutes voiles dehors, filles ou gars Quelles sont tes motivations ? Je me demande Es-tu prête à tout pour Single Island Écoute, rêve jeunesse mais ne dors pas Laisse cette vision pour d'autres que toi Il y a plein de solutions mais il n' y a pas de Single Island Ne mise pas tout sur les radios pour jouer ton titre N'attends pas qu'un D.A te dise Yo t'es mon type ! Ne compte pas sur les puristes pour être objectifs Ne compte pas quand tu aimes, compte sur toi et ton kif Fait le bon choix au bon endroit, au bon moment et peut-être Que la chance et le public te lèveront de la tête Single Island Souhaite un truc carré, une famille et ce job pour lequel tu es né Si tu veux flotter sur les règles du jeu, Big Poppa Laisse-moi te dire qu'on est deux et viens par là On se fera plaisir tant que l'on ne maîtrise pas la donne Tant que le discours est propre et que la musique est bonne Si je n'ai rien à t'apprendre, j'ai des choses à te dire Sur le doute, le bonheur, le meilleur et le pire Pendant le voyage travaille et protège-toi Rêve mais ne dors pas Change de cap, éloigne-toi Toutes voiles dehors, filles ou gars Quelles sont tes motivations ? Je me demande Es-tu prête à tout pour Single Island Écoute, rêve jeunesse mais ne dors pas Laisse cette vision pour d'autres que toi Il y a plein de solutions mais il n' y a pas de Single Island</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>On se croise et rien de plus depuis des années Doucement ces mirages passent et mon désert en est vidé Il n'y a plus de place pour se confesser dans ce block, sérieux Ils n'ont plus de face pour un secret, je garderais le mien vieux Jai su comme tout le monde quand ton ex te battait Je faisais partie du groupe, tu sais, quand on l'a fait Et je frappais plus que les autres sans que cela se voit Je souffrais plus que les autres sans que tu le vois Est ce que l'histoire peu être simple entre nous si je connais ton frère Si je connais tout de toi et de ce qui peinerait ton père Je ne vais pas foutre le bordel un peu plus Je ne veux pas que l'on se cache ou que l'on évite de prendre le même bus Arrete toi dans ma vie un jour et restes-y Viens dans mon rêve, illusion de mes nuits Comment ne pas souffrir si tu souffres de ce dilèmme Comment te dire que ton histoire est la miènne... Si on se parlait Refrain x2 Si on se parlait, lady Je pourrais enfin te faire l'aveux Tout l'amour que j'ai pour toi Sous le regard de dieu Plus de trois semaines sans te voir, on dit que tu te sens seule Ils disent t'avoir s'ils veulent, ils ont tous des grandes gueules Il n'y a que toi en qui j'ai confiance ton frère me dit Lorsqu'à me parler de toi il commence, je voudrais être loin d'ici Mais on est amis et je l'écoute tenant le poignard dans le dos En espèrant qu'un jour il capte que c'est moi qu'il te faut Je sais qu'on te parle souvent de mariage au bled à la maison Je sais aussi que tes parents sont bons et qu'ils ont leurs raisons Mais moi je ne peux pas vivre sans toi, je ne suis rien Je suis comme un croyant sans foi et mes dieux me laissent Marcher nulle part comme un looser dans le quartier Faire semblant de rire devant leur vannes, ils me font pitié Je veux qu'on se tire loin d'ici mais tu n'en sais rien Et si le doute se lisait dans tes yeux quand diraient les miens ? Comment tout te dire si tu n'y crois plus Comment le savoir san t'avoir connu...si on se parlait You might also likeRefrain x2 Comment savoir ce qu tu pense sans t'avoir connu Franchement je ne vois pas d'issue Et le dilèmme de ma vie... C'est que je t'aime et je ne te l'ai jamais dit Refrain</t>
+          <t>On se croise et rien de plus depuis des années Doucement ces mirages passent et mon désert en est vidé Il n'y a plus de place pour se confesser dans ce block, sérieux Ils n'ont plus de face pour un secret, je garderais le mien vieux Jai su comme tout le monde quand ton ex te battait Je faisais partie du groupe, tu sais, quand on l'a fait Et je frappais plus que les autres sans que cela se voit Je souffrais plus que les autres sans que tu le vois Est ce que l'histoire peu être simple entre nous si je connais ton frère Si je connais tout de toi et de ce qui peinerait ton père Je ne vais pas foutre le bordel un peu plus Je ne veux pas que l'on se cache ou que l'on évite de prendre le même bus Arrete toi dans ma vie un jour et restes-y Viens dans mon rêve, illusion de mes nuits Comment ne pas souffrir si tu souffres de ce dilèmme Comment te dire que ton histoire est la miènne... Si on se parlait Refrain x2 Si on se parlait, lady Je pourrais enfin te faire l'aveux Tout l'amour que j'ai pour toi Sous le regard de dieu Plus de trois semaines sans te voir, on dit que tu te sens seule Ils disent t'avoir s'ils veulent, ils ont tous des grandes gueules Il n'y a que toi en qui j'ai confiance ton frère me dit Lorsqu'à me parler de toi il commence, je voudrais être loin d'ici Mais on est amis et je l'écoute tenant le poignard dans le dos En espèrant qu'un jour il capte que c'est moi qu'il te faut Je sais qu'on te parle souvent de mariage au bled à la maison Je sais aussi que tes parents sont bons et qu'ils ont leurs raisons Mais moi je ne peux pas vivre sans toi, je ne suis rien Je suis comme un croyant sans foi et mes dieux me laissent Marcher nulle part comme un looser dans le quartier Faire semblant de rire devant leur vannes, ils me font pitié Je veux qu'on se tire loin d'ici mais tu n'en sais rien Et si le doute se lisait dans tes yeux quand diraient les miens ? Comment tout te dire si tu n'y crois plus Comment le savoir san t'avoir connu...si on se parlait Refrain x2 Comment savoir ce qu tu pense sans t'avoir connu Franchement je ne vois pas d'issue Et le dilèmme de ma vie... C'est que je t'aime et je ne te l'ai jamais dit Refrain</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Enfant, vouloir, on sait pas trop ce que c'est, on sait pas trop ce qu'on veut On veut tout, tout de suite, on est bête sans le vouloir, peut-être Que j'aurais dû moins rêver, moi ce que je voulais C'est quma vie continue comme elle semblait vouloir commencer Pas dluxe, pas dmisère, des parents ensembles En gros, une famille modèle, de quoi être heureux il me semble Quand jeune jvoyais autour de moi, mes potes là Au milieu des divorces et des problèmes de thune quand y en a pas Je mdisais fonce, partage ta joie avec eux Ne leur parle pas dtout ça, ils comprendrons ce qu'ils sont a tes yeux Et de ces yeux, un jour tu vois que tout s'effondre, que tout tombe Que ça tombe mal, parce que tu crois que c'est pas le moment Tu voulais pas dça maintenant, qu'est-ce que ta volonté viens foutre là-dedans Seul, c'est maintenant que tu es grand Si quelque part dans le temps, tu tombes de haut, tombe sur un lit Je voudrais que tu continues à rêver, je t'en prie Je voulais profiter de ma famille plus longtemps En fonder une, pour ça il est peut-être encore temps Je rêvais de vivre de ma musique ça, ça sprécise Entre hier et demain, je n'ai qu'à vivre, tu piges? Je voudrais pouvoir rester assis quoi qu'il arrive Dire que j'accepterais tout ce qu'il m'arrive Tant pis pour ce que je n'ai pas eu, ou ce que je n'aurais pas Je me contente de ce que j'ai et ça me va You might also like Tant pis pour ce que je n'ai pas, tant mieux pour ce que j'ai C'est à peu près ça que je me résume, rien de compliqué en fait Tant pis pour ceux qui croient que j'ai, tant mieux pour ceux qui ne croient rien Comme dit Jo je préfère de loin y aller avec les miens Les mains propres c'est tout ce qui compte, et même si je me trompe Sur un, deux, cinq ou dix ans, faut bien qu'on se trompe non ? Qu'on se trempe dans le vécu pour faire des erreurs Éviter de les refaire, ou les refaire deux fois par erreur C'est quoi le bonheur ? Avoir de la thune ou faire semblant ? Changer de femme chaque week-end, être sérieux ou faire semblant ? Il me semble, en avoir vécu quelques belles phrases M'être trouvé quelque fois bien naze Si on se croit bien eu par une ex, qu'on supporte pas de perdre en amour Qu'on se venge, tu peux être sûr que pour toujours ta fierté Sera la meilleure amie que tas jamais eue Celle qui te donnera jamais l'enfant que tu as voulu Tu la quitteras comme on t'a quitté, ou comme t'as quitté les autres Mais derrière celle-là y'a rien d'autre Si quelque part dans le temps, tu tombes de haut, tombe dans un nid Je voudrais que tu continues à rêver, jt'en prie ! Je voulais profiter de ma famille plus longtemps En fonder une, pour ça il est peut-être encore temps Je rêvais de vivre de ma musique ça, ça sprécise Entre hier et demain, je n'ai qu'a vivre, tu piges? Je voudrais pouvoir rester assis quoi qu'il arrive Dire que j'accepterais tout ce qu'il m'arrive Tant pis pour ce que je n'ai pas eu, ou ce que je n'aurais pas Je me contente de ce que j'ai et ça me va</t>
+          <t>Enfant, vouloir, on sait pas trop ce que c'est, on sait pas trop ce qu'on veut On veut tout, tout de suite, on est bête sans le vouloir, peut-être Que j'aurais dû moins rêver, moi ce que je voulais C'est quma vie continue comme elle semblait vouloir commencer Pas dluxe, pas dmisère, des parents ensembles En gros, une famille modèle, de quoi être heureux il me semble Quand jeune jvoyais autour de moi, mes potes là Au milieu des divorces et des problèmes de thune quand y en a pas Je mdisais fonce, partage ta joie avec eux Ne leur parle pas dtout ça, ils comprendrons ce qu'ils sont a tes yeux Et de ces yeux, un jour tu vois que tout s'effondre, que tout tombe Que ça tombe mal, parce que tu crois que c'est pas le moment Tu voulais pas dça maintenant, qu'est-ce que ta volonté viens foutre là-dedans Seul, c'est maintenant que tu es grand Si quelque part dans le temps, tu tombes de haut, tombe sur un lit Je voudrais que tu continues à rêver, je t'en prie Je voulais profiter de ma famille plus longtemps En fonder une, pour ça il est peut-être encore temps Je rêvais de vivre de ma musique ça, ça sprécise Entre hier et demain, je n'ai qu'à vivre, tu piges? Je voudrais pouvoir rester assis quoi qu'il arrive Dire que j'accepterais tout ce qu'il m'arrive Tant pis pour ce que je n'ai pas eu, ou ce que je n'aurais pas Je me contente de ce que j'ai et ça me va Tant pis pour ce que je n'ai pas, tant mieux pour ce que j'ai C'est à peu près ça que je me résume, rien de compliqué en fait Tant pis pour ceux qui croient que j'ai, tant mieux pour ceux qui ne croient rien Comme dit Jo je préfère de loin y aller avec les miens Les mains propres c'est tout ce qui compte, et même si je me trompe Sur un, deux, cinq ou dix ans, faut bien qu'on se trompe non ? Qu'on se trempe dans le vécu pour faire des erreurs Éviter de les refaire, ou les refaire deux fois par erreur C'est quoi le bonheur ? Avoir de la thune ou faire semblant ? Changer de femme chaque week-end, être sérieux ou faire semblant ? Il me semble, en avoir vécu quelques belles phrases M'être trouvé quelque fois bien naze Si on se croit bien eu par une ex, qu'on supporte pas de perdre en amour Qu'on se venge, tu peux être sûr que pour toujours ta fierté Sera la meilleure amie que tas jamais eue Celle qui te donnera jamais l'enfant que tu as voulu Tu la quitteras comme on t'a quitté, ou comme t'as quitté les autres Mais derrière celle-là y'a rien d'autre Si quelque part dans le temps, tu tombes de haut, tombe dans un nid Je voudrais que tu continues à rêver, jt'en prie ! Je voulais profiter de ma famille plus longtemps En fonder une, pour ça il est peut-être encore temps Je rêvais de vivre de ma musique ça, ça sprécise Entre hier et demain, je n'ai qu'a vivre, tu piges? Je voudrais pouvoir rester assis quoi qu'il arrive Dire que j'accepterais tout ce qu'il m'arrive Tant pis pour ce que je n'ai pas eu, ou ce que je n'aurais pas Je me contente de ce que j'ai et ça me va</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Yeah, nique sa mère, personne me donne à manger J'ai quelque putes à qui je donne à manger Banlieue Sale, Sartrouville, Trappes, Elancourt, Les Mureaux Pose le blé sur la table, les entretiens s'font sous l'bureau J'ai le hardcore le plus commercial J'ai tellement d'putes dans le V12 que j'me fait doubler par des Peugeot, sale Demande à E-Rise ou Doc Ness J'prends pas l'avion pourtant j'baise tous les jours de belles hôtesses Y a d'l'unité, de l'unité La main sur le volant je traîne sûrement ta pétasse que je què-n Et je sais que t'essaies De voir quelle heure il est sur ma Audemars Piguet Rien qu'un One Shot, cause I love you Toi et moi c'est pas difficile On le f'ra en One shot, c'est juste entre nous Baby juste un pas vers moi, laisse ma voix t'emporter Demande-leur qui on est, ils savent comment on fait What's up Fouiny Baby ? Demande-leur qui on est, ils savent comment on fait What's up Fouiny Baby ? Yeah, il t'reste un peu d'sperme sur le cil Trop d'chattes balafrées, ma bite a la tête à Seal Haha, un bon bloc et j'reviens de Hollande J'rêve que j'me fait sucer par Sonia Rolland Yeah, j'réchauffe le rap, pose dans un micro-onde Et dans mes cauchemars, j'ai l'flow à Def Bond Tester mes ni-ni-niggas c'est pour les vrais khos Rentre pas dans nos soirées avec ta gueule à 20 euros Yeah, lèche-moi les doigts que j'puisse compter mes billets sales Et me d'mande d'te baiser, bitch, t'as pas vu l'heure qu'il est Yeah, lèche moi la bite ici c'est Banlieue Sale Et me d'mande pas le nom d'un pote, t'auras qu'une vieille capote usagée, yeah You might also like Rien qu'un One Shot, cause I love you Toi et moi c'est pas difficile On le f'ra en One shot, c'est juste entre nous Baby juste un pas vers moi, laisse ma voix t'emporter Demande-leur qui on est, ils savent comment on fait What's up Fouiny Baby ? Demande-leur qui on est, ils savent comment on fait What's up Fouiny Baby ? Yeah, yeah, c'est Banlieue Sale, le flow est sale et viens pas test Quand ta fille kiffe, mamy déteste et pour le reste, c'est what's up Fouiny Baby Yeah, on sait comment on fait laisse les bouffer des chattes On bouffe du mafé c'est what's up Fouiny Baby Yeah, ils savent comment on fait, ils savent comment on fait Fouiny Baby What's up Fouiny Baby ? Yeah, ils savent comment on fait, on sait comment on fait Rickwel, Rise-E What's up Fouiny Baby ?</t>
+          <t>Yeah, nique sa mère, personne me donne à manger J'ai quelque putes à qui je donne à manger Banlieue Sale, Sartrouville, Trappes, Elancourt, Les Mureaux Pose le blé sur la table, les entretiens s'font sous l'bureau J'ai le hardcore le plus commercial J'ai tellement d'putes dans le V12 que j'me fait doubler par des Peugeot, sale Demande à E-Rise ou Doc Ness J'prends pas l'avion pourtant j'baise tous les jours de belles hôtesses Y a d'l'unité, de l'unité La main sur le volant je traîne sûrement ta pétasse que je què-n Et je sais que t'essaies De voir quelle heure il est sur ma Audemars Piguet Rien qu'un One Shot, cause I love you Toi et moi c'est pas difficile On le f'ra en One shot, c'est juste entre nous Baby juste un pas vers moi, laisse ma voix t'emporter Demande-leur qui on est, ils savent comment on fait What's up Fouiny Baby ? Demande-leur qui on est, ils savent comment on fait What's up Fouiny Baby ? Yeah, il t'reste un peu d'sperme sur le cil Trop d'chattes balafrées, ma bite a la tête à Seal Haha, un bon bloc et j'reviens de Hollande J'rêve que j'me fait sucer par Sonia Rolland Yeah, j'réchauffe le rap, pose dans un micro-onde Et dans mes cauchemars, j'ai l'flow à Def Bond Tester mes ni-ni-niggas c'est pour les vrais khos Rentre pas dans nos soirées avec ta gueule à 20 euros Yeah, lèche-moi les doigts que j'puisse compter mes billets sales Et me d'mande d'te baiser, bitch, t'as pas vu l'heure qu'il est Yeah, lèche moi la bite ici c'est Banlieue Sale Et me d'mande pas le nom d'un pote, t'auras qu'une vieille capote usagée, yeah Rien qu'un One Shot, cause I love you Toi et moi c'est pas difficile On le f'ra en One shot, c'est juste entre nous Baby juste un pas vers moi, laisse ma voix t'emporter Demande-leur qui on est, ils savent comment on fait What's up Fouiny Baby ? Demande-leur qui on est, ils savent comment on fait What's up Fouiny Baby ? Yeah, yeah, c'est Banlieue Sale, le flow est sale et viens pas test Quand ta fille kiffe, mamy déteste et pour le reste, c'est what's up Fouiny Baby Yeah, on sait comment on fait laisse les bouffer des chattes On bouffe du mafé c'est what's up Fouiny Baby Yeah, ils savent comment on fait, ils savent comment on fait Fouiny Baby What's up Fouiny Baby ? Yeah, ils savent comment on fait, on sait comment on fait Rickwel, Rise-E What's up Fouiny Baby ?</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>x2 Tous veulent le succès, le luxe, le bizz pousse à l'excès Pas facile c'est ça qu'c'est, on glisse, tu rêves pas, tu peux t'pincer L'eau coulait sous les ponts depuis Quelques Gouttes Ghetto superstar, la gloire regarde c'qu'elle nous coute Les mains s'lèvent toutes, le monde est à nous, on est damnés Nos beats condamnés, 2000 Ärsenik et Def Bond Trop d'rappeurs en CDD, j'bondis Sur bande j'fais des dédicaces aux bandits Je scande mon rap tandis qu'tu demandes comment on fait Tant qu'on digue nos rivières couleur or, ça va sans dire À croire que ma place vaut d'l'or, que pour elle on m'veut mort Tu sais c'qui s'passe dehors, on est du même bord Donc j'vois qu'j'm'en sors hein, rassure-moi, dis-moi qu'ouais Pas plus franc qu'nous dans c'consort, dis-moi qu'tu l'sais Le succès c'est rien d'autre que notre vice à éviter Mais s'ils t'invitent, fais comme les autres, viens profiter J'suis pas l'dernier des cons pour laisser passer ça Et j'suis pas l'premier des fions pour m'arroser trop d'ça x2 Tous veulent le succès, le luxe, le bizz pousse à l'excès Pas facile c'est ça qu'c'est, on glisse, tu rêves pas, tu peux t'pincer You might also like La piaille autour de moi taille sec et j'ouvre mon cahier Tes mots m'écaillent avec moi mais certains jurent de tout grailler Le jeu a changé et au final on veut tout manger Droit à plus de sourires donc plus de danger Quand j'ai rangé mes bras et ris pour des vers l'enjeu A prit de l'ampleur, certains rotent d'un moment haït Ça caille sec dans mon dos l'été Péter au box office, amasser avant d'tout arrêter On prend des risques, sur disques on dit c'qu'on pense De là à s'fixer sur du fictif, nous on vit c'qu'on lance Oublie l'champ' et les femmes, les belles caisses notre came C'est quand les cam' sur off sur un beat, des MC dans l'âme Comme Lino, Calbo, en 2000 j'me cale au son Qui faut c'qui font, on ramasse au K.O Si l'bizz est un dard, j'ai toute la vie pour qu'il m'pique On essaye juste de rester Def Bond et Ärsenik x2 Tous veulent le succès, le luxe, le bizz pousse à l'excès Pas facile c'est ça qu'c'est, on glisse, tu rêves pas, tu peux t'pincer Mais qu'est-ce que tu veux qu'j'dise à ma môme quand elle sera grande ? Désolé, papa était underground Merde à la sère-mi, à ceux qui voudraient m'voir y rester Dans c'bizz, roule à 200 fonce-dé sans permis Désormais, j'permets plus, j'termine et j'kicke Ça pour faire mal, les poings et le front fermés Cputain dsuccès cest comme cfric au fond dma veste Ça aiguise les larmes des peu dproches qui mreste Jpose ma valise, sur son jvalse, les bandits salivent Tout cqui marrive, jlai mérité, je sais qujtenivre Jte blesse sur lbeat, bang, je sais qules vrais lsavent Ils kiffent le poison à la sauce Blondin sur Sad Hill Pour ta gouverne, jreste le même, lhiver jhiberne Couche dla rime sale à la gueule dceux qui nous bernent Tu lsais, même sur beat disco, on est pas discrets Dis cque tu veux quand tentendras ce son sur ldisque Secteur Ä pour Mars 2000, tu lsais 2 triple 0 x5 Tous veulent le succès, le luxe, le bizz pousse à l'excès Pas facile c'est ça qu'c'est, on glisse, tu rêves pas, tu peux t'pincer</t>
+          <t>x2 Tous veulent le succès, le luxe, le bizz pousse à l'excès Pas facile c'est ça qu'c'est, on glisse, tu rêves pas, tu peux t'pincer L'eau coulait sous les ponts depuis Quelques Gouttes Ghetto superstar, la gloire regarde c'qu'elle nous coute Les mains s'lèvent toutes, le monde est à nous, on est damnés Nos beats condamnés, 2000 Ärsenik et Def Bond Trop d'rappeurs en CDD, j'bondis Sur bande j'fais des dédicaces aux bandits Je scande mon rap tandis qu'tu demandes comment on fait Tant qu'on digue nos rivières couleur or, ça va sans dire À croire que ma place vaut d'l'or, que pour elle on m'veut mort Tu sais c'qui s'passe dehors, on est du même bord Donc j'vois qu'j'm'en sors hein, rassure-moi, dis-moi qu'ouais Pas plus franc qu'nous dans c'consort, dis-moi qu'tu l'sais Le succès c'est rien d'autre que notre vice à éviter Mais s'ils t'invitent, fais comme les autres, viens profiter J'suis pas l'dernier des cons pour laisser passer ça Et j'suis pas l'premier des fions pour m'arroser trop d'ça x2 Tous veulent le succès, le luxe, le bizz pousse à l'excès Pas facile c'est ça qu'c'est, on glisse, tu rêves pas, tu peux t'pincer La piaille autour de moi taille sec et j'ouvre mon cahier Tes mots m'écaillent avec moi mais certains jurent de tout grailler Le jeu a changé et au final on veut tout manger Droit à plus de sourires donc plus de danger Quand j'ai rangé mes bras et ris pour des vers l'enjeu A prit de l'ampleur, certains rotent d'un moment haït Ça caille sec dans mon dos l'été Péter au box office, amasser avant d'tout arrêter On prend des risques, sur disques on dit c'qu'on pense De là à s'fixer sur du fictif, nous on vit c'qu'on lance Oublie l'champ' et les femmes, les belles caisses notre came C'est quand les cam' sur off sur un beat, des MC dans l'âme Comme Lino, Calbo, en 2000 j'me cale au son Qui faut c'qui font, on ramasse au K.O Si l'bizz est un dard, j'ai toute la vie pour qu'il m'pique On essaye juste de rester Def Bond et Ärsenik x2 Tous veulent le succès, le luxe, le bizz pousse à l'excès Pas facile c'est ça qu'c'est, on glisse, tu rêves pas, tu peux t'pincer Mais qu'est-ce que tu veux qu'j'dise à ma môme quand elle sera grande ? Désolé, papa était underground Merde à la sère-mi, à ceux qui voudraient m'voir y rester Dans c'bizz, roule à 200 fonce-dé sans permis Désormais, j'permets plus, j'termine et j'kicke Ça pour faire mal, les poings et le front fermés Cputain dsuccès cest comme cfric au fond dma veste Ça aiguise les larmes des peu dproches qui mreste Jpose ma valise, sur son jvalse, les bandits salivent Tout cqui marrive, jlai mérité, je sais qujtenivre Jte blesse sur lbeat, bang, je sais qules vrais lsavent Ils kiffent le poison à la sauce Blondin sur Sad Hill Pour ta gouverne, jreste le même, lhiver jhiberne Couche dla rime sale à la gueule dceux qui nous bernent Tu lsais, même sur beat disco, on est pas discrets Dis cque tu veux quand tentendras ce son sur ldisque Secteur Ä pour Mars 2000, tu lsais 2 triple 0 x5 Tous veulent le succès, le luxe, le bizz pousse à l'excès Pas facile c'est ça qu'c'est, on glisse, tu rêves pas, tu peux t'pincer</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Un jour de pluie c'est comme un autre jour en plus triste Encore faut-il savoir tout ce qu'on a vécu et ce qu'on appelle triste Cette mélancolie dans les larmes du ciel Ça ne m'épargne pas les séquelles et ça ne lavera jamais Ce qu'elle à pu me faire aimer dans le vide On dit qu'un homme c'est solide, que son cas est rare Elle à côté d'une Carrera c'est un putain de bolide Et sur ma race je n'ai rien vu, ni venir ni faire, pas une trace de jeu Et puis je ne faisais que fonder en tout ce temps Les années communes, celles des albums de famille Où nos photos jaunissent plus vite que celles que j'ai de notre fille Et c'est tout ce qu'il me reste, et c'est dans ça que tu m'enfermes Refaire ta vie et faire en sorte que je puisse rien faire de la mienne Dans ma détresse cette sur de vie est visible Je vois mon futur difficile, mais tu sous-estime mon enfant Quand tu lui mens, n'oublie pas de lui dire que je t'ai fait du mal Et qu'elle grandisse en pensant que si je ne suis pas là c'est normal Je m'accroche au destin, comme j'ai toujours fait dans la vie Mais cette fois j'ai perdu ce qui lui donnait un sens, j'ai envie De dire au revoir à tout ce que j'aimais À tout ce que j'ai perdu un jour de pluie tu sais Ta robe de mariée est bien triste, fausse princesse Ce que j'ai de sa blancheur c'est ce que mes nuits me laissent Alors je dors dans sa chambre, au milieu de ses jouets Je pleure et je prie que son odeur ne disparaisse jamais En pleine nuit la douleur court entre entre les lueurs Sous la pluie avec le sourire elle vient taper à mon cur et me dire N'as-tu rien fais de mal ? Souviens-toi bien N'as-tu jamais jamais laissé trop de temps sans laisser du tien Il y a eu des hauts et des bas, comme dans tous les couples Je les connais les raisons maintenant, qu'elle aille se faire foutre Retrouver ses vingt ans et être paumée dans cinq au plus Être indépendante, libre, conneries de revues, ce virus Lui a tourné les rêves, merde elle n'est pas seule au milieu ! Il n'y a pas un avocat qui me dise autre chose que je ne peux rien faire Que la force qui mempêche de dire adieu à mes jours Soit l'amour pour ma fille et qu'elle le réalise à son tour You might also like Je m'accroche au destin, comme j'ai toujours fait dans la vie Mais cette fois j'ai perdu ce qui lui donnait un sens, j'ai envie De dire au revoir à tout ce que j'aimais À tout ce que j'ai perdu un jour de pluie tu sais J'aimerais t'avoir en face de moi et que tu me dises Que rien de ça ne changera et que cette crise C'est ta dernière vengeance, ton coup de grâce Ce coup n'a pas de sens et c'est la dernière trace que tu me fais La dernière fois que je dis que le monde est parfait Le dernier à le croire, là j'ai vu ce reflet Je vis ce reflet, vide de vice refait Un dilemme qui me noie le cur et j'ai du mal à rester Je m'accroche au destin, comme j'ai toujours fait dans la vie Mais cette fois j'ai perdu ce qui lui donnait un sens, j'ai envie De dire au revoir à tout ce que j'aimais À tout ce que j'ai perdu un jour de pluie tu sais</t>
+          <t>Un jour de pluie c'est comme un autre jour en plus triste Encore faut-il savoir tout ce qu'on a vécu et ce qu'on appelle triste Cette mélancolie dans les larmes du ciel Ça ne m'épargne pas les séquelles et ça ne lavera jamais Ce qu'elle à pu me faire aimer dans le vide On dit qu'un homme c'est solide, que son cas est rare Elle à côté d'une Carrera c'est un putain de bolide Et sur ma race je n'ai rien vu, ni venir ni faire, pas une trace de jeu Et puis je ne faisais que fonder en tout ce temps Les années communes, celles des albums de famille Où nos photos jaunissent plus vite que celles que j'ai de notre fille Et c'est tout ce qu'il me reste, et c'est dans ça que tu m'enfermes Refaire ta vie et faire en sorte que je puisse rien faire de la mienne Dans ma détresse cette sur de vie est visible Je vois mon futur difficile, mais tu sous-estime mon enfant Quand tu lui mens, n'oublie pas de lui dire que je t'ai fait du mal Et qu'elle grandisse en pensant que si je ne suis pas là c'est normal Je m'accroche au destin, comme j'ai toujours fait dans la vie Mais cette fois j'ai perdu ce qui lui donnait un sens, j'ai envie De dire au revoir à tout ce que j'aimais À tout ce que j'ai perdu un jour de pluie tu sais Ta robe de mariée est bien triste, fausse princesse Ce que j'ai de sa blancheur c'est ce que mes nuits me laissent Alors je dors dans sa chambre, au milieu de ses jouets Je pleure et je prie que son odeur ne disparaisse jamais En pleine nuit la douleur court entre entre les lueurs Sous la pluie avec le sourire elle vient taper à mon cur et me dire N'as-tu rien fais de mal ? Souviens-toi bien N'as-tu jamais jamais laissé trop de temps sans laisser du tien Il y a eu des hauts et des bas, comme dans tous les couples Je les connais les raisons maintenant, qu'elle aille se faire foutre Retrouver ses vingt ans et être paumée dans cinq au plus Être indépendante, libre, conneries de revues, ce virus Lui a tourné les rêves, merde elle n'est pas seule au milieu ! Il n'y a pas un avocat qui me dise autre chose que je ne peux rien faire Que la force qui mempêche de dire adieu à mes jours Soit l'amour pour ma fille et qu'elle le réalise à son tour Je m'accroche au destin, comme j'ai toujours fait dans la vie Mais cette fois j'ai perdu ce qui lui donnait un sens, j'ai envie De dire au revoir à tout ce que j'aimais À tout ce que j'ai perdu un jour de pluie tu sais J'aimerais t'avoir en face de moi et que tu me dises Que rien de ça ne changera et que cette crise C'est ta dernière vengeance, ton coup de grâce Ce coup n'a pas de sens et c'est la dernière trace que tu me fais La dernière fois que je dis que le monde est parfait Le dernier à le croire, là j'ai vu ce reflet Je vis ce reflet, vide de vice refait Un dilemme qui me noie le cur et j'ai du mal à rester Je m'accroche au destin, comme j'ai toujours fait dans la vie Mais cette fois j'ai perdu ce qui lui donnait un sens, j'ai envie De dire au revoir à tout ce que j'aimais À tout ce que j'ai perdu un jour de pluie tu sais</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ce soir pour toi cousine, je serai sappé comme jamais Caisse clean, check ma routine, ouais ! y a rien encore là Ça rate pas, ce soir c'est fiesta, Caliente On est assis, bouteille, pas un franc, Niente C'est chaud et même si le DJ mixe techno, on s'en fout Ce qu'on fait c'est pas HIP HOP, mais dans cfour de partout Il sort des femmes, c'est pot-au-feu, je pète le feu Je vous remets champagne ou Whisky ? Ouais vas-y, mets les deux Ouvre grand les yeux chérie, crois-y comme dans les magazines Force toi à t'amuser plus, fais flipper les copines Pendant que jdescends mes verres, mes potes montent sur les tables La moitié d'entre eux ne calculent plus rien quand ils se mettent minables Pardonne-les, rapproche-toi de moi, je te sens vive Tu veux danser ? c'est ça, commence à tourner, j'arrive C'est pas pour moi ce truc-là, c'est pour les jeunes ça Je suis bien là, mon verre en l'air, en place Yepa ! Honey, je veux que tu découvres la romance à venir Le carré magique, je vais t'offrir Oh oui, je veux que tu retrouves l'élan des premiers jours Un nouvel Eden au V.I.P Ce soir pour toi Honey, je voudrais assurer J'aimerais tant te prouver que sur moi tu peux compter Un jour pour éveiller la nuit à tout jamais Tu danseras sur l'air du loving you dont tu rêvais Pardonne-moi Lady d'être extra motivé Car la romance est à venir au carré V.I.P Regarde-moi baby, je suis ta volonté Tu chanteras le son du one for the Lady You might also like Honey, je veux que tu découvres la romance à venir Le carré magique, je vais t'offrir Oh oui, je veux que tu retrouves l'élan des premiers jours Un nouvel Eden au V.I.P Ce soir c'est grande classe, elle est pas belle la vie ? Ce soir c'est en place, on est pas bien là ? Bouge ton corps sur la piste et quand tu auras soif chérie C'est offert, Hmm, V.I.P Ce soir c'est grande classe, elle est pas belle la vie ? Ce soir c'est en place, on est pas bien là ? Bouge ton corps sur la piste et si tu t'ennuies Viens ici ce soir c'est V.I.P Honey, je veux que tu découvres la romance à venir Le carré magique, je vais t'offrir Oh oui, je veux que tu retrouves l'élan des premiers jours Un nouvel Eden au V.I.P</t>
+          <t>Ce soir pour toi cousine, je serai sappé comme jamais Caisse clean, check ma routine, ouais ! y a rien encore là Ça rate pas, ce soir c'est fiesta, Caliente On est assis, bouteille, pas un franc, Niente C'est chaud et même si le DJ mixe techno, on s'en fout Ce qu'on fait c'est pas HIP HOP, mais dans cfour de partout Il sort des femmes, c'est pot-au-feu, je pète le feu Je vous remets champagne ou Whisky ? Ouais vas-y, mets les deux Ouvre grand les yeux chérie, crois-y comme dans les magazines Force toi à t'amuser plus, fais flipper les copines Pendant que jdescends mes verres, mes potes montent sur les tables La moitié d'entre eux ne calculent plus rien quand ils se mettent minables Pardonne-les, rapproche-toi de moi, je te sens vive Tu veux danser ? c'est ça, commence à tourner, j'arrive C'est pas pour moi ce truc-là, c'est pour les jeunes ça Je suis bien là, mon verre en l'air, en place Yepa ! Honey, je veux que tu découvres la romance à venir Le carré magique, je vais t'offrir Oh oui, je veux que tu retrouves l'élan des premiers jours Un nouvel Eden au V.I.P Ce soir pour toi Honey, je voudrais assurer J'aimerais tant te prouver que sur moi tu peux compter Un jour pour éveiller la nuit à tout jamais Tu danseras sur l'air du loving you dont tu rêvais Pardonne-moi Lady d'être extra motivé Car la romance est à venir au carré V.I.P Regarde-moi baby, je suis ta volonté Tu chanteras le son du one for the Lady Honey, je veux que tu découvres la romance à venir Le carré magique, je vais t'offrir Oh oui, je veux que tu retrouves l'élan des premiers jours Un nouvel Eden au V.I.P Ce soir c'est grande classe, elle est pas belle la vie ? Ce soir c'est en place, on est pas bien là ? Bouge ton corps sur la piste et quand tu auras soif chérie C'est offert, Hmm, V.I.P Ce soir c'est grande classe, elle est pas belle la vie ? Ce soir c'est en place, on est pas bien là ? Bouge ton corps sur la piste et si tu t'ennuies Viens ici ce soir c'est V.I.P Honey, je veux que tu découvres la romance à venir Le carré magique, je vais t'offrir Oh oui, je veux que tu retrouves l'élan des premiers jours Un nouvel Eden au V.I.P</t>
         </is>
       </c>
     </row>
